--- a/Datei.xlsx
+++ b/Datei.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://horvathandpartners.sharepoint.com/sites/IFUA-IDEX.TAN.T55170/Freigegebene Dokumente/02_Munka/01_Projektmunka_IFUA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cts\Documents\SEA\sea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="8_{7F45D00B-8FEA-4BB2-AB18-0631079AC979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3743CD9A-1666-4DA2-9139-B8281C06313F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3BA89F-257D-4669-8409-E64B96A2A9BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,9 +449,6 @@
     <t>Versandkosten sonstige</t>
   </si>
   <si>
-    <t>Transport,Fracht,Liefer,Sonderfahrt,Verpackung,Sattelzug,senden,Versand,,Verkehr</t>
-  </si>
-  <si>
     <t>Versandkosten sonstige z.B. Versenden von Kalender</t>
   </si>
   <si>
@@ -500,9 +497,6 @@
     <t>Personalbeschaffungskosten</t>
   </si>
   <si>
-    <t>Werb,Videos,Karriere,Spot,Illustration,Marketing,Xing,LinkedIn,Mitgliedschaft,Headhunter,Recruit,Personalvermittl,,Kauf</t>
-  </si>
-  <si>
     <t>Inserate, Vorstellungskosten</t>
   </si>
   <si>
@@ -909,6 +903,12 @@
   </si>
   <si>
     <t>Stage3_Result</t>
+  </si>
+  <si>
+    <t>Werb,Videos,Karriere,Spot,Illustration,Marketing,Xing,LinkedIn,Mitgliedschaft,Headhunter,Recruit,Personalvermittl,Kauf</t>
+  </si>
+  <si>
+    <t>Transport,Fracht,Liefer,Sonderfahrt,Verpackung,Sattelzug,senden,Versand,Verkehr</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1305,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2389,7 +2385,7 @@
   <dimension ref="A1:IV99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -2420,31 +2416,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.45" customHeight="1">
@@ -2458,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -2478,7 +2474,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -2508,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -2528,7 +2524,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>10</v>
@@ -2558,7 +2554,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4" s="3">
         <v>1.2</v>
@@ -2578,7 +2574,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>10</v>
@@ -2608,7 +2604,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E5" s="3">
         <v>3.4</v>
@@ -2628,7 +2624,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>10</v>
@@ -2658,7 +2654,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -2678,7 +2674,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>25</v>
@@ -2708,7 +2704,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2728,7 +2724,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>25</v>
@@ -2758,7 +2754,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -2778,7 +2774,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>25</v>
@@ -2808,7 +2804,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -2828,7 +2824,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>10</v>
@@ -2858,7 +2854,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -2878,7 +2874,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>38</v>
@@ -2908,7 +2904,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -2928,7 +2924,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>38</v>
@@ -2958,7 +2954,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -2978,7 +2974,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>38</v>
@@ -3008,7 +3004,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -3028,7 +3024,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>38</v>
@@ -3058,7 +3054,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -3078,7 +3074,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>38</v>
@@ -3108,7 +3104,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -3128,7 +3124,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>38</v>
@@ -3158,7 +3154,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -3178,7 +3174,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>38</v>
@@ -3208,7 +3204,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -3228,7 +3224,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>38</v>
@@ -3258,7 +3254,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -3278,7 +3274,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>63</v>
@@ -3308,7 +3304,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -3328,7 +3324,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>63</v>
@@ -3358,7 +3354,7 @@
         <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -3378,7 +3374,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>38</v>
@@ -3408,7 +3404,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -3428,7 +3424,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>38</v>
@@ -3458,7 +3454,7 @@
         <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -3478,7 +3474,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>38</v>
@@ -3508,7 +3504,7 @@
         <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -3528,7 +3524,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>38</v>
@@ -3558,7 +3554,7 @@
         <v>77</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -3578,7 +3574,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>38</v>
@@ -3608,7 +3604,7 @@
         <v>79</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -3628,7 +3624,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>38</v>
@@ -3658,7 +3654,7 @@
         <v>81</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3678,7 +3674,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>38</v>
@@ -3708,7 +3704,7 @@
         <v>84</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -3728,7 +3724,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>38</v>
@@ -3758,7 +3754,7 @@
         <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -3778,7 +3774,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>38</v>
@@ -3808,7 +3804,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -3828,7 +3824,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>92</v>
@@ -3858,7 +3854,7 @@
         <v>94</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -3878,7 +3874,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>92</v>
@@ -3908,7 +3904,7 @@
         <v>97</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -3928,7 +3924,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>92</v>
@@ -3958,7 +3954,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -3978,7 +3974,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>92</v>
@@ -4008,7 +4004,7 @@
         <v>103</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -4028,7 +4024,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>92</v>
@@ -4058,7 +4054,7 @@
         <v>106</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -4078,7 +4074,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>92</v>
@@ -4108,7 +4104,7 @@
         <v>109</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -4128,7 +4124,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>92</v>
@@ -4158,7 +4154,7 @@
         <v>112</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -4178,7 +4174,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>38</v>
@@ -4208,7 +4204,7 @@
         <v>114</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -4228,7 +4224,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>38</v>
@@ -4258,7 +4254,7 @@
         <v>117</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>22</v>
@@ -4278,7 +4274,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>25</v>
@@ -4308,7 +4304,7 @@
         <v>120</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -4328,7 +4324,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>38</v>
@@ -4358,7 +4354,7 @@
         <v>123</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -4378,7 +4374,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>63</v>
@@ -4408,7 +4404,7 @@
         <v>126</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -4428,7 +4424,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>38</v>
@@ -4458,7 +4454,7 @@
         <v>129</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -4478,7 +4474,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>131</v>
@@ -4508,7 +4504,7 @@
         <v>133</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -4528,7 +4524,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>131</v>
@@ -4555,10 +4551,10 @@
         <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -4578,7 +4574,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>131</v>
@@ -4602,13 +4598,13 @@
         <v>691210</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -4628,7 +4624,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>131</v>
@@ -4652,13 +4648,13 @@
         <v>661711</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -4678,7 +4674,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>38</v>
@@ -4702,13 +4698,13 @@
         <v>673300</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -4728,7 +4724,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>38</v>
@@ -4752,13 +4748,13 @@
         <v>673500</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -4778,7 +4774,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>38</v>
@@ -4802,13 +4798,13 @@
         <v>673501</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -4828,10 +4824,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L49" s="21" t="str">
         <f>IF(K49="Geschenk",'Logic ID'!$E$2,
@@ -4852,13 +4848,13 @@
         <v>661000</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -4878,7 +4874,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>38</v>
@@ -4902,13 +4898,13 @@
         <v>661400</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -4928,7 +4924,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>63</v>
@@ -4952,13 +4948,13 @@
         <v>661500</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -4978,7 +4974,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>38</v>
@@ -5002,13 +4998,13 @@
         <v>671600</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
@@ -5028,7 +5024,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>38</v>
@@ -5052,13 +5048,13 @@
         <v>673700</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -5078,7 +5074,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>38</v>
@@ -5102,13 +5098,13 @@
         <v>674100</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -5128,7 +5124,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>38</v>
@@ -5152,13 +5148,13 @@
         <v>674600</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -5178,7 +5174,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>38</v>
@@ -5202,13 +5198,13 @@
         <v>605200</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>22</v>
@@ -5228,7 +5224,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>63</v>
@@ -5252,13 +5248,13 @@
         <v>681200</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -5278,7 +5274,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>63</v>
@@ -5302,13 +5298,13 @@
         <v>603400</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>22</v>
@@ -5328,10 +5324,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L59" s="21" t="str">
         <f>IF(K59="Geschenk",'Logic ID'!$E$2,
@@ -5352,13 +5348,13 @@
         <v>605210</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
@@ -5378,7 +5374,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>25</v>
@@ -5402,13 +5398,13 @@
         <v>673200</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -5428,7 +5424,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>63</v>
@@ -5452,13 +5448,13 @@
         <v>673400</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -5478,7 +5474,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>25</v>
@@ -5502,13 +5498,13 @@
         <v>695300</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
@@ -5528,7 +5524,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>25</v>
@@ -5552,13 +5548,13 @@
         <v>695400</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>22</v>
@@ -5578,7 +5574,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>38</v>
@@ -5602,13 +5598,13 @@
         <v>605100</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>22</v>
@@ -5628,7 +5624,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>38</v>
@@ -5652,13 +5648,13 @@
         <v>674400</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
@@ -5678,7 +5674,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>38</v>
@@ -5702,13 +5698,13 @@
         <v>607700</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E67" s="3">
         <v>0</v>
@@ -5728,7 +5724,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>38</v>
@@ -5752,13 +5748,13 @@
         <v>608030</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E68" s="3">
         <v>0</v>
@@ -5778,7 +5774,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>38</v>
@@ -5802,13 +5798,13 @@
         <v>605400</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E69" s="3">
         <v>0</v>
@@ -5828,7 +5824,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>38</v>
@@ -5852,13 +5848,13 @@
         <v>694900</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -5878,7 +5874,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>38</v>
@@ -5902,13 +5898,13 @@
         <v>695000</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E71" s="3">
         <v>0</v>
@@ -5928,7 +5924,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>25</v>
@@ -5952,13 +5948,13 @@
         <v>695100</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
@@ -5978,7 +5974,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>38</v>
@@ -6002,13 +5998,13 @@
         <v>695200</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E73" s="3">
         <v>0</v>
@@ -6028,7 +6024,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>25</v>
@@ -6052,13 +6048,13 @@
         <v>673600</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E74" s="3">
         <v>0</v>
@@ -6078,7 +6074,7 @@
         <v>Amount, Duration, Usage</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>63</v>
@@ -6102,13 +6098,13 @@
         <v>662400</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E75" s="3">
         <v>0</v>
@@ -6128,7 +6124,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>38</v>
@@ -6152,13 +6148,13 @@
         <v>662500</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -6178,7 +6174,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>38</v>
@@ -6202,13 +6198,13 @@
         <v>672310</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E77" s="3">
         <v>0</v>
@@ -6228,10 +6224,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L77" s="21" t="str">
         <f>IF(K77="Geschenk",'Logic ID'!$E$2,
@@ -6252,13 +6248,13 @@
         <v>672320</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E78" s="3">
         <v>0</v>
@@ -6278,10 +6274,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L78" s="21" t="str">
         <f>IF(K78="Geschenk",'Logic ID'!$E$2,
@@ -6302,13 +6298,13 @@
         <v>672400</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E79" s="3">
         <v>0</v>
@@ -6328,10 +6324,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L79" s="21" t="str">
         <f>IF(K79="Geschenk",'Logic ID'!$E$2,
@@ -6352,13 +6348,13 @@
         <v>672500</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E80" s="3">
         <v>0</v>
@@ -6378,10 +6374,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L80" s="21" t="str">
         <f>IF(K80="Geschenk",'Logic ID'!$E$2,
@@ -6402,13 +6398,13 @@
         <v>672600</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -6428,10 +6424,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L81" s="21" t="str">
         <f>IF(K81="Geschenk",'Logic ID'!$E$2,
@@ -6452,13 +6448,13 @@
         <v>672700</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E82" s="3">
         <v>0</v>
@@ -6478,10 +6474,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L82" s="21" t="str">
         <f>IF(K82="Geschenk",'Logic ID'!$E$2,
@@ -6502,13 +6498,13 @@
         <v>604400</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -6528,10 +6524,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L83" s="21" t="str">
         <f>IF(K83="Geschenk",'Logic ID'!$E$2,
@@ -6552,13 +6548,13 @@
         <v>604300</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E84" s="3">
         <v>0</v>
@@ -6578,10 +6574,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L84" s="21" t="str">
         <f>IF(K84="Geschenk",'Logic ID'!$E$2,
@@ -6602,13 +6598,13 @@
         <v>604310</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E85" s="3">
         <v>0</v>
@@ -6628,10 +6624,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L85" s="21" t="str">
         <f>IF(K85="Geschenk",'Logic ID'!$E$2,
@@ -6652,13 +6648,13 @@
         <v>604000</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E86" s="3">
         <v>0</v>
@@ -6678,10 +6674,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L86" s="21" t="str">
         <f>IF(K86="Geschenk",'Logic ID'!$E$2,
@@ -6702,13 +6698,13 @@
         <v>691300</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E87" s="3">
         <v>0</v>
@@ -6728,10 +6724,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L87" s="21" t="str">
         <f>IF(K87="Geschenk",'Logic ID'!$E$2,
@@ -6752,13 +6748,13 @@
         <v>691310</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E88" s="3">
         <v>0</v>
@@ -6778,10 +6774,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L88" s="21" t="str">
         <f>IF(K88="Geschenk",'Logic ID'!$E$2,
@@ -6802,13 +6798,13 @@
         <v>691350</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -6828,10 +6824,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L89" s="21" t="str">
         <f>IF(K89="Geschenk",'Logic ID'!$E$2,
@@ -6852,13 +6848,13 @@
         <v>661150</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E90" s="3">
         <v>0</v>
@@ -6878,7 +6874,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>38</v>
@@ -6902,13 +6898,13 @@
         <v>999910</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6928,7 +6924,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>38</v>
@@ -7086,10 +7082,10 @@
   <sheetData>
     <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -7351,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -7376,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -7401,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -7426,7 +7422,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -7451,7 +7447,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7622,10 +7618,10 @@
   <sheetData>
     <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -7887,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -7910,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -7933,7 +7929,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -8111,10 +8107,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.45" customHeight="1">
@@ -8458,7 +8454,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.45" customHeight="1">
@@ -8466,7 +8462,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.45" customHeight="1">
@@ -8474,7 +8470,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.45" customHeight="1">
@@ -8482,7 +8478,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.45" customHeight="1">
@@ -8490,7 +8486,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.45" customHeight="1">
@@ -8498,7 +8494,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.45" customHeight="1">
@@ -8506,7 +8502,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.45" customHeight="1">
@@ -8514,7 +8510,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.45" customHeight="1">
@@ -8522,7 +8518,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.45" customHeight="1">
@@ -8530,7 +8526,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.45" customHeight="1">
@@ -8538,7 +8534,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.45" customHeight="1">
@@ -8546,7 +8542,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.45" customHeight="1">
@@ -8554,7 +8550,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.45" customHeight="1">
@@ -8562,7 +8558,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.45" customHeight="1">
@@ -8570,7 +8566,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.45" customHeight="1">
@@ -8578,7 +8574,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.45" customHeight="1">
@@ -8586,7 +8582,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.45" customHeight="1">
@@ -8594,7 +8590,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.45" customHeight="1">
@@ -8602,7 +8598,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.45" customHeight="1">
@@ -8610,7 +8606,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.45" customHeight="1">
@@ -8618,7 +8614,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.45" customHeight="1">
@@ -8626,7 +8622,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.45" customHeight="1">
@@ -8634,7 +8630,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.45" customHeight="1">
@@ -8642,7 +8638,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.45" customHeight="1">
@@ -8650,7 +8646,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.45" customHeight="1">
@@ -8658,7 +8654,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.45" customHeight="1">
@@ -8666,7 +8662,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.45" customHeight="1">
@@ -8674,7 +8670,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.45" customHeight="1">
@@ -8682,7 +8678,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.45" customHeight="1">
@@ -8690,7 +8686,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.45" customHeight="1">
@@ -8698,7 +8694,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.45" customHeight="1">
@@ -8706,7 +8702,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17.45" customHeight="1">
@@ -8714,7 +8710,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17.45" customHeight="1">
@@ -8722,7 +8718,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17.45" customHeight="1">
@@ -8730,7 +8726,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17.45" customHeight="1">
@@ -8738,7 +8734,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17.45" customHeight="1">
@@ -8746,7 +8742,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.45" customHeight="1">
@@ -8754,7 +8750,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.45" customHeight="1">
@@ -8762,7 +8758,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.45" customHeight="1">
@@ -8770,7 +8766,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.45" customHeight="1">
@@ -8778,7 +8774,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17.45" customHeight="1">
@@ -8786,7 +8782,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.45" customHeight="1">
@@ -8794,7 +8790,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17.45" customHeight="1">
@@ -8802,7 +8798,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.45" customHeight="1">
@@ -8810,7 +8806,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.45" customHeight="1">
@@ -8818,7 +8814,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.45" customHeight="1">
@@ -8826,7 +8822,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17.45" customHeight="1">
@@ -8834,7 +8830,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -8858,15 +8854,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -8874,31 +8870,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>92</v>
@@ -8939,16 +8935,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -8987,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -9020,13 +9016,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -9059,13 +9055,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -9092,19 +9088,19 @@
         <v>25</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -9143,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -9176,13 +9172,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -9215,13 +9211,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -9257,10 +9253,10 @@
         <v>92</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -9293,13 +9289,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -9323,7 +9319,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -9332,13 +9328,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -9586,6 +9582,54 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
+        </TermInfo>
+      </Terms>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Value>7</Value>
+      <Value>6</Value>
+      <Value>5</Value>
+      <Value>4</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9594,7 +9638,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101008B0F08FECF9ACD44B69B0979475AA3A3" ma:contentTypeVersion="5" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="15e7cafbdefa31d60e781c5e4062628f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be70f0-66b9-4629-a389-4b080fc0dfa6" xmlns:ns3="cc54d3cb-87fe-4b6a-be2e-e1fd0be84e77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e6785b8b81ecd23d6e742c299b13f" ns2:_="" ns3:_="">
     <xsd:import namespace="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
@@ -9751,55 +9795,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
-        </TermInfo>
-      </Terms>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Value>7</Value>
-      <Value>6</Value>
-      <Value>5</Value>
-      <Value>4</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9807,7 +9813,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BF3E90-0828-4759-ACA7-3670C46D50E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9824,14 +9830,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Datei.xlsx
+++ b/Datei.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://horvathandpartners.sharepoint.com/sites/IFUA-IDEX.TAN.T55170/Freigegebene Dokumente/02_Munka/01_Projektmunka_IFUA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{86743A00-2BEF-4DB1-8E09-172417BF45B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{46812FD0-6F85-4265-BD6F-F60C82E643E2}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{86743A00-2BEF-4DB1-8E09-172417BF45B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{20E40BB5-3356-42C2-BF77-F2780BA2133E}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="289">
   <si>
     <t>Account ID</t>
   </si>
@@ -905,9 +905,6 @@
   </si>
   <si>
     <t>Amount, Usage, Duration</t>
-  </si>
-  <si>
-    <t>Usage, Duration, Null</t>
   </si>
 </sst>
 </file>
@@ -956,7 +953,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,6 +964,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1027,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1094,193 +1097,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -2607,27 +2429,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="25" customWidth="1"/>
     <col min="11" max="11" width="17" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="30" customFormat="1" ht="15" customHeight="1">
@@ -2668,7 +2490,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="2" spans="1:12" ht="17.45" customHeight="1">
       <c r="A2" s="13">
         <v>681100</v>
       </c>
@@ -2721,7 +2543,7 @@
         <v>Geschenk1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="3" spans="1:12" ht="17.45" customHeight="1">
       <c r="A3" s="13">
         <v>681120</v>
       </c>
@@ -2774,7 +2596,7 @@
         <v>Geschenk</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="1:12" ht="17.45" customHeight="1">
       <c r="A4" s="13">
         <v>661601</v>
       </c>
@@ -2827,7 +2649,7 @@
         <v>Geschenk2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="5" spans="1:12" ht="17.45" customHeight="1">
       <c r="A5" s="13">
         <v>661602</v>
       </c>
@@ -2880,7 +2702,7 @@
         <v>Geschenk3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="6" spans="1:12" ht="17.45" customHeight="1">
       <c r="A6" s="13">
         <v>603900</v>
       </c>
@@ -2933,7 +2755,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="1:12" ht="17.45" customHeight="1">
       <c r="A7" s="13">
         <v>603900</v>
       </c>
@@ -2986,7 +2808,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="8" spans="1:12" ht="17.45" customHeight="1">
       <c r="A8" s="13">
         <v>603900</v>
       </c>
@@ -3014,7 +2836,7 @@
       </c>
       <c r="I8" s="28" t="str">
         <f>VLOOKUP(L8,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>269</v>
@@ -3039,7 +2861,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="9" spans="1:12" ht="17.45" customHeight="1">
       <c r="A9" s="13">
         <v>695800</v>
       </c>
@@ -3092,7 +2914,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="10" spans="1:12" ht="17.45" customHeight="1">
       <c r="A10" s="13">
         <v>695800</v>
       </c>
@@ -3145,7 +2967,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="11" spans="1:12" ht="17.45" customHeight="1">
       <c r="A11" s="13">
         <v>695800</v>
       </c>
@@ -3173,7 +2995,7 @@
       </c>
       <c r="I11" s="28" t="str">
         <f>VLOOKUP(L11,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>269</v>
@@ -3198,7 +3020,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="12" spans="1:12" ht="17.45" customHeight="1">
       <c r="A12" s="13">
         <v>681203</v>
       </c>
@@ -3251,7 +3073,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="13" spans="1:12" ht="17.45" customHeight="1">
       <c r="A13" s="13">
         <v>681203</v>
       </c>
@@ -3304,7 +3126,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="14" spans="1:12" ht="17.45" customHeight="1">
       <c r="A14" s="13">
         <v>681203</v>
       </c>
@@ -3332,7 +3154,7 @@
       </c>
       <c r="I14" s="28" t="str">
         <f>VLOOKUP(L14,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>269</v>
@@ -3357,7 +3179,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="15" spans="1:12" ht="17.45" customHeight="1">
       <c r="A15" s="13">
         <v>661603</v>
       </c>
@@ -3410,7 +3232,7 @@
         <v>Geschenk</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="16" spans="1:12" ht="17.45" customHeight="1">
       <c r="A16" s="13">
         <v>672200</v>
       </c>
@@ -3463,7 +3285,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="17" spans="1:12" ht="17.45" customHeight="1">
       <c r="A17" s="13">
         <v>662100</v>
       </c>
@@ -3516,7 +3338,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="18" spans="1:12" ht="17.45" customHeight="1">
       <c r="A18" s="13">
         <v>662201</v>
       </c>
@@ -3569,7 +3391,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="19" spans="1:12" ht="17.45" customHeight="1">
       <c r="A19" s="13">
         <v>661700</v>
       </c>
@@ -3622,7 +3444,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="20" spans="1:12" ht="17.45" customHeight="1">
       <c r="A20" s="13">
         <v>662300</v>
       </c>
@@ -3675,7 +3497,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="21" spans="1:12" ht="17.45" customHeight="1">
       <c r="A21" s="13">
         <v>661703</v>
       </c>
@@ -3728,7 +3550,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="1:12" ht="17.45" customHeight="1">
       <c r="A22" s="13">
         <v>661710</v>
       </c>
@@ -3781,7 +3603,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="23" spans="1:12" ht="17.45" customHeight="1">
       <c r="A23" s="13">
         <v>661708</v>
       </c>
@@ -3834,7 +3656,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="24" spans="1:12" ht="17.45" customHeight="1">
       <c r="A24" s="13">
         <v>681150</v>
       </c>
@@ -3887,7 +3709,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="1:12" ht="17.45" customHeight="1">
       <c r="A25" s="13">
         <v>681150</v>
       </c>
@@ -3915,7 +3737,7 @@
       </c>
       <c r="I25" s="28" t="str">
         <f>VLOOKUP(L25,'Logic ID'!$E:$G,3,0)</f>
-        <v>Usage, Duration, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>271</v>
@@ -3940,7 +3762,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="1:12" ht="17.45" customHeight="1">
       <c r="A26" s="13">
         <v>673800</v>
       </c>
@@ -3993,7 +3815,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="1:12" ht="17.45" customHeight="1">
       <c r="A27" s="13">
         <v>673800</v>
       </c>
@@ -4021,7 +3843,7 @@
       </c>
       <c r="I27" s="28" t="str">
         <f>VLOOKUP(L27,'Logic ID'!$E:$G,3,0)</f>
-        <v>Usage, Duration, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>271</v>
@@ -4046,7 +3868,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="28" spans="1:12" ht="17.45" customHeight="1">
       <c r="A28" s="13">
         <v>661200</v>
       </c>
@@ -4099,7 +3921,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="29" spans="1:12" ht="17.45" customHeight="1">
       <c r="A29" s="13">
         <v>681153</v>
       </c>
@@ -4152,7 +3974,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="30" spans="1:12" ht="17.45" customHeight="1">
       <c r="A30" s="13">
         <v>672201</v>
       </c>
@@ -4205,7 +4027,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="1:12" ht="17.45" customHeight="1">
       <c r="A31" s="13">
         <v>672000</v>
       </c>
@@ -4258,7 +4080,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="1:12" ht="17.45" customHeight="1">
       <c r="A32" s="13">
         <v>671800</v>
       </c>
@@ -4311,7 +4133,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="1:12" ht="17.45" customHeight="1">
       <c r="A33" s="13">
         <v>671700</v>
       </c>
@@ -4364,7 +4186,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="1:12" ht="17.45" customHeight="1">
       <c r="A34" s="13">
         <v>671900</v>
       </c>
@@ -4417,7 +4239,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="1:12" ht="17.45" customHeight="1">
       <c r="A35" s="13">
         <v>672100</v>
       </c>
@@ -4470,7 +4292,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="36" spans="1:12" ht="17.45" customHeight="1">
       <c r="A36" s="13">
         <v>672260</v>
       </c>
@@ -4523,7 +4345,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="1:12" ht="17.45" customHeight="1">
       <c r="A37" s="13">
         <v>671000</v>
       </c>
@@ -4576,7 +4398,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="1:12" ht="17.45" customHeight="1">
       <c r="A38" s="13">
         <v>671100</v>
       </c>
@@ -4629,7 +4451,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="39" spans="1:12" ht="17.45" customHeight="1">
       <c r="A39" s="13">
         <v>671200</v>
       </c>
@@ -4682,7 +4504,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="40" spans="1:12" ht="17.45" customHeight="1">
       <c r="A40" s="13">
         <v>671300</v>
       </c>
@@ -4735,7 +4557,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="41" spans="1:12" ht="17.45" customHeight="1">
       <c r="A41" s="13">
         <v>671400</v>
       </c>
@@ -4788,7 +4610,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="42" spans="1:12" ht="17.45" customHeight="1">
       <c r="A42" s="13">
         <v>671500</v>
       </c>
@@ -4841,7 +4663,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="43" spans="1:12" ht="17.45" customHeight="1">
       <c r="A43" s="13">
         <v>613350</v>
       </c>
@@ -4894,7 +4716,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="44" spans="1:12" ht="17.45" customHeight="1">
       <c r="A44" s="13">
         <v>661300</v>
       </c>
@@ -4947,7 +4769,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="45" spans="1:12" ht="17.45" customHeight="1">
       <c r="A45" s="13">
         <v>674300</v>
       </c>
@@ -5000,7 +4822,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="46" spans="1:12" ht="17.45" customHeight="1">
       <c r="A46" s="13">
         <v>605300</v>
       </c>
@@ -5053,7 +4875,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="47" spans="1:12" ht="17.45" customHeight="1">
       <c r="A47" s="13">
         <v>605300</v>
       </c>
@@ -5106,7 +4928,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="48" spans="1:12" ht="17.45" customHeight="1">
       <c r="A48" s="13">
         <v>605300</v>
       </c>
@@ -5134,7 +4956,7 @@
       </c>
       <c r="I48" s="28" t="str">
         <f>VLOOKUP(L48,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J48" s="13" t="s">
         <v>269</v>
@@ -5159,7 +4981,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="49" spans="1:12" ht="17.45" customHeight="1">
       <c r="A49" s="13">
         <v>673901</v>
       </c>
@@ -5293,7 +5115,7 @@
       </c>
       <c r="I51" s="28" t="str">
         <f>VLOOKUP(L51,'Logic ID'!$E:$G,3,0)</f>
-        <v>Usage, Duration, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>271</v>
@@ -5318,7 +5140,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="52" spans="1:12" ht="17.45" customHeight="1">
       <c r="A52" s="13">
         <v>613300</v>
       </c>
@@ -5371,7 +5193,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="53" spans="1:12" ht="17.45" customHeight="1">
       <c r="A53" s="13">
         <v>691000</v>
       </c>
@@ -5424,7 +5246,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="54" spans="1:12" ht="17.45" customHeight="1">
       <c r="A54" s="13">
         <v>691100</v>
       </c>
@@ -5477,7 +5299,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="55" spans="1:12" ht="17.45" customHeight="1">
       <c r="A55" s="13">
         <v>691200</v>
       </c>
@@ -5530,7 +5352,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="56" spans="1:12" ht="17.45" customHeight="1">
       <c r="A56" s="13">
         <v>691210</v>
       </c>
@@ -5583,7 +5405,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="57" spans="1:12" ht="17.45" customHeight="1">
       <c r="A57" s="13">
         <v>661711</v>
       </c>
@@ -5636,7 +5458,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="58" spans="1:12" ht="17.45" customHeight="1">
       <c r="A58" s="13">
         <v>673300</v>
       </c>
@@ -5689,7 +5511,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="59" spans="1:12" ht="17.45" customHeight="1">
       <c r="A59" s="13">
         <v>673500</v>
       </c>
@@ -5742,7 +5564,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="60" spans="1:12" ht="17.45" customHeight="1">
       <c r="A60" s="13">
         <v>673500</v>
       </c>
@@ -5770,7 +5592,7 @@
       </c>
       <c r="I60" s="28" t="str">
         <f>VLOOKUP(L60,'Logic ID'!$E:$G,3,0)</f>
-        <v>Usage, Duration, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>271</v>
@@ -5795,7 +5617,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="61" spans="1:12" ht="17.45" customHeight="1">
       <c r="A61" s="13">
         <v>673501</v>
       </c>
@@ -5848,7 +5670,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="62" spans="1:12" ht="17.45" customHeight="1">
       <c r="A62" s="13">
         <v>661000</v>
       </c>
@@ -5901,7 +5723,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="63" spans="1:12" ht="17.45" customHeight="1">
       <c r="A63" s="13">
         <v>661400</v>
       </c>
@@ -5954,7 +5776,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="64" spans="1:12" ht="17.45" customHeight="1">
       <c r="A64" s="13">
         <v>661500</v>
       </c>
@@ -6007,7 +5829,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="65" spans="1:12" ht="17.45" customHeight="1">
       <c r="A65" s="13">
         <v>671600</v>
       </c>
@@ -6060,7 +5882,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="66" spans="1:12" ht="17.45" customHeight="1">
       <c r="A66" s="13">
         <v>673700</v>
       </c>
@@ -6113,7 +5935,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="67" spans="1:12" ht="17.45" customHeight="1">
       <c r="A67" s="13">
         <v>673700</v>
       </c>
@@ -6141,7 +5963,7 @@
       </c>
       <c r="I67" s="28" t="str">
         <f>VLOOKUP(L67,'Logic ID'!$E:$G,3,0)</f>
-        <v>Usage, Duration, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>271</v>
@@ -6166,7 +5988,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="68" spans="1:12" ht="17.45" customHeight="1">
       <c r="A68" s="13">
         <v>674100</v>
       </c>
@@ -6219,7 +6041,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="69" spans="1:12" ht="17.45" customHeight="1">
       <c r="A69" s="13">
         <v>674100</v>
       </c>
@@ -6247,7 +6069,7 @@
       </c>
       <c r="I69" s="28" t="str">
         <f>VLOOKUP(L69,'Logic ID'!$E:$G,3,0)</f>
-        <v>Usage, Duration, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J69" s="20" t="s">
         <v>271</v>
@@ -6272,7 +6094,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="70" spans="1:12" ht="17.45" customHeight="1">
       <c r="A70" s="13">
         <v>674600</v>
       </c>
@@ -6325,7 +6147,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="71" spans="1:12" ht="17.45" customHeight="1">
       <c r="A71" s="13">
         <v>605200</v>
       </c>
@@ -6378,7 +6200,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="72" spans="1:12" ht="17.45" customHeight="1">
       <c r="A72" s="13">
         <v>605200</v>
       </c>
@@ -6431,7 +6253,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="73" spans="1:12" ht="17.45" customHeight="1">
       <c r="A73" s="13">
         <v>605200</v>
       </c>
@@ -6459,7 +6281,7 @@
       </c>
       <c r="I73" s="28" t="str">
         <f>VLOOKUP(L73,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J73" s="20" t="s">
         <v>269</v>
@@ -6484,7 +6306,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="74" spans="1:12" ht="17.45" customHeight="1">
       <c r="A74" s="13">
         <v>681200</v>
       </c>
@@ -6537,7 +6359,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="75" spans="1:12" ht="17.45" customHeight="1">
       <c r="A75" s="13">
         <v>681200</v>
       </c>
@@ -6565,7 +6387,7 @@
       </c>
       <c r="I75" s="28" t="str">
         <f>VLOOKUP(L75,'Logic ID'!$E:$G,3,0)</f>
-        <v>Usage, Duration, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J75" s="20" t="s">
         <v>271</v>
@@ -6590,7 +6412,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="76" spans="1:12" ht="17.45" customHeight="1">
       <c r="A76" s="13">
         <v>603400</v>
       </c>
@@ -6643,7 +6465,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="77" spans="1:12" ht="17.45" customHeight="1">
       <c r="A77" s="13">
         <v>603400</v>
       </c>
@@ -6696,7 +6518,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="78" spans="1:12" ht="17.45" customHeight="1">
       <c r="A78" s="13">
         <v>603400</v>
       </c>
@@ -6724,7 +6546,7 @@
       </c>
       <c r="I78" s="28" t="str">
         <f>VLOOKUP(L78,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J78" s="20" t="s">
         <v>269</v>
@@ -6749,7 +6571,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="79" spans="1:12" ht="17.45" customHeight="1">
       <c r="A79" s="13">
         <v>605210</v>
       </c>
@@ -6802,7 +6624,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="80" spans="1:12" ht="17.45" customHeight="1">
       <c r="A80" s="13">
         <v>605210</v>
       </c>
@@ -6855,7 +6677,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="81" spans="1:12" ht="17.45" customHeight="1">
       <c r="A81" s="13">
         <v>605210</v>
       </c>
@@ -6883,7 +6705,7 @@
       </c>
       <c r="I81" s="28" t="str">
         <f>VLOOKUP(L81,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J81" s="20" t="s">
         <v>269</v>
@@ -6908,7 +6730,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="82" spans="1:12" ht="17.45" customHeight="1">
       <c r="A82" s="13">
         <v>673200</v>
       </c>
@@ -6961,7 +6783,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="83" spans="1:12" ht="17.45" customHeight="1">
       <c r="A83" s="13">
         <v>673400</v>
       </c>
@@ -7014,7 +6836,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="84" spans="1:12" ht="17.45" customHeight="1">
       <c r="A84" s="13">
         <v>695300</v>
       </c>
@@ -7067,7 +6889,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="85" spans="1:12" ht="17.45" customHeight="1">
       <c r="A85" s="13">
         <v>695400</v>
       </c>
@@ -7120,7 +6942,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="86" spans="1:12" ht="17.45" customHeight="1">
       <c r="A86" s="13">
         <v>695400</v>
       </c>
@@ -7173,7 +6995,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="87" spans="1:12" ht="17.45" customHeight="1">
       <c r="A87" s="13">
         <v>695400</v>
       </c>
@@ -7201,7 +7023,7 @@
       </c>
       <c r="I87" s="28" t="str">
         <f>VLOOKUP(L87,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J87" s="20" t="s">
         <v>269</v>
@@ -7226,7 +7048,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="88" spans="1:12" ht="17.45" customHeight="1">
       <c r="A88" s="13">
         <v>605100</v>
       </c>
@@ -7279,7 +7101,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="89" spans="1:12" ht="17.45" customHeight="1">
       <c r="A89" s="13">
         <v>605100</v>
       </c>
@@ -7332,7 +7154,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="90" spans="1:12" ht="17.45" customHeight="1">
       <c r="A90" s="13">
         <v>605100</v>
       </c>
@@ -7360,7 +7182,7 @@
       </c>
       <c r="I90" s="28" t="str">
         <f>VLOOKUP(L90,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J90" s="20" t="s">
         <v>269</v>
@@ -7385,7 +7207,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="91" spans="1:12" ht="17.45" customHeight="1">
       <c r="A91" s="13">
         <v>674400</v>
       </c>
@@ -7438,7 +7260,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="92" spans="1:12" ht="17.45" customHeight="1">
       <c r="A92" s="13">
         <v>674400</v>
       </c>
@@ -7466,7 +7288,7 @@
       </c>
       <c r="I92" s="28" t="str">
         <f>VLOOKUP(L92,'Logic ID'!$E:$G,3,0)</f>
-        <v>Usage, Duration, Null</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J92" s="13" t="s">
         <v>271</v>
@@ -7491,7 +7313,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="93" spans="1:12" ht="17.45" customHeight="1">
       <c r="A93" s="13">
         <v>607700</v>
       </c>
@@ -7544,7 +7366,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="94" spans="1:12" ht="17.45" customHeight="1">
       <c r="A94" s="13">
         <v>608030</v>
       </c>
@@ -7597,7 +7419,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="95" spans="1:12" ht="17.45" customHeight="1">
       <c r="A95" s="13">
         <v>605400</v>
       </c>
@@ -7650,7 +7472,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="96" spans="1:12" ht="17.45" customHeight="1">
       <c r="A96" s="13">
         <v>694900</v>
       </c>
@@ -7703,7 +7525,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="97" spans="1:12" ht="17.45" customHeight="1">
       <c r="A97" s="13">
         <v>695000</v>
       </c>
@@ -7756,7 +7578,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="98" spans="1:12" ht="17.45" customHeight="1">
       <c r="A98" s="13">
         <v>695100</v>
       </c>
@@ -7809,7 +7631,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="99" spans="1:12" ht="17.45" customHeight="1">
       <c r="A99" s="13">
         <v>695200</v>
       </c>
@@ -7862,7 +7684,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="100" spans="1:12" ht="17.45" customHeight="1">
       <c r="A100" s="13">
         <v>673600</v>
       </c>
@@ -7915,7 +7737,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="101" spans="1:12" ht="17.45" customHeight="1">
       <c r="A101" s="13">
         <v>662400</v>
       </c>
@@ -7968,7 +7790,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="102" spans="1:12" ht="17.45" customHeight="1">
       <c r="A102" s="13">
         <v>662500</v>
       </c>
@@ -8021,7 +7843,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="103" spans="1:12" ht="17.45" customHeight="1">
       <c r="A103" s="13">
         <v>672310</v>
       </c>
@@ -8074,7 +7896,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="104" spans="1:12" ht="17.45" customHeight="1">
       <c r="A104" s="13">
         <v>672320</v>
       </c>
@@ -8127,7 +7949,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="105" spans="1:12" ht="17.45" customHeight="1">
       <c r="A105" s="13">
         <v>672400</v>
       </c>
@@ -8180,7 +8002,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="106" spans="1:12" ht="17.45" customHeight="1">
       <c r="A106" s="13">
         <v>672500</v>
       </c>
@@ -8233,7 +8055,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="107" spans="1:12" ht="17.45" customHeight="1">
       <c r="A107" s="13">
         <v>672600</v>
       </c>
@@ -8286,7 +8108,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="108" spans="1:12" ht="17.45" customHeight="1">
       <c r="A108" s="13">
         <v>672700</v>
       </c>
@@ -8339,7 +8161,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="109" spans="1:12" ht="17.45" customHeight="1">
       <c r="A109" s="13">
         <v>604400</v>
       </c>
@@ -8392,7 +8214,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="110" spans="1:12" ht="17.45" customHeight="1">
       <c r="A110" s="13">
         <v>604300</v>
       </c>
@@ -8445,7 +8267,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="111" spans="1:12" ht="17.45" customHeight="1">
       <c r="A111" s="13">
         <v>604310</v>
       </c>
@@ -8498,7 +8320,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="112" spans="1:12" ht="17.45" customHeight="1">
       <c r="A112" s="13">
         <v>604000</v>
       </c>
@@ -8551,7 +8373,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="113" spans="1:12" ht="17.45" customHeight="1">
       <c r="A113" s="13">
         <v>691300</v>
       </c>
@@ -8604,7 +8426,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="114" spans="1:12" ht="17.45" customHeight="1">
       <c r="A114" s="13">
         <v>691310</v>
       </c>
@@ -8657,7 +8479,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="115" spans="1:12" ht="17.45" customHeight="1">
       <c r="A115" s="13">
         <v>691350</v>
       </c>
@@ -8710,7 +8532,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="116" spans="1:12" ht="17.45" customHeight="1">
       <c r="A116" s="13">
         <v>661150</v>
       </c>
@@ -8763,7 +8585,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="117" spans="1:12" ht="17.45" customHeight="1">
       <c r="A117" s="13">
         <v>999910</v>
       </c>
@@ -8819,7 +8641,7 @@
   </sheetData>
   <autoFilter ref="A1:L117" xr:uid="{A2546393-D3F3-4891-9180-301BCA80D3AD}"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8839,14 +8661,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="5" customWidth="1"/>
-    <col min="3" max="256" width="8.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="5" customWidth="1"/>
+    <col min="3" max="256" width="8.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="14.4" customHeight="1">
+    <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>249</v>
       </c>
@@ -9108,7 +8930,7 @@
       <c r="IU1" s="10"/>
       <c r="IV1" s="10"/>
     </row>
-    <row r="2" spans="1:256" ht="14.4" customHeight="1">
+    <row r="2" spans="1:256" ht="14.45" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -9133,7 +8955,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="14.4" customHeight="1">
+    <row r="3" spans="1:256" ht="14.45" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -9158,7 +8980,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="14.4" customHeight="1">
+    <row r="4" spans="1:256" ht="14.45" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -9183,7 +9005,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="14.4" customHeight="1">
+    <row r="5" spans="1:256" ht="14.45" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -9208,7 +9030,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="14.4" customHeight="1">
+    <row r="6" spans="1:256" ht="14.45" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -9233,7 +9055,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="14.4" customHeight="1">
+    <row r="7" spans="1:256" ht="14.45" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -9254,7 +9076,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="14.4" customHeight="1">
+    <row r="8" spans="1:256" ht="14.45" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -9275,7 +9097,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="14.4" customHeight="1">
+    <row r="9" spans="1:256" ht="14.45" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -9296,7 +9118,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="14.4" customHeight="1">
+    <row r="10" spans="1:256" ht="14.45" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -9317,7 +9139,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="14.4" customHeight="1">
+    <row r="11" spans="1:256" ht="14.45" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -9338,7 +9160,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="14.4" customHeight="1">
+    <row r="12" spans="1:256" ht="14.45" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -9377,12 +9199,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="8.88671875" style="6" customWidth="1"/>
+    <col min="1" max="256" width="8.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="14.4" customHeight="1">
+    <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>249</v>
       </c>
@@ -9644,7 +9466,7 @@
       <c r="IU1" s="10"/>
       <c r="IV1" s="10"/>
     </row>
-    <row r="2" spans="1:256" ht="14.4" customHeight="1">
+    <row r="2" spans="1:256" ht="14.45" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -9667,7 +9489,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="14.4" customHeight="1">
+    <row r="3" spans="1:256" ht="14.45" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -9690,7 +9512,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="14.4" customHeight="1">
+    <row r="4" spans="1:256" ht="14.45" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -9713,7 +9535,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="14.4" customHeight="1">
+    <row r="5" spans="1:256" ht="14.45" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -9732,7 +9554,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="14.4" customHeight="1">
+    <row r="6" spans="1:256" ht="14.45" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -9751,7 +9573,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="14.4" customHeight="1">
+    <row r="7" spans="1:256" ht="14.45" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -9770,7 +9592,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="14.4" customHeight="1">
+    <row r="8" spans="1:256" ht="14.45" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -9789,7 +9611,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="14.4" customHeight="1">
+    <row r="9" spans="1:256" ht="14.45" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -9808,7 +9630,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="14.4" customHeight="1">
+    <row r="10" spans="1:256" ht="14.45" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -9827,7 +9649,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="14.4" customHeight="1">
+    <row r="11" spans="1:256" ht="14.45" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -9858,17 +9680,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IS91"/>
+  <dimension ref="A1:IQ91"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="127.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="253" width="8.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="127.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="251" width="8.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
@@ -9879,7 +9701,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="2" spans="1:2" ht="17.45" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9887,7 +9709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="3" spans="1:2" ht="17.45" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9895,7 +9717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="1:2" ht="17.45" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9903,7 +9725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="5" spans="1:2" ht="17.45" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9911,7 +9733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="6" spans="1:2" ht="17.45" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9919,7 +9741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="1:2" ht="17.45" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9927,7 +9749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="8" spans="1:2" ht="17.45" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9935,7 +9757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="9" spans="1:2" ht="17.45" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9943,7 +9765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="10" spans="1:2" ht="17.45" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -9951,7 +9773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="11" spans="1:2" ht="17.45" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -9959,7 +9781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="12" spans="1:2" ht="17.45" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -9967,7 +9789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="13" spans="1:2" ht="17.45" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -9975,7 +9797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="14" spans="1:2" ht="17.45" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -9983,7 +9805,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="15" spans="1:2" ht="17.45" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -9991,7 +9813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="16" spans="1:2" ht="17.45" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -9999,7 +9821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="17" spans="1:2" ht="17.45" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10007,7 +9829,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="18" spans="1:2" ht="17.45" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10015,7 +9837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="19" spans="1:2" ht="17.45" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10023,7 +9845,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="20" spans="1:2" ht="17.45" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -10031,7 +9853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="21" spans="1:2" ht="17.45" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -10039,7 +9861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="1:2" ht="17.45" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10047,7 +9869,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="23" spans="1:2" ht="17.45" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10055,7 +9877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="24" spans="1:2" ht="17.45" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10063,7 +9885,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="1:2" ht="17.45" customHeight="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10071,7 +9893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="1:2" ht="17.45" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10079,7 +9901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="1:2" ht="17.45" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10087,7 +9909,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="28" spans="1:2" ht="17.45" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10095,7 +9917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="29" spans="1:2" ht="17.45" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10103,7 +9925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="30" spans="1:2" ht="17.45" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10111,7 +9933,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="1:2" ht="17.45" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10119,7 +9941,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="1:2" ht="17.45" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -10127,7 +9949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="1:2" ht="17.45" customHeight="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -10135,7 +9957,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="1:2" ht="17.45" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -10143,7 +9965,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="1:2" ht="17.45" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -10151,7 +9973,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="36" spans="1:2" ht="17.45" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -10159,7 +9981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="1:2" ht="17.45" customHeight="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -10167,7 +9989,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="1:2" ht="17.45" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -10175,7 +9997,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="39" spans="1:2" ht="17.45" customHeight="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -10191,7 +10013,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="41" spans="1:2" ht="17.45" customHeight="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -10199,7 +10021,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="42" spans="1:2" ht="17.45" customHeight="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10207,7 +10029,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="43" spans="1:2" ht="17.45" customHeight="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10215,7 +10037,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="44" spans="1:2" ht="17.45" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10223,7 +10045,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="45" spans="1:2" ht="17.45" customHeight="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10231,7 +10053,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="46" spans="1:2" ht="17.45" customHeight="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10239,7 +10061,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="47" spans="1:2" ht="17.45" customHeight="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -10247,7 +10069,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="48" spans="1:2" ht="17.45" customHeight="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -10255,7 +10077,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="49" spans="1:2" ht="17.45" customHeight="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -10263,7 +10085,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="50" spans="1:2" ht="17.45" customHeight="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -10271,7 +10093,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="51" spans="1:2" ht="17.45" customHeight="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -10279,7 +10101,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="52" spans="1:2" ht="17.45" customHeight="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -10287,7 +10109,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="53" spans="1:2" ht="17.45" customHeight="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -10295,7 +10117,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="54" spans="1:2" ht="17.45" customHeight="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -10303,7 +10125,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="55" spans="1:2" ht="17.45" customHeight="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -10311,7 +10133,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="56" spans="1:2" ht="17.45" customHeight="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -10319,7 +10141,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="57" spans="1:2" ht="17.45" customHeight="1">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -10327,7 +10149,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="58" spans="1:2" ht="17.45" customHeight="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -10335,7 +10157,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="59" spans="1:2" ht="17.45" customHeight="1">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -10343,7 +10165,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="60" spans="1:2" ht="17.45" customHeight="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -10351,7 +10173,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="61" spans="1:2" ht="17.45" customHeight="1">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -10359,7 +10181,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="62" spans="1:2" ht="17.45" customHeight="1">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -10367,7 +10189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="63" spans="1:2" ht="17.45" customHeight="1">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -10375,7 +10197,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="64" spans="1:2" ht="17.45" customHeight="1">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -10383,7 +10205,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="65" spans="1:2" ht="17.45" customHeight="1">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -10391,7 +10213,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="66" spans="1:2" ht="17.45" customHeight="1">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -10399,7 +10221,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="67" spans="1:2" ht="17.45" customHeight="1">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -10407,7 +10229,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="68" spans="1:2" ht="17.45" customHeight="1">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -10415,7 +10237,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="69" spans="1:2" ht="17.45" customHeight="1">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -10423,7 +10245,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="70" spans="1:2" ht="17.45" customHeight="1">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -10431,7 +10253,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="71" spans="1:2" ht="17.45" customHeight="1">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -10439,7 +10261,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="72" spans="1:2" ht="17.45" customHeight="1">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -10447,7 +10269,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="73" spans="1:2" ht="17.45" customHeight="1">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -10455,7 +10277,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="74" spans="1:2" ht="17.45" customHeight="1">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -10463,7 +10285,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="75" spans="1:2" ht="17.45" customHeight="1">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -10471,7 +10293,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="76" spans="1:2" ht="17.45" customHeight="1">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -10479,7 +10301,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="77" spans="1:2" ht="17.45" customHeight="1">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -10487,7 +10309,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="78" spans="1:2" ht="17.45" customHeight="1">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -10495,7 +10317,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="79" spans="1:2" ht="17.45" customHeight="1">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -10503,7 +10325,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="80" spans="1:2" ht="17.45" customHeight="1">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -10511,7 +10333,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="81" spans="1:2" ht="17.45" customHeight="1">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -10519,7 +10341,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="82" spans="1:2" ht="17.45" customHeight="1">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -10527,7 +10349,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="83" spans="1:2" ht="17.45" customHeight="1">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -10535,7 +10357,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="84" spans="1:2" ht="17.45" customHeight="1">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -10543,7 +10365,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="85" spans="1:2" ht="17.45" customHeight="1">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -10551,7 +10373,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="86" spans="1:2" ht="17.45" customHeight="1">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -10559,7 +10381,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="87" spans="1:2" ht="17.45" customHeight="1">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -10567,7 +10389,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="88" spans="1:2" ht="17.45" customHeight="1">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -10575,7 +10397,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="89" spans="1:2" ht="17.45" customHeight="1">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -10583,7 +10405,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="90" spans="1:2" ht="17.45" customHeight="1">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -10591,7 +10413,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17.399999999999999" customHeight="1">
+    <row r="91" spans="1:2" ht="17.45" customHeight="1">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -10616,9 +10438,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10679,25 +10501,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IW24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" style="10" customWidth="1"/>
-    <col min="8" max="21" width="8.88671875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="22.6640625" style="8" customWidth="1"/>
-    <col min="23" max="257" width="8.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="10" customWidth="1"/>
+    <col min="8" max="21" width="8.85546875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="8" customWidth="1"/>
+    <col min="23" max="257" width="8.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" ht="14.4" customHeight="1">
+    <row r="1" spans="1:257" ht="14.45" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="31" t="s">
@@ -10731,7 +10553,7 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:257" ht="14.4" customHeight="1">
+    <row r="2" spans="1:257" ht="14.45" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10769,7 +10591,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:257" ht="14.4" customHeight="1">
+    <row r="3" spans="1:257" ht="14.45" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10807,7 +10629,7 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:257" ht="14.4" customHeight="1">
+    <row r="4" spans="1:257" ht="14.45" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10845,7 +10667,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:257" ht="14.4" customHeight="1">
+    <row r="5" spans="1:257" ht="14.45" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10864,8 +10686,8 @@
       <c r="F5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>281</v>
+      <c r="G5" s="32" t="s">
+        <v>288</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -10883,7 +10705,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:257" ht="14.4" customHeight="1">
+    <row r="6" spans="1:257" ht="14.45" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10921,7 +10743,7 @@
       <c r="U6" s="4"/>
       <c r="V6"/>
     </row>
-    <row r="7" spans="1:257" ht="14.4" customHeight="1">
+    <row r="7" spans="1:257" ht="14.45" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10959,7 +10781,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:257" ht="14.4" customHeight="1">
+    <row r="8" spans="1:257" ht="14.45" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10978,8 +10800,8 @@
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>289</v>
+      <c r="G8" s="32" t="s">
+        <v>288</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -10997,7 +10819,7 @@
       <c r="U8" s="4"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:257" ht="14.4" customHeight="1">
+    <row r="9" spans="1:257" ht="14.45" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -11035,7 +10857,7 @@
       <c r="U9" s="4"/>
       <c r="V9"/>
     </row>
-    <row r="10" spans="1:257" ht="14.4" customHeight="1">
+    <row r="10" spans="1:257" ht="14.45" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -11073,7 +10895,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:257" ht="14.4" customHeight="1">
+    <row r="11" spans="1:257" ht="14.45" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -11111,7 +10933,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:257" ht="14.4" customHeight="1">
+    <row r="12" spans="1:257" ht="14.45" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -11149,7 +10971,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:257" ht="14.4" customHeight="1">
+    <row r="13" spans="1:257" ht="14.45" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -11187,7 +11009,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:257" ht="14.4" customHeight="1">
+    <row r="14" spans="1:257" ht="14.45" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11225,7 +11047,7 @@
       <c r="U14" s="4"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:257" ht="14.4" customHeight="1">
+    <row r="15" spans="1:257" ht="14.45" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -11484,7 +11306,7 @@
       <c r="IV15" s="10"/>
       <c r="IW15" s="10"/>
     </row>
-    <row r="16" spans="1:257" ht="14.4" customHeight="1">
+    <row r="16" spans="1:257" ht="14.45" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -11743,7 +11565,7 @@
       <c r="IV16" s="10"/>
       <c r="IW16" s="10"/>
     </row>
-    <row r="17" spans="1:257" ht="14.4" customHeight="1">
+    <row r="17" spans="1:257" ht="14.45" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -12002,7 +11824,7 @@
       <c r="IV17" s="10"/>
       <c r="IW17" s="10"/>
     </row>
-    <row r="18" spans="1:257" ht="14.4" customHeight="1">
+    <row r="18" spans="1:257" ht="14.45" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -12261,7 +12083,7 @@
       <c r="IV18" s="10"/>
       <c r="IW18" s="10"/>
     </row>
-    <row r="19" spans="1:257" ht="14.4" customHeight="1">
+    <row r="19" spans="1:257" ht="14.45" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -12520,7 +12342,7 @@
       <c r="IV19" s="10"/>
       <c r="IW19" s="10"/>
     </row>
-    <row r="20" spans="1:257" ht="14.4" customHeight="1">
+    <row r="20" spans="1:257" ht="14.45" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -12779,7 +12601,7 @@
       <c r="IV20" s="10"/>
       <c r="IW20" s="10"/>
     </row>
-    <row r="21" spans="1:257" ht="14.4" customHeight="1">
+    <row r="21" spans="1:257" ht="14.45" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -13038,7 +12860,7 @@
       <c r="IV21" s="10"/>
       <c r="IW21" s="10"/>
     </row>
-    <row r="22" spans="1:257" ht="14.4" customHeight="1">
+    <row r="22" spans="1:257" ht="14.45" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -13297,7 +13119,7 @@
       <c r="IV22" s="10"/>
       <c r="IW22" s="10"/>
     </row>
-    <row r="23" spans="1:257" ht="14.4" customHeight="1">
+    <row r="23" spans="1:257" ht="14.45" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -13556,7 +13378,7 @@
       <c r="IV23" s="10"/>
       <c r="IW23" s="10"/>
     </row>
-    <row r="24" spans="1:257" ht="14.4" customHeight="1">
+    <row r="24" spans="1:257" ht="14.45" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -13826,6 +13648,54 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
+        </TermInfo>
+      </Terms>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Value>7</Value>
+      <Value>6</Value>
+      <Value>5</Value>
+      <Value>4</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101008B0F08FECF9ACD44B69B0979475AA3A3" ma:contentTypeVersion="5" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="15e7cafbdefa31d60e781c5e4062628f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be70f0-66b9-4629-a389-4b080fc0dfa6" xmlns:ns3="cc54d3cb-87fe-4b6a-be2e-e1fd0be84e77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e6785b8b81ecd23d6e742c299b13f" ns2:_="" ns3:_="">
     <xsd:import namespace="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
@@ -13982,54 +13852,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
-        </TermInfo>
-      </Terms>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Value>7</Value>
-      <Value>6</Value>
-      <Value>5</Value>
-      <Value>4</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14040,6 +13862,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BF3E90-0828-4759-ACA7-3670C46D50E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14058,16 +13890,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
   <ds:schemaRefs>

--- a/Datei.xlsx
+++ b/Datei.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://horvathandpartners.sharepoint.com/sites/IFUA-IDEX.TAN.T55170/Freigegebene Dokumente/02_Munka/01_Projektmunka_IFUA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cts\Documents\SEA\sea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{86743A00-2BEF-4DB1-8E09-172417BF45B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{20E40BB5-3356-42C2-BF77-F2780BA2133E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A504F82-4722-4451-99EB-6A61CB947E06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -439,9 +439,6 @@
     <t>Versandkosten sonstige</t>
   </si>
   <si>
-    <t>Transport,Fracht,Liefer,Sonderfahrt,Verpackung,Sattelzug,senden,Versand,,Verkehr</t>
-  </si>
-  <si>
     <t>Versandkosten sonstige z.B. Versenden von Kalender</t>
   </si>
   <si>
@@ -490,9 +487,6 @@
     <t>Personalbeschaffungskosten</t>
   </si>
   <si>
-    <t>Werb,Videos,Karriere,Spot,Illustration,Marketing,Xing,LinkedIn,Mitgliedschaft,Headhunter,Recruit,Personalvermittl,,Kauf</t>
-  </si>
-  <si>
     <t>Inserate, Vorstellungskosten</t>
   </si>
   <si>
@@ -905,6 +899,12 @@
   </si>
   <si>
     <t>Amount, Usage, Duration</t>
+  </si>
+  <si>
+    <t>Werb,Videos,Karriere,Spot,Illustration,Marketing,Xing,LinkedIn,Mitgliedschaft,Headhunter,Recruit,Personalvermittl,Kauf</t>
+  </si>
+  <si>
+    <t>Transport,Fracht,Liefer,Sonderfahrt,Verpackung,Sattelzug,senden,Versand,Verkehr</t>
   </si>
 </sst>
 </file>
@@ -2430,10 +2430,10 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -2463,31 +2463,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.45" customHeight="1">
@@ -2501,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
@@ -2521,7 +2521,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>9</v>
@@ -2554,7 +2554,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3" s="19">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>9</v>
@@ -2607,7 +2607,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="21">
         <v>1.2</v>
@@ -2627,7 +2627,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>9</v>
@@ -2660,7 +2660,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E5" s="21">
         <v>3.4</v>
@@ -2680,7 +2680,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>9</v>
@@ -2713,7 +2713,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E6" s="17">
         <v>4</v>
@@ -2733,7 +2733,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>22</v>
@@ -2766,7 +2766,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E7" s="17">
         <v>4</v>
@@ -2786,7 +2786,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>22</v>
@@ -2819,10 +2819,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F8" s="17">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>22</v>
@@ -2872,7 +2872,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E9" s="17">
         <v>4</v>
@@ -2892,7 +2892,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>22</v>
@@ -2925,7 +2925,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E10" s="17">
         <v>4</v>
@@ -2945,7 +2945,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>22</v>
@@ -2978,10 +2978,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>22</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E12" s="17">
         <v>4</v>
@@ -3051,7 +3051,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>22</v>
@@ -3084,7 +3084,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="17">
         <v>4</v>
@@ -3104,7 +3104,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>22</v>
@@ -3137,10 +3137,10 @@
         <v>27</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F14" s="17">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>22</v>
@@ -3190,7 +3190,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E15" s="19">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>9</v>
@@ -3243,7 +3243,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E16" s="21">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>35</v>
@@ -3296,7 +3296,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="21">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>35</v>
@@ -3349,7 +3349,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E18" s="21">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>35</v>
@@ -3402,7 +3402,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E19" s="21">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>35</v>
@@ -3455,7 +3455,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E20" s="21">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>35</v>
@@ -3508,7 +3508,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E21" s="21">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>35</v>
@@ -3561,7 +3561,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E22" s="21">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>35</v>
@@ -3614,7 +3614,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E23" s="21">
         <v>0</v>
@@ -3634,7 +3634,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>35</v>
@@ -3667,7 +3667,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E24" s="17">
         <v>4</v>
@@ -3687,7 +3687,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>60</v>
@@ -3720,7 +3720,7 @@
         <v>58</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>60</v>
@@ -3773,7 +3773,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E26" s="17">
         <v>4</v>
@@ -3793,7 +3793,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>60</v>
@@ -3826,7 +3826,7 @@
         <v>62</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E27" s="17">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>60</v>
@@ -3879,7 +3879,7 @@
         <v>65</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E28" s="21">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>35</v>
@@ -3932,7 +3932,7 @@
         <v>67</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E29" s="21">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>35</v>
@@ -3985,7 +3985,7 @@
         <v>69</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E30" s="21">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>35</v>
@@ -4038,7 +4038,7 @@
         <v>71</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E31" s="21">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>35</v>
@@ -4091,7 +4091,7 @@
         <v>74</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E32" s="21">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>35</v>
@@ -4144,7 +4144,7 @@
         <v>76</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E33" s="21">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>35</v>
@@ -4197,7 +4197,7 @@
         <v>78</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E34" s="21">
         <v>0</v>
@@ -4217,7 +4217,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>35</v>
@@ -4250,7 +4250,7 @@
         <v>81</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E35" s="21">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>35</v>
@@ -4303,7 +4303,7 @@
         <v>84</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E36" s="21">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>35</v>
@@ -4356,7 +4356,7 @@
         <v>87</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E37" s="21">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>89</v>
@@ -4409,7 +4409,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E38" s="21">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>89</v>
@@ -4462,7 +4462,7 @@
         <v>94</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E39" s="21">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>89</v>
@@ -4515,7 +4515,7 @@
         <v>97</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E40" s="21">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>89</v>
@@ -4568,7 +4568,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E41" s="21">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>89</v>
@@ -4621,7 +4621,7 @@
         <v>103</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E42" s="21">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>89</v>
@@ -4674,7 +4674,7 @@
         <v>106</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E43" s="21">
         <v>0</v>
@@ -4694,7 +4694,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>89</v>
@@ -4727,7 +4727,7 @@
         <v>109</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E44" s="21">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>35</v>
@@ -4780,7 +4780,7 @@
         <v>111</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E45" s="21">
         <v>0</v>
@@ -4800,7 +4800,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>35</v>
@@ -4833,7 +4833,7 @@
         <v>114</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E46" s="17">
         <v>4</v>
@@ -4853,7 +4853,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>22</v>
@@ -4886,7 +4886,7 @@
         <v>114</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E47" s="17">
         <v>4</v>
@@ -4906,7 +4906,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>22</v>
@@ -4939,10 +4939,10 @@
         <v>114</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F48" s="17">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>22</v>
@@ -4992,7 +4992,7 @@
         <v>117</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E49" s="21">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>35</v>
@@ -5045,7 +5045,7 @@
         <v>120</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E50" s="17">
         <v>4</v>
@@ -5065,7 +5065,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>60</v>
@@ -5098,7 +5098,7 @@
         <v>120</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E51" s="17">
         <v>0</v>
@@ -5118,7 +5118,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>60</v>
@@ -5151,7 +5151,7 @@
         <v>123</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E52" s="21">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>35</v>
@@ -5204,7 +5204,7 @@
         <v>126</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E53" s="21">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>128</v>
@@ -5257,7 +5257,7 @@
         <v>130</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E54" s="21">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>128</v>
@@ -5307,10 +5307,10 @@
         <v>132</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E55" s="21">
         <v>0</v>
@@ -5330,7 +5330,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>128</v>
@@ -5357,13 +5357,13 @@
         <v>691210</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="D56" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E56" s="21">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K56" s="12" t="s">
         <v>128</v>
@@ -5410,13 +5410,13 @@
         <v>661711</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="D57" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E57" s="21">
         <v>0</v>
@@ -5436,7 +5436,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>35</v>
@@ -5463,13 +5463,13 @@
         <v>673300</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="D58" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E58" s="21">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K58" s="12" t="s">
         <v>35</v>
@@ -5516,13 +5516,13 @@
         <v>673500</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="D59" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E59" s="17">
         <v>4</v>
@@ -5542,7 +5542,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>60</v>
@@ -5569,13 +5569,13 @@
         <v>673500</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="D60" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E60" s="17">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>60</v>
@@ -5622,13 +5622,13 @@
         <v>673501</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="D61" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E61" s="21">
         <v>0</v>
@@ -5648,7 +5648,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>35</v>
@@ -5675,13 +5675,13 @@
         <v>661000</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E62" s="21">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>35</v>
@@ -5728,13 +5728,13 @@
         <v>661400</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E63" s="21">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>35</v>
@@ -5781,13 +5781,13 @@
         <v>661500</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E64" s="21">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K64" s="12" t="s">
         <v>35</v>
@@ -5834,13 +5834,13 @@
         <v>671600</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E65" s="21">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>35</v>
@@ -5887,13 +5887,13 @@
         <v>673700</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E66" s="17">
         <v>4</v>
@@ -5913,7 +5913,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>60</v>
@@ -5940,13 +5940,13 @@
         <v>673700</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E67" s="17">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K67" s="12" t="s">
         <v>60</v>
@@ -5993,13 +5993,13 @@
         <v>674100</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E68" s="17">
         <v>4</v>
@@ -6019,7 +6019,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>60</v>
@@ -6046,13 +6046,13 @@
         <v>674100</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
@@ -6072,7 +6072,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>60</v>
@@ -6099,13 +6099,13 @@
         <v>674600</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E70" s="21">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>35</v>
@@ -6152,13 +6152,13 @@
         <v>605200</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E71" s="17">
         <v>4</v>
@@ -6178,7 +6178,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K71" s="12" t="s">
         <v>22</v>
@@ -6205,13 +6205,13 @@
         <v>605200</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E72" s="17">
         <v>4</v>
@@ -6231,7 +6231,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K72" s="12" t="s">
         <v>22</v>
@@ -6258,16 +6258,16 @@
         <v>605200</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F73" s="17">
         <v>0</v>
@@ -6284,7 +6284,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>22</v>
@@ -6311,13 +6311,13 @@
         <v>681200</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E74" s="17">
         <v>4</v>
@@ -6337,7 +6337,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K74" s="12" t="s">
         <v>60</v>
@@ -6364,13 +6364,13 @@
         <v>681200</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E75" s="17">
         <v>0</v>
@@ -6390,7 +6390,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>60</v>
@@ -6417,13 +6417,13 @@
         <v>603400</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E76" s="17">
         <v>4</v>
@@ -6443,7 +6443,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>22</v>
@@ -6470,13 +6470,13 @@
         <v>603400</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E77" s="17">
         <v>4</v>
@@ -6496,7 +6496,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>22</v>
@@ -6523,16 +6523,16 @@
         <v>603400</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F78" s="17">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K78" s="12" t="s">
         <v>22</v>
@@ -6576,13 +6576,13 @@
         <v>605210</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E79" s="17">
         <v>4</v>
@@ -6602,7 +6602,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>22</v>
@@ -6629,13 +6629,13 @@
         <v>605210</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E80" s="17">
         <v>4</v>
@@ -6655,7 +6655,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>22</v>
@@ -6682,16 +6682,16 @@
         <v>605210</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F81" s="17">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>22</v>
@@ -6735,13 +6735,13 @@
         <v>673200</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E82" s="21">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>35</v>
@@ -6788,13 +6788,13 @@
         <v>673400</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E83" s="21">
         <v>0</v>
@@ -6814,7 +6814,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>35</v>
@@ -6841,13 +6841,13 @@
         <v>695300</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E84" s="21">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>35</v>
@@ -6894,13 +6894,13 @@
         <v>695400</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E85" s="17">
         <v>4</v>
@@ -6920,7 +6920,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>22</v>
@@ -6947,13 +6947,13 @@
         <v>695400</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E86" s="17">
         <v>4</v>
@@ -6973,7 +6973,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K86" s="12" t="s">
         <v>22</v>
@@ -7000,16 +7000,16 @@
         <v>695400</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F87" s="17">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>22</v>
@@ -7053,13 +7053,13 @@
         <v>605100</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E88" s="17">
         <v>4</v>
@@ -7079,7 +7079,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>22</v>
@@ -7106,13 +7106,13 @@
         <v>605100</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E89" s="17">
         <v>4</v>
@@ -7132,7 +7132,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>22</v>
@@ -7159,16 +7159,16 @@
         <v>605100</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F90" s="17">
         <v>0</v>
@@ -7185,7 +7185,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>22</v>
@@ -7212,13 +7212,13 @@
         <v>674400</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E91" s="17">
         <v>4</v>
@@ -7238,7 +7238,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>60</v>
@@ -7265,13 +7265,13 @@
         <v>674400</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E92" s="17">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K92" s="12" t="s">
         <v>60</v>
@@ -7318,13 +7318,13 @@
         <v>607700</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E93" s="21">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>35</v>
@@ -7371,13 +7371,13 @@
         <v>608030</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E94" s="21">
         <v>0</v>
@@ -7397,7 +7397,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K94" s="12" t="s">
         <v>35</v>
@@ -7424,13 +7424,13 @@
         <v>605400</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E95" s="21">
         <v>0</v>
@@ -7450,7 +7450,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J95" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>35</v>
@@ -7477,13 +7477,13 @@
         <v>694900</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E96" s="21">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J96" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K96" s="12" t="s">
         <v>35</v>
@@ -7530,13 +7530,13 @@
         <v>695000</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E97" s="21">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K97" s="11" t="s">
         <v>35</v>
@@ -7583,13 +7583,13 @@
         <v>695100</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E98" s="21">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J98" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>35</v>
@@ -7636,13 +7636,13 @@
         <v>695200</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E99" s="21">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J99" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K99" s="11" t="s">
         <v>35</v>
@@ -7689,13 +7689,13 @@
         <v>673600</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E100" s="21">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>35</v>
@@ -7742,13 +7742,13 @@
         <v>662400</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E101" s="21">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J101" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>35</v>
@@ -7795,13 +7795,13 @@
         <v>662500</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E102" s="21">
         <v>0</v>
@@ -7821,7 +7821,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J102" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K102" s="12" t="s">
         <v>35</v>
@@ -7848,13 +7848,13 @@
         <v>672310</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E103" s="21">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J103" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>35</v>
@@ -7901,13 +7901,13 @@
         <v>672320</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E104" s="21">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>35</v>
@@ -7954,13 +7954,13 @@
         <v>672400</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E105" s="21">
         <v>0</v>
@@ -7980,7 +7980,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J105" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K105" s="11" t="s">
         <v>35</v>
@@ -8007,13 +8007,13 @@
         <v>672500</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E106" s="21">
         <v>0</v>
@@ -8033,7 +8033,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K106" s="11" t="s">
         <v>35</v>
@@ -8060,13 +8060,13 @@
         <v>672600</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E107" s="21">
         <v>0</v>
@@ -8086,7 +8086,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K107" s="11" t="s">
         <v>35</v>
@@ -8113,13 +8113,13 @@
         <v>672700</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E108" s="21">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J108" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K108" s="11" t="s">
         <v>35</v>
@@ -8166,13 +8166,13 @@
         <v>604400</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E109" s="21">
         <v>0</v>
@@ -8192,7 +8192,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J109" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K109" s="12" t="s">
         <v>128</v>
@@ -8219,13 +8219,13 @@
         <v>604300</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E110" s="21">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J110" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>128</v>
@@ -8272,13 +8272,13 @@
         <v>604310</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E111" s="21">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K111" s="12" t="s">
         <v>128</v>
@@ -8325,13 +8325,13 @@
         <v>604000</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E112" s="21">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J112" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K112" s="12" t="s">
         <v>128</v>
@@ -8378,13 +8378,13 @@
         <v>691300</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E113" s="21">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J113" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>128</v>
@@ -8431,13 +8431,13 @@
         <v>691310</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E114" s="21">
         <v>0</v>
@@ -8457,7 +8457,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J114" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K114" s="12" t="s">
         <v>128</v>
@@ -8484,13 +8484,13 @@
         <v>691350</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E115" s="21">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J115" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>128</v>
@@ -8537,13 +8537,13 @@
         <v>661150</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E116" s="21">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J116" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>35</v>
@@ -8590,13 +8590,13 @@
         <v>999910</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E117" s="21">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J117" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>35</v>
@@ -8670,10 +8670,10 @@
   <sheetData>
     <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -8960,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9010,7 +9010,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -9035,7 +9035,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -9206,10 +9206,10 @@
   <sheetData>
     <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -9494,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9517,7 +9517,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9682,8 +9682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IQ91"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -9695,10 +9695,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.45" customHeight="1">
@@ -10042,7 +10042,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.45" customHeight="1">
@@ -10050,7 +10050,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.45" customHeight="1">
@@ -10058,7 +10058,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.45" customHeight="1">
@@ -10066,7 +10066,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.45" customHeight="1">
@@ -10074,7 +10074,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.45" customHeight="1">
@@ -10082,7 +10082,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.45" customHeight="1">
@@ -10090,7 +10090,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.45" customHeight="1">
@@ -10098,7 +10098,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.45" customHeight="1">
@@ -10106,7 +10106,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.45" customHeight="1">
@@ -10114,7 +10114,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.45" customHeight="1">
@@ -10122,7 +10122,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.45" customHeight="1">
@@ -10130,7 +10130,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.45" customHeight="1">
@@ -10138,7 +10138,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.45" customHeight="1">
@@ -10146,7 +10146,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.45" customHeight="1">
@@ -10154,7 +10154,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.45" customHeight="1">
@@ -10162,7 +10162,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.45" customHeight="1">
@@ -10170,7 +10170,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.45" customHeight="1">
@@ -10178,7 +10178,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.45" customHeight="1">
@@ -10186,7 +10186,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.45" customHeight="1">
@@ -10194,7 +10194,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.45" customHeight="1">
@@ -10202,7 +10202,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.45" customHeight="1">
@@ -10210,7 +10210,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.45" customHeight="1">
@@ -10218,7 +10218,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.45" customHeight="1">
@@ -10226,7 +10226,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.45" customHeight="1">
@@ -10234,7 +10234,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.45" customHeight="1">
@@ -10242,7 +10242,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.45" customHeight="1">
@@ -10250,7 +10250,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.45" customHeight="1">
@@ -10258,7 +10258,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.45" customHeight="1">
@@ -10266,7 +10266,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.45" customHeight="1">
@@ -10274,7 +10274,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.45" customHeight="1">
@@ -10282,7 +10282,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.45" customHeight="1">
@@ -10290,7 +10290,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17.45" customHeight="1">
@@ -10298,7 +10298,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17.45" customHeight="1">
@@ -10306,7 +10306,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17.45" customHeight="1">
@@ -10314,7 +10314,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17.45" customHeight="1">
@@ -10322,7 +10322,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17.45" customHeight="1">
@@ -10330,7 +10330,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.45" customHeight="1">
@@ -10338,7 +10338,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.45" customHeight="1">
@@ -10346,7 +10346,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.45" customHeight="1">
@@ -10354,7 +10354,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.45" customHeight="1">
@@ -10362,7 +10362,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17.45" customHeight="1">
@@ -10370,7 +10370,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.45" customHeight="1">
@@ -10378,7 +10378,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17.45" customHeight="1">
@@ -10386,7 +10386,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.45" customHeight="1">
@@ -10394,7 +10394,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.45" customHeight="1">
@@ -10402,7 +10402,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.45" customHeight="1">
@@ -10410,7 +10410,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17.45" customHeight="1">
@@ -10418,7 +10418,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -10445,15 +10445,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -10461,31 +10461,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>89</v>
@@ -10526,16 +10526,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -10605,13 +10605,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -10643,13 +10643,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -10675,19 +10675,19 @@
         <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -10757,13 +10757,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -10795,13 +10795,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -10836,10 +10836,10 @@
         <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -10871,13 +10871,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -10900,7 +10900,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -10909,13 +10909,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -10947,13 +10947,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -10985,13 +10985,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -11023,13 +11023,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -13648,54 +13648,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
-        </TermInfo>
-      </Terms>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Value>7</Value>
-      <Value>6</Value>
-      <Value>5</Value>
-      <Value>4</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101008B0F08FECF9ACD44B69B0979475AA3A3" ma:contentTypeVersion="5" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="15e7cafbdefa31d60e781c5e4062628f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be70f0-66b9-4629-a389-4b080fc0dfa6" xmlns:ns3="cc54d3cb-87fe-4b6a-be2e-e1fd0be84e77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e6785b8b81ecd23d6e742c299b13f" ns2:_="" ns3:_="">
     <xsd:import namespace="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
@@ -13852,6 +13804,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
+        </TermInfo>
+      </Terms>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Value>7</Value>
+      <Value>6</Value>
+      <Value>5</Value>
+      <Value>4</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13862,16 +13862,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BF3E90-0828-4759-ACA7-3670C46D50E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13890,6 +13880,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
   <ds:schemaRefs>

--- a/Datei.xlsx
+++ b/Datei.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cts\Documents\SEA\sea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A504F82-4722-4451-99EB-6A61CB947E06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4629B8-2998-4921-95E4-D589C87A5C70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="303">
   <si>
     <t>Account ID</t>
   </si>
@@ -820,15 +820,9 @@
     <t>Stage2 logic</t>
   </si>
   <si>
-    <t>Kauf von Waren</t>
-  </si>
-  <si>
     <t>Sonstiges</t>
   </si>
   <si>
-    <t>Beauftragung</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -905,6 +899,54 @@
   </si>
   <si>
     <t>Transport,Fracht,Liefer,Sonderfahrt,Verpackung,Sattelzug,senden,Versand,Verkehr</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>Kauf von Waren, die körperlich existieren</t>
+  </si>
+  <si>
+    <t>Beauftragung von Dienstleistungen</t>
+  </si>
+  <si>
+    <t>Miete</t>
+  </si>
+  <si>
+    <t>Bewirtung / Reisekosten, Veranstaltungen</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Entsorgungskosten, Nebenkosten (Wasser, Strom, etc.), Reinigung</t>
+  </si>
+  <si>
+    <t>Versicherung, Rechtsberatung</t>
+  </si>
+  <si>
+    <t>Entwicklung- und Anlaufkosten</t>
+  </si>
+  <si>
+    <t>Einkauf, Vertrieb</t>
   </si>
 </sst>
 </file>
@@ -2429,11 +2471,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -2469,25 +2511,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>259</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.45" customHeight="1">
@@ -2521,7 +2563,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>9</v>
@@ -2574,7 +2616,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>9</v>
@@ -2627,7 +2669,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>9</v>
@@ -2680,7 +2722,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>9</v>
@@ -2733,7 +2775,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>22</v>
@@ -2786,7 +2828,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>22</v>
@@ -2839,7 +2881,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>22</v>
@@ -2892,7 +2934,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>22</v>
@@ -2945,7 +2987,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>22</v>
@@ -2998,7 +3040,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>22</v>
@@ -3051,7 +3093,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>22</v>
@@ -3104,7 +3146,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>22</v>
@@ -3157,7 +3199,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>22</v>
@@ -3210,7 +3252,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>9</v>
@@ -3263,7 +3305,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>35</v>
@@ -3316,7 +3358,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>35</v>
@@ -3369,7 +3411,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>35</v>
@@ -3422,7 +3464,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>35</v>
@@ -3475,7 +3517,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>35</v>
@@ -3528,7 +3570,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>35</v>
@@ -3581,7 +3623,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>35</v>
@@ -3634,7 +3676,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>35</v>
@@ -3687,7 +3729,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>60</v>
@@ -3740,7 +3782,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>60</v>
@@ -3793,7 +3835,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>60</v>
@@ -3846,7 +3888,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>60</v>
@@ -3899,7 +3941,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>35</v>
@@ -3952,7 +3994,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>35</v>
@@ -4005,7 +4047,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>35</v>
@@ -4058,7 +4100,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>35</v>
@@ -4111,7 +4153,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>35</v>
@@ -4164,7 +4206,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>35</v>
@@ -4217,7 +4259,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>35</v>
@@ -4270,7 +4312,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>35</v>
@@ -4323,7 +4365,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>35</v>
@@ -4376,7 +4418,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>89</v>
@@ -4429,7 +4471,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>89</v>
@@ -4482,7 +4524,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>89</v>
@@ -4535,7 +4577,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>89</v>
@@ -4588,7 +4630,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>89</v>
@@ -4641,7 +4683,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>89</v>
@@ -4694,7 +4736,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>89</v>
@@ -4747,7 +4789,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>35</v>
@@ -4800,7 +4842,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>35</v>
@@ -4853,7 +4895,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>22</v>
@@ -4906,7 +4948,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>22</v>
@@ -4959,7 +5001,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>22</v>
@@ -5012,7 +5054,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>35</v>
@@ -5065,7 +5107,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>60</v>
@@ -5118,7 +5160,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>60</v>
@@ -5171,7 +5213,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>35</v>
@@ -5224,7 +5266,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>128</v>
@@ -5277,7 +5319,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>128</v>
@@ -5307,7 +5349,7 @@
         <v>132</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>257</v>
@@ -5330,7 +5372,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>128</v>
@@ -5383,7 +5425,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K56" s="12" t="s">
         <v>128</v>
@@ -5436,7 +5478,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>35</v>
@@ -5489,7 +5531,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K58" s="12" t="s">
         <v>35</v>
@@ -5542,7 +5584,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>60</v>
@@ -5595,7 +5637,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>60</v>
@@ -5648,7 +5690,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>35</v>
@@ -5678,7 +5720,7 @@
         <v>148</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>257</v>
@@ -5701,7 +5743,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>35</v>
@@ -5754,7 +5796,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>35</v>
@@ -5807,7 +5849,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="K64" s="12" t="s">
         <v>35</v>
@@ -5860,7 +5902,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>35</v>
@@ -5913,7 +5955,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>60</v>
@@ -5966,7 +6008,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K67" s="12" t="s">
         <v>60</v>
@@ -6019,7 +6061,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>60</v>
@@ -6072,7 +6114,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>60</v>
@@ -6125,7 +6167,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>35</v>
@@ -6178,7 +6220,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K71" s="12" t="s">
         <v>22</v>
@@ -6231,7 +6273,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K72" s="12" t="s">
         <v>22</v>
@@ -6284,7 +6326,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>22</v>
@@ -6337,7 +6379,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K74" s="12" t="s">
         <v>60</v>
@@ -6390,7 +6432,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>60</v>
@@ -6443,7 +6485,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>22</v>
@@ -6496,7 +6538,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>22</v>
@@ -6549,7 +6591,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K78" s="12" t="s">
         <v>22</v>
@@ -6579,7 +6621,7 @@
         <v>173</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>257</v>
@@ -6602,7 +6644,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>22</v>
@@ -6632,7 +6674,7 @@
         <v>173</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>257</v>
@@ -6655,7 +6697,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>22</v>
@@ -6685,7 +6727,7 @@
         <v>173</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>257</v>
@@ -6708,7 +6750,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>22</v>
@@ -6761,7 +6803,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>35</v>
@@ -6814,7 +6856,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>35</v>
@@ -6867,7 +6909,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>35</v>
@@ -6920,7 +6962,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>22</v>
@@ -6973,7 +7015,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K86" s="12" t="s">
         <v>22</v>
@@ -7026,7 +7068,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>22</v>
@@ -7079,7 +7121,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>22</v>
@@ -7132,7 +7174,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>22</v>
@@ -7185,7 +7227,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>22</v>
@@ -7238,7 +7280,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>60</v>
@@ -7291,7 +7333,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K92" s="12" t="s">
         <v>60</v>
@@ -7344,7 +7386,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>35</v>
@@ -7397,7 +7439,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="K94" s="12" t="s">
         <v>35</v>
@@ -7450,7 +7492,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J95" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>35</v>
@@ -7503,7 +7545,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J96" s="20" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="K96" s="12" t="s">
         <v>35</v>
@@ -7556,7 +7598,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="K97" s="11" t="s">
         <v>35</v>
@@ -7609,7 +7651,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J98" s="20" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>35</v>
@@ -7662,7 +7704,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J99" s="20" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="K99" s="11" t="s">
         <v>35</v>
@@ -7715,7 +7757,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>35</v>
@@ -7768,7 +7810,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J101" s="20" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>35</v>
@@ -7821,7 +7863,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J102" s="20" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K102" s="12" t="s">
         <v>35</v>
@@ -7874,7 +7916,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J103" s="20" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>35</v>
@@ -7927,7 +7969,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>35</v>
@@ -7980,7 +8022,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J105" s="20" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K105" s="11" t="s">
         <v>35</v>
@@ -8033,7 +8075,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K106" s="11" t="s">
         <v>35</v>
@@ -8086,7 +8128,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K107" s="11" t="s">
         <v>35</v>
@@ -8139,7 +8181,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J108" s="20" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K108" s="11" t="s">
         <v>35</v>
@@ -8192,7 +8234,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J109" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K109" s="12" t="s">
         <v>128</v>
@@ -8245,7 +8287,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J110" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>128</v>
@@ -8298,7 +8340,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K111" s="12" t="s">
         <v>128</v>
@@ -8351,7 +8393,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J112" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K112" s="12" t="s">
         <v>128</v>
@@ -8404,7 +8446,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J113" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>128</v>
@@ -8457,7 +8499,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J114" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K114" s="12" t="s">
         <v>128</v>
@@ -8510,7 +8552,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J115" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>128</v>
@@ -8563,7 +8605,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J116" s="20" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>35</v>
@@ -8616,7 +8658,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J117" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>35</v>
@@ -8673,7 +8715,7 @@
         <v>247</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9209,7 +9251,7 @@
         <v>247</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9698,7 +9740,7 @@
         <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.45" customHeight="1">
@@ -10432,15 +10474,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EDCB46-8C9D-4F41-BE01-4AA6C9FAE314}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10448,12 +10490,12 @@
         <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -10461,34 +10503,90 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -10526,16 +10624,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>248</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -10573,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -10605,13 +10703,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>249</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -10643,13 +10741,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -10681,13 +10779,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -10725,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -10757,13 +10855,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>252</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -10795,13 +10893,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -10839,7 +10937,7 @@
         <v>253</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -10877,7 +10975,7 @@
         <v>255</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -10915,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -10947,13 +11045,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -10985,13 +11083,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -11023,13 +11121,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -13648,6 +13746,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101008B0F08FECF9ACD44B69B0979475AA3A3" ma:contentTypeVersion="5" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="15e7cafbdefa31d60e781c5e4062628f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be70f0-66b9-4629-a389-4b080fc0dfa6" xmlns:ns3="cc54d3cb-87fe-4b6a-be2e-e1fd0be84e77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e6785b8b81ecd23d6e742c299b13f" ns2:_="" ns3:_="">
     <xsd:import namespace="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
@@ -13804,7 +13911,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
@@ -13852,16 +13959,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BF3E90-0828-4759-ACA7-3670C46D50E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13880,7 +13986,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13888,12 +13994,4 @@
     <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Datei.xlsx
+++ b/Datei.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cts\Documents\SEA\sea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4629B8-2998-4921-95E4-D589C87A5C70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD44E3-0DF7-41DF-B8AA-F6A8321CDCC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="362">
   <si>
     <t>Account ID</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Geschenke, Streuartikel &lt;= EUR 10</t>
   </si>
   <si>
-    <t>Tasche,Bücher,Schenk,Kugelschreiber,Anhänger,Beutel,Sack,Puzzle,Armb,USB,Buch,Porsche,Tasse,Becher,Tasche,Blume</t>
-  </si>
-  <si>
     <t>Geschenke &amp; Streuartikel (z.B. Kugelschreiber, Kalender)</t>
   </si>
   <si>
@@ -73,36 +70,24 @@
     <t>Geschenke nicht abzugsfähig (ext. &gt;35 EUR)</t>
   </si>
   <si>
-    <t>Armb,USB,Kugelschreiber,Shirt,Schenk,Hemd,Modell,Schirm,Quizaktion,Schuh,schenk,Box,Hose,Hotel,Porsche,Gutschein,Poster,Becher,Tasche</t>
-  </si>
-  <si>
     <t>Empfänger: Unbekannt, VW Konzern, ToGes PAG und Geschäftspartner (für Geschenke, Bewirtung, Kleidung und Reise)</t>
   </si>
   <si>
     <t>Sonstige Personalnebenkosten &lt; 60 EUR</t>
   </si>
   <si>
-    <t>Polo,Karten,Kugelschreiber,Geburtstag,Verpflegung,Blume,Schoko,Schenk,Armb,USB,Team,Dinner ,Messe,Modell,Bewirtung,Porsche,Gutschein,Tasse,Becher</t>
-  </si>
-  <si>
     <t>Für PAG Mitarbeiter (Bewirtung &amp; Geschenke) &lt; 60 EUR</t>
   </si>
   <si>
     <t>Sonstige Personalnebenkosten &gt; 60 EUR</t>
   </si>
   <si>
-    <t>Ausbildung,Schulung,Seminar,Training,Kurs,Weiterbildung,Workshop,Schenk,Modell,Bewirtung,Porsche,Sicherheit,Gutschein,Tasse,Becher,Tasche,Poster,Bild,Polo</t>
-  </si>
-  <si>
     <t>Für PAG Mitarbeiter (Bewirtung &amp; Geschenke) &gt;= 60 EUR</t>
   </si>
   <si>
     <t>Arbeitsschutzkleidung</t>
   </si>
   <si>
-    <t>Stick,Schutz,Schuh,Jacke ,T-Shirt,Helm,Größe,Bluse,Hemd,Socke,Name,Herr,Frau,Mitarbeiter,Betrieb,Produktion,Dame,Beruf,Sicherheit</t>
-  </si>
-  <si>
     <t>Arbeitsschutzkleidung für die Herstellung von Fahrzeugen</t>
   </si>
   <si>
@@ -112,36 +97,24 @@
     <t>Sonstige Arbeitsschutzkleidung (intern)</t>
   </si>
   <si>
-    <t>Stick,Krawatte,Sakko ,Hemd ,Jeans,Bluse,Hose,Jacke,Größe,Rock,Name,Herr,Frau,Mitarbeiter,Koch,Kleid,Mantel,Dame,Beruf,Sicherheit</t>
-  </si>
-  <si>
     <t>Arbeitsschutzkleidung nicht für die Herstellung von Fahrzeugen, bspw. Kochmütze für die Kantine</t>
   </si>
   <si>
     <t>sonstige Arbeitskleidung externe</t>
   </si>
   <si>
-    <t>Rückgabe,Weste,Ponchos,Turnier,Schuhe,Hostessen,Ausrüstung,Kleidung,Helm,Trikot,Betriebssport,Name,Herr,Frau,Mitarbeiter,Kleid,Dame,Sicherheit</t>
-  </si>
-  <si>
     <t>Arbeitskleidung, verpflichtende Rückgabe nach Tragen der Kleidung</t>
   </si>
   <si>
     <t>Sonstige Arbeitskleidung (interne)</t>
   </si>
   <si>
-    <t>Microfleece,Shirt,Softshell,Jacke,Funktion,Schuh,Thermo,Longsleeve,Stiefel,Strick,Kleid,Sicherheit</t>
-  </si>
-  <si>
     <t>Für PAG Mitarbeiter (Geschenk: Kleidung)</t>
   </si>
   <si>
     <t>Sonstige Mieten</t>
   </si>
   <si>
-    <t>Miet,Server,Computer,EDV,Rampe,Medien,Technik,Zaun,Zäune,Müllbehälter,Drucker,Anlage,Maschin,Nutzfahrzeuge,Kältekammer,Möbel,Telefon,Container,Sport</t>
-  </si>
-  <si>
     <t>Mieten für z.B. Maschinen, Hardware Absperrtechnik, Arbeitskleidung (aber kein PKW)</t>
   </si>
   <si>
@@ -151,18 +124,12 @@
     <t>Repräsentationskosten</t>
   </si>
   <si>
-    <t>Kaffee,Espresso,Obst,Bohnen,Kapseln,Keks,Schoko,Lavazza,Bonbon,Gummibärchen,Lutscher,Süßigkeit,Brezel,Brötchen,Milch,Zucker,Salz,Veranstaltung,HEV,Workshop</t>
-  </si>
-  <si>
     <t>Aufmerksamkeiten, u.a. Gebäck, Obst, Kaffee</t>
   </si>
   <si>
     <t>Bewirtungskosten aus gesch. Anlaß  (70 %)</t>
   </si>
   <si>
-    <t>Meeting,Cater,Dinner,Getränke,Location,Verpflegung,Konferenz,Restaurant,Mittag,Frühstück,Wasser,Imbiss,Snack,Abendessen,Essen,Speise,Bewirtung,Veranstaltung,HEV,Workshop</t>
-  </si>
-  <si>
     <t>Betriebliche Bewirtung, z.B. Workshop, Veranstaltung, Messe</t>
   </si>
   <si>
@@ -187,9 +154,6 @@
     <t>Reisenebenkosten</t>
   </si>
   <si>
-    <t>Reise,Onsite,Support,Kosten,Maut,Vignette,Visa,Pass,Führerschein,Gebühr,Telefon,Park,BahnCard</t>
-  </si>
-  <si>
     <t>Reisenebenkosten PAG Mitarbeiter, bspw. BahnCard, Park-Gebühren</t>
   </si>
   <si>
@@ -205,18 +169,12 @@
     <t>Umzugskosten/doppelte Haushaltsführung</t>
   </si>
   <si>
-    <t>Entsendung,Umzug,Kurs,Steuerberatungskosten,Caregroupkosten,Versicherung,BGHM,Übersetzung,Kultur,Miet,doppelt,Haushalt,Arbeitszimmer</t>
-  </si>
-  <si>
     <t>Kosten Entsendung für PAG Mitarbeiter</t>
   </si>
   <si>
     <t>Veranstaltungskosten</t>
   </si>
   <si>
-    <t>Veranstaltung,Event,Messe,Halle,Flug,Hostessen,Coaching,Transfer,Fahrtkosten,Übernachtung,IAA,Auto,n/a,Porsche,Transport,n/a,Workshop,Feier,Nachtrag</t>
-  </si>
-  <si>
     <t>Veranstaltungskosten z.B. Reisekosten, Servicekosten, Unterhaltungsprogramm, Ausstattung</t>
   </si>
   <si>
@@ -235,9 +193,6 @@
     <t>Seminarkosten</t>
   </si>
   <si>
-    <t>Seminar,Kosten,Schulung,Inhouse,Kurs,Gebühr,Train,Anmeld,Gefahrgut,Webinar</t>
-  </si>
-  <si>
     <t>Sonstige Kosten im Rahmen einer Messe</t>
   </si>
   <si>
@@ -247,63 +202,39 @@
     <t>Miete Rennstrecken</t>
   </si>
   <si>
-    <t>Renn,Strecke,Rennstrecke,Miet,Veranstaltung,HEV,Workshop</t>
-  </si>
-  <si>
     <t>Immobilienleasing</t>
   </si>
   <si>
-    <t>Miet,Lager,Leas,Boxen,Technik,Garage,Apartment,Container,Veranstaltung,HEV,Workshop</t>
-  </si>
-  <si>
     <t>Miete für unbewegliche Wirtschaftsgüter (z.B. Lager, Container, Räumlichkeiten)</t>
   </si>
   <si>
     <t>Mieten für fremde Grundstücke</t>
   </si>
   <si>
-    <t>Miet,Fläche,n/a,Boxberg,Fremd,Grundstück,Veranstaltung,HEV,Workshop</t>
-  </si>
-  <si>
     <t>Miete für fremde Gebäude</t>
   </si>
   <si>
-    <t>Gebäude,Miet,Halle,Raum,Immobilie,Fremd,Zimmer,Haus,Häuser,Büro,Veranstaltung,HEV,Workshop</t>
-  </si>
-  <si>
     <t>Mietnebenkosten</t>
   </si>
   <si>
-    <t>Nebenkosten,Aufstellplan,Täglich,Wöchentlich,Monatlich,Reinigung,Plan,Strom,Gas,Heizung,Wasser,Putz,Müll,Hausmeister,HEV,Workshop</t>
-  </si>
-  <si>
     <t>Mietnebenkosten (z.B. Hausmeister)</t>
   </si>
   <si>
     <t>Mobilienleasing</t>
   </si>
   <si>
-    <t>Kfz,Auto,Leas,Miet,Flurförder,Ameise,Veranstaltung,HEV,Workshop</t>
-  </si>
-  <si>
     <t>Mieten für z.B. PKW, E-Scooter, Roller</t>
   </si>
   <si>
     <t>Miete JobRad</t>
   </si>
   <si>
-    <t>Rad,Fahrrad,Entleihung,Miet,Bike,Fahr,Leih</t>
-  </si>
-  <si>
     <t>Miete Firmenfahrrad</t>
   </si>
   <si>
     <t>Reparatur u. Instandhalt. eig. Gebäude u. Grundst.</t>
   </si>
   <si>
-    <t>Montage,Prüf,Wart,Instand,Repa,Tausch,Ersatz,Gebäude,Grundstück,eigen,Abwasseranlage,Klimagerät,Spülküche,Lichtkuppeln,Tore,Wasserschaden,Dach,Renovier</t>
-  </si>
-  <si>
     <t>Reparatur/Instandhaltung für eigene Gebäude/Grundstücke z.B. Fenstern, Sanitär</t>
   </si>
   <si>
@@ -313,45 +244,30 @@
     <t>Reparatur und Instandhaltung Maschinen und Anlagen</t>
   </si>
   <si>
-    <t>Montage,Prüf,Wart,Instand,Repa,Tausch,Ersatz,Anlage,Maschine,Pumpe,Ventil,Glockenteller ,Temperiereinheit,Generator ,Roboter,Kochkessel,Düsen,Tankanlagen ,Hebebühne,Renovier</t>
-  </si>
-  <si>
     <t>Reparatur und Instandhaltung Maschinen und Anlagen z.B. Roboter, Gabelstapler</t>
   </si>
   <si>
     <t>Reparatur und Instandhaltung Betriebsausstattung</t>
   </si>
   <si>
-    <t>Montage,Prüf,Wart,Instand,Repa,Tausch,Ersatz,Umbau,Maschine,Drucker,Möbel</t>
-  </si>
-  <si>
     <t>Reparatur und Instandhaltung der Betriebsausstattung z.B. Büroausstattung</t>
   </si>
   <si>
     <t>Reparatur und Instandhaltung Werkzeuge</t>
   </si>
   <si>
-    <t>Montage,Prüf,Wart,Instand,Repa,Tausch,Ersatz,Werkzeug,Akku,Kontur,Pumpe,Ventil,Glockenteller ,Ecogun Sealing 3D,Rührwerk,Generator ,Biaxschleifer,Düsen,AKKU Schrauber,Schrauber</t>
-  </si>
-  <si>
     <t>Reparatur und Instandhaltung Werkzeuge z.B. Akkubohrschrauber</t>
   </si>
   <si>
     <t>Reparatur und Instandhaltung Fuhrpark</t>
   </si>
   <si>
-    <t>Montage,Prüf,Wart,Instand,Repa,Tausch,Ersatz,LKW,Wagen,Transporter,Van,Unterboden,Porsche,Reifen,Renovier</t>
-  </si>
-  <si>
     <t>Reparatur und Instandhaltung Fuhrpark z.B. Erprobungsfahrzeug</t>
   </si>
   <si>
     <t>Reparatur und Instandhaltung gemietete Gebäude</t>
   </si>
   <si>
-    <t>Montage,Prüf,Wart,Instand,Repa,Tausch,Ersatz,Gebäude,fremd,Miet,Abwasseranlage,Klimagerät,Spülküche,Lichtkuppeln,Tore,Wasserschaden,Dach,Renovier</t>
-  </si>
-  <si>
     <t>Reparatur und Instandhaltung gemietete Gebäude z.B. Fenstern, Sanitär</t>
   </si>
   <si>
@@ -367,60 +283,39 @@
     <t>Ausbildungskosten</t>
   </si>
   <si>
-    <t>Ausbildung,Schulung,Seminar,Train,Kurs,Weiterbildung,Workshop,Buch,Bücher,Bildung</t>
-  </si>
-  <si>
     <t>EDV-Beratung, Programmierung</t>
   </si>
   <si>
-    <t>EDV,Programm,Beratung,Software,IT-Administration,Tool,Gebühr,Erweiterung,Projekt,Leit,Manager,App,Coach</t>
-  </si>
-  <si>
     <t>IT-Programmierung z.B. MHP</t>
   </si>
   <si>
     <t>EDV-Material</t>
   </si>
   <si>
-    <t>Hardware,Zubehör,Kabel,Maus,Akku,Computer,Adapter,Tastatur,Click,Bildschirm,Ladegerät,Server,Kauf,Tablet,Mainboard,Apple,Fakra,Logitech,Festplatte</t>
-  </si>
-  <si>
     <t>IT-Material z.B. Ladegerät, Laptop</t>
   </si>
   <si>
     <t>Beratungskosten - nicht genehmigungspflichtig - IT</t>
   </si>
   <si>
-    <t>Repair,Unterstützung,Schulung,Workshop,Beratung,Projekt,Leit,Manager,Berater,Coach,IT,EDV</t>
-  </si>
-  <si>
     <t>IT Fachbereichs-Beratungskosten z.B. MHP</t>
   </si>
   <si>
     <t>Beratungskosten - nicht genehmigungspflichtig - Fachlich</t>
   </si>
   <si>
-    <t>Repair,Audit,Unterstützung,Schulung,Workshop,Beratung,Projekt,Leit,Manager,Berater,Coach,n/a,Nachtrag</t>
-  </si>
-  <si>
     <t>Strategie-, Organisations- und Prozessberatung, HR Beratung, Fachbereichsprojekte zur Lieferantenunterstützung, Planungsleistung</t>
   </si>
   <si>
     <t>Aufwendungen für das Leasing von Software</t>
   </si>
   <si>
-    <t>Software,Lizenz,Mircosoft,Leas,Update,SAP,Lizenz,Wartung,Support,Miet</t>
-  </si>
-  <si>
     <t>Aufwendungen für das Leasing von Software z.B. Microsoftlizenz</t>
   </si>
   <si>
     <t>Versandkosten Fahrzeuge</t>
   </si>
   <si>
-    <t>Luftfracht,Umfuhr ,Transport,Bahn,Shuttle,LKW,Schiff,Flug,Porsche,Express,Export,Import,Händler,senden,Versand,Verkehr</t>
-  </si>
-  <si>
     <t>Versandkosten für Fahrzeuge</t>
   </si>
   <si>
@@ -430,9 +325,6 @@
     <t>Versandkosten Ersatzteile</t>
   </si>
   <si>
-    <t>Logistik,Fracht,Transport,Sonderfahrt ,Ersatzteil,Schiff,Flug,Express,Import,Export,Händler,Dinner senden,Versand,Verkehr</t>
-  </si>
-  <si>
     <t>Versandkosten für Ersatzteile</t>
   </si>
   <si>
@@ -505,120 +397,78 @@
     <t>Fremdreinigung Gebäude + Grundst. und Bewachung</t>
   </si>
   <si>
-    <t>Reinigung,Portier,Gebäude,Grundstück,Bewachung,Security,Putz,Reinigung ,Gebäude,Außenanlage,Grünpflege,Kauf</t>
-  </si>
-  <si>
     <t>Fremdreinigung Gebäude + Grundst. und Bewachung (z.B. Reinigung, Nachtwächter)</t>
   </si>
   <si>
     <t>Vermittler- und sonstige Honorare: Honorare</t>
   </si>
   <si>
-    <t>Agentur,Vermittler,Honorar,Unterstützung,Berat,Kauf,Nachtrag</t>
-  </si>
-  <si>
     <t>Vermittler- und sonstige Honorare z.B. Dolmetscher, Personalvermittlung</t>
   </si>
   <si>
     <t>Aufwendungen für Serviceleistungen</t>
   </si>
   <si>
-    <t>Tank,Putz,Service,Leistung,Aufwendung,Dienst,Arbeit,Tätigkeit,Beauftragt,Service,Auftrag,Kauf,Nachtrag</t>
-  </si>
-  <si>
     <t>Aufwendungen für Serviceleistungen z.B. Brandschutzbeauftragter</t>
   </si>
   <si>
     <t>Honorare für Künstler, Sportler, Entertainer</t>
   </si>
   <si>
-    <t>Honorar,Künstler,Sportler,Entertainer,Moderator,Kauf</t>
-  </si>
-  <si>
     <t>Papier, Büromaterial, Filmmaterial</t>
   </si>
   <si>
-    <t>Hülle,Tinte,Mappe,Marker,Buch,Block,Stift,Taschenrechner ,Kalender,Patrone,Film,Papier,Foto,Druck,Stempel,Register,Etikette,Kalender,Schreiber</t>
-  </si>
-  <si>
     <t>Papier, Büromaterial z.B. Locher</t>
   </si>
   <si>
     <t>Marketing</t>
   </si>
   <si>
-    <t>Marketing,Werbung,Flyer,Druck,Mitgliedschaft,Anzeige,Material,Social,Media,Influencer,Medien,Xing,LinkedIn,Banner,Werbe,Kauf,Film,Kampange,Nachtrag,Logo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marketing </t>
   </si>
   <si>
     <t>Schleif-, Poliermaterialien</t>
   </si>
   <si>
-    <t>Polier,Schleif,Maschine,material,Adapter,n/a,METABO,Trennscheibe,Kauf</t>
-  </si>
-  <si>
     <t>Zeitschriften, Bücher (Fachliteratur)</t>
   </si>
   <si>
     <t>Mitgliedsbeiträge zu Verbänden und Vereinen</t>
   </si>
   <si>
-    <t>Verein,Mitglied,Verband,VDA,Jahres,Monat,Gebühr,Kauf</t>
-  </si>
-  <si>
     <t>sonst. Gebühren</t>
   </si>
   <si>
-    <t>Kauf,GEZ,Kommunen,Beitrag,Jahres,Gebühr,Nutzung,Jährlich,Kauf</t>
-  </si>
-  <si>
     <t>sonstige Gebühren</t>
   </si>
   <si>
     <t>Entsorgungskosten</t>
   </si>
   <si>
-    <t>Verwertung,Gewerbemüll      ,Müll,Abfall,Obsolet,Zerstör,Schrott,Entsorg,Abtransport,Sorgung,Recycl,Absaug,Remondis,Shredder,Reißwolf,Kauf,ALBA,Vernichtung</t>
-  </si>
-  <si>
     <t>Entsorgungskosten z.B. Aktenvernichtung</t>
   </si>
   <si>
     <t>Sonstige betriebliche Aufwendungen</t>
   </si>
   <si>
-    <t>Kauf,betrieblich,Aufwendungen,Pflanze,Küche,Schild,Aufwand,Stuhl,Fernseher,Schraubenschlüssel,Tasse,Poster,Kaffeemaschine</t>
-  </si>
-  <si>
     <t>Sonstige betriebliche Aufwendungen z.B. Bürolampe, Seifenspender</t>
   </si>
   <si>
     <t xml:space="preserve">Maschinenwerkzeuge </t>
   </si>
   <si>
-    <t>Werkzeug,Maschin,klein,Kauf,Fräse,Traggurt,Bohrer,Schrauber,Säge,Hammer,Sauger,Zange,Spirale,Hacke,Stichling,Schneider,Bürste,Hobel,Meisel,Schlüssel</t>
-  </si>
-  <si>
     <t>Werkzeuge z.B. Schraubenzieher, Bohrer</t>
   </si>
   <si>
     <t>Sonstige Fremdleistungen</t>
   </si>
   <si>
-    <t>Gutachter,Vermesser,Projektsteuerer,Sicherheitskoordinator,Gesundheitskoordinator,Facility Management,Sanitätsdienst,Baustelle,Archivleistungen,Schädlingsbekämpfung,Winterdienst,CAD  Zeichner,Gutachter,Baugenehmigungen,Umzugskoordinator,Überprüfung,Unterstützung,Konfektionierung,Übersetzung</t>
-  </si>
-  <si>
     <t>Sonstige Fremdleistungen, z.B. Projektsteuerung, Sanitätsdienst</t>
   </si>
   <si>
     <t>Fremdentwicklungskosten allgemein</t>
   </si>
   <si>
-    <t>Entwicklung,Fremd,Leistung,Serie,Lieferant,Bestell,Beauftrag,Kauf,Kooperation,Partner,Konzern</t>
-  </si>
-  <si>
     <t>Fremd-Entwicklungen von Serienteilelieferanten, wie z.B. Bosch, Mahle</t>
   </si>
   <si>
@@ -643,108 +493,57 @@
     <t>Heizöl und Fernwärme</t>
   </si>
   <si>
-    <t>Heiz,Öl,Wärme,Fern</t>
-  </si>
-  <si>
     <t>Gas</t>
   </si>
   <si>
     <t>Rechtsberatungs- und Prozeßkosten</t>
   </si>
   <si>
-    <t>Recht,Prozess,Beratung,Anwalt,Auftrag</t>
-  </si>
-  <si>
     <t>Sachversicherungen Allgefahren</t>
   </si>
   <si>
-    <t>Sach,Versicher</t>
-  </si>
-  <si>
     <t>Betriebshaftpflichtversicherung</t>
   </si>
   <si>
-    <t>Versich,Betrieb,Haft,Plficht</t>
-  </si>
-  <si>
     <t>Transportversicherungen</t>
   </si>
   <si>
-    <t>Transport,Versicher</t>
-  </si>
-  <si>
     <t>Gruppen-Unfallversicherung</t>
   </si>
   <si>
-    <t>Unfall,Versicher,Gruppe</t>
-  </si>
-  <si>
     <t>Kraftfahrzeugversicherung</t>
   </si>
   <si>
-    <t>Kfz,Kraftfahrzeug,Auto,Versich</t>
-  </si>
-  <si>
     <t>sonst. Anlagenversicherungen</t>
   </si>
   <si>
-    <t>Versich,Anlag</t>
-  </si>
-  <si>
     <t>FBU-Versicherung Allgefahren</t>
   </si>
   <si>
-    <t>Versich</t>
-  </si>
-  <si>
     <t>sonstige Risikoversicherung</t>
   </si>
   <si>
-    <t>Risiko,Versicher</t>
-  </si>
-  <si>
     <t>Verpackungskosten der Lieferanten</t>
   </si>
   <si>
-    <t>Eingang,Fracht,Porto,Verpack,Versand,schicken,transport,Contain,Lieferant,Verkehr,kosten</t>
-  </si>
-  <si>
     <t>Warenbeschaffungskosten</t>
   </si>
   <si>
-    <t>Eingang,Fracht,Teile,Zug,Luftfracht,Express,Schiff,Flugzeug,express,LKW,Verkehr,kosten</t>
-  </si>
-  <si>
     <t>Warenbeschaffungskosten Ersatzteile</t>
   </si>
   <si>
-    <t>Eingang,Fracht,Teile,Zug,Luftfracht,Express,Schiff,Flugzeug,express,LKW,Ersatz,Verkehr,kosten</t>
-  </si>
-  <si>
     <t>Verpackung und Versand</t>
   </si>
   <si>
-    <t>Eingang,Fracht,Porto,Verpack,Versand,schicken,transport,Contain,Verkehr,kosten</t>
-  </si>
-  <si>
     <t>Eingangstransportkosten</t>
   </si>
   <si>
-    <t>Eingang,Fracht,Laderampe,Versicherung,Transport,Verkehr,kosten</t>
-  </si>
-  <si>
     <t>Ungeplante Bezugsnebenkosten</t>
   </si>
   <si>
-    <t>Eingang,Fracht,Sondertransp,Gefahrenzulage,Rücksendung,Zahlung,Verkehr,kosten</t>
-  </si>
-  <si>
     <t>Zoll</t>
   </si>
   <si>
-    <t>Eingang,Fracht,Zoll,einfuhrz,ausfuhrz,Kontrolle,Verkehr,kosten</t>
-  </si>
-  <si>
     <t>Anlaufkosten</t>
   </si>
   <si>
@@ -811,12 +610,6 @@
     <t>Negative keywords</t>
   </si>
   <si>
-    <t>Negative, stop</t>
-  </si>
-  <si>
-    <t>rotten</t>
-  </si>
-  <si>
     <t>Stage2 logic</t>
   </si>
   <si>
@@ -880,9 +673,6 @@
     <t>Stage3_Result</t>
   </si>
   <si>
-    <t>Zeitschrift,Buch,Fach,Literatur,Bücher,Magazin,Zeitung,Blatt,ISO-Norm,Kauf,Gebühr</t>
-  </si>
-  <si>
     <t>Geschenk1</t>
   </si>
   <si>
@@ -895,12 +685,6 @@
     <t>Amount, Usage, Duration</t>
   </si>
   <si>
-    <t>Werb,Videos,Karriere,Spot,Illustration,Marketing,Xing,LinkedIn,Mitgliedschaft,Headhunter,Recruit,Personalvermittl,Kauf</t>
-  </si>
-  <si>
-    <t>Transport,Fracht,Liefer,Sonderfahrt,Verpackung,Sattelzug,senden,Versand,Verkehr</t>
-  </si>
-  <si>
     <t>c6</t>
   </si>
   <si>
@@ -947,13 +731,406 @@
   </si>
   <si>
     <t>Einkauf, Vertrieb</t>
+  </si>
+  <si>
+    <t>Tasche,Geschenk,Kugelschreiber,Anhänger,Beutel,Armbanduhr,USB,Buch,Tasse,Becher,Blume,schenken,Armband</t>
+  </si>
+  <si>
+    <t>Armbanduhr,USB,Kugelschreiber,Shirt,Geschenk,Hemd,Modell,Schirm,Quizaktion,Schuhe,schenken,Box,Hose,Hotel,Gutschein,Poster,Becher,Tasche</t>
+  </si>
+  <si>
+    <t>Polo,Karten,Kugelschreiber,Geburtstag,Verpflegung,Blume,Schokolade,Geschenk,Armbanduhr,USB,Team,Abendessen,Messe,Modellauto,Bewirtung,Gutschein,Tasse,Becher,schenken</t>
+  </si>
+  <si>
+    <t>Ausbildung,Schulung,Seminar,Training,Kurs,Weiterbildung,Workshop,Geschenk,Modellauto,Bewirtung,Sicherheit,Gutschein,Tasse,Becher,Tasche,Poster,Bild,Polo,schenken</t>
+  </si>
+  <si>
+    <t>Stick,Schutz,Schuhe,Jacke,T-Shirt,Helm,Größe,Bluse,Hemd,Socke,Name,Herr,Frau,Mitarbeiter,Betrieb,Produktion,Dame,Beruf,Sicherheit</t>
+  </si>
+  <si>
+    <t>Stick,Krawatte,Sakko,Hemd,Jeans,Bluse,Hose,Jacke,Größe,Rock,Name,Herr,Frau,Mitarbeiter,Koch,Kleid,Mantel,Dame,Beruf,Sicherheit,Kleidung, Arbeitsschutz</t>
+  </si>
+  <si>
+    <t>Rückgabe,Weste,Ponchos,Turnier,Schuhe,Hostessen,Ausrüstung,Kleidung,Helm,Trikot,Betriebssport,Name,Herr,Frau,Mitarbeiter,Kleid,Dame,Sicherheit, Kleidung</t>
+  </si>
+  <si>
+    <t>Microfleece,T-Shirt,Softshell,Jacke,Funktion,Schuh,Thermo,Longsleeve,Stiefel,Strick,Kleid,Sicherheit, Kleidung</t>
+  </si>
+  <si>
+    <t>Kaffee,Espresso,Obst,Bohnen,Kapseln,Keks,Schoko,Lavazza,Bonbon,Gummibärchen,Lutscher,Süßigkeit,Brezel,Brötchen,Milch,Zucker,Salz,Veranstaltung,Workshop</t>
+  </si>
+  <si>
+    <t>Meeting,Catering,Dinner,Getränke,Location,Verpflegung,Konferenz,Restaurant,Mittag,Frühstück,Wasser,Imbiss,Snack,Abendessen,Essen,Speise,Bewirtung,Veranstaltung,Workshop</t>
+  </si>
+  <si>
+    <t>Reise,Onsite,Support,Kosten,Maut,Vignette,Visa,Pass,Führerschein,Gebühr,Telefon,BahnCard,Parkplatz</t>
+  </si>
+  <si>
+    <t>Veranstaltung,Event,Messe,Halle,Flug,Hostessen,Coaching,Transfer,Fahrtkosten,Übernachtung,IAA,Auto,Transport,Workshop,Feier,Nachtrag</t>
+  </si>
+  <si>
+    <t>Seminar,Kosten,Schulung,Inhouse,Kurs,Gebühr,Training,Anmeldung,Gefahrgut,Webinar</t>
+  </si>
+  <si>
+    <t>Mieteen,Server,Computer,EDV,Rampe,Medien,Technik,Zaun,Müllbehälter,Drucker,Anlage,Maschine,Nutzfahrzeuge,Kältekammer,Möbel,Telefon,Container,Sport</t>
+  </si>
+  <si>
+    <t>Entsendung,Umzug,Kurs,Steuerberatungskosten,Caregroupkosten,Versicherung,Übersetzung,Kultur,Mieteen,Haushalt,Arbeitszimmer</t>
+  </si>
+  <si>
+    <t>Rennstrecke,Miete,Veranstaltung,Workshop</t>
+  </si>
+  <si>
+    <t>Miete,Lager,Leasing,Boxen,Technik,Garage,Apartment,Container,Veranstaltung,Workshop</t>
+  </si>
+  <si>
+    <t>Miete,Fläche,Grundstück,Veranstaltung,Workshop</t>
+  </si>
+  <si>
+    <t>Gebäude,Miete,Halle,Raum,Immobilie,Zimmer,Haus,Häuser,Büro,Veranstaltung,Workshop</t>
+  </si>
+  <si>
+    <t>Nebenkosten,Aufstellplan,Täglich,Wöchentlich,Monatlich,Reinigung,Plan,Strom,Gas,Heizung,Wasser,Putz,Müll,Hausmeister,Workshop</t>
+  </si>
+  <si>
+    <t>Kfz,Auto,Leasing,Miete,Flurförder,Ameise,Veranstaltung,Workshop</t>
+  </si>
+  <si>
+    <t>Fahrrad,Miete,Jobrad</t>
+  </si>
+  <si>
+    <t>Montage,Prüfung,Wartung,Instandhaltung,Reparatur,Austausch,Ersatz,Gebäude,Grundstück,Abwasseranlage,Klimagerät,Spülküche,Lichtkuppeln,Tore,Wasserschaden,Dach,Renovierung</t>
+  </si>
+  <si>
+    <t>Montage,Prüfung,Wartung,Instandhaltung,Reparatur,Tausch,Ersatz,Anlage,Maschine,Pumpe,Ventil,Glockenteller,Temperiereinheit,Generator,Roboter,Kochkessel,Düsen,Tankanlagen,Hebebühne,Renovier</t>
+  </si>
+  <si>
+    <t>Montage,Prüfung,Wartung,Instandhaltung,Reparatur,Tausch,Ersatz,Umbau,Maschine,Drucker,Möbel</t>
+  </si>
+  <si>
+    <t>Montage,Prüfung,Wartung,Instandhaltung,Reparatur,Tausch,Ersatz,Werkzeug,Akku,Kontur,Pumpe,Ventil,Glockenteller,Rührwerk,Generator,Biaxschleifer,Düsen,AKKU Schrauber,Schrauber</t>
+  </si>
+  <si>
+    <t>Montage,Prüfung,Wartung,Instandhaltung,Reparatur,Tausch,Ersatz,LKW,Wagen,Transporter,Van,Unterboden,Reifen,Auto</t>
+  </si>
+  <si>
+    <t>Montage,Prüfung,Wartung,Instandhaltung,Reparatur,Tausch,Ersatz,Gebäude,Miete,Abwasseranlage,Klimagerät,Spülküche,Lichtkuppeln,Tor,Wasserschaden,Dach,Renovierung</t>
+  </si>
+  <si>
+    <t>Ausbildung,Schulung,Seminar,Training,Kurs,Weiterbildung,Workshop,Buch,Bildung</t>
+  </si>
+  <si>
+    <t>EDV,Programm,Beratung,Software,IT-Administration,Tool,Gebühr,Erweiterung,Projekt,App,Coach</t>
+  </si>
+  <si>
+    <t>Hardware,Zubehör,Kabel,Maus,Akku,Computer,Adapter,Tastatur,Click,Bildschirm,Ladegerät,Server,Tablet,Mainboard,Apple,Logitech,Festplatte,Kauf</t>
+  </si>
+  <si>
+    <t>Unterstützung,Schulung,Workshop,Beratung,Projekt,Leitung,Manager,Berater,Coach,IT,EDV</t>
+  </si>
+  <si>
+    <t>Audit,Unterstützung,Schulung,Workshop,Beratung,Projekt,Leitung,Manager,Berater,Coach,Nachtrag</t>
+  </si>
+  <si>
+    <t>Software,Lizenz,Mircosoft,Leasing,Update,SAP,Support,Miete</t>
+  </si>
+  <si>
+    <t>Transport,Fracht,Lieferung,Sonderfahrt,Verpackung,Sattelzug,senden,Versand,Verkehr</t>
+  </si>
+  <si>
+    <t>Luftfracht,Umfuhr,Transport,Bahn,Shuttle,LKW,Schiff,Flug,Express,Export,Import,Händler,senden,Versand,Verkehr, Lieferung</t>
+  </si>
+  <si>
+    <t>Logistik,Fracht,Transport,Sonderfahrt,Ersatzteil,Schiff,Flug,Express,Import,Export,Händler,senden,Versand,Verkehr, Lieferung</t>
+  </si>
+  <si>
+    <t>Werbung,Videos,Karriere,Spot,Illustration,Marketing,Xing,LinkedIn,Mitgliedschaft,Headhunter,Recruiting,Personalvermittlung</t>
+  </si>
+  <si>
+    <t>Hardware,Zubehör,Kabel,Maus,Akku,Computer,Adapter,Tastatur,Click,Bildschirm,Ladegerät,Server,Tablet,Mainboard,Apple,Logitech,Festplatte</t>
+  </si>
+  <si>
+    <t>Reinigung,Portier,Gebäude,Grundstück,Bewachung,Security,Putz,Gebäude,Außenanlage,Grünpflege</t>
+  </si>
+  <si>
+    <t>Agentur,Vermittler,Honorar,Unterstützung,Beratung,Nachtrag</t>
+  </si>
+  <si>
+    <t>Reinigung,Service,Leistung,Aufwendung,Dienstleistung,Arbeit,Tätigkeit,Beauftragung,Auftrag,Nachtrag</t>
+  </si>
+  <si>
+    <t>Honorar,Künstler,Sportler,Entertainer,Moderator</t>
+  </si>
+  <si>
+    <t>Hülle,Tinte,Mappe,Marker,Buch,Block,Stift,Taschenrechner,Kalender,Patrone,Film,Papier,Foto,Stempel,Register,Etikette,Kalender</t>
+  </si>
+  <si>
+    <t>Marketing,Werbung,Flyer,Druck,Mitgliedschaft,Anzeige,Material,Social,Media,Influencer,Medien,Xing,LinkedIn,Banner,Film,Kampange,Nachtrag,Logo</t>
+  </si>
+  <si>
+    <t>Poliermaterial,Schleif,Maschine,Adapter,METABO,Trennscheibe</t>
+  </si>
+  <si>
+    <t>Zeitschrift,Buch,Fach,Literatur,Bücher,Magazin,Zeitung,Blatt,ISO-Norm,Kauf,Gebühr, Fachliteratur,Fachbuch</t>
+  </si>
+  <si>
+    <t>Verein,Mitgliedsbeitrag,Verband,VDA,Jahregebühr,Beitrag,Monatsgebühr</t>
+  </si>
+  <si>
+    <t>GEZ,Kommunen,Jahresbeitrag,Monatsbeitrag,Gebühr,Nutzung,Beitrag</t>
+  </si>
+  <si>
+    <t>Verwertung,Gewerbemüll,Müll,Abfall,Obsolet,Zerstör,Schrott,Entsorgung,Abtransport,Entsorgung,Recycling,Absaugung,Remondis,Shredder,Reißwolf,ALBA,Vernichtung</t>
+  </si>
+  <si>
+    <t>Betrieblich,Aufwendungen,Pflanze,Küche,Schild,Aufwand,Stuhl,Fernseher,Schraubenschlüssel,Tasse,Poster,Kaffeemaschine</t>
+  </si>
+  <si>
+    <t>Werkzeug,Maschine,Fräse,Tragegurt,Bohrer,Schrauber,Säge,Hammer,Staubsauger,Zange,Spirale,Hacke,Stichling,Schneider,Bürste,Hobel,Meisel,Schlüssel</t>
+  </si>
+  <si>
+    <t>Gutachter,Vermesser,Projektsteuerer,Sicherheitskoordinator,Gesundheitskoordinator,Facility,Management,Sanitätsdienst,Baustelle,Archivleistungen,Schädlingsbekämpfung,Winterdienst,CAD  Zeichner,Gutachter,Baugenehmigungen,Umzugskoordinator,Überprüfung,Unterstützung,Konfektionierung,Übersetzung</t>
+  </si>
+  <si>
+    <t>Entwicklung,Fremdleistung,Serie,Lieferant,Bestellung,Beauftragung,Kooperation,Partner,Konzern</t>
+  </si>
+  <si>
+    <t>Heizöl,Fernwärme</t>
+  </si>
+  <si>
+    <t>Recht,Prozess,Beratung,Anwalt,Auftrag, Rechtsberatung, Prozesskosten</t>
+  </si>
+  <si>
+    <t>Sachversicherung, Versicherung</t>
+  </si>
+  <si>
+    <t>Betriebshaftpflicht, Versicherung</t>
+  </si>
+  <si>
+    <t>Transportversicherung, Versicherung</t>
+  </si>
+  <si>
+    <t>Gruppen-Unfallversicherung, Unfallversicherung, Versicherung</t>
+  </si>
+  <si>
+    <t>Kfz,Kraftfahrzeug,Auto,Versicherung</t>
+  </si>
+  <si>
+    <t>Anlagenversicherung, Versicherung</t>
+  </si>
+  <si>
+    <t>Versicherung</t>
+  </si>
+  <si>
+    <t>Risikoversicherung, Versicherung</t>
+  </si>
+  <si>
+    <t>Eingangsfracht,Porto,Verpackung,Versand,schicken,Transport,Container,Lieferant,Verkehr,Fracht</t>
+  </si>
+  <si>
+    <t>Eingangsfracht,Teile,Zug,Luftfracht,Express,Schiff,Flugzeug,Express,LKW,Verkehr,Fracht</t>
+  </si>
+  <si>
+    <t>Eingangsfracht,Teile,Zug,Luftfracht,Express,Schiff,Flugzeug,Express,LKW,Ersatz,Verkehr,Fracht</t>
+  </si>
+  <si>
+    <t>Eingangsfracht,Porto,Verpack,Versand,schicken,Transport,Container,Verkehr,Fracht</t>
+  </si>
+  <si>
+    <t>Eingangsfracht,Laderampe,Versicherung,Transport,Verkehr,Fracht</t>
+  </si>
+  <si>
+    <t>Eingangsfracht,Sondertransport,Gefahrenzulage,Rücksendung,Zahlung,Verkehr,Fracht</t>
+  </si>
+  <si>
+    <t>Eingangsfracht,Zoll,Einfuhr,Ausfuhr,Kontrolle,Verkehr,Fracht</t>
+  </si>
+  <si>
+    <t>Negative,Stopp</t>
+  </si>
+  <si>
+    <t>Mieten,Instandhaltung,Leasing,Reparatur,Ersatzteil,Ersetzen,Reinigung,Sicherheit,Arbeit,Wartung,Entwicklung</t>
+  </si>
+  <si>
+    <t>Geschenk,Kochschürze,Strickjacke,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Mieten</t>
+  </si>
+  <si>
+    <t>Geschenk,Produktion,Strickjacke,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Reinigung,Entwicklung,Mieten</t>
+  </si>
+  <si>
+    <t>Geschenk,Schutz,Kochschürze,Produktion,Strickjacke,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Mieten,Entwicklung</t>
+  </si>
+  <si>
+    <t>Stickjacke,Schutzweste,Kochschürze,Produktion,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Mieten</t>
+  </si>
+  <si>
+    <t>Geschenk,Kaufen,Rennstrecke,Auto,PKW,Rad,Instandhaltung,Reparatur,Ersatzteil,Wartung,Ersetzen,Transport,Entwicklung</t>
+  </si>
+  <si>
+    <t>Geschenk,Meeting,Cater,Dinner,Getränke,Location,Verpflegung,Konferenz,Restaurant,Mieten,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Maschine,Entwicklung</t>
+  </si>
+  <si>
+    <t>Kaffee,Obst,Bohnen,Kapseln,Kekse,Schoko,Lavazza,Hotel,Instandhaltung,Espresso,Reparatur,Ersatzteil,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Aufsichtsrat,Veranstaltung,Event,Catering,Bewirtung,Hotel,Frühstück,Mitarbeiter,Instandhaltung,Modell,Reparatur,Ersatzteil,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Veranstaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Instandhaltung</t>
+  </si>
+  <si>
+    <t>Rennstrecke,Taxi,Auto,Hotel,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Flug</t>
+  </si>
+  <si>
+    <t>Umzug,Veranstaltung,Aufsichtsrat,Bildung,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Modell</t>
+  </si>
+  <si>
+    <t>Reise,Wartung,Geschenk,Rennstrecke,EDV,Server,Instandhaltung,Reparatur,Ersatzteil,Veranstaltung,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Software,Modellauto,Geschenk,Rennstrecke,Reise,Frühstück,Seminar,Instandhaltung,Reparatur,Hardware,Ersatzteil,Ersetzen,Bewirtung,Catering,Verpflegung,Geschenk,Mieten,Entwicklung</t>
+  </si>
+  <si>
+    <t>Veranstaltung,Geschenk,extern,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Reise</t>
+  </si>
+  <si>
+    <t>Beratunger,Reise,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Veranstaltung</t>
+  </si>
+  <si>
+    <t>Gebäude,Immobilie,Auto,Catering,Veranstaltung,Reise,Geschenk,Karten,Rad,Grundstück,Shuttle,Bus,Fahrt,Transfer,Hotel,Hostessen,Ersatzteil,Instandhaltung,Entwicklung</t>
+  </si>
+  <si>
+    <t>Rennstrecke,Rad,Geschenk,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Auto</t>
+  </si>
+  <si>
+    <t>Rennstrecke,Gebäude,Rad,Instandhaltung,Kaufen,Geschenk,Instandhaltung,Reparatur,Ersatzteil,Auto,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Rennstrecke,Grundstück,Rad,Instandhaltung,Kauf,Stuhl,Geschenk,Artikel,Instandhaltung,Auto,Reparatur,Ersatzteil,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Rennstrecke,Bewirtung,Catering,Behälter,Kauf,Geschenk,Instandhaltung,Reparatur,Ersatzteil,Rad,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Rennstrecke,Grundstück,Gabelstapler,Modell,Nutzfahrzeug,Rad,Geschenk,Instandhaltung,Reparatur,Gebäude,Ersatzteil,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Rennstrecke,Gebäude,Grundstück,Kauf,Gummi,Geschenk,Instandhaltung,Reparatur,Ersatzteil,Auto,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Umbau,Drucker,Möbel,Werkzeug,Akku,Kontur,LKW,Wagen,Transporter,Maschine,Van,Auto,fremd,Mieten,Reise,Rennstrecke,Entwicklung</t>
+  </si>
+  <si>
+    <t>Gebäude,Umbau,Drucker,Möbel,Werkzeug,Akku,Kontur,LKW,Wagen,Grundstück,Transporter,Van,Gebäude,fremd,Mieten,Auto,Reise,Rennstrecke,Entwicklung</t>
+  </si>
+  <si>
+    <t>Gebäude,Maschine,Werkzeug,Akku,Kontur,LKW,Wagen,Transporter,Van,Grundstück,Gebäude,fremd,Mieten,Auto,Reise,Rennstrecke,Entwicklung</t>
+  </si>
+  <si>
+    <t>Gebäude,Umbau,Maschine,Drucker,Möbel,LKW,Wagen,Transporter,Van,Grundstück,Gebäude,fremd,Mieten,Auto,Reise,Rennstrecke,Entwicklung</t>
+  </si>
+  <si>
+    <t>Gebäude,Maschine,Umbau,Maschine,Drucker,Möbel,Werkzeug,Akku,Kontur,Grundstück,Gebäude,fremd,Mieten,Reise,Rennstrecke,Entwicklung</t>
+  </si>
+  <si>
+    <t>Grundstück,Umbau,Maschine,Drucker,Möbel,Werkzeug,Akku,Kontur,LKW,Maschine,Wagen,Transporter,Van,Auto,Reise,Rennstrecke,Entwicklung</t>
+  </si>
+  <si>
+    <t>Gebäude,Maschine,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Grundstück</t>
+  </si>
+  <si>
+    <t>Flug,Geschenk,Reise,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Hotel</t>
+  </si>
+  <si>
+    <t>KPMG,PwC,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Deloitte,EY</t>
+  </si>
+  <si>
+    <t>Mieten,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Geschenk</t>
+  </si>
+  <si>
+    <t>Auto,Rad,Gebäude,Grundstück,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Rennstrecke</t>
+  </si>
+  <si>
+    <t>Ersatzteil,Kalender,Aufsichtsrat,Reise,Veranstaltung,Instandhaltung,Reparatur,Modellauto,Ersatzteil,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Fahrzeug,Kalender,PMT,Aufsichtsrat,Reise,Veranstaltung,Instandhaltung,Reparatur,Modellauto,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Fahrzeug,Ersatzteilteil,Reise,Veranstaltung,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Modellauto,Entwicklung</t>
+  </si>
+  <si>
+    <t>Instandhaltung,Ersatzteil,Ersetzen,Entwicklung,Reparatur</t>
+  </si>
+  <si>
+    <t>Kauf,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Instandhaltung</t>
+  </si>
+  <si>
+    <t>Reise,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Instandhaltung</t>
+  </si>
+  <si>
+    <t>Poster,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Kauf</t>
+  </si>
+  <si>
+    <t>Mieten,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Instandhaltung</t>
+  </si>
+  <si>
+    <t>Mieten,Rennstrecke,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Erwerb</t>
+  </si>
+  <si>
+    <t>Künstler,Entertain,Mieten,Kauf,KPMG,Deloitte,PwC,Ernst,Sportler,EY,Reparatur,Ersatzteil,Ersetzen,Instandhaltung,Entwicklung</t>
+  </si>
+  <si>
+    <t>Mieten,Deloitte,PwC,EY,Instandhaltung,Reparatur,Ersatzteil,KPMG,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Mieten,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Kauf</t>
+  </si>
+  <si>
+    <t>Geschenk,Hotel,Mieten,Bahn,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Flug</t>
+  </si>
+  <si>
+    <t>Aufsichtsrat,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Mieten</t>
+  </si>
+  <si>
+    <t>Geschenk,Hotel,Mieten,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Flug</t>
+  </si>
+  <si>
+    <t>Kauf,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Mieten</t>
+  </si>
+  <si>
+    <t>Mitglied,Verein,VDA,Kauf,Mieten,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Verband,Entwicklung</t>
+  </si>
+  <si>
+    <t>Instandhaltung,Material,Mieten,Leasinging,Reise,Bewirtung,Instandhaltung,Reparatur,Ersatzteil,Wartung,Ersetzen,Entwicklung</t>
+  </si>
+  <si>
+    <t>Schulung,Wartung,Instandhaltung,Beratung,Mieten,Ersatzteil,Ersetzen,Reparatur,Entwicklung</t>
+  </si>
+  <si>
+    <t>Mieten,Instandhaltung,Leasing,Reparatur,Ersatzteil,Ersetzen,Reinigung,Sicherheit,Geschenk,Wartung</t>
+  </si>
+  <si>
+    <t>Modell</t>
+  </si>
+  <si>
+    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar</t>
+  </si>
+  <si>
+    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Ersatzteil</t>
+  </si>
+  <si>
+    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Lieferant</t>
+  </si>
+  <si>
+    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Qualität</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -971,10 +1148,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Porsche Next TT"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1072,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1140,9 +1320,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2469,32 +2652,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Munka1"/>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="113" style="25" customWidth="1"/>
+    <col min="4" max="4" width="41.81640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="25" customWidth="1"/>
     <col min="11" max="11" width="17" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1796875" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:12" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2505,34 +2689,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.45" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>681100</v>
       </c>
@@ -2540,10 +2724,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>258</v>
+        <v>231</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>303</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
@@ -2563,10 +2747,10 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" s="18" t="str">
         <f>IF(AND(K2="Geschenk",Overview!E2=1,Overview!F2=0),'Logic ID'!$E$12,
@@ -2585,18 +2769,18 @@
         <v>Geschenk1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.45" customHeight="1">
+    <row r="3" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>681120</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>257</v>
+        <v>232</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>303</v>
       </c>
       <c r="E3" s="19">
         <v>0</v>
@@ -2616,10 +2800,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" s="18" t="str">
         <f>IF(AND(K3="Geschenk",Overview!E3=1,Overview!F3=0),'Logic ID'!$E$12,
@@ -2638,18 +2822,18 @@
         <v>Geschenk</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.45" customHeight="1">
+    <row r="4" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>661601</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>257</v>
+        <v>233</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>303</v>
       </c>
       <c r="E4" s="21">
         <v>1.2</v>
@@ -2669,10 +2853,10 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="18" t="str">
         <f>IF(AND(K4="Geschenk",Overview!E4=1,Overview!F4=0),'Logic ID'!$E$12,
@@ -2691,18 +2875,18 @@
         <v>Geschenk2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.45" customHeight="1">
+    <row r="5" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>661602</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>257</v>
+        <v>234</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>303</v>
       </c>
       <c r="E5" s="21">
         <v>3.4</v>
@@ -2722,10 +2906,10 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" s="18" t="str">
         <f>IF(AND(K5="Geschenk",Overview!E5=1,Overview!F5=0),'Logic ID'!$E$12,
@@ -2744,18 +2928,18 @@
         <v>Geschenk3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.45" customHeight="1">
+    <row r="6" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>603900</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>257</v>
+        <v>235</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>304</v>
       </c>
       <c r="E6" s="17">
         <v>4</v>
@@ -2775,10 +2959,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L6" s="18" t="str">
         <f>IF(AND(K6="Geschenk",Overview!E6=1,Overview!F6=0),'Logic ID'!$E$12,
@@ -2797,18 +2981,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.45" customHeight="1">
+    <row r="7" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>603900</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>257</v>
+        <v>235</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>304</v>
       </c>
       <c r="E7" s="17">
         <v>4</v>
@@ -2828,10 +3012,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L7" s="18" t="str">
         <f>IF(AND(K7="Geschenk",Overview!E7=1,Overview!F7=0),'Logic ID'!$E$12,
@@ -2850,21 +3034,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.45" customHeight="1">
+    <row r="8" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>603900</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>257</v>
+        <v>235</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>304</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="F8" s="17">
         <v>0</v>
@@ -2881,10 +3065,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L8" s="18" t="str">
         <f>IF(AND(K8="Geschenk",Overview!E8=1,Overview!F8=0),'Logic ID'!$E$12,
@@ -2903,18 +3087,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.45" customHeight="1">
+    <row r="9" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>695800</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>257</v>
+        <v>236</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>305</v>
       </c>
       <c r="E9" s="17">
         <v>4</v>
@@ -2934,10 +3118,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L9" s="18" t="str">
         <f>IF(AND(K9="Geschenk",Overview!E9=1,Overview!F9=0),'Logic ID'!$E$12,
@@ -2956,18 +3140,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.45" customHeight="1">
+    <row r="10" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>695800</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>257</v>
+        <v>236</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>305</v>
       </c>
       <c r="E10" s="17">
         <v>4</v>
@@ -2987,10 +3171,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L10" s="18" t="str">
         <f>IF(AND(K10="Geschenk",Overview!E10=1,Overview!F10=0),'Logic ID'!$E$12,
@@ -3009,21 +3193,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.45" customHeight="1">
+    <row r="11" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>695800</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>257</v>
+        <v>236</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>305</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
@@ -3040,10 +3224,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L11" s="18" t="str">
         <f>IF(AND(K11="Geschenk",Overview!E11=1,Overview!F11=0),'Logic ID'!$E$12,
@@ -3062,18 +3246,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.45" customHeight="1">
+    <row r="12" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>681203</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>257</v>
+        <v>237</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>306</v>
       </c>
       <c r="E12" s="17">
         <v>4</v>
@@ -3093,10 +3277,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L12" s="18" t="str">
         <f>IF(AND(K12="Geschenk",Overview!E12=1,Overview!F12=0),'Logic ID'!$E$12,
@@ -3115,18 +3299,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.45" customHeight="1">
+    <row r="13" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>681203</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>257</v>
+        <v>237</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>306</v>
       </c>
       <c r="E13" s="17">
         <v>4</v>
@@ -3146,10 +3330,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L13" s="18" t="str">
         <f>IF(AND(K13="Geschenk",Overview!E13=1,Overview!F13=0),'Logic ID'!$E$12,
@@ -3168,21 +3352,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.45" customHeight="1">
+    <row r="14" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>681203</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>257</v>
+        <v>237</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>306</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="F14" s="17">
         <v>0</v>
@@ -3199,10 +3383,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L14" s="18" t="str">
         <f>IF(AND(K14="Geschenk",Overview!E14=1,Overview!F14=0),'Logic ID'!$E$12,
@@ -3221,18 +3405,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.45" customHeight="1">
+    <row r="15" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>661603</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>257</v>
+        <v>238</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>307</v>
       </c>
       <c r="E15" s="19">
         <v>0</v>
@@ -3252,10 +3436,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" s="18" t="str">
         <f>IF(AND(K15="Geschenk",Overview!E15=1,Overview!F15=0),'Logic ID'!$E$12,
@@ -3274,18 +3458,18 @@
         <v>Geschenk</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.45" customHeight="1">
+    <row r="16" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>672200</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>257</v>
+        <v>244</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>308</v>
       </c>
       <c r="E16" s="21">
         <v>0</v>
@@ -3305,10 +3489,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L16" s="18" t="str">
         <f>IF(AND(K16="Geschenk",Overview!E16=1,Overview!F16=0),'Logic ID'!$E$12,
@@ -3327,18 +3511,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.45" customHeight="1">
+    <row r="17" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>662100</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>257</v>
+        <v>239</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>309</v>
       </c>
       <c r="E17" s="21">
         <v>0</v>
@@ -3358,10 +3542,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L17" s="18" t="str">
         <f>IF(AND(K17="Geschenk",Overview!E17=1,Overview!F17=0),'Logic ID'!$E$12,
@@ -3380,18 +3564,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.45" customHeight="1">
+    <row r="18" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>662201</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>257</v>
+        <v>240</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>310</v>
       </c>
       <c r="E18" s="21">
         <v>0</v>
@@ -3411,10 +3595,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L18" s="18" t="str">
         <f>IF(AND(K18="Geschenk",Overview!E18=1,Overview!F18=0),'Logic ID'!$E$12,
@@ -3433,18 +3617,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.45" customHeight="1">
+    <row r="19" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>661700</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>257</v>
+        <v>32</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="E19" s="21">
         <v>0</v>
@@ -3464,10 +3648,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L19" s="18" t="str">
         <f>IF(AND(K19="Geschenk",Overview!E19=1,Overview!F19=0),'Logic ID'!$E$12,
@@ -3486,18 +3670,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.45" customHeight="1">
+    <row r="20" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>662300</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>257</v>
+        <v>35</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>312</v>
       </c>
       <c r="E20" s="21">
         <v>0</v>
@@ -3517,10 +3701,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L20" s="18" t="str">
         <f>IF(AND(K20="Geschenk",Overview!E20=1,Overview!F20=0),'Logic ID'!$E$12,
@@ -3539,18 +3723,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.45" customHeight="1">
+    <row r="21" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>661703</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>257</v>
+        <v>241</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>313</v>
       </c>
       <c r="E21" s="21">
         <v>0</v>
@@ -3570,10 +3754,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L21" s="18" t="str">
         <f>IF(AND(K21="Geschenk",Overview!E21=1,Overview!F21=0),'Logic ID'!$E$12,
@@ -3592,18 +3776,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.45" customHeight="1">
+    <row r="22" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>661710</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>257</v>
+        <v>40</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>314</v>
       </c>
       <c r="E22" s="21">
         <v>0</v>
@@ -3623,10 +3807,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L22" s="18" t="str">
         <f>IF(AND(K22="Geschenk",Overview!E22=1,Overview!F22=0),'Logic ID'!$E$12,
@@ -3645,18 +3829,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.45" customHeight="1">
+    <row r="23" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>661708</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>257</v>
+        <v>245</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>315</v>
       </c>
       <c r="E23" s="21">
         <v>0</v>
@@ -3676,10 +3860,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L23" s="18" t="str">
         <f>IF(AND(K23="Geschenk",Overview!E23=1,Overview!F23=0),'Logic ID'!$E$12,
@@ -3698,18 +3882,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.45" customHeight="1">
+    <row r="24" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>681150</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>257</v>
+        <v>242</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>316</v>
       </c>
       <c r="E24" s="17">
         <v>4</v>
@@ -3729,10 +3913,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L24" s="18" t="str">
         <f>IF(AND(K24="Geschenk",Overview!E24=1,Overview!F24=0),'Logic ID'!$E$12,
@@ -3751,18 +3935,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.45" customHeight="1">
+    <row r="25" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>681150</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>257</v>
+        <v>242</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>316</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
@@ -3782,10 +3966,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L25" s="18" t="str">
         <f>IF(AND(K25="Geschenk",Overview!E25=1,Overview!F25=0),'Logic ID'!$E$12,
@@ -3804,18 +3988,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.45" customHeight="1">
+    <row r="26" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>673800</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>257</v>
+        <v>48</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E26" s="17">
         <v>4</v>
@@ -3835,10 +4019,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L26" s="18" t="str">
         <f>IF(AND(K26="Geschenk",Overview!E26=1,Overview!F26=0),'Logic ID'!$E$12,
@@ -3857,18 +4041,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.45" customHeight="1">
+    <row r="27" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>673800</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>257</v>
+        <v>48</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E27" s="17">
         <v>0</v>
@@ -3888,10 +4072,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L27" s="18" t="str">
         <f>IF(AND(K27="Geschenk",Overview!E27=1,Overview!F27=0),'Logic ID'!$E$12,
@@ -3910,18 +4094,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.45" customHeight="1">
+    <row r="28" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <v>661200</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>317</v>
       </c>
       <c r="E28" s="21">
         <v>0</v>
@@ -3941,10 +4125,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L28" s="18" t="str">
         <f>IF(AND(K28="Geschenk",Overview!E28=1,Overview!F28=0),'Logic ID'!$E$12,
@@ -3963,18 +4147,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.45" customHeight="1">
+    <row r="29" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>681153</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>257</v>
+        <v>52</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>318</v>
       </c>
       <c r="E29" s="21">
         <v>0</v>
@@ -3994,10 +4178,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L29" s="18" t="str">
         <f>IF(AND(K29="Geschenk",Overview!E29=1,Overview!F29=0),'Logic ID'!$E$12,
@@ -4016,18 +4200,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.45" customHeight="1">
+    <row r="30" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <v>672201</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>257</v>
+        <v>246</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>319</v>
       </c>
       <c r="E30" s="21">
         <v>0</v>
@@ -4047,10 +4231,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L30" s="18" t="str">
         <f>IF(AND(K30="Geschenk",Overview!E30=1,Overview!F30=0),'Logic ID'!$E$12,
@@ -4069,18 +4253,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.45" customHeight="1">
+    <row r="31" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <v>672000</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>320</v>
       </c>
       <c r="E31" s="21">
         <v>0</v>
@@ -4100,10 +4284,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L31" s="18" t="str">
         <f>IF(AND(K31="Geschenk",Overview!E31=1,Overview!F31=0),'Logic ID'!$E$12,
@@ -4122,18 +4306,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.45" customHeight="1">
+    <row r="32" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <v>671800</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>321</v>
       </c>
       <c r="E32" s="21">
         <v>0</v>
@@ -4153,10 +4337,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L32" s="18" t="str">
         <f>IF(AND(K32="Geschenk",Overview!E32=1,Overview!F32=0),'Logic ID'!$E$12,
@@ -4175,18 +4359,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.45" customHeight="1">
+    <row r="33" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <v>671700</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>257</v>
+        <v>249</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>322</v>
       </c>
       <c r="E33" s="21">
         <v>0</v>
@@ -4206,10 +4390,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L33" s="18" t="str">
         <f>IF(AND(K33="Geschenk",Overview!E33=1,Overview!F33=0),'Logic ID'!$E$12,
@@ -4228,18 +4412,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17.45" customHeight="1">
+    <row r="34" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <v>671900</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>257</v>
+        <v>250</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>323</v>
       </c>
       <c r="E34" s="21">
         <v>0</v>
@@ -4259,10 +4443,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L34" s="18" t="str">
         <f>IF(AND(K34="Geschenk",Overview!E34=1,Overview!F34=0),'Logic ID'!$E$12,
@@ -4281,18 +4465,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.45" customHeight="1">
+    <row r="35" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>672100</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>257</v>
+        <v>251</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>324</v>
       </c>
       <c r="E35" s="21">
         <v>0</v>
@@ -4312,10 +4496,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L35" s="18" t="str">
         <f>IF(AND(K35="Geschenk",Overview!E35=1,Overview!F35=0),'Logic ID'!$E$12,
@@ -4334,18 +4518,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17.45" customHeight="1">
+    <row r="36" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>672260</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>325</v>
       </c>
       <c r="E36" s="21">
         <v>0</v>
@@ -4365,10 +4549,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L36" s="18" t="str">
         <f>IF(AND(K36="Geschenk",Overview!E36=1,Overview!F36=0),'Logic ID'!$E$12,
@@ -4387,18 +4571,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17.45" customHeight="1">
+    <row r="37" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>671000</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>326</v>
       </c>
       <c r="E37" s="21">
         <v>0</v>
@@ -4418,10 +4602,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="L37" s="18" t="str">
         <f>IF(AND(K37="Geschenk",Overview!E37=1,Overview!F37=0),'Logic ID'!$E$12,
@@ -4440,18 +4624,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="17.45" customHeight="1">
+    <row r="38" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>671100</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>327</v>
       </c>
       <c r="E38" s="21">
         <v>0</v>
@@ -4471,10 +4655,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="L38" s="18" t="str">
         <f>IF(AND(K38="Geschenk",Overview!E38=1,Overview!F38=0),'Logic ID'!$E$12,
@@ -4493,18 +4677,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17.45" customHeight="1">
+    <row r="39" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>671200</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>328</v>
       </c>
       <c r="E39" s="21">
         <v>0</v>
@@ -4524,10 +4708,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="L39" s="18" t="str">
         <f>IF(AND(K39="Geschenk",Overview!E39=1,Overview!F39=0),'Logic ID'!$E$12,
@@ -4546,18 +4730,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="17.45" customHeight="1">
+    <row r="40" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>671300</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>329</v>
       </c>
       <c r="E40" s="21">
         <v>0</v>
@@ -4577,10 +4761,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="L40" s="18" t="str">
         <f>IF(AND(K40="Geschenk",Overview!E40=1,Overview!F40=0),'Logic ID'!$E$12,
@@ -4599,18 +4783,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17.45" customHeight="1">
+    <row r="41" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>671400</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="12" t="s">
         <v>257</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>330</v>
       </c>
       <c r="E41" s="21">
         <v>0</v>
@@ -4630,10 +4814,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="L41" s="18" t="str">
         <f>IF(AND(K41="Geschenk",Overview!E41=1,Overview!F41=0),'Logic ID'!$E$12,
@@ -4652,18 +4836,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="17.45" customHeight="1">
+    <row r="42" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>671500</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>331</v>
       </c>
       <c r="E42" s="21">
         <v>0</v>
@@ -4683,10 +4867,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="L42" s="18" t="str">
         <f>IF(AND(K42="Geschenk",Overview!E42=1,Overview!F42=0),'Logic ID'!$E$12,
@@ -4705,18 +4889,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="17.45" customHeight="1">
+    <row r="43" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>613350</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>257</v>
+        <v>78</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>332</v>
       </c>
       <c r="E43" s="21">
         <v>0</v>
@@ -4736,10 +4920,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="L43" s="18" t="str">
         <f>IF(AND(K43="Geschenk",Overview!E43=1,Overview!F43=0),'Logic ID'!$E$12,
@@ -4758,18 +4942,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17.45" customHeight="1">
+    <row r="44" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>661300</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>333</v>
       </c>
       <c r="E44" s="21">
         <v>0</v>
@@ -4789,10 +4973,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L44" s="18" t="str">
         <f>IF(AND(K44="Geschenk",Overview!E44=1,Overview!F44=0),'Logic ID'!$E$12,
@@ -4811,18 +4995,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="17.45" customHeight="1">
+    <row r="45" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>674300</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>257</v>
+        <v>260</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="E45" s="21">
         <v>0</v>
@@ -4842,10 +5026,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L45" s="18" t="str">
         <f>IF(AND(K45="Geschenk",Overview!E45=1,Overview!F45=0),'Logic ID'!$E$12,
@@ -4864,18 +5048,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17.45" customHeight="1">
+    <row r="46" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>605300</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>257</v>
+        <v>261</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>335</v>
       </c>
       <c r="E46" s="17">
         <v>4</v>
@@ -4895,10 +5079,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L46" s="18" t="str">
         <f>IF(AND(K46="Geschenk",Overview!E46=1,Overview!F46=0),'Logic ID'!$E$12,
@@ -4917,18 +5101,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17.45" customHeight="1">
+    <row r="47" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>605300</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>257</v>
+        <v>269</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>335</v>
       </c>
       <c r="E47" s="17">
         <v>4</v>
@@ -4948,10 +5132,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L47" s="18" t="str">
         <f>IF(AND(K47="Geschenk",Overview!E47=1,Overview!F47=0),'Logic ID'!$E$12,
@@ -4970,21 +5154,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17.45" customHeight="1">
+    <row r="48" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>605300</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>257</v>
+        <v>269</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>335</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="F48" s="17">
         <v>0</v>
@@ -5001,10 +5185,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L48" s="18" t="str">
         <f>IF(AND(K48="Geschenk",Overview!E48=1,Overview!F48=0),'Logic ID'!$E$12,
@@ -5023,18 +5207,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17.45" customHeight="1">
+    <row r="49" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>673901</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>257</v>
+        <v>262</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="E49" s="21">
         <v>0</v>
@@ -5054,10 +5238,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L49" s="18" t="str">
         <f>IF(AND(K49="Geschenk",Overview!E49=1,Overview!F49=0),'Logic ID'!$E$12,
@@ -5076,18 +5260,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="50" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="13">
         <v>673902</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="E50" s="17">
         <v>4</v>
@@ -5107,10 +5291,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L50" s="18" t="str">
         <f>IF(AND(K50="Geschenk",Overview!E50=1,Overview!F50=0),'Logic ID'!$E$12,
@@ -5129,18 +5313,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="13">
         <v>673902</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="E51" s="17">
         <v>0</v>
@@ -5160,10 +5344,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L51" s="18" t="str">
         <f>IF(AND(K51="Geschenk",Overview!E51=1,Overview!F51=0),'Logic ID'!$E$12,
@@ -5182,18 +5366,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="17.45" customHeight="1">
+    <row r="52" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>613300</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>257</v>
+        <v>264</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>336</v>
       </c>
       <c r="E52" s="21">
         <v>0</v>
@@ -5213,10 +5397,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L52" s="18" t="str">
         <f>IF(AND(K52="Geschenk",Overview!E52=1,Overview!F52=0),'Logic ID'!$E$12,
@@ -5235,18 +5419,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.45" customHeight="1">
+    <row r="53" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
         <v>691000</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>257</v>
+        <v>266</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>337</v>
       </c>
       <c r="E53" s="21">
         <v>0</v>
@@ -5266,10 +5450,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L53" s="18" t="str">
         <f>IF(AND(K53="Geschenk",Overview!E53=1,Overview!F53=0),'Logic ID'!$E$12,
@@ -5288,18 +5472,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.45" customHeight="1">
+    <row r="54" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
         <v>691100</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>257</v>
+        <v>267</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>338</v>
       </c>
       <c r="E54" s="21">
         <v>0</v>
@@ -5319,10 +5503,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L54" s="18" t="str">
         <f>IF(AND(K54="Geschenk",Overview!E54=1,Overview!F54=0),'Logic ID'!$E$12,
@@ -5341,18 +5525,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="17.45" customHeight="1">
+    <row r="55" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
         <v>691200</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>257</v>
+        <v>265</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E55" s="21">
         <v>0</v>
@@ -5372,10 +5556,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L55" s="18" t="str">
         <f>IF(AND(K55="Geschenk",Overview!E55=1,Overview!F55=0),'Logic ID'!$E$12,
@@ -5394,18 +5578,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="17.45" customHeight="1">
+    <row r="56" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
         <v>691210</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>257</v>
+        <v>99</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>340</v>
       </c>
       <c r="E56" s="21">
         <v>0</v>
@@ -5425,10 +5609,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L56" s="18" t="str">
         <f>IF(AND(K56="Geschenk",Overview!E56=1,Overview!F56=0),'Logic ID'!$E$12,
@@ -5447,18 +5631,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="17.45" customHeight="1">
+    <row r="57" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
         <v>661711</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>257</v>
+        <v>101</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>340</v>
       </c>
       <c r="E57" s="21">
         <v>0</v>
@@ -5478,10 +5662,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L57" s="18" t="str">
         <f>IF(AND(K57="Geschenk",Overview!E57=1,Overview!F57=0),'Logic ID'!$E$12,
@@ -5500,18 +5684,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="17.45" customHeight="1">
+    <row r="58" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
         <v>673300</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>257</v>
+        <v>104</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>341</v>
       </c>
       <c r="E58" s="21">
         <v>0</v>
@@ -5531,10 +5715,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L58" s="18" t="str">
         <f>IF(AND(K58="Geschenk",Overview!E58=1,Overview!F58=0),'Logic ID'!$E$12,
@@ -5553,18 +5737,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="17.45" customHeight="1">
+    <row r="59" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13">
         <v>673500</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>257</v>
+        <v>107</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>342</v>
       </c>
       <c r="E59" s="17">
         <v>4</v>
@@ -5584,10 +5768,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L59" s="18" t="str">
         <f>IF(AND(K59="Geschenk",Overview!E59=1,Overview!F59=0),'Logic ID'!$E$12,
@@ -5606,18 +5790,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="17.45" customHeight="1">
+    <row r="60" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13">
         <v>673500</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>257</v>
+        <v>107</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>342</v>
       </c>
       <c r="E60" s="17">
         <v>0</v>
@@ -5637,10 +5821,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L60" s="18" t="str">
         <f>IF(AND(K60="Geschenk",Overview!E60=1,Overview!F60=0),'Logic ID'!$E$12,
@@ -5659,18 +5843,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17.45" customHeight="1">
+    <row r="61" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13">
         <v>673501</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>257</v>
+        <v>110</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>343</v>
       </c>
       <c r="E61" s="21">
         <v>0</v>
@@ -5690,10 +5874,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L61" s="18" t="str">
         <f>IF(AND(K61="Geschenk",Overview!E61=1,Overview!F61=0),'Logic ID'!$E$12,
@@ -5712,18 +5896,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="17.45" customHeight="1">
+    <row r="62" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13">
         <v>661000</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>257</v>
+        <v>268</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="E62" s="21">
         <v>0</v>
@@ -5743,10 +5927,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L62" s="18" t="str">
         <f>IF(AND(K62="Geschenk",Overview!E62=1,Overview!F62=0),'Logic ID'!$E$12,
@@ -5765,18 +5949,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="17.45" customHeight="1">
+    <row r="63" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13">
         <v>661400</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>257</v>
+        <v>114</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E63" s="21">
         <v>0</v>
@@ -5796,10 +5980,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L63" s="18" t="str">
         <f>IF(AND(K63="Geschenk",Overview!E63=1,Overview!F63=0),'Logic ID'!$E$12,
@@ -5818,18 +6002,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17.45" customHeight="1">
+    <row r="64" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13">
         <v>661500</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>257</v>
+        <v>116</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>345</v>
       </c>
       <c r="E64" s="21">
         <v>0</v>
@@ -5849,10 +6033,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L64" s="18" t="str">
         <f>IF(AND(K64="Geschenk",Overview!E64=1,Overview!F64=0),'Logic ID'!$E$12,
@@ -5871,18 +6055,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17.45" customHeight="1">
+    <row r="65" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13">
         <v>671600</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>257</v>
+        <v>270</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="E65" s="21">
         <v>0</v>
@@ -5902,10 +6086,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L65" s="18" t="str">
         <f>IF(AND(K65="Geschenk",Overview!E65=1,Overview!F65=0),'Logic ID'!$E$12,
@@ -5924,18 +6108,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17.45" customHeight="1">
+    <row r="66" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="13">
         <v>673700</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>257</v>
+        <v>271</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>346</v>
       </c>
       <c r="E66" s="17">
         <v>4</v>
@@ -5955,10 +6139,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L66" s="18" t="str">
         <f>IF(AND(K66="Geschenk",Overview!E66=1,Overview!F66=0),'Logic ID'!$E$12,
@@ -5977,18 +6161,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17.45" customHeight="1">
+    <row r="67" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13">
         <v>673700</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>257</v>
+        <v>271</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>346</v>
       </c>
       <c r="E67" s="17">
         <v>0</v>
@@ -6008,10 +6192,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L67" s="18" t="str">
         <f>IF(AND(K67="Geschenk",Overview!E67=1,Overview!F67=0),'Logic ID'!$E$12,
@@ -6030,18 +6214,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17.45" customHeight="1">
+    <row r="68" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="13">
         <v>674100</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>257</v>
+        <v>272</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>347</v>
       </c>
       <c r="E68" s="17">
         <v>4</v>
@@ -6061,10 +6245,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L68" s="18" t="str">
         <f>IF(AND(K68="Geschenk",Overview!E68=1,Overview!F68=0),'Logic ID'!$E$12,
@@ -6083,18 +6267,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17.45" customHeight="1">
+    <row r="69" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13">
         <v>674100</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>257</v>
+        <v>272</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>347</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
@@ -6114,10 +6298,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L69" s="18" t="str">
         <f>IF(AND(K69="Geschenk",Overview!E69=1,Overview!F69=0),'Logic ID'!$E$12,
@@ -6136,18 +6320,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17.45" customHeight="1">
+    <row r="70" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13">
         <v>674600</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>257</v>
+        <v>273</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>348</v>
       </c>
       <c r="E70" s="21">
         <v>0</v>
@@ -6167,10 +6351,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L70" s="18" t="str">
         <f>IF(AND(K70="Geschenk",Overview!E70=1,Overview!F70=0),'Logic ID'!$E$12,
@@ -6189,18 +6373,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17.45" customHeight="1">
+    <row r="71" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13">
         <v>605200</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>257</v>
+        <v>274</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="E71" s="17">
         <v>4</v>
@@ -6220,10 +6404,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L71" s="18" t="str">
         <f>IF(AND(K71="Geschenk",Overview!E71=1,Overview!F71=0),'Logic ID'!$E$12,
@@ -6242,18 +6426,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17.45" customHeight="1">
+    <row r="72" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13">
         <v>605200</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>257</v>
+        <v>274</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="E72" s="17">
         <v>4</v>
@@ -6273,10 +6457,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L72" s="18" t="str">
         <f>IF(AND(K72="Geschenk",Overview!E72=1,Overview!F72=0),'Logic ID'!$E$12,
@@ -6295,21 +6479,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17.45" customHeight="1">
+    <row r="73" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13">
         <v>605200</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>257</v>
+        <v>274</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="F73" s="17">
         <v>0</v>
@@ -6326,10 +6510,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L73" s="18" t="str">
         <f>IF(AND(K73="Geschenk",Overview!E73=1,Overview!F73=0),'Logic ID'!$E$12,
@@ -6348,18 +6532,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="17.45" customHeight="1">
+    <row r="74" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="13">
         <v>681200</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>257</v>
+        <v>275</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="E74" s="17">
         <v>4</v>
@@ -6379,10 +6563,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L74" s="18" t="str">
         <f>IF(AND(K74="Geschenk",Overview!E74=1,Overview!F74=0),'Logic ID'!$E$12,
@@ -6401,18 +6585,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17.45" customHeight="1">
+    <row r="75" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13">
         <v>681200</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>257</v>
+        <v>275</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="E75" s="17">
         <v>0</v>
@@ -6432,10 +6616,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L75" s="18" t="str">
         <f>IF(AND(K75="Geschenk",Overview!E75=1,Overview!F75=0),'Logic ID'!$E$12,
@@ -6454,18 +6638,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17.45" customHeight="1">
+    <row r="76" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13">
         <v>603400</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>257</v>
+        <v>276</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="E76" s="17">
         <v>4</v>
@@ -6485,10 +6669,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L76" s="18" t="str">
         <f>IF(AND(K76="Geschenk",Overview!E76=1,Overview!F76=0),'Logic ID'!$E$12,
@@ -6507,18 +6691,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17.45" customHeight="1">
+    <row r="77" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="13">
         <v>603400</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>257</v>
+        <v>276</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="E77" s="17">
         <v>4</v>
@@ -6538,10 +6722,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L77" s="18" t="str">
         <f>IF(AND(K77="Geschenk",Overview!E77=1,Overview!F77=0),'Logic ID'!$E$12,
@@ -6560,21 +6744,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17.45" customHeight="1">
+    <row r="78" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="13">
         <v>603400</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>257</v>
+        <v>276</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="F78" s="17">
         <v>0</v>
@@ -6591,10 +6775,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L78" s="18" t="str">
         <f>IF(AND(K78="Geschenk",Overview!E78=1,Overview!F78=0),'Logic ID'!$E$12,
@@ -6613,18 +6797,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17.45" customHeight="1">
+    <row r="79" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13">
         <v>605210</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>257</v>
+        <v>277</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="E79" s="17">
         <v>4</v>
@@ -6644,10 +6828,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L79" s="18" t="str">
         <f>IF(AND(K79="Geschenk",Overview!E79=1,Overview!F79=0),'Logic ID'!$E$12,
@@ -6666,18 +6850,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17.45" customHeight="1">
+    <row r="80" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="13">
         <v>605210</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>257</v>
+        <v>277</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="E80" s="17">
         <v>4</v>
@@ -6697,10 +6881,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L80" s="18" t="str">
         <f>IF(AND(K80="Geschenk",Overview!E80=1,Overview!F80=0),'Logic ID'!$E$12,
@@ -6719,21 +6903,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="17.45" customHeight="1">
+    <row r="81" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13">
         <v>605210</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>257</v>
+        <v>277</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="F81" s="17">
         <v>0</v>
@@ -6750,10 +6934,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L81" s="18" t="str">
         <f>IF(AND(K81="Geschenk",Overview!E81=1,Overview!F81=0),'Logic ID'!$E$12,
@@ -6772,18 +6956,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="17.45" customHeight="1">
+    <row r="82" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="13">
         <v>673200</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>257</v>
+        <v>278</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>352</v>
       </c>
       <c r="E82" s="21">
         <v>0</v>
@@ -6803,10 +6987,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L82" s="18" t="str">
         <f>IF(AND(K82="Geschenk",Overview!E82=1,Overview!F82=0),'Logic ID'!$E$12,
@@ -6825,18 +7009,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="17.45" customHeight="1">
+    <row r="83" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="13">
         <v>673400</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>257</v>
+        <v>279</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>353</v>
       </c>
       <c r="E83" s="21">
         <v>0</v>
@@ -6856,10 +7040,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L83" s="18" t="str">
         <f>IF(AND(K83="Geschenk",Overview!E83=1,Overview!F83=0),'Logic ID'!$E$12,
@@ -6878,18 +7062,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="17.45" customHeight="1">
+    <row r="84" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13">
         <v>695300</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>257</v>
+        <v>280</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="E84" s="21">
         <v>0</v>
@@ -6909,10 +7093,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L84" s="18" t="str">
         <f>IF(AND(K84="Geschenk",Overview!E84=1,Overview!F84=0),'Logic ID'!$E$12,
@@ -6931,18 +7115,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17.45" customHeight="1">
+    <row r="85" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="13">
         <v>695400</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>257</v>
+        <v>281</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>354</v>
       </c>
       <c r="E85" s="17">
         <v>4</v>
@@ -6962,10 +7146,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L85" s="18" t="str">
         <f>IF(AND(K85="Geschenk",Overview!E85=1,Overview!F85=0),'Logic ID'!$E$12,
@@ -6984,18 +7168,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="17.45" customHeight="1">
+    <row r="86" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13">
         <v>695400</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>257</v>
+        <v>281</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>354</v>
       </c>
       <c r="E86" s="17">
         <v>4</v>
@@ -7015,10 +7199,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L86" s="18" t="str">
         <f>IF(AND(K86="Geschenk",Overview!E86=1,Overview!F86=0),'Logic ID'!$E$12,
@@ -7037,21 +7221,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="17.45" customHeight="1">
+    <row r="87" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="13">
         <v>695400</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="C87" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="E87" s="21" t="s">
         <v>183</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>250</v>
       </c>
       <c r="F87" s="17">
         <v>0</v>
@@ -7068,10 +7252,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L87" s="18" t="str">
         <f>IF(AND(K87="Geschenk",Overview!E87=1,Overview!F87=0),'Logic ID'!$E$12,
@@ -7090,18 +7274,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="17.45" customHeight="1">
+    <row r="88" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13">
         <v>605100</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>257</v>
+        <v>282</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="E88" s="17">
         <v>4</v>
@@ -7121,10 +7305,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L88" s="18" t="str">
         <f>IF(AND(K88="Geschenk",Overview!E88=1,Overview!F88=0),'Logic ID'!$E$12,
@@ -7143,18 +7327,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="17.45" customHeight="1">
+    <row r="89" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13">
         <v>605100</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>257</v>
+        <v>282</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="E89" s="17">
         <v>4</v>
@@ -7174,10 +7358,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L89" s="18" t="str">
         <f>IF(AND(K89="Geschenk",Overview!E89=1,Overview!F89=0),'Logic ID'!$E$12,
@@ -7196,21 +7380,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="17.45" customHeight="1">
+    <row r="90" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13">
         <v>605100</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>257</v>
+        <v>282</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="F90" s="17">
         <v>0</v>
@@ -7227,10 +7411,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L90" s="18" t="str">
         <f>IF(AND(K90="Geschenk",Overview!E90=1,Overview!F90=0),'Logic ID'!$E$12,
@@ -7249,18 +7433,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="17.45" customHeight="1">
+    <row r="91" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="13">
         <v>674400</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>257</v>
+        <v>283</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>355</v>
       </c>
       <c r="E91" s="17">
         <v>4</v>
@@ -7280,10 +7464,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L91" s="18" t="str">
         <f>IF(AND(K91="Geschenk",Overview!E91=1,Overview!F91=0),'Logic ID'!$E$12,
@@ -7302,18 +7486,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="17.45" customHeight="1">
+    <row r="92" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13">
         <v>674400</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>257</v>
+        <v>283</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>355</v>
       </c>
       <c r="E92" s="17">
         <v>0</v>
@@ -7333,10 +7517,10 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L92" s="18" t="str">
         <f>IF(AND(K92="Geschenk",Overview!E92=1,Overview!F92=0),'Logic ID'!$E$12,
@@ -7355,18 +7539,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="17.45" customHeight="1">
+    <row r="93" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13">
         <v>607700</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>257</v>
+        <v>284</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>356</v>
       </c>
       <c r="E93" s="21">
         <v>0</v>
@@ -7386,10 +7570,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L93" s="18" t="str">
         <f>IF(AND(K93="Geschenk",Overview!E93=1,Overview!F93=0),'Logic ID'!$E$12,
@@ -7408,18 +7592,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="17.45" customHeight="1">
+    <row r="94" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13">
         <v>608030</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>257</v>
+        <v>284</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>356</v>
       </c>
       <c r="E94" s="21">
         <v>0</v>
@@ -7439,10 +7623,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L94" s="18" t="str">
         <f>IF(AND(K94="Geschenk",Overview!E94=1,Overview!F94=0),'Logic ID'!$E$12,
@@ -7461,18 +7645,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="17.45" customHeight="1">
+    <row r="95" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="13">
         <v>605400</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>257</v>
+        <v>147</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E95" s="21">
         <v>0</v>
@@ -7492,10 +7676,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J95" s="20" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L95" s="18" t="str">
         <f>IF(AND(K95="Geschenk",Overview!E95=1,Overview!F95=0),'Logic ID'!$E$12,
@@ -7514,18 +7698,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="17.45" customHeight="1">
+    <row r="96" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13">
         <v>694900</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>257</v>
+        <v>148</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E96" s="21">
         <v>0</v>
@@ -7545,10 +7729,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J96" s="20" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L96" s="18" t="str">
         <f>IF(AND(K96="Geschenk",Overview!E96=1,Overview!F96=0),'Logic ID'!$E$12,
@@ -7567,18 +7751,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="17.45" customHeight="1">
+    <row r="97" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="13">
         <v>695000</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>257</v>
+        <v>149</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E97" s="21">
         <v>0</v>
@@ -7598,10 +7782,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L97" s="18" t="str">
         <f>IF(AND(K97="Geschenk",Overview!E97=1,Overview!F97=0),'Logic ID'!$E$12,
@@ -7620,18 +7804,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="17.45" customHeight="1">
+    <row r="98" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13">
         <v>695100</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>257</v>
+        <v>285</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E98" s="21">
         <v>0</v>
@@ -7651,10 +7835,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J98" s="20" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L98" s="18" t="str">
         <f>IF(AND(K98="Geschenk",Overview!E98=1,Overview!F98=0),'Logic ID'!$E$12,
@@ -7673,18 +7857,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="17.45" customHeight="1">
+    <row r="99" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13">
         <v>695200</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>257</v>
+        <v>151</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E99" s="21">
         <v>0</v>
@@ -7704,10 +7888,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J99" s="20" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L99" s="18" t="str">
         <f>IF(AND(K99="Geschenk",Overview!E99=1,Overview!F99=0),'Logic ID'!$E$12,
@@ -7726,18 +7910,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="17.45" customHeight="1">
+    <row r="100" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="13">
         <v>673600</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>257</v>
+        <v>286</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E100" s="21">
         <v>0</v>
@@ -7757,10 +7941,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L100" s="18" t="str">
         <f>IF(AND(K100="Geschenk",Overview!E100=1,Overview!F100=0),'Logic ID'!$E$12,
@@ -7779,18 +7963,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="17.45" customHeight="1">
+    <row r="101" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="13">
         <v>662400</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>257</v>
+        <v>287</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E101" s="21">
         <v>0</v>
@@ -7810,10 +7994,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J101" s="20" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L101" s="18" t="str">
         <f>IF(AND(K101="Geschenk",Overview!E101=1,Overview!F101=0),'Logic ID'!$E$12,
@@ -7832,18 +8016,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="17.45" customHeight="1">
+    <row r="102" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13">
         <v>662500</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>257</v>
+        <v>288</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E102" s="21">
         <v>0</v>
@@ -7863,10 +8047,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J102" s="20" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L102" s="18" t="str">
         <f>IF(AND(K102="Geschenk",Overview!E102=1,Overview!F102=0),'Logic ID'!$E$12,
@@ -7885,18 +8069,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="17.45" customHeight="1">
+    <row r="103" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13">
         <v>672310</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>257</v>
+        <v>289</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E103" s="21">
         <v>0</v>
@@ -7916,10 +8100,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J103" s="20" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L103" s="18" t="str">
         <f>IF(AND(K103="Geschenk",Overview!E103=1,Overview!F103=0),'Logic ID'!$E$12,
@@ -7938,18 +8122,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="17.45" customHeight="1">
+    <row r="104" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="13">
         <v>672320</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>257</v>
+        <v>290</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E104" s="21">
         <v>0</v>
@@ -7969,10 +8153,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L104" s="18" t="str">
         <f>IF(AND(K104="Geschenk",Overview!E104=1,Overview!F104=0),'Logic ID'!$E$12,
@@ -7991,18 +8175,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="17.45" customHeight="1">
+    <row r="105" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13">
         <v>672400</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>257</v>
+        <v>291</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>357</v>
       </c>
       <c r="E105" s="21">
         <v>0</v>
@@ -8022,10 +8206,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J105" s="20" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L105" s="18" t="str">
         <f>IF(AND(K105="Geschenk",Overview!E105=1,Overview!F105=0),'Logic ID'!$E$12,
@@ -8044,18 +8228,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="17.45" customHeight="1">
+    <row r="106" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="13">
         <v>672500</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>257</v>
+        <v>292</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E106" s="21">
         <v>0</v>
@@ -8075,10 +8259,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L106" s="18" t="str">
         <f>IF(AND(K106="Geschenk",Overview!E106=1,Overview!F106=0),'Logic ID'!$E$12,
@@ -8097,18 +8281,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="17.45" customHeight="1">
+    <row r="107" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13">
         <v>672600</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>257</v>
+        <v>293</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E107" s="21">
         <v>0</v>
@@ -8128,10 +8312,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L107" s="18" t="str">
         <f>IF(AND(K107="Geschenk",Overview!E107=1,Overview!F107=0),'Logic ID'!$E$12,
@@ -8150,18 +8334,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="17.45" customHeight="1">
+    <row r="108" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13">
         <v>672700</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>257</v>
+        <v>294</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E108" s="21">
         <v>0</v>
@@ -8181,10 +8365,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J108" s="20" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L108" s="18" t="str">
         <f>IF(AND(K108="Geschenk",Overview!E108=1,Overview!F108=0),'Logic ID'!$E$12,
@@ -8203,18 +8387,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="17.45" customHeight="1">
+    <row r="109" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="13">
         <v>604400</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>257</v>
+        <v>295</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>358</v>
       </c>
       <c r="E109" s="21">
         <v>0</v>
@@ -8234,10 +8418,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J109" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L109" s="18" t="str">
         <f>IF(AND(K109="Geschenk",Overview!E109=1,Overview!F109=0),'Logic ID'!$E$12,
@@ -8256,18 +8440,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="17.45" customHeight="1">
+    <row r="110" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="13">
         <v>604300</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>257</v>
+        <v>296</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="E110" s="21">
         <v>0</v>
@@ -8287,10 +8471,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J110" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L110" s="18" t="str">
         <f>IF(AND(K110="Geschenk",Overview!E110=1,Overview!F110=0),'Logic ID'!$E$12,
@@ -8309,18 +8493,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="17.45" customHeight="1">
+    <row r="111" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="13">
         <v>604310</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>257</v>
+        <v>297</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>358</v>
       </c>
       <c r="E111" s="21">
         <v>0</v>
@@ -8340,10 +8524,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L111" s="18" t="str">
         <f>IF(AND(K111="Geschenk",Overview!E111=1,Overview!F111=0),'Logic ID'!$E$12,
@@ -8362,18 +8546,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="17.45" customHeight="1">
+    <row r="112" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="13">
         <v>604000</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>257</v>
+        <v>298</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>360</v>
       </c>
       <c r="E112" s="21">
         <v>0</v>
@@ -8393,10 +8577,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J112" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L112" s="18" t="str">
         <f>IF(AND(K112="Geschenk",Overview!E112=1,Overview!F112=0),'Logic ID'!$E$12,
@@ -8415,18 +8599,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="17.45" customHeight="1">
+    <row r="113" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="13">
         <v>691300</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>257</v>
+        <v>299</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>361</v>
       </c>
       <c r="E113" s="21">
         <v>0</v>
@@ -8446,10 +8630,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J113" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L113" s="18" t="str">
         <f>IF(AND(K113="Geschenk",Overview!E113=1,Overview!F113=0),'Logic ID'!$E$12,
@@ -8468,18 +8652,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="17.45" customHeight="1">
+    <row r="114" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="13">
         <v>691310</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>257</v>
+        <v>300</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>358</v>
       </c>
       <c r="E114" s="21">
         <v>0</v>
@@ -8499,10 +8683,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J114" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L114" s="18" t="str">
         <f>IF(AND(K114="Geschenk",Overview!E114=1,Overview!F114=0),'Logic ID'!$E$12,
@@ -8521,18 +8705,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="17.45" customHeight="1">
+    <row r="115" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="13">
         <v>691350</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>257</v>
+        <v>301</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>358</v>
       </c>
       <c r="E115" s="21">
         <v>0</v>
@@ -8552,10 +8736,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J115" s="20" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L115" s="18" t="str">
         <f>IF(AND(K115="Geschenk",Overview!E115=1,Overview!F115=0),'Logic ID'!$E$12,
@@ -8574,18 +8758,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="17.45" customHeight="1">
+    <row r="116" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="13">
         <v>661150</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>257</v>
+        <v>169</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E116" s="21">
         <v>0</v>
@@ -8605,10 +8789,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J116" s="20" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L116" s="18" t="str">
         <f>IF(AND(K116="Geschenk",Overview!E116=1,Overview!F116=0),'Logic ID'!$E$12,
@@ -8627,18 +8811,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="17.45" customHeight="1">
+    <row r="117" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="13">
         <v>999910</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>257</v>
+        <v>171</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="E117" s="21">
         <v>0</v>
@@ -8658,10 +8842,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J117" s="20" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L117" s="18" t="str">
         <f>IF(AND(K117="Geschenk",Overview!E117=1,Overview!F117=0),'Logic ID'!$E$12,
@@ -8697,25 +8881,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Munka2"/>
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="5" customWidth="1"/>
-    <col min="3" max="256" width="8.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="5" customWidth="1"/>
+    <col min="3" max="256" width="8.81640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="14.45" customHeight="1">
+    <row r="1" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -8972,12 +9157,12 @@
       <c r="IU1" s="10"/>
       <c r="IV1" s="10"/>
     </row>
-    <row r="2" spans="1:256" ht="14.45" customHeight="1">
+    <row r="2" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -8997,12 +9182,12 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="14.45" customHeight="1">
+    <row r="3" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9022,12 +9207,12 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="14.45" customHeight="1">
+    <row r="4" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9047,12 +9232,12 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="14.45" customHeight="1">
+    <row r="5" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -9072,12 +9257,12 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="14.45" customHeight="1">
+    <row r="6" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -9097,7 +9282,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="14.45" customHeight="1">
+    <row r="7" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -9118,7 +9303,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="14.45" customHeight="1">
+    <row r="8" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -9139,7 +9324,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="14.45" customHeight="1">
+    <row r="9" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -9160,7 +9345,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="14.45" customHeight="1">
+    <row r="10" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -9181,7 +9366,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="14.45" customHeight="1">
+    <row r="11" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -9202,7 +9387,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="14.45" customHeight="1">
+    <row r="12" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -9235,23 +9420,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Munka3"/>
   <dimension ref="A1:IV11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="256" width="8.85546875" style="6" customWidth="1"/>
+    <col min="1" max="256" width="8.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="14.45" customHeight="1">
+    <row r="1" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9508,12 +9694,12 @@
       <c r="IU1" s="10"/>
       <c r="IV1" s="10"/>
     </row>
-    <row r="2" spans="1:256" ht="14.45" customHeight="1">
+    <row r="2" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -9531,12 +9717,12 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="14.45" customHeight="1">
+    <row r="3" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9554,12 +9740,12 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="14.45" customHeight="1">
+    <row r="4" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9577,7 +9763,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="14.45" customHeight="1">
+    <row r="5" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -9596,7 +9782,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="14.45" customHeight="1">
+    <row r="6" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -9615,7 +9801,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="14.45" customHeight="1">
+    <row r="7" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -9634,7 +9820,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="14.45" customHeight="1">
+    <row r="8" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -9653,7 +9839,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="14.45" customHeight="1">
+    <row r="9" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -9672,7 +9858,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="14.45" customHeight="1">
+    <row r="10" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -9691,7 +9877,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="14.45" customHeight="1">
+    <row r="11" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -9722,750 +9908,751 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Munka4"/>
   <dimension ref="A1:IQ91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="127.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="251" width="8.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="127.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="251" width="8.81640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.45" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.45" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.45" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.45" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.45" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.45" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.45" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.45" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.45" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.45" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.45" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.45" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.45" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.45" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.45" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.45" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.45" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.45" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.45" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.45" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.45" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.45" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.45" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.45" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.45" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.45" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.45" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.45" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.45" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.45" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.45" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.45" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.45" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.45" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.45" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.45" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.45" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.45" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.45" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.45" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.45" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.45" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.45" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.45" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.45" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.45" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.45" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.45" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.45" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.45" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.45" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17.45" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17.45" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17.45" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17.45" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17.45" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17.45" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17.45" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17.45" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17.45" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17.45" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17.45" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17.45" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17.45" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17.45" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17.45" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17.45" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17.45" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="17.45" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="17.45" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17.45" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="17.45" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="17.45" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="17.45" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="17.45" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="17.45" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="17.45" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="17.45" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="17.45" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="17.45" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="17.45" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="17.45" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="17.45" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="17.45" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="17.45" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="17.45" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="17.45" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="17.45" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="17.45" customHeight="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -10474,119 +10661,120 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EDCB46-8C9D-4F41-BE01-4AA6C9FAE314}">
+  <sheetPr codeName="Munka5"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -10597,43 +10785,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Munka6"/>
   <dimension ref="A1:IW24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="10" customWidth="1"/>
-    <col min="8" max="21" width="8.85546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" style="8" customWidth="1"/>
-    <col min="23" max="257" width="8.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.7265625" style="10" customWidth="1"/>
+    <col min="8" max="21" width="8.81640625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="22.7265625" style="8" customWidth="1"/>
+    <col min="23" max="257" width="8.81640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" ht="14.45" customHeight="1">
+    <row r="1" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -10651,12 +10840,12 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:257" ht="14.45" customHeight="1">
+    <row r="2" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -10665,13 +10854,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -10689,12 +10878,12 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:257" ht="14.45" customHeight="1">
+    <row r="3" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
@@ -10703,13 +10892,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -10727,12 +10916,12 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:257" ht="14.45" customHeight="1">
+    <row r="4" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
@@ -10741,13 +10930,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -10765,27 +10954,27 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:257" ht="14.45" customHeight="1">
+    <row r="5" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -10803,12 +10992,12 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:257" ht="14.45" customHeight="1">
+    <row r="6" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -10817,13 +11006,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -10841,12 +11030,12 @@
       <c r="U6" s="4"/>
       <c r="V6"/>
     </row>
-    <row r="7" spans="1:257" ht="14.45" customHeight="1">
+    <row r="7" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -10855,13 +11044,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -10879,12 +11068,12 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:257" ht="14.45" customHeight="1">
+    <row r="8" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -10893,13 +11082,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -10917,12 +11106,12 @@
       <c r="U8" s="4"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:257" ht="14.45" customHeight="1">
+    <row r="9" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -10931,13 +11120,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -10955,12 +11144,12 @@
       <c r="U9" s="4"/>
       <c r="V9"/>
     </row>
-    <row r="10" spans="1:257" ht="14.45" customHeight="1">
+    <row r="10" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -10969,13 +11158,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -10993,12 +11182,12 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:257" ht="14.45" customHeight="1">
+    <row r="11" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -11007,13 +11196,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -11031,12 +11220,12 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:257" ht="14.45" customHeight="1">
+    <row r="12" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -11045,13 +11234,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -11069,12 +11258,12 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:257" ht="14.45" customHeight="1">
+    <row r="13" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
         <v>1.2</v>
@@ -11083,13 +11272,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -11107,12 +11296,12 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:257" ht="14.45" customHeight="1">
+    <row r="14" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
         <v>3.4</v>
@@ -11121,13 +11310,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -11145,7 +11334,7 @@
       <c r="U14" s="4"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:257" ht="14.45" customHeight="1">
+    <row r="15" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -11404,7 +11593,7 @@
       <c r="IV15" s="10"/>
       <c r="IW15" s="10"/>
     </row>
-    <row r="16" spans="1:257" ht="14.45" customHeight="1">
+    <row r="16" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -11663,7 +11852,7 @@
       <c r="IV16" s="10"/>
       <c r="IW16" s="10"/>
     </row>
-    <row r="17" spans="1:257" ht="14.45" customHeight="1">
+    <row r="17" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -11922,7 +12111,7 @@
       <c r="IV17" s="10"/>
       <c r="IW17" s="10"/>
     </row>
-    <row r="18" spans="1:257" ht="14.45" customHeight="1">
+    <row r="18" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -12181,7 +12370,7 @@
       <c r="IV18" s="10"/>
       <c r="IW18" s="10"/>
     </row>
-    <row r="19" spans="1:257" ht="14.45" customHeight="1">
+    <row r="19" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -12440,7 +12629,7 @@
       <c r="IV19" s="10"/>
       <c r="IW19" s="10"/>
     </row>
-    <row r="20" spans="1:257" ht="14.45" customHeight="1">
+    <row r="20" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -12699,7 +12888,7 @@
       <c r="IV20" s="10"/>
       <c r="IW20" s="10"/>
     </row>
-    <row r="21" spans="1:257" ht="14.45" customHeight="1">
+    <row r="21" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -12958,7 +13147,7 @@
       <c r="IV21" s="10"/>
       <c r="IW21" s="10"/>
     </row>
-    <row r="22" spans="1:257" ht="14.45" customHeight="1">
+    <row r="22" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -13217,7 +13406,7 @@
       <c r="IV22" s="10"/>
       <c r="IW22" s="10"/>
     </row>
-    <row r="23" spans="1:257" ht="14.45" customHeight="1">
+    <row r="23" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -13476,7 +13665,7 @@
       <c r="IV23" s="10"/>
       <c r="IW23" s="10"/>
     </row>
-    <row r="24" spans="1:257" ht="14.45" customHeight="1">
+    <row r="24" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -13746,6 +13935,54 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
+        </TermInfo>
+      </Terms>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Value>7</Value>
+      <Value>6</Value>
+      <Value>5</Value>
+      <Value>4</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13754,7 +13991,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101008B0F08FECF9ACD44B69B0979475AA3A3" ma:contentTypeVersion="5" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="15e7cafbdefa31d60e781c5e4062628f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be70f0-66b9-4629-a389-4b080fc0dfa6" xmlns:ns3="cc54d3cb-87fe-4b6a-be2e-e1fd0be84e77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e6785b8b81ecd23d6e742c299b13f" ns2:_="" ns3:_="">
     <xsd:import namespace="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
@@ -13911,55 +14148,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
-        </TermInfo>
-      </Terms>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Value>7</Value>
-      <Value>6</Value>
-      <Value>5</Value>
-      <Value>4</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -13967,7 +14166,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BF3E90-0828-4759-ACA7-3670C46D50E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13984,14 +14183,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Datei.xlsx
+++ b/Datei.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daru\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cts\Documents\SEA\sea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD44E3-0DF7-41DF-B8AA-F6A8321CDCC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51506270-AEA0-4A19-AD57-1AD5595B78A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -682,9 +682,6 @@
     <t>Geschenk3</t>
   </si>
   <si>
-    <t>Amount, Usage, Duration</t>
-  </si>
-  <si>
     <t>c6</t>
   </si>
   <si>
@@ -1124,13 +1121,16 @@
   </si>
   <si>
     <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Qualität</t>
+  </si>
+  <si>
+    <t>Amount, Duration, Usage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1173,6 +1173,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1319,13 +1326,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2655,30 +2662,30 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="46.26953125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="25" customWidth="1"/>
     <col min="3" max="3" width="113" style="25" customWidth="1"/>
-    <col min="4" max="4" width="41.81640625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7265625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="25" customWidth="1"/>
     <col min="11" max="11" width="17" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2716,7 +2723,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.45" customHeight="1">
       <c r="A2" s="13">
         <v>681100</v>
       </c>
@@ -2724,10 +2731,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
@@ -2769,7 +2776,7 @@
         <v>Geschenk1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="17.45" customHeight="1">
       <c r="A3" s="13">
         <v>681120</v>
       </c>
@@ -2777,10 +2784,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="19">
         <v>0</v>
@@ -2822,7 +2829,7 @@
         <v>Geschenk</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="17.45" customHeight="1">
       <c r="A4" s="13">
         <v>661601</v>
       </c>
@@ -2830,10 +2837,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E4" s="21">
         <v>1.2</v>
@@ -2875,7 +2882,7 @@
         <v>Geschenk2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="17.45" customHeight="1">
       <c r="A5" s="13">
         <v>661602</v>
       </c>
@@ -2883,10 +2890,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5" s="21">
         <v>3.4</v>
@@ -2928,7 +2935,7 @@
         <v>Geschenk3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="17.45" customHeight="1">
       <c r="A6" s="13">
         <v>603900</v>
       </c>
@@ -2936,10 +2943,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E6" s="17">
         <v>4</v>
@@ -2956,7 +2963,7 @@
       </c>
       <c r="I6" s="28" t="str">
         <f>VLOOKUP(L6,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>196</v>
@@ -2981,7 +2988,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="17.45" customHeight="1">
       <c r="A7" s="13">
         <v>603900</v>
       </c>
@@ -2989,10 +2996,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7" s="17">
         <v>4</v>
@@ -3009,7 +3016,7 @@
       </c>
       <c r="I7" s="28" t="str">
         <f>VLOOKUP(L7,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>196</v>
@@ -3034,7 +3041,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="17.45" customHeight="1">
       <c r="A8" s="13">
         <v>603900</v>
       </c>
@@ -3042,10 +3049,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>183</v>
@@ -3062,7 +3069,7 @@
       </c>
       <c r="I8" s="28" t="str">
         <f>VLOOKUP(L8,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>196</v>
@@ -3087,7 +3094,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="17.45" customHeight="1">
       <c r="A9" s="13">
         <v>695800</v>
       </c>
@@ -3095,10 +3102,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" s="17">
         <v>4</v>
@@ -3115,7 +3122,7 @@
       </c>
       <c r="I9" s="28" t="str">
         <f>VLOOKUP(L9,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>196</v>
@@ -3140,7 +3147,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="17.45" customHeight="1">
       <c r="A10" s="13">
         <v>695800</v>
       </c>
@@ -3148,10 +3155,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E10" s="17">
         <v>4</v>
@@ -3168,7 +3175,7 @@
       </c>
       <c r="I10" s="28" t="str">
         <f>VLOOKUP(L10,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>196</v>
@@ -3193,7 +3200,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="17.45" customHeight="1">
       <c r="A11" s="13">
         <v>695800</v>
       </c>
@@ -3201,10 +3208,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>183</v>
@@ -3221,7 +3228,7 @@
       </c>
       <c r="I11" s="28" t="str">
         <f>VLOOKUP(L11,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>196</v>
@@ -3246,7 +3253,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="17.45" customHeight="1">
       <c r="A12" s="13">
         <v>681203</v>
       </c>
@@ -3254,10 +3261,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E12" s="17">
         <v>4</v>
@@ -3274,7 +3281,7 @@
       </c>
       <c r="I12" s="28" t="str">
         <f>VLOOKUP(L12,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>196</v>
@@ -3299,7 +3306,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="17.45" customHeight="1">
       <c r="A13" s="13">
         <v>681203</v>
       </c>
@@ -3307,10 +3314,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E13" s="17">
         <v>4</v>
@@ -3327,7 +3334,7 @@
       </c>
       <c r="I13" s="28" t="str">
         <f>VLOOKUP(L13,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>196</v>
@@ -3352,7 +3359,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="17.45" customHeight="1">
       <c r="A14" s="13">
         <v>681203</v>
       </c>
@@ -3360,10 +3367,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>183</v>
@@ -3380,7 +3387,7 @@
       </c>
       <c r="I14" s="28" t="str">
         <f>VLOOKUP(L14,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>196</v>
@@ -3405,7 +3412,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="17.45" customHeight="1">
       <c r="A15" s="13">
         <v>661603</v>
       </c>
@@ -3413,10 +3420,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E15" s="19">
         <v>0</v>
@@ -3458,7 +3465,7 @@
         <v>Geschenk</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="17.45" customHeight="1">
       <c r="A16" s="13">
         <v>672200</v>
       </c>
@@ -3466,10 +3473,10 @@
         <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E16" s="21">
         <v>0</v>
@@ -3489,7 +3496,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>26</v>
@@ -3511,7 +3518,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="17.45" customHeight="1">
       <c r="A17" s="13">
         <v>662100</v>
       </c>
@@ -3519,10 +3526,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E17" s="21">
         <v>0</v>
@@ -3542,7 +3549,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>26</v>
@@ -3564,7 +3571,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="17.45" customHeight="1">
       <c r="A18" s="13">
         <v>662201</v>
       </c>
@@ -3572,10 +3579,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E18" s="21">
         <v>0</v>
@@ -3595,7 +3602,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>26</v>
@@ -3617,7 +3624,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="17.45" customHeight="1">
       <c r="A19" s="13">
         <v>661700</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E19" s="21">
         <v>0</v>
@@ -3648,7 +3655,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>26</v>
@@ -3670,7 +3677,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="17.45" customHeight="1">
       <c r="A20" s="13">
         <v>662300</v>
       </c>
@@ -3681,7 +3688,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E20" s="21">
         <v>0</v>
@@ -3701,7 +3708,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>26</v>
@@ -3723,7 +3730,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="17.45" customHeight="1">
       <c r="A21" s="13">
         <v>661703</v>
       </c>
@@ -3731,10 +3738,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E21" s="21">
         <v>0</v>
@@ -3754,7 +3761,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>26</v>
@@ -3776,7 +3783,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="17.45" customHeight="1">
       <c r="A22" s="13">
         <v>661710</v>
       </c>
@@ -3787,7 +3794,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E22" s="21">
         <v>0</v>
@@ -3807,7 +3814,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>26</v>
@@ -3829,7 +3836,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="17.45" customHeight="1">
       <c r="A23" s="13">
         <v>661708</v>
       </c>
@@ -3837,10 +3844,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E23" s="21">
         <v>0</v>
@@ -3860,7 +3867,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>26</v>
@@ -3882,7 +3889,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="17.45" customHeight="1">
       <c r="A24" s="13">
         <v>681150</v>
       </c>
@@ -3890,10 +3897,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E24" s="17">
         <v>4</v>
@@ -3910,7 +3917,7 @@
       </c>
       <c r="I24" s="28" t="str">
         <f>VLOOKUP(L24,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>198</v>
@@ -3935,7 +3942,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="17.45" customHeight="1">
       <c r="A25" s="13">
         <v>681150</v>
       </c>
@@ -3943,10 +3950,10 @@
         <v>44</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
@@ -3963,7 +3970,7 @@
       </c>
       <c r="I25" s="28" t="str">
         <f>VLOOKUP(L25,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>198</v>
@@ -3988,7 +3995,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="17.45" customHeight="1">
       <c r="A26" s="13">
         <v>673800</v>
       </c>
@@ -3998,8 +4005,8 @@
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>302</v>
+      <c r="D26" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E26" s="17">
         <v>4</v>
@@ -4016,7 +4023,7 @@
       </c>
       <c r="I26" s="28" t="str">
         <f>VLOOKUP(L26,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J26" s="20" t="s">
         <v>198</v>
@@ -4041,7 +4048,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="17.45" customHeight="1">
       <c r="A27" s="13">
         <v>673800</v>
       </c>
@@ -4051,8 +4058,8 @@
       <c r="C27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>302</v>
+      <c r="D27" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E27" s="17">
         <v>0</v>
@@ -4069,7 +4076,7 @@
       </c>
       <c r="I27" s="28" t="str">
         <f>VLOOKUP(L27,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>198</v>
@@ -4094,7 +4101,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="17.45" customHeight="1">
       <c r="A28" s="13">
         <v>661200</v>
       </c>
@@ -4102,10 +4109,10 @@
         <v>50</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E28" s="21">
         <v>0</v>
@@ -4125,7 +4132,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>26</v>
@@ -4147,7 +4154,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="17.45" customHeight="1">
       <c r="A29" s="13">
         <v>681153</v>
       </c>
@@ -4158,7 +4165,7 @@
         <v>52</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E29" s="21">
         <v>0</v>
@@ -4178,7 +4185,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>26</v>
@@ -4200,7 +4207,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="17.45" customHeight="1">
       <c r="A30" s="13">
         <v>672201</v>
       </c>
@@ -4208,10 +4215,10 @@
         <v>53</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E30" s="21">
         <v>0</v>
@@ -4231,7 +4238,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>26</v>
@@ -4253,7 +4260,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="17.45" customHeight="1">
       <c r="A31" s="13">
         <v>672000</v>
       </c>
@@ -4261,10 +4268,10 @@
         <v>54</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E31" s="21">
         <v>0</v>
@@ -4284,7 +4291,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>26</v>
@@ -4306,7 +4313,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="17.45" customHeight="1">
       <c r="A32" s="13">
         <v>671800</v>
       </c>
@@ -4314,10 +4321,10 @@
         <v>56</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E32" s="21">
         <v>0</v>
@@ -4337,7 +4344,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>26</v>
@@ -4359,7 +4366,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="17.45" customHeight="1">
       <c r="A33" s="13">
         <v>671700</v>
       </c>
@@ -4367,10 +4374,10 @@
         <v>57</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E33" s="21">
         <v>0</v>
@@ -4390,7 +4397,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>26</v>
@@ -4412,7 +4419,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="17.45" customHeight="1">
       <c r="A34" s="13">
         <v>671900</v>
       </c>
@@ -4420,10 +4427,10 @@
         <v>58</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E34" s="21">
         <v>0</v>
@@ -4443,7 +4450,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>26</v>
@@ -4465,7 +4472,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="17.45" customHeight="1">
       <c r="A35" s="13">
         <v>672100</v>
       </c>
@@ -4473,10 +4480,10 @@
         <v>60</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E35" s="21">
         <v>0</v>
@@ -4496,7 +4503,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>26</v>
@@ -4518,7 +4525,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="17.45" customHeight="1">
       <c r="A36" s="13">
         <v>672260</v>
       </c>
@@ -4526,10 +4533,10 @@
         <v>62</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E36" s="21">
         <v>0</v>
@@ -4549,7 +4556,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>26</v>
@@ -4571,7 +4578,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="17.45" customHeight="1">
       <c r="A37" s="13">
         <v>671000</v>
       </c>
@@ -4579,10 +4586,10 @@
         <v>64</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E37" s="21">
         <v>0</v>
@@ -4624,7 +4631,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="17.45" customHeight="1">
       <c r="A38" s="13">
         <v>671100</v>
       </c>
@@ -4632,10 +4639,10 @@
         <v>67</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E38" s="21">
         <v>0</v>
@@ -4677,7 +4684,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="17.45" customHeight="1">
       <c r="A39" s="13">
         <v>671200</v>
       </c>
@@ -4685,10 +4692,10 @@
         <v>69</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E39" s="21">
         <v>0</v>
@@ -4730,7 +4737,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="17.45" customHeight="1">
       <c r="A40" s="13">
         <v>671300</v>
       </c>
@@ -4738,10 +4745,10 @@
         <v>71</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E40" s="21">
         <v>0</v>
@@ -4783,7 +4790,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="17.45" customHeight="1">
       <c r="A41" s="13">
         <v>671400</v>
       </c>
@@ -4791,10 +4798,10 @@
         <v>73</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E41" s="21">
         <v>0</v>
@@ -4836,7 +4843,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="17.45" customHeight="1">
       <c r="A42" s="13">
         <v>671500</v>
       </c>
@@ -4844,10 +4851,10 @@
         <v>75</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E42" s="21">
         <v>0</v>
@@ -4889,7 +4896,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="17.45" customHeight="1">
       <c r="A43" s="13">
         <v>613350</v>
       </c>
@@ -4900,7 +4907,7 @@
         <v>78</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E43" s="21">
         <v>0</v>
@@ -4942,7 +4949,7 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="17.45" customHeight="1">
       <c r="A44" s="13">
         <v>661300</v>
       </c>
@@ -4950,10 +4957,10 @@
         <v>80</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E44" s="21">
         <v>0</v>
@@ -4973,7 +4980,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>26</v>
@@ -4995,7 +5002,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="17.45" customHeight="1">
       <c r="A45" s="13">
         <v>674300</v>
       </c>
@@ -5003,10 +5010,10 @@
         <v>81</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E45" s="21">
         <v>0</v>
@@ -5026,7 +5033,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>26</v>
@@ -5048,7 +5055,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="17.45" customHeight="1">
       <c r="A46" s="13">
         <v>605300</v>
       </c>
@@ -5056,10 +5063,10 @@
         <v>83</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E46" s="17">
         <v>4</v>
@@ -5076,7 +5083,7 @@
       </c>
       <c r="I46" s="28" t="str">
         <f>VLOOKUP(L46,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>196</v>
@@ -5101,7 +5108,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="17.45" customHeight="1">
       <c r="A47" s="13">
         <v>605300</v>
       </c>
@@ -5109,10 +5116,10 @@
         <v>83</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E47" s="17">
         <v>4</v>
@@ -5129,7 +5136,7 @@
       </c>
       <c r="I47" s="28" t="str">
         <f>VLOOKUP(L47,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J47" s="13" t="s">
         <v>196</v>
@@ -5154,7 +5161,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="17.45" customHeight="1">
       <c r="A48" s="13">
         <v>605300</v>
       </c>
@@ -5162,10 +5169,10 @@
         <v>83</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>183</v>
@@ -5182,7 +5189,7 @@
       </c>
       <c r="I48" s="28" t="str">
         <f>VLOOKUP(L48,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J48" s="13" t="s">
         <v>196</v>
@@ -5207,7 +5214,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="17.45" customHeight="1">
       <c r="A49" s="13">
         <v>673901</v>
       </c>
@@ -5215,10 +5222,10 @@
         <v>85</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E49" s="21">
         <v>0</v>
@@ -5238,7 +5245,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>26</v>
@@ -5260,7 +5267,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A50" s="13">
         <v>673902</v>
       </c>
@@ -5268,10 +5275,10 @@
         <v>87</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E50" s="17">
         <v>4</v>
@@ -5288,7 +5295,7 @@
       </c>
       <c r="I50" s="28" t="str">
         <f>VLOOKUP(L50,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>198</v>
@@ -5313,7 +5320,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A51" s="13">
         <v>673902</v>
       </c>
@@ -5321,10 +5328,10 @@
         <v>87</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E51" s="17">
         <v>0</v>
@@ -5341,7 +5348,7 @@
       </c>
       <c r="I51" s="28" t="str">
         <f>VLOOKUP(L51,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>198</v>
@@ -5366,7 +5373,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="17.45" customHeight="1">
       <c r="A52" s="13">
         <v>613300</v>
       </c>
@@ -5374,10 +5381,10 @@
         <v>89</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E52" s="21">
         <v>0</v>
@@ -5397,7 +5404,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>26</v>
@@ -5419,7 +5426,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="17.45" customHeight="1">
       <c r="A53" s="13">
         <v>691000</v>
       </c>
@@ -5427,10 +5434,10 @@
         <v>91</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E53" s="21">
         <v>0</v>
@@ -5450,7 +5457,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>93</v>
@@ -5472,7 +5479,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="17.45" customHeight="1">
       <c r="A54" s="13">
         <v>691100</v>
       </c>
@@ -5480,10 +5487,10 @@
         <v>94</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E54" s="21">
         <v>0</v>
@@ -5503,7 +5510,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>93</v>
@@ -5525,7 +5532,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="17.45" customHeight="1">
       <c r="A55" s="13">
         <v>691200</v>
       </c>
@@ -5533,10 +5540,10 @@
         <v>96</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E55" s="21">
         <v>0</v>
@@ -5556,7 +5563,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>93</v>
@@ -5578,7 +5585,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="17.45" customHeight="1">
       <c r="A56" s="13">
         <v>691210</v>
       </c>
@@ -5589,7 +5596,7 @@
         <v>99</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E56" s="21">
         <v>0</v>
@@ -5609,7 +5616,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K56" s="12" t="s">
         <v>93</v>
@@ -5631,7 +5638,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="17.45" customHeight="1">
       <c r="A57" s="13">
         <v>661711</v>
       </c>
@@ -5642,7 +5649,7 @@
         <v>101</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E57" s="21">
         <v>0</v>
@@ -5662,7 +5669,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>26</v>
@@ -5684,7 +5691,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="17.45" customHeight="1">
       <c r="A58" s="13">
         <v>673300</v>
       </c>
@@ -5695,7 +5702,7 @@
         <v>104</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E58" s="21">
         <v>0</v>
@@ -5737,7 +5744,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="17.45" customHeight="1">
       <c r="A59" s="13">
         <v>673500</v>
       </c>
@@ -5748,7 +5755,7 @@
         <v>107</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E59" s="17">
         <v>4</v>
@@ -5765,7 +5772,7 @@
       </c>
       <c r="I59" s="28" t="str">
         <f>VLOOKUP(L59,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>198</v>
@@ -5790,7 +5797,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="17.45" customHeight="1">
       <c r="A60" s="13">
         <v>673500</v>
       </c>
@@ -5801,7 +5808,7 @@
         <v>107</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E60" s="17">
         <v>0</v>
@@ -5818,7 +5825,7 @@
       </c>
       <c r="I60" s="28" t="str">
         <f>VLOOKUP(L60,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>198</v>
@@ -5843,7 +5850,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="17.45" customHeight="1">
       <c r="A61" s="13">
         <v>673501</v>
       </c>
@@ -5854,7 +5861,7 @@
         <v>110</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E61" s="21">
         <v>0</v>
@@ -5896,7 +5903,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="17.45" customHeight="1">
       <c r="A62" s="13">
         <v>661000</v>
       </c>
@@ -5904,10 +5911,10 @@
         <v>112</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E62" s="21">
         <v>0</v>
@@ -5949,7 +5956,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="17.45" customHeight="1">
       <c r="A63" s="13">
         <v>661400</v>
       </c>
@@ -5959,8 +5966,8 @@
       <c r="C63" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="33" t="s">
-        <v>302</v>
+      <c r="D63" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E63" s="21">
         <v>0</v>
@@ -6002,7 +6009,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="17.45" customHeight="1">
       <c r="A64" s="13">
         <v>661500</v>
       </c>
@@ -6013,7 +6020,7 @@
         <v>116</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E64" s="21">
         <v>0</v>
@@ -6033,7 +6040,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K64" s="12" t="s">
         <v>26</v>
@@ -6055,7 +6062,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="17.45" customHeight="1">
       <c r="A65" s="13">
         <v>671600</v>
       </c>
@@ -6063,10 +6070,10 @@
         <v>118</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E65" s="21">
         <v>0</v>
@@ -6086,7 +6093,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>26</v>
@@ -6108,7 +6115,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="17.45" customHeight="1">
       <c r="A66" s="13">
         <v>673700</v>
       </c>
@@ -6116,10 +6123,10 @@
         <v>120</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E66" s="17">
         <v>4</v>
@@ -6136,7 +6143,7 @@
       </c>
       <c r="I66" s="28" t="str">
         <f>VLOOKUP(L66,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J66" s="20" t="s">
         <v>198</v>
@@ -6161,7 +6168,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="17.45" customHeight="1">
       <c r="A67" s="13">
         <v>673700</v>
       </c>
@@ -6169,10 +6176,10 @@
         <v>120</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E67" s="17">
         <v>0</v>
@@ -6189,7 +6196,7 @@
       </c>
       <c r="I67" s="28" t="str">
         <f>VLOOKUP(L67,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>198</v>
@@ -6214,7 +6221,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="17.45" customHeight="1">
       <c r="A68" s="13">
         <v>674100</v>
       </c>
@@ -6222,10 +6229,10 @@
         <v>122</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E68" s="17">
         <v>4</v>
@@ -6242,7 +6249,7 @@
       </c>
       <c r="I68" s="28" t="str">
         <f>VLOOKUP(L68,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>198</v>
@@ -6267,7 +6274,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="17.45" customHeight="1">
       <c r="A69" s="13">
         <v>674100</v>
       </c>
@@ -6275,10 +6282,10 @@
         <v>122</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
@@ -6295,7 +6302,7 @@
       </c>
       <c r="I69" s="28" t="str">
         <f>VLOOKUP(L69,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J69" s="20" t="s">
         <v>198</v>
@@ -6320,7 +6327,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="17.45" customHeight="1">
       <c r="A70" s="13">
         <v>674600</v>
       </c>
@@ -6328,10 +6335,10 @@
         <v>124</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E70" s="21">
         <v>0</v>
@@ -6373,7 +6380,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="17.45" customHeight="1">
       <c r="A71" s="13">
         <v>605200</v>
       </c>
@@ -6381,10 +6388,10 @@
         <v>125</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E71" s="17">
         <v>4</v>
@@ -6401,7 +6408,7 @@
       </c>
       <c r="I71" s="28" t="str">
         <f>VLOOKUP(L71,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J71" s="20" t="s">
         <v>196</v>
@@ -6426,7 +6433,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="17.45" customHeight="1">
       <c r="A72" s="13">
         <v>605200</v>
       </c>
@@ -6434,10 +6441,10 @@
         <v>125</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E72" s="17">
         <v>4</v>
@@ -6454,7 +6461,7 @@
       </c>
       <c r="I72" s="28" t="str">
         <f>VLOOKUP(L72,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J72" s="20" t="s">
         <v>196</v>
@@ -6479,7 +6486,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="17.45" customHeight="1">
       <c r="A73" s="13">
         <v>605200</v>
       </c>
@@ -6487,10 +6494,10 @@
         <v>125</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>183</v>
@@ -6507,7 +6514,7 @@
       </c>
       <c r="I73" s="28" t="str">
         <f>VLOOKUP(L73,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J73" s="20" t="s">
         <v>196</v>
@@ -6532,7 +6539,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="17.45" customHeight="1">
       <c r="A74" s="13">
         <v>681200</v>
       </c>
@@ -6540,10 +6547,10 @@
         <v>127</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E74" s="17">
         <v>4</v>
@@ -6560,7 +6567,7 @@
       </c>
       <c r="I74" s="28" t="str">
         <f>VLOOKUP(L74,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J74" s="20" t="s">
         <v>198</v>
@@ -6585,7 +6592,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="17.45" customHeight="1">
       <c r="A75" s="13">
         <v>681200</v>
       </c>
@@ -6593,10 +6600,10 @@
         <v>127</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E75" s="17">
         <v>0</v>
@@ -6613,7 +6620,7 @@
       </c>
       <c r="I75" s="28" t="str">
         <f>VLOOKUP(L75,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J75" s="20" t="s">
         <v>198</v>
@@ -6638,7 +6645,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="17.45" customHeight="1">
       <c r="A76" s="13">
         <v>603400</v>
       </c>
@@ -6646,10 +6653,10 @@
         <v>129</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E76" s="17">
         <v>4</v>
@@ -6666,7 +6673,7 @@
       </c>
       <c r="I76" s="28" t="str">
         <f>VLOOKUP(L76,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J76" s="20" t="s">
         <v>196</v>
@@ -6691,7 +6698,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="17.45" customHeight="1">
       <c r="A77" s="13">
         <v>603400</v>
       </c>
@@ -6699,10 +6706,10 @@
         <v>129</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E77" s="17">
         <v>4</v>
@@ -6719,7 +6726,7 @@
       </c>
       <c r="I77" s="28" t="str">
         <f>VLOOKUP(L77,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J77" s="20" t="s">
         <v>196</v>
@@ -6744,7 +6751,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="17.45" customHeight="1">
       <c r="A78" s="13">
         <v>603400</v>
       </c>
@@ -6752,10 +6759,10 @@
         <v>129</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>183</v>
@@ -6772,7 +6779,7 @@
       </c>
       <c r="I78" s="28" t="str">
         <f>VLOOKUP(L78,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J78" s="20" t="s">
         <v>196</v>
@@ -6797,7 +6804,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="17.45" customHeight="1">
       <c r="A79" s="13">
         <v>605210</v>
       </c>
@@ -6805,10 +6812,10 @@
         <v>130</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E79" s="17">
         <v>4</v>
@@ -6825,7 +6832,7 @@
       </c>
       <c r="I79" s="28" t="str">
         <f>VLOOKUP(L79,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J79" s="20" t="s">
         <v>196</v>
@@ -6850,7 +6857,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="17.45" customHeight="1">
       <c r="A80" s="13">
         <v>605210</v>
       </c>
@@ -6858,10 +6865,10 @@
         <v>130</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E80" s="17">
         <v>4</v>
@@ -6878,7 +6885,7 @@
       </c>
       <c r="I80" s="28" t="str">
         <f>VLOOKUP(L80,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J80" s="20" t="s">
         <v>196</v>
@@ -6903,7 +6910,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="17.45" customHeight="1">
       <c r="A81" s="13">
         <v>605210</v>
       </c>
@@ -6911,10 +6918,10 @@
         <v>130</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>183</v>
@@ -6931,7 +6938,7 @@
       </c>
       <c r="I81" s="28" t="str">
         <f>VLOOKUP(L81,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J81" s="20" t="s">
         <v>196</v>
@@ -6956,7 +6963,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="17.45" customHeight="1">
       <c r="A82" s="13">
         <v>673200</v>
       </c>
@@ -6964,10 +6971,10 @@
         <v>131</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E82" s="21">
         <v>0</v>
@@ -7009,7 +7016,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="17.45" customHeight="1">
       <c r="A83" s="13">
         <v>673400</v>
       </c>
@@ -7017,10 +7024,10 @@
         <v>132</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E83" s="21">
         <v>0</v>
@@ -7062,7 +7069,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="17.45" customHeight="1">
       <c r="A84" s="13">
         <v>695300</v>
       </c>
@@ -7070,10 +7077,10 @@
         <v>134</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E84" s="21">
         <v>0</v>
@@ -7093,7 +7100,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>26</v>
@@ -7115,7 +7122,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="17.45" customHeight="1">
       <c r="A85" s="13">
         <v>695400</v>
       </c>
@@ -7123,10 +7130,10 @@
         <v>136</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E85" s="17">
         <v>4</v>
@@ -7143,7 +7150,7 @@
       </c>
       <c r="I85" s="28" t="str">
         <f>VLOOKUP(L85,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J85" s="20" t="s">
         <v>196</v>
@@ -7168,7 +7175,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="17.45" customHeight="1">
       <c r="A86" s="13">
         <v>695400</v>
       </c>
@@ -7176,10 +7183,10 @@
         <v>136</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E86" s="17">
         <v>4</v>
@@ -7196,7 +7203,7 @@
       </c>
       <c r="I86" s="28" t="str">
         <f>VLOOKUP(L86,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J86" s="20" t="s">
         <v>196</v>
@@ -7221,7 +7228,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="17.45" customHeight="1">
       <c r="A87" s="13">
         <v>695400</v>
       </c>
@@ -7229,10 +7236,10 @@
         <v>136</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>183</v>
@@ -7249,7 +7256,7 @@
       </c>
       <c r="I87" s="28" t="str">
         <f>VLOOKUP(L87,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J87" s="20" t="s">
         <v>196</v>
@@ -7274,7 +7281,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="17.45" customHeight="1">
       <c r="A88" s="13">
         <v>605100</v>
       </c>
@@ -7282,10 +7289,10 @@
         <v>138</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E88" s="17">
         <v>4</v>
@@ -7302,7 +7309,7 @@
       </c>
       <c r="I88" s="28" t="str">
         <f>VLOOKUP(L88,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J88" s="20" t="s">
         <v>196</v>
@@ -7327,7 +7334,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="17.45" customHeight="1">
       <c r="A89" s="13">
         <v>605100</v>
       </c>
@@ -7335,10 +7342,10 @@
         <v>138</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E89" s="17">
         <v>4</v>
@@ -7355,7 +7362,7 @@
       </c>
       <c r="I89" s="28" t="str">
         <f>VLOOKUP(L89,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J89" s="20" t="s">
         <v>196</v>
@@ -7380,7 +7387,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="17.45" customHeight="1">
       <c r="A90" s="13">
         <v>605100</v>
       </c>
@@ -7388,10 +7395,10 @@
         <v>138</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E90" s="21" t="s">
         <v>183</v>
@@ -7408,7 +7415,7 @@
       </c>
       <c r="I90" s="28" t="str">
         <f>VLOOKUP(L90,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J90" s="20" t="s">
         <v>196</v>
@@ -7433,7 +7440,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="17.45" customHeight="1">
       <c r="A91" s="13">
         <v>674400</v>
       </c>
@@ -7441,10 +7448,10 @@
         <v>140</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E91" s="17">
         <v>4</v>
@@ -7461,7 +7468,7 @@
       </c>
       <c r="I91" s="28" t="str">
         <f>VLOOKUP(L91,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J91" s="13" t="s">
         <v>198</v>
@@ -7486,7 +7493,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="17.45" customHeight="1">
       <c r="A92" s="13">
         <v>674400</v>
       </c>
@@ -7494,10 +7501,10 @@
         <v>140</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E92" s="17">
         <v>0</v>
@@ -7514,7 +7521,7 @@
       </c>
       <c r="I92" s="28" t="str">
         <f>VLOOKUP(L92,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Usage, Duration</v>
+        <v>Amount, Duration, Usage</v>
       </c>
       <c r="J92" s="13" t="s">
         <v>198</v>
@@ -7539,7 +7546,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="17.45" customHeight="1">
       <c r="A93" s="13">
         <v>607700</v>
       </c>
@@ -7547,10 +7554,10 @@
         <v>142</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E93" s="21">
         <v>0</v>
@@ -7570,7 +7577,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>26</v>
@@ -7592,7 +7599,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="17.45" customHeight="1">
       <c r="A94" s="13">
         <v>608030</v>
       </c>
@@ -7600,10 +7607,10 @@
         <v>144</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E94" s="21">
         <v>0</v>
@@ -7623,7 +7630,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K94" s="12" t="s">
         <v>26</v>
@@ -7645,7 +7652,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="17.45" customHeight="1">
       <c r="A95" s="13">
         <v>605400</v>
       </c>
@@ -7655,8 +7662,8 @@
       <c r="C95" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D95" s="33" t="s">
-        <v>302</v>
+      <c r="D95" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E95" s="21">
         <v>0</v>
@@ -7698,7 +7705,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="17.45" customHeight="1">
       <c r="A96" s="13">
         <v>694900</v>
       </c>
@@ -7708,8 +7715,8 @@
       <c r="C96" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="33" t="s">
-        <v>302</v>
+      <c r="D96" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E96" s="21">
         <v>0</v>
@@ -7729,7 +7736,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J96" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K96" s="12" t="s">
         <v>26</v>
@@ -7751,7 +7758,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="17.45" customHeight="1">
       <c r="A97" s="13">
         <v>695000</v>
       </c>
@@ -7761,8 +7768,8 @@
       <c r="C97" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D97" s="33" t="s">
-        <v>302</v>
+      <c r="D97" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E97" s="21">
         <v>0</v>
@@ -7782,7 +7789,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K97" s="11" t="s">
         <v>26</v>
@@ -7804,7 +7811,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="17.45" customHeight="1">
       <c r="A98" s="13">
         <v>695100</v>
       </c>
@@ -7812,10 +7819,10 @@
         <v>150</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>302</v>
+        <v>284</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E98" s="21">
         <v>0</v>
@@ -7835,7 +7842,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J98" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>26</v>
@@ -7857,7 +7864,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="17.45" customHeight="1">
       <c r="A99" s="13">
         <v>695200</v>
       </c>
@@ -7867,8 +7874,8 @@
       <c r="C99" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D99" s="33" t="s">
-        <v>302</v>
+      <c r="D99" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E99" s="21">
         <v>0</v>
@@ -7888,7 +7895,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J99" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K99" s="11" t="s">
         <v>26</v>
@@ -7910,7 +7917,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="17.45" customHeight="1">
       <c r="A100" s="13">
         <v>673600</v>
       </c>
@@ -7918,10 +7925,10 @@
         <v>152</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>302</v>
+        <v>285</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E100" s="21">
         <v>0</v>
@@ -7941,7 +7948,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>26</v>
@@ -7963,7 +7970,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="17.45" customHeight="1">
       <c r="A101" s="13">
         <v>662400</v>
       </c>
@@ -7971,10 +7978,10 @@
         <v>153</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>302</v>
+        <v>286</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E101" s="21">
         <v>0</v>
@@ -7994,7 +8001,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J101" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>26</v>
@@ -8016,7 +8023,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="17.45" customHeight="1">
       <c r="A102" s="13">
         <v>662500</v>
       </c>
@@ -8024,10 +8031,10 @@
         <v>154</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>302</v>
+        <v>287</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E102" s="21">
         <v>0</v>
@@ -8047,7 +8054,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J102" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K102" s="12" t="s">
         <v>26</v>
@@ -8069,7 +8076,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="17.45" customHeight="1">
       <c r="A103" s="13">
         <v>672310</v>
       </c>
@@ -8077,10 +8084,10 @@
         <v>155</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>302</v>
+        <v>288</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E103" s="21">
         <v>0</v>
@@ -8100,7 +8107,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J103" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>26</v>
@@ -8122,7 +8129,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="17.45" customHeight="1">
       <c r="A104" s="13">
         <v>672320</v>
       </c>
@@ -8130,10 +8137,10 @@
         <v>156</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>302</v>
+        <v>289</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E104" s="21">
         <v>0</v>
@@ -8153,7 +8160,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>26</v>
@@ -8175,7 +8182,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="17.45" customHeight="1">
       <c r="A105" s="13">
         <v>672400</v>
       </c>
@@ -8183,10 +8190,10 @@
         <v>157</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E105" s="21">
         <v>0</v>
@@ -8206,7 +8213,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J105" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K105" s="11" t="s">
         <v>26</v>
@@ -8228,7 +8235,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="17.45" customHeight="1">
       <c r="A106" s="13">
         <v>672500</v>
       </c>
@@ -8236,10 +8243,10 @@
         <v>158</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E106" s="21">
         <v>0</v>
@@ -8259,7 +8266,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K106" s="11" t="s">
         <v>26</v>
@@ -8281,7 +8288,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="17.45" customHeight="1">
       <c r="A107" s="13">
         <v>672600</v>
       </c>
@@ -8289,10 +8296,10 @@
         <v>159</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>302</v>
+        <v>292</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E107" s="21">
         <v>0</v>
@@ -8312,7 +8319,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K107" s="11" t="s">
         <v>26</v>
@@ -8334,7 +8341,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="17.45" customHeight="1">
       <c r="A108" s="13">
         <v>672700</v>
       </c>
@@ -8342,10 +8349,10 @@
         <v>160</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D108" s="33" t="s">
-        <v>302</v>
+        <v>293</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E108" s="21">
         <v>0</v>
@@ -8365,7 +8372,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J108" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K108" s="11" t="s">
         <v>26</v>
@@ -8387,7 +8394,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="17.45" customHeight="1">
       <c r="A109" s="13">
         <v>604400</v>
       </c>
@@ -8395,10 +8402,10 @@
         <v>161</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E109" s="21">
         <v>0</v>
@@ -8418,7 +8425,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J109" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K109" s="12" t="s">
         <v>93</v>
@@ -8440,7 +8447,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="17.45" customHeight="1">
       <c r="A110" s="13">
         <v>604300</v>
       </c>
@@ -8448,10 +8455,10 @@
         <v>162</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E110" s="21">
         <v>0</v>
@@ -8471,7 +8478,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J110" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>93</v>
@@ -8493,7 +8500,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="17.45" customHeight="1">
       <c r="A111" s="13">
         <v>604310</v>
       </c>
@@ -8501,10 +8508,10 @@
         <v>163</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E111" s="21">
         <v>0</v>
@@ -8524,7 +8531,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K111" s="12" t="s">
         <v>93</v>
@@ -8546,7 +8553,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="17.45" customHeight="1">
       <c r="A112" s="13">
         <v>604000</v>
       </c>
@@ -8554,10 +8561,10 @@
         <v>164</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E112" s="21">
         <v>0</v>
@@ -8577,7 +8584,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J112" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K112" s="12" t="s">
         <v>93</v>
@@ -8599,7 +8606,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="17.45" customHeight="1">
       <c r="A113" s="13">
         <v>691300</v>
       </c>
@@ -8607,10 +8614,10 @@
         <v>165</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E113" s="21">
         <v>0</v>
@@ -8630,7 +8637,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J113" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>93</v>
@@ -8652,7 +8659,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="17.45" customHeight="1">
       <c r="A114" s="13">
         <v>691310</v>
       </c>
@@ -8660,10 +8667,10 @@
         <v>166</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E114" s="21">
         <v>0</v>
@@ -8683,7 +8690,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J114" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K114" s="12" t="s">
         <v>93</v>
@@ -8705,7 +8712,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="17.45" customHeight="1">
       <c r="A115" s="13">
         <v>691350</v>
       </c>
@@ -8713,10 +8720,10 @@
         <v>167</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E115" s="21">
         <v>0</v>
@@ -8736,7 +8743,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J115" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>93</v>
@@ -8758,7 +8765,7 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="17.45" customHeight="1">
       <c r="A116" s="13">
         <v>661150</v>
       </c>
@@ -8768,8 +8775,8 @@
       <c r="C116" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D116" s="33" t="s">
-        <v>302</v>
+      <c r="D116" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E116" s="21">
         <v>0</v>
@@ -8789,7 +8796,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J116" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>26</v>
@@ -8811,7 +8818,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="17.45" customHeight="1">
       <c r="A117" s="13">
         <v>999910</v>
       </c>
@@ -8821,8 +8828,8 @@
       <c r="C117" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D117" s="33" t="s">
-        <v>302</v>
+      <c r="D117" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="E117" s="21">
         <v>0</v>
@@ -8888,14 +8895,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="5" customWidth="1"/>
-    <col min="3" max="256" width="8.81640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="5" customWidth="1"/>
+    <col min="3" max="256" width="8.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>180</v>
       </c>
@@ -9157,7 +9164,7 @@
       <c r="IU1" s="10"/>
       <c r="IV1" s="10"/>
     </row>
-    <row r="2" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:256" ht="14.45" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -9182,7 +9189,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:256" ht="14.45" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -9207,7 +9214,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:256" ht="14.45" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -9232,7 +9239,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:256" ht="14.45" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -9257,7 +9264,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:256" ht="14.45" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -9282,7 +9289,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:256" ht="14.45" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -9303,7 +9310,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:256" ht="14.45" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -9324,7 +9331,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:256" ht="14.45" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -9345,7 +9352,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:256" ht="14.45" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -9366,7 +9373,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:256" ht="14.45" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -9387,7 +9394,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:256" ht="14.45" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -9427,12 +9434,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="8.81640625" style="6" customWidth="1"/>
+    <col min="1" max="256" width="8.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>180</v>
       </c>
@@ -9694,7 +9701,7 @@
       <c r="IU1" s="10"/>
       <c r="IV1" s="10"/>
     </row>
-    <row r="2" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:256" ht="14.45" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -9717,7 +9724,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:256" ht="14.45" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -9740,7 +9747,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:256" ht="14.45" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -9763,7 +9770,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:256" ht="14.45" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -9782,7 +9789,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:256" ht="14.45" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -9801,7 +9808,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:256" ht="14.45" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -9820,7 +9827,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:256" ht="14.45" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -9839,7 +9846,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:256" ht="14.45" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -9858,7 +9865,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:256" ht="14.45" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -9877,7 +9884,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:256" ht="14.45" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -9915,14 +9922,14 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="127.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="251" width="8.81640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="127.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="251" width="8.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -9930,7 +9937,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.45" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9938,7 +9945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.45" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9946,7 +9953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="17.45" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9954,7 +9961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="17.45" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9962,7 +9969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="17.45" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9970,7 +9977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="17.45" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9978,7 +9985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="17.45" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9986,7 +9993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="17.45" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9994,7 +10001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="17.45" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10002,7 +10009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="17.45" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10010,7 +10017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="17.45" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10018,7 +10025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="17.45" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10026,7 +10033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="17.45" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10034,7 +10041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="17.45" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10042,7 +10049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="17.45" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -10050,7 +10057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="17.45" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10058,7 +10065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="17.45" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10066,7 +10073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="17.45" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10074,7 +10081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="17.45" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -10082,7 +10089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="17.45" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -10090,7 +10097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="17.45" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10098,7 +10105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="17.45" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10106,7 +10113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="17.45" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10114,7 +10121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="17.45" customHeight="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10122,7 +10129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="17.45" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10130,7 +10137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="17.45" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10138,7 +10145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="17.45" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10146,7 +10153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="17.45" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10154,7 +10161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="17.45" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10162,7 +10169,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="17.45" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10170,7 +10177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="17.45" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -10178,7 +10185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="17.45" customHeight="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -10186,7 +10193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="17.45" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -10194,7 +10201,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="17.45" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -10202,7 +10209,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="17.45" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -10210,7 +10217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="17.45" customHeight="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -10218,7 +10225,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="17.45" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -10226,7 +10233,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="17.45" customHeight="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -10234,7 +10241,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="18" customHeight="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -10242,7 +10249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="17.45" customHeight="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -10250,7 +10257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="17.45" customHeight="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10258,7 +10265,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="17.45" customHeight="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10266,7 +10273,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="17.45" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10274,7 +10281,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="17.45" customHeight="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10282,7 +10289,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="17.45" customHeight="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10290,7 +10297,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="17.45" customHeight="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -10298,7 +10305,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="17.45" customHeight="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -10306,7 +10313,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="17.45" customHeight="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -10314,7 +10321,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="17.45" customHeight="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -10322,7 +10329,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="17.45" customHeight="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -10330,7 +10337,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="17.45" customHeight="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -10338,7 +10345,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="17.45" customHeight="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -10346,7 +10353,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="17.45" customHeight="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -10354,7 +10361,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="17.45" customHeight="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -10362,7 +10369,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="17.45" customHeight="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -10370,7 +10377,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="17.45" customHeight="1">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -10378,7 +10385,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="17.45" customHeight="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -10386,7 +10393,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="17.45" customHeight="1">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -10394,7 +10401,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="17.45" customHeight="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -10402,7 +10409,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="17.45" customHeight="1">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -10410,7 +10417,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="17.45" customHeight="1">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -10418,7 +10425,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="17.45" customHeight="1">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -10426,7 +10433,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="17.45" customHeight="1">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -10434,7 +10441,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="17.45" customHeight="1">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -10442,7 +10449,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="17.45" customHeight="1">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -10450,7 +10457,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="17.45" customHeight="1">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -10458,7 +10465,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="17.45" customHeight="1">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -10466,7 +10473,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="17.45" customHeight="1">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -10474,7 +10481,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="17.45" customHeight="1">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -10482,7 +10489,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="17.45" customHeight="1">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -10490,7 +10497,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="17.45" customHeight="1">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -10498,7 +10505,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="17.45" customHeight="1">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -10506,7 +10513,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="17.45" customHeight="1">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -10514,7 +10521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="17.45" customHeight="1">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -10522,7 +10529,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="17.45" customHeight="1">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -10530,7 +10537,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="17.45" customHeight="1">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -10538,7 +10545,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="17.45" customHeight="1">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -10546,7 +10553,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="17.45" customHeight="1">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -10554,7 +10561,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="17.45" customHeight="1">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -10562,7 +10569,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="17.45" customHeight="1">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -10570,7 +10577,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="17.45" customHeight="1">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -10578,7 +10585,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="17.45" customHeight="1">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -10586,7 +10593,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="17.45" customHeight="1">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -10594,7 +10601,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="17.45" customHeight="1">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -10602,7 +10609,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="17.45" customHeight="1">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -10610,7 +10617,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="17.45" customHeight="1">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -10618,7 +10625,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="17.45" customHeight="1">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -10626,7 +10633,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="17.45" customHeight="1">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -10634,7 +10641,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="17.45" customHeight="1">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -10642,7 +10649,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="17.45" customHeight="1">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -10668,12 +10675,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="61.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -10681,7 +10688,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -10689,15 +10696,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -10705,15 +10712,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -10721,60 +10728,60 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>215</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>216</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>217</v>
       </c>
-      <c r="B9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -10789,24 +10796,24 @@
   <dimension ref="A1:IW24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="32.7265625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.7265625" style="10" customWidth="1"/>
-    <col min="8" max="21" width="8.81640625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="22.7265625" style="8" customWidth="1"/>
-    <col min="23" max="257" width="8.81640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="10" customWidth="1"/>
+    <col min="8" max="21" width="8.85546875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="8" customWidth="1"/>
+    <col min="23" max="257" width="8.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:257" ht="14.45" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="31" t="s">
@@ -10840,7 +10847,7 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:257" ht="14.45" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10878,7 +10885,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:257" ht="14.45" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10897,8 +10904,8 @@
       <c r="F3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>214</v>
+      <c r="G3" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -10916,7 +10923,7 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:257" ht="14.45" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10935,8 +10942,8 @@
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>214</v>
+      <c r="G4" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -10954,7 +10961,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:257" ht="14.45" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10973,8 +10980,8 @@
       <c r="F5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>214</v>
+      <c r="G5" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -10992,7 +10999,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:257" ht="14.45" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -11030,7 +11037,7 @@
       <c r="U6" s="4"/>
       <c r="V6"/>
     </row>
-    <row r="7" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:257" ht="14.45" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -11049,8 +11056,8 @@
       <c r="F7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>214</v>
+      <c r="G7" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -11068,7 +11075,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:257" ht="14.45" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -11087,8 +11094,8 @@
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>214</v>
+      <c r="G8" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -11106,7 +11113,7 @@
       <c r="U8" s="4"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:257" ht="14.45" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -11144,7 +11151,7 @@
       <c r="U9" s="4"/>
       <c r="V9"/>
     </row>
-    <row r="10" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:257" ht="14.45" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -11182,7 +11189,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:257" ht="14.45" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -11220,7 +11227,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:257" ht="14.45" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -11258,7 +11265,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:257" ht="14.45" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -11296,7 +11303,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:257" ht="14.45" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11334,7 +11341,7 @@
       <c r="U14" s="4"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:257" ht="14.45" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -11593,7 +11600,7 @@
       <c r="IV15" s="10"/>
       <c r="IW15" s="10"/>
     </row>
-    <row r="16" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:257" ht="14.45" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -11852,7 +11859,7 @@
       <c r="IV16" s="10"/>
       <c r="IW16" s="10"/>
     </row>
-    <row r="17" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:257" ht="14.45" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -12111,7 +12118,7 @@
       <c r="IV17" s="10"/>
       <c r="IW17" s="10"/>
     </row>
-    <row r="18" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:257" ht="14.45" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -12370,7 +12377,7 @@
       <c r="IV18" s="10"/>
       <c r="IW18" s="10"/>
     </row>
-    <row r="19" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:257" ht="14.45" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -12629,7 +12636,7 @@
       <c r="IV19" s="10"/>
       <c r="IW19" s="10"/>
     </row>
-    <row r="20" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:257" ht="14.45" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -12888,7 +12895,7 @@
       <c r="IV20" s="10"/>
       <c r="IW20" s="10"/>
     </row>
-    <row r="21" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:257" ht="14.45" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -13147,7 +13154,7 @@
       <c r="IV21" s="10"/>
       <c r="IW21" s="10"/>
     </row>
-    <row r="22" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:257" ht="14.45" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -13406,7 +13413,7 @@
       <c r="IV22" s="10"/>
       <c r="IW22" s="10"/>
     </row>
-    <row r="23" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:257" ht="14.45" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -13665,7 +13672,7 @@
       <c r="IV23" s="10"/>
       <c r="IW23" s="10"/>
     </row>
-    <row r="24" spans="1:257" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:257" ht="14.45" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -13935,63 +13942,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
-        </TermInfo>
-      </Terms>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Value>7</Value>
-      <Value>6</Value>
-      <Value>5</Value>
-      <Value>4</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101008B0F08FECF9ACD44B69B0979475AA3A3" ma:contentTypeVersion="5" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="15e7cafbdefa31d60e781c5e4062628f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be70f0-66b9-4629-a389-4b080fc0dfa6" xmlns:ns3="cc54d3cb-87fe-4b6a-be2e-e1fd0be84e77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e6785b8b81ecd23d6e742c299b13f" ns2:_="" ns3:_="">
     <xsd:import namespace="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
@@ -14148,25 +14098,64 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
+        </TermInfo>
+      </Terms>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Value>7</Value>
+      <Value>6</Value>
+      <Value>5</Value>
+      <Value>4</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BF3E90-0828-4759-ACA7-3670C46D50E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14183,4 +14172,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Datei.xlsx
+++ b/Datei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cts\Documents\SEA\sea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51506270-AEA0-4A19-AD57-1AD5595B78A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E15E489-75ED-4293-BA19-DE5471D20FF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="363">
   <si>
     <t>Account ID</t>
   </si>
@@ -187,9 +187,6 @@
     <t>KPMG,PwC,Deloitte,Ernst,Young,EY,Big4,Beratung,Coach</t>
   </si>
   <si>
-    <t>Beratungskosten "Big4" (KPMG, PwC, Deloitte, EY)</t>
-  </si>
-  <si>
     <t>Seminarkosten</t>
   </si>
   <si>
@@ -682,6 +679,9 @@
     <t>Geschenk3</t>
   </si>
   <si>
+    <t>Amount, Usage, Duration</t>
+  </si>
+  <si>
     <t>c6</t>
   </si>
   <si>
@@ -730,18 +730,6 @@
     <t>Einkauf, Vertrieb</t>
   </si>
   <si>
-    <t>Tasche,Geschenk,Kugelschreiber,Anhänger,Beutel,Armbanduhr,USB,Buch,Tasse,Becher,Blume,schenken,Armband</t>
-  </si>
-  <si>
-    <t>Armbanduhr,USB,Kugelschreiber,Shirt,Geschenk,Hemd,Modell,Schirm,Quizaktion,Schuhe,schenken,Box,Hose,Hotel,Gutschein,Poster,Becher,Tasche</t>
-  </si>
-  <si>
-    <t>Polo,Karten,Kugelschreiber,Geburtstag,Verpflegung,Blume,Schokolade,Geschenk,Armbanduhr,USB,Team,Abendessen,Messe,Modellauto,Bewirtung,Gutschein,Tasse,Becher,schenken</t>
-  </si>
-  <si>
-    <t>Ausbildung,Schulung,Seminar,Training,Kurs,Weiterbildung,Workshop,Geschenk,Modellauto,Bewirtung,Sicherheit,Gutschein,Tasse,Becher,Tasche,Poster,Bild,Polo,schenken</t>
-  </si>
-  <si>
     <t>Stick,Schutz,Schuhe,Jacke,T-Shirt,Helm,Größe,Bluse,Hemd,Socke,Name,Herr,Frau,Mitarbeiter,Betrieb,Produktion,Dame,Beruf,Sicherheit</t>
   </si>
   <si>
@@ -769,9 +757,6 @@
     <t>Seminar,Kosten,Schulung,Inhouse,Kurs,Gebühr,Training,Anmeldung,Gefahrgut,Webinar</t>
   </si>
   <si>
-    <t>Mieteen,Server,Computer,EDV,Rampe,Medien,Technik,Zaun,Müllbehälter,Drucker,Anlage,Maschine,Nutzfahrzeuge,Kältekammer,Möbel,Telefon,Container,Sport</t>
-  </si>
-  <si>
     <t>Entsendung,Umzug,Kurs,Steuerberatungskosten,Caregroupkosten,Versicherung,Übersetzung,Kultur,Mieteen,Haushalt,Arbeitszimmer</t>
   </si>
   <si>
@@ -1087,9 +1072,6 @@
     <t>Geschenk,Hotel,Mieten,Bahn,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Flug</t>
   </si>
   <si>
-    <t>Aufsichtsrat,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Mieten</t>
-  </si>
-  <si>
     <t>Geschenk,Hotel,Mieten,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Flug</t>
   </si>
   <si>
@@ -1111,26 +1093,47 @@
     <t>Modell</t>
   </si>
   <si>
-    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar</t>
-  </si>
-  <si>
-    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Ersatzteil</t>
-  </si>
-  <si>
-    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Lieferant</t>
-  </si>
-  <si>
-    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Qualität</t>
-  </si>
-  <si>
-    <t>Amount, Duration, Usage</t>
+    <t>Mieten,Server,Computer,EDV,Rampe,Medien,Technik,Zaun,Müllbehälter,Drucker,Anlage,Maschine,Nutzfahrzeuge,Kältekammer,Möbel,Telefon,Container,Sport</t>
+  </si>
+  <si>
+    <t>Tasche,Geschenk,Kugelschreiber,Anhänger,Beutel,Armbanduhr,USB,Buch,Tasse,Becher,Blume,schenken,Armband,Kalender</t>
+  </si>
+  <si>
+    <t>Armbanduhr,USB,Kugelschreiber,Shirt,Geschenk,Hemd,Modell,Schirm,Quizaktion,Schuhe,schenken,Box,Hose,Hotel,Gutschein,Poster,Becher,Tasche,Kalender</t>
+  </si>
+  <si>
+    <t>Polo,Karten,Kugelschreiber,Geburtstag,Verpflegung,Blume,Schokolade,Geschenk,Armbanduhr,USB,Team,Abendessen,Messe,Modellauto,Bewirtung,Gutschein,Tasse,Becher,schenken,Kalender</t>
+  </si>
+  <si>
+    <t>Ausbildung,Schulung,Seminar,Training,Kurs,Weiterbildung,Workshop,Geschenk,Modellauto,Bewirtung,Sicherheit,Gutschein,Tasse,Becher,Tasche,Poster,Bild,Polo,schenken,Kalender</t>
+  </si>
+  <si>
+    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Reparatur</t>
+  </si>
+  <si>
+    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Ersatzteil,Reparatur</t>
+  </si>
+  <si>
+    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Lieferant,Reparatur</t>
+  </si>
+  <si>
+    <t>Ausgangsfracht,Wartung,Instandhaltung,Leasing,Beratung,Reinigung,Geschenk,Bewirtung,Hotel,Mieten,Frühstück,Mitarbeiter,Catering,Seminar,Qualität,Reparatur</t>
+  </si>
+  <si>
+    <t>Mieten,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Instandhaltung,Wartung</t>
+  </si>
+  <si>
+    <t>Aufsichtsrat,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Mieten,Wartung</t>
+  </si>
+  <si>
+    <t>Beratungskosten Big4 (KPMG, PwC, Deloitte, EY)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1173,13 +1176,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1326,10 +1322,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2662,11 +2658,11 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -2696,31 +2692,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.45" customHeight="1">
@@ -2731,10 +2727,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
@@ -2754,7 +2750,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>8</v>
@@ -2784,10 +2780,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E3" s="19">
         <v>0</v>
@@ -2807,7 +2803,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>8</v>
@@ -2837,10 +2833,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>232</v>
+        <v>354</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E4" s="21">
         <v>1.2</v>
@@ -2860,7 +2856,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>8</v>
@@ -2890,10 +2886,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E5" s="21">
         <v>3.4</v>
@@ -2913,7 +2909,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>8</v>
@@ -2943,10 +2939,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E6" s="17">
         <v>4</v>
@@ -2963,10 +2959,10 @@
       </c>
       <c r="I6" s="28" t="str">
         <f>VLOOKUP(L6,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>17</v>
@@ -2996,10 +2992,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E7" s="17">
         <v>4</v>
@@ -3016,10 +3012,10 @@
       </c>
       <c r="I7" s="28" t="str">
         <f>VLOOKUP(L7,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>17</v>
@@ -3049,13 +3045,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8" s="17">
         <v>0</v>
@@ -3069,10 +3065,10 @@
       </c>
       <c r="I8" s="28" t="str">
         <f>VLOOKUP(L8,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>17</v>
@@ -3102,10 +3098,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E9" s="17">
         <v>4</v>
@@ -3122,10 +3118,10 @@
       </c>
       <c r="I9" s="28" t="str">
         <f>VLOOKUP(L9,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>17</v>
@@ -3155,10 +3151,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E10" s="17">
         <v>4</v>
@@ -3175,10 +3171,10 @@
       </c>
       <c r="I10" s="28" t="str">
         <f>VLOOKUP(L10,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>17</v>
@@ -3208,13 +3204,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
@@ -3228,10 +3224,10 @@
       </c>
       <c r="I11" s="28" t="str">
         <f>VLOOKUP(L11,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>17</v>
@@ -3261,10 +3257,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E12" s="17">
         <v>4</v>
@@ -3281,10 +3277,10 @@
       </c>
       <c r="I12" s="28" t="str">
         <f>VLOOKUP(L12,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>17</v>
@@ -3314,10 +3310,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E13" s="17">
         <v>4</v>
@@ -3334,10 +3330,10 @@
       </c>
       <c r="I13" s="28" t="str">
         <f>VLOOKUP(L13,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>17</v>
@@ -3367,13 +3363,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F14" s="17">
         <v>0</v>
@@ -3387,10 +3383,10 @@
       </c>
       <c r="I14" s="28" t="str">
         <f>VLOOKUP(L14,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>17</v>
@@ -3420,10 +3416,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E15" s="19">
         <v>0</v>
@@ -3443,7 +3439,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>8</v>
@@ -3473,10 +3469,10 @@
         <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E16" s="21">
         <v>0</v>
@@ -3526,10 +3522,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E17" s="21">
         <v>0</v>
@@ -3579,10 +3575,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E18" s="21">
         <v>0</v>
@@ -3635,7 +3631,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E19" s="21">
         <v>0</v>
@@ -3688,7 +3684,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E20" s="21">
         <v>0</v>
@@ -3738,10 +3734,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E21" s="21">
         <v>0</v>
@@ -3794,7 +3790,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E22" s="21">
         <v>0</v>
@@ -3844,10 +3840,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E23" s="21">
         <v>0</v>
@@ -3897,10 +3893,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E24" s="17">
         <v>4</v>
@@ -3917,10 +3913,10 @@
       </c>
       <c r="I24" s="28" t="str">
         <f>VLOOKUP(L24,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>46</v>
@@ -3950,10 +3946,10 @@
         <v>44</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
@@ -3970,10 +3966,10 @@
       </c>
       <c r="I25" s="28" t="str">
         <f>VLOOKUP(L25,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>46</v>
@@ -4005,8 +4001,8 @@
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>301</v>
+      <c r="D26" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E26" s="17">
         <v>4</v>
@@ -4023,10 +4019,10 @@
       </c>
       <c r="I26" s="28" t="str">
         <f>VLOOKUP(L26,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>46</v>
@@ -4058,8 +4054,8 @@
       <c r="C27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>301</v>
+      <c r="D27" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E27" s="17">
         <v>0</v>
@@ -4076,10 +4072,10 @@
       </c>
       <c r="I27" s="28" t="str">
         <f>VLOOKUP(L27,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>46</v>
@@ -4106,13 +4102,13 @@
         <v>661200</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E28" s="21">
         <v>0</v>
@@ -4159,13 +4155,13 @@
         <v>681153</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="D29" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E29" s="21">
         <v>0</v>
@@ -4212,13 +4208,13 @@
         <v>672201</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E30" s="21">
         <v>0</v>
@@ -4265,13 +4261,13 @@
         <v>672000</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E31" s="21">
         <v>0</v>
@@ -4318,13 +4314,13 @@
         <v>671800</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E32" s="21">
         <v>0</v>
@@ -4371,13 +4367,13 @@
         <v>671700</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E33" s="21">
         <v>0</v>
@@ -4424,13 +4420,13 @@
         <v>671900</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E34" s="21">
         <v>0</v>
@@ -4477,13 +4473,13 @@
         <v>672100</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E35" s="21">
         <v>0</v>
@@ -4530,13 +4526,13 @@
         <v>672260</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E36" s="21">
         <v>0</v>
@@ -4583,13 +4579,13 @@
         <v>671000</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E37" s="21">
         <v>0</v>
@@ -4609,10 +4605,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L37" s="18" t="str">
         <f>IF(AND(K37="Geschenk",Overview!E37=1,Overview!F37=0),'Logic ID'!$E$12,
@@ -4636,13 +4632,13 @@
         <v>671100</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E38" s="21">
         <v>0</v>
@@ -4662,10 +4658,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L38" s="18" t="str">
         <f>IF(AND(K38="Geschenk",Overview!E38=1,Overview!F38=0),'Logic ID'!$E$12,
@@ -4689,13 +4685,13 @@
         <v>671200</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E39" s="21">
         <v>0</v>
@@ -4715,10 +4711,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="18" t="str">
         <f>IF(AND(K39="Geschenk",Overview!E39=1,Overview!F39=0),'Logic ID'!$E$12,
@@ -4742,13 +4738,13 @@
         <v>671300</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E40" s="21">
         <v>0</v>
@@ -4768,10 +4764,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L40" s="18" t="str">
         <f>IF(AND(K40="Geschenk",Overview!E40=1,Overview!F40=0),'Logic ID'!$E$12,
@@ -4795,13 +4791,13 @@
         <v>671400</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E41" s="21">
         <v>0</v>
@@ -4821,10 +4817,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L41" s="18" t="str">
         <f>IF(AND(K41="Geschenk",Overview!E41=1,Overview!F41=0),'Logic ID'!$E$12,
@@ -4848,13 +4844,13 @@
         <v>671500</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E42" s="21">
         <v>0</v>
@@ -4874,10 +4870,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L42" s="18" t="str">
         <f>IF(AND(K42="Geschenk",Overview!E42=1,Overview!F42=0),'Logic ID'!$E$12,
@@ -4901,13 +4897,13 @@
         <v>613350</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="D43" s="28" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E43" s="21">
         <v>0</v>
@@ -4927,10 +4923,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L43" s="18" t="str">
         <f>IF(AND(K43="Geschenk",Overview!E43=1,Overview!F43=0),'Logic ID'!$E$12,
@@ -4954,13 +4950,13 @@
         <v>661300</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E44" s="21">
         <v>0</v>
@@ -5007,13 +5003,13 @@
         <v>674300</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E45" s="21">
         <v>0</v>
@@ -5060,13 +5056,13 @@
         <v>605300</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E46" s="17">
         <v>4</v>
@@ -5083,10 +5079,10 @@
       </c>
       <c r="I46" s="28" t="str">
         <f>VLOOKUP(L46,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>17</v>
@@ -5113,13 +5109,13 @@
         <v>605300</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E47" s="17">
         <v>4</v>
@@ -5136,10 +5132,10 @@
       </c>
       <c r="I47" s="28" t="str">
         <f>VLOOKUP(L47,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>17</v>
@@ -5166,16 +5162,16 @@
         <v>605300</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F48" s="17">
         <v>0</v>
@@ -5189,10 +5185,10 @@
       </c>
       <c r="I48" s="28" t="str">
         <f>VLOOKUP(L48,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>17</v>
@@ -5219,13 +5215,13 @@
         <v>673901</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E49" s="21">
         <v>0</v>
@@ -5272,13 +5268,13 @@
         <v>673902</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E50" s="17">
         <v>4</v>
@@ -5295,10 +5291,10 @@
       </c>
       <c r="I50" s="28" t="str">
         <f>VLOOKUP(L50,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>46</v>
@@ -5325,13 +5321,13 @@
         <v>673902</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E51" s="17">
         <v>0</v>
@@ -5348,10 +5344,10 @@
       </c>
       <c r="I51" s="28" t="str">
         <f>VLOOKUP(L51,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>46</v>
@@ -5378,13 +5374,13 @@
         <v>613300</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E52" s="21">
         <v>0</v>
@@ -5431,13 +5427,13 @@
         <v>691000</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E53" s="21">
         <v>0</v>
@@ -5460,7 +5456,7 @@
         <v>217</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L53" s="18" t="str">
         <f>IF(AND(K53="Geschenk",Overview!E53=1,Overview!F53=0),'Logic ID'!$E$12,
@@ -5484,13 +5480,13 @@
         <v>691100</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E54" s="21">
         <v>0</v>
@@ -5513,7 +5509,7 @@
         <v>217</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L54" s="18" t="str">
         <f>IF(AND(K54="Geschenk",Overview!E54=1,Overview!F54=0),'Logic ID'!$E$12,
@@ -5537,13 +5533,13 @@
         <v>691200</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E55" s="21">
         <v>0</v>
@@ -5566,7 +5562,7 @@
         <v>217</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L55" s="18" t="str">
         <f>IF(AND(K55="Geschenk",Overview!E55=1,Overview!F55=0),'Logic ID'!$E$12,
@@ -5590,13 +5586,13 @@
         <v>691210</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="D56" s="28" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E56" s="21">
         <v>0</v>
@@ -5619,7 +5615,7 @@
         <v>217</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L56" s="18" t="str">
         <f>IF(AND(K56="Geschenk",Overview!E56=1,Overview!F56=0),'Logic ID'!$E$12,
@@ -5643,13 +5639,13 @@
         <v>661711</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="D57" s="28" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E57" s="21">
         <v>0</v>
@@ -5696,13 +5692,13 @@
         <v>673300</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="D58" s="28" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E58" s="21">
         <v>0</v>
@@ -5722,7 +5718,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K58" s="12" t="s">
         <v>26</v>
@@ -5749,13 +5745,13 @@
         <v>673500</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="D59" s="28" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E59" s="17">
         <v>4</v>
@@ -5772,10 +5768,10 @@
       </c>
       <c r="I59" s="28" t="str">
         <f>VLOOKUP(L59,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>46</v>
@@ -5802,13 +5798,13 @@
         <v>673500</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="D60" s="28" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E60" s="17">
         <v>0</v>
@@ -5825,10 +5821,10 @@
       </c>
       <c r="I60" s="28" t="str">
         <f>VLOOKUP(L60,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>46</v>
@@ -5855,13 +5851,13 @@
         <v>673501</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="D61" s="28" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E61" s="21">
         <v>0</v>
@@ -5881,7 +5877,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>26</v>
@@ -5908,13 +5904,13 @@
         <v>661000</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E62" s="21">
         <v>0</v>
@@ -5934,7 +5930,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>26</v>
@@ -5961,13 +5957,13 @@
         <v>661400</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>301</v>
+      <c r="D63" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E63" s="21">
         <v>0</v>
@@ -5987,7 +5983,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>26</v>
@@ -6014,13 +6010,13 @@
         <v>661500</v>
       </c>
       <c r="B64" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="D64" s="28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E64" s="21">
         <v>0</v>
@@ -6067,13 +6063,13 @@
         <v>671600</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E65" s="21">
         <v>0</v>
@@ -6120,13 +6116,13 @@
         <v>673700</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E66" s="17">
         <v>4</v>
@@ -6143,10 +6139,10 @@
       </c>
       <c r="I66" s="28" t="str">
         <f>VLOOKUP(L66,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>46</v>
@@ -6173,13 +6169,13 @@
         <v>673700</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E67" s="17">
         <v>0</v>
@@ -6196,10 +6192,10 @@
       </c>
       <c r="I67" s="28" t="str">
         <f>VLOOKUP(L67,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K67" s="12" t="s">
         <v>46</v>
@@ -6226,13 +6222,13 @@
         <v>674100</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E68" s="17">
         <v>4</v>
@@ -6249,10 +6245,10 @@
       </c>
       <c r="I68" s="28" t="str">
         <f>VLOOKUP(L68,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>46</v>
@@ -6279,13 +6275,13 @@
         <v>674100</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
@@ -6302,10 +6298,10 @@
       </c>
       <c r="I69" s="28" t="str">
         <f>VLOOKUP(L69,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>46</v>
@@ -6332,13 +6328,13 @@
         <v>674600</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E70" s="21">
         <v>0</v>
@@ -6358,7 +6354,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>26</v>
@@ -6385,13 +6381,13 @@
         <v>605200</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E71" s="17">
         <v>4</v>
@@ -6408,10 +6404,10 @@
       </c>
       <c r="I71" s="28" t="str">
         <f>VLOOKUP(L71,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K71" s="12" t="s">
         <v>17</v>
@@ -6438,13 +6434,13 @@
         <v>605200</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E72" s="17">
         <v>4</v>
@@ -6461,10 +6457,10 @@
       </c>
       <c r="I72" s="28" t="str">
         <f>VLOOKUP(L72,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K72" s="12" t="s">
         <v>17</v>
@@ -6491,16 +6487,16 @@
         <v>605200</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F73" s="17">
         <v>0</v>
@@ -6514,10 +6510,10 @@
       </c>
       <c r="I73" s="28" t="str">
         <f>VLOOKUP(L73,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>17</v>
@@ -6544,13 +6540,13 @@
         <v>681200</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E74" s="17">
         <v>4</v>
@@ -6567,10 +6563,10 @@
       </c>
       <c r="I74" s="28" t="str">
         <f>VLOOKUP(L74,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K74" s="12" t="s">
         <v>46</v>
@@ -6597,13 +6593,13 @@
         <v>681200</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E75" s="17">
         <v>0</v>
@@ -6620,10 +6616,10 @@
       </c>
       <c r="I75" s="28" t="str">
         <f>VLOOKUP(L75,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>46</v>
@@ -6650,13 +6646,13 @@
         <v>603400</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E76" s="17">
         <v>4</v>
@@ -6673,10 +6669,10 @@
       </c>
       <c r="I76" s="28" t="str">
         <f>VLOOKUP(L76,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>17</v>
@@ -6703,13 +6699,13 @@
         <v>603400</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E77" s="17">
         <v>4</v>
@@ -6726,10 +6722,10 @@
       </c>
       <c r="I77" s="28" t="str">
         <f>VLOOKUP(L77,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>17</v>
@@ -6756,16 +6752,16 @@
         <v>603400</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F78" s="17">
         <v>0</v>
@@ -6779,10 +6775,10 @@
       </c>
       <c r="I78" s="28" t="str">
         <f>VLOOKUP(L78,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K78" s="12" t="s">
         <v>17</v>
@@ -6809,13 +6805,13 @@
         <v>605210</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E79" s="17">
         <v>4</v>
@@ -6832,10 +6828,10 @@
       </c>
       <c r="I79" s="28" t="str">
         <f>VLOOKUP(L79,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>17</v>
@@ -6862,13 +6858,13 @@
         <v>605210</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E80" s="17">
         <v>4</v>
@@ -6885,10 +6881,10 @@
       </c>
       <c r="I80" s="28" t="str">
         <f>VLOOKUP(L80,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>17</v>
@@ -6915,16 +6911,16 @@
         <v>605210</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F81" s="17">
         <v>0</v>
@@ -6938,10 +6934,10 @@
       </c>
       <c r="I81" s="28" t="str">
         <f>VLOOKUP(L81,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>17</v>
@@ -6968,13 +6964,13 @@
         <v>673200</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E82" s="21">
         <v>0</v>
@@ -6994,7 +6990,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>26</v>
@@ -7021,13 +7017,13 @@
         <v>673400</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E83" s="21">
         <v>0</v>
@@ -7047,7 +7043,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>26</v>
@@ -7074,13 +7070,13 @@
         <v>695300</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E84" s="21">
         <v>0</v>
@@ -7127,13 +7123,13 @@
         <v>695400</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E85" s="17">
         <v>4</v>
@@ -7150,10 +7146,10 @@
       </c>
       <c r="I85" s="28" t="str">
         <f>VLOOKUP(L85,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>17</v>
@@ -7180,13 +7176,13 @@
         <v>695400</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E86" s="17">
         <v>4</v>
@@ -7203,10 +7199,10 @@
       </c>
       <c r="I86" s="28" t="str">
         <f>VLOOKUP(L86,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K86" s="12" t="s">
         <v>17</v>
@@ -7233,16 +7229,16 @@
         <v>695400</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F87" s="17">
         <v>0</v>
@@ -7256,10 +7252,10 @@
       </c>
       <c r="I87" s="28" t="str">
         <f>VLOOKUP(L87,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>17</v>
@@ -7286,13 +7282,13 @@
         <v>605100</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="E88" s="17">
         <v>4</v>
@@ -7309,10 +7305,10 @@
       </c>
       <c r="I88" s="28" t="str">
         <f>VLOOKUP(L88,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>17</v>
@@ -7339,13 +7335,13 @@
         <v>605100</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="E89" s="17">
         <v>4</v>
@@ -7362,10 +7358,10 @@
       </c>
       <c r="I89" s="28" t="str">
         <f>VLOOKUP(L89,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>17</v>
@@ -7392,16 +7388,16 @@
         <v>605100</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F90" s="17">
         <v>0</v>
@@ -7415,10 +7411,10 @@
       </c>
       <c r="I90" s="28" t="str">
         <f>VLOOKUP(L90,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>17</v>
@@ -7445,13 +7441,13 @@
         <v>674400</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E91" s="17">
         <v>4</v>
@@ -7468,10 +7464,10 @@
       </c>
       <c r="I91" s="28" t="str">
         <f>VLOOKUP(L91,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>46</v>
@@ -7498,13 +7494,13 @@
         <v>674400</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E92" s="17">
         <v>0</v>
@@ -7521,10 +7517,10 @@
       </c>
       <c r="I92" s="28" t="str">
         <f>VLOOKUP(L92,'Logic ID'!$E:$G,3,0)</f>
-        <v>Amount, Duration, Usage</v>
+        <v>Amount, Usage, Duration</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K92" s="12" t="s">
         <v>46</v>
@@ -7551,13 +7547,13 @@
         <v>607700</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E93" s="21">
         <v>0</v>
@@ -7604,13 +7600,13 @@
         <v>608030</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E94" s="21">
         <v>0</v>
@@ -7657,13 +7653,13 @@
         <v>605400</v>
       </c>
       <c r="B95" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D95" s="32" t="s">
-        <v>301</v>
+      <c r="D95" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E95" s="21">
         <v>0</v>
@@ -7683,7 +7679,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J95" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>26</v>
@@ -7710,13 +7706,13 @@
         <v>694900</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D96" s="32" t="s">
-        <v>301</v>
+        <v>147</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E96" s="21">
         <v>0</v>
@@ -7763,13 +7759,13 @@
         <v>695000</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D97" s="32" t="s">
-        <v>301</v>
+        <v>148</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E97" s="21">
         <v>0</v>
@@ -7816,13 +7812,13 @@
         <v>695100</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D98" s="32" t="s">
-        <v>301</v>
+        <v>279</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E98" s="21">
         <v>0</v>
@@ -7869,13 +7865,13 @@
         <v>695200</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D99" s="32" t="s">
-        <v>301</v>
+        <v>150</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E99" s="21">
         <v>0</v>
@@ -7922,13 +7918,13 @@
         <v>673600</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="32" t="s">
-        <v>301</v>
+        <v>280</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E100" s="21">
         <v>0</v>
@@ -7975,13 +7971,13 @@
         <v>662400</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D101" s="32" t="s">
-        <v>301</v>
+        <v>281</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E101" s="21">
         <v>0</v>
@@ -8028,13 +8024,13 @@
         <v>662500</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D102" s="32" t="s">
-        <v>301</v>
+        <v>282</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E102" s="21">
         <v>0</v>
@@ -8081,13 +8077,13 @@
         <v>672310</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>301</v>
+        <v>283</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E103" s="21">
         <v>0</v>
@@ -8134,13 +8130,13 @@
         <v>672320</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E104" s="21">
         <v>0</v>
@@ -8187,13 +8183,13 @@
         <v>672400</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E105" s="21">
         <v>0</v>
@@ -8240,13 +8236,13 @@
         <v>672500</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D106" s="32" t="s">
-        <v>301</v>
+        <v>286</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E106" s="21">
         <v>0</v>
@@ -8293,13 +8289,13 @@
         <v>672600</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D107" s="32" t="s">
-        <v>301</v>
+        <v>287</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E107" s="21">
         <v>0</v>
@@ -8346,13 +8342,13 @@
         <v>672700</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D108" s="32" t="s">
-        <v>301</v>
+        <v>288</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E108" s="21">
         <v>0</v>
@@ -8399,13 +8395,13 @@
         <v>604400</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E109" s="21">
         <v>0</v>
@@ -8428,7 +8424,7 @@
         <v>217</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L109" s="18" t="str">
         <f>IF(AND(K109="Geschenk",Overview!E109=1,Overview!F109=0),'Logic ID'!$E$12,
@@ -8452,13 +8448,13 @@
         <v>604300</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E110" s="21">
         <v>0</v>
@@ -8481,7 +8477,7 @@
         <v>217</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L110" s="18" t="str">
         <f>IF(AND(K110="Geschenk",Overview!E110=1,Overview!F110=0),'Logic ID'!$E$12,
@@ -8505,13 +8501,13 @@
         <v>604310</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E111" s="21">
         <v>0</v>
@@ -8534,7 +8530,7 @@
         <v>217</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L111" s="18" t="str">
         <f>IF(AND(K111="Geschenk",Overview!E111=1,Overview!F111=0),'Logic ID'!$E$12,
@@ -8558,13 +8554,13 @@
         <v>604000</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E112" s="21">
         <v>0</v>
@@ -8587,7 +8583,7 @@
         <v>217</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L112" s="18" t="str">
         <f>IF(AND(K112="Geschenk",Overview!E112=1,Overview!F112=0),'Logic ID'!$E$12,
@@ -8611,13 +8607,13 @@
         <v>691300</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E113" s="21">
         <v>0</v>
@@ -8640,7 +8636,7 @@
         <v>217</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L113" s="18" t="str">
         <f>IF(AND(K113="Geschenk",Overview!E113=1,Overview!F113=0),'Logic ID'!$E$12,
@@ -8664,13 +8660,13 @@
         <v>691310</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E114" s="21">
         <v>0</v>
@@ -8693,7 +8689,7 @@
         <v>217</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L114" s="18" t="str">
         <f>IF(AND(K114="Geschenk",Overview!E114=1,Overview!F114=0),'Logic ID'!$E$12,
@@ -8717,13 +8713,13 @@
         <v>691350</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E115" s="21">
         <v>0</v>
@@ -8746,7 +8742,7 @@
         <v>217</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L115" s="18" t="str">
         <f>IF(AND(K115="Geschenk",Overview!E115=1,Overview!F115=0),'Logic ID'!$E$12,
@@ -8770,13 +8766,13 @@
         <v>661150</v>
       </c>
       <c r="B116" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" s="32" t="s">
-        <v>301</v>
+      <c r="D116" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E116" s="21">
         <v>0</v>
@@ -8823,13 +8819,13 @@
         <v>999910</v>
       </c>
       <c r="B117" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D117" s="32" t="s">
-        <v>301</v>
+      <c r="D117" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="E117" s="21">
         <v>0</v>
@@ -8849,7 +8845,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J117" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>26</v>
@@ -8904,10 +8900,10 @@
   <sheetData>
     <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9169,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -9194,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9219,7 +9215,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9244,7 +9240,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -9269,7 +9265,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -9441,10 +9437,10 @@
   <sheetData>
     <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9706,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -9729,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9752,7 +9748,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9919,7 +9915,7 @@
   <dimension ref="A1:IQ91"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -9931,10 +9927,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.45" customHeight="1">
@@ -10078,7 +10074,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.45" customHeight="1">
@@ -10086,7 +10082,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.45" customHeight="1">
@@ -10094,7 +10090,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.45" customHeight="1">
@@ -10102,7 +10098,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.45" customHeight="1">
@@ -10110,7 +10106,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.45" customHeight="1">
@@ -10118,7 +10114,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.45" customHeight="1">
@@ -10126,7 +10122,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.45" customHeight="1">
@@ -10134,7 +10130,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.45" customHeight="1">
@@ -10142,7 +10138,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.45" customHeight="1">
@@ -10150,7 +10146,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.45" customHeight="1">
@@ -10158,7 +10154,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.45" customHeight="1">
@@ -10166,7 +10162,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.45" customHeight="1">
@@ -10174,7 +10170,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.45" customHeight="1">
@@ -10182,7 +10178,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.45" customHeight="1">
@@ -10190,7 +10186,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.45" customHeight="1">
@@ -10198,7 +10194,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.45" customHeight="1">
@@ -10206,7 +10202,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.45" customHeight="1">
@@ -10214,7 +10210,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.45" customHeight="1">
@@ -10222,7 +10218,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.45" customHeight="1">
@@ -10230,7 +10226,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.45" customHeight="1">
@@ -10238,7 +10234,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" customHeight="1">
@@ -10246,7 +10242,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.45" customHeight="1">
@@ -10254,7 +10250,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.45" customHeight="1">
@@ -10262,7 +10258,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.45" customHeight="1">
@@ -10270,7 +10266,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.45" customHeight="1">
@@ -10278,7 +10274,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.45" customHeight="1">
@@ -10286,7 +10282,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.45" customHeight="1">
@@ -10294,7 +10290,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.45" customHeight="1">
@@ -10302,7 +10298,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.45" customHeight="1">
@@ -10310,7 +10306,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.45" customHeight="1">
@@ -10318,7 +10314,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.45" customHeight="1">
@@ -10326,7 +10322,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.45" customHeight="1">
@@ -10334,7 +10330,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.45" customHeight="1">
@@ -10342,7 +10338,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.45" customHeight="1">
@@ -10350,7 +10346,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.45" customHeight="1">
@@ -10358,7 +10354,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.45" customHeight="1">
@@ -10366,7 +10362,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.45" customHeight="1">
@@ -10374,7 +10370,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.45" customHeight="1">
@@ -10382,7 +10378,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.45" customHeight="1">
@@ -10390,7 +10386,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.45" customHeight="1">
@@ -10398,7 +10394,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.45" customHeight="1">
@@ -10406,7 +10402,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.45" customHeight="1">
@@ -10414,7 +10410,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.45" customHeight="1">
@@ -10422,7 +10418,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.45" customHeight="1">
@@ -10430,7 +10426,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.45" customHeight="1">
@@ -10438,7 +10434,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.45" customHeight="1">
@@ -10446,7 +10442,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.45" customHeight="1">
@@ -10454,7 +10450,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.45" customHeight="1">
@@ -10462,7 +10458,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.45" customHeight="1">
@@ -10470,7 +10466,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.45" customHeight="1">
@@ -10478,7 +10474,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.45" customHeight="1">
@@ -10486,7 +10482,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.45" customHeight="1">
@@ -10494,7 +10490,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.45" customHeight="1">
@@ -10502,7 +10498,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.45" customHeight="1">
@@ -10510,7 +10506,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.45" customHeight="1">
@@ -10518,7 +10514,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.45" customHeight="1">
@@ -10526,7 +10522,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17.45" customHeight="1">
@@ -10534,7 +10530,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17.45" customHeight="1">
@@ -10542,7 +10538,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17.45" customHeight="1">
@@ -10550,7 +10546,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17.45" customHeight="1">
@@ -10558,7 +10554,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17.45" customHeight="1">
@@ -10566,7 +10562,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.45" customHeight="1">
@@ -10574,7 +10570,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.45" customHeight="1">
@@ -10582,7 +10578,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.45" customHeight="1">
@@ -10590,7 +10586,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.45" customHeight="1">
@@ -10598,7 +10594,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17.45" customHeight="1">
@@ -10606,7 +10602,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.45" customHeight="1">
@@ -10614,7 +10610,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17.45" customHeight="1">
@@ -10622,7 +10618,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.45" customHeight="1">
@@ -10630,7 +10626,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.45" customHeight="1">
@@ -10638,7 +10634,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.45" customHeight="1">
@@ -10646,7 +10642,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17.45" customHeight="1">
@@ -10654,7 +10650,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -10682,15 +10678,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -10698,7 +10694,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>221</v>
@@ -10706,15 +10702,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>222</v>
@@ -10722,10 +10718,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10796,7 +10792,7 @@
   <dimension ref="A1:IW24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -10820,16 +10816,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>206</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>207</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -10867,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -10899,13 +10895,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>361</v>
+        <v>181</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -10937,13 +10933,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>361</v>
+      <c r="G4" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -10969,19 +10965,19 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>361</v>
+      <c r="G5" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -11019,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -11051,13 +11047,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>361</v>
+        <v>184</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -11089,13 +11085,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>361</v>
+      <c r="G8" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -11118,7 +11114,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -11127,13 +11123,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -11156,7 +11152,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -11165,13 +11161,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -11194,7 +11190,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -11203,13 +11199,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -11241,13 +11237,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -11279,13 +11275,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -11317,13 +11313,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -14099,15 +14095,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
@@ -14155,6 +14142,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BF3E90-0828-4759-ACA7-3670C46D50E8}">
   <ds:schemaRefs>
@@ -14175,14 +14171,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14190,4 +14178,12 @@
     <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Datei.xlsx
+++ b/Datei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cts\Documents\SEA\sea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E15E489-75ED-4293-BA19-DE5471D20FF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA3F377-F98E-450B-BDD7-0D9E37EB49D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$L$117</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="364">
   <si>
     <t>Account ID</t>
   </si>
@@ -187,6 +187,9 @@
     <t>KPMG,PwC,Deloitte,Ernst,Young,EY,Big4,Beratung,Coach</t>
   </si>
   <si>
+    <t>Beratungskosten "Big4" (KPMG, PwC, Deloitte, EY)</t>
+  </si>
+  <si>
     <t>Seminarkosten</t>
   </si>
   <si>
@@ -1126,14 +1129,14 @@
     <t>Aufsichtsrat,Instandhaltung,Reparatur,Ersatzteil,Ersetzen,Entwicklung,Mieten,Wartung</t>
   </si>
   <si>
-    <t>Beratungskosten Big4 (KPMG, PwC, Deloitte, EY)</t>
+    <t>1,2,3,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1177,8 +1180,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Porsche Next TT"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,6 +1203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1325,6 +1340,39 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2658,11 +2706,11 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -2692,31 +2740,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.45" customHeight="1">
@@ -2727,10 +2775,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
@@ -2750,7 +2798,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>8</v>
@@ -2761,8 +2809,8 @@
 IF(AND(K2="Geschenk",Overview!E2=3.4,Overview!F2=0),'Logic ID'!$E$14,
 IF(K2="Geschenk",'Logic ID'!$E$2,
 IF(AND(K2="Aktivierung",Overview!E2=4,Overview!F2=2),'Logic ID'!$E$3,
-IF(AND(K2="Aktivierung",Overview!E2=4,Overview!F2=1),'Logic ID'!$E$4,
-IF(AND(K2="Aktivierung",Overview!E2="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K2="Aktivierung",Overview!E2="1,2,3",Overview!F2=2),'Logic ID'!$E$5,
+IF(AND(K2="Aktivierung",Overview!E2="1,2,3,4"),'Logic ID'!$E$4,
 IF(K2="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K2="WVDV",Overview!E2=4,F2=2),'Logic ID'!$E$7,
 IF(AND(K2="WVDV",F2=1),'Logic ID'!$E$8,
@@ -2780,10 +2828,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E3" s="19">
         <v>0</v>
@@ -2803,7 +2851,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>8</v>
@@ -2814,8 +2862,8 @@
 IF(AND(K3="Geschenk",Overview!E3=3.4,Overview!F3=0),'Logic ID'!$E$14,
 IF(K3="Geschenk",'Logic ID'!$E$2,
 IF(AND(K3="Aktivierung",Overview!E3=4,Overview!F3=2),'Logic ID'!$E$3,
-IF(AND(K3="Aktivierung",Overview!E3=4,Overview!F3=1),'Logic ID'!$E$4,
-IF(AND(K3="Aktivierung",Overview!E3="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K3="Aktivierung",Overview!E3="1,2,3",Overview!F3=2),'Logic ID'!$E$5,
+IF(AND(K3="Aktivierung",Overview!E3="1,2,3,4"),'Logic ID'!$E$4,
 IF(K3="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K3="WVDV",Overview!E3=4,F3=2),'Logic ID'!$E$7,
 IF(AND(K3="WVDV",F3=1),'Logic ID'!$E$8,
@@ -2833,10 +2881,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E4" s="21">
         <v>1.2</v>
@@ -2856,7 +2904,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>8</v>
@@ -2867,8 +2915,8 @@
 IF(AND(K4="Geschenk",Overview!E4=3.4,Overview!F4=0),'Logic ID'!$E$14,
 IF(K4="Geschenk",'Logic ID'!$E$2,
 IF(AND(K4="Aktivierung",Overview!E4=4,Overview!F4=2),'Logic ID'!$E$3,
-IF(AND(K4="Aktivierung",Overview!E4=4,Overview!F4=1),'Logic ID'!$E$4,
-IF(AND(K4="Aktivierung",Overview!E4="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K4="Aktivierung",Overview!E4="1,2,3",Overview!F4=2),'Logic ID'!$E$5,
+IF(AND(K4="Aktivierung",Overview!E4="1,2,3,4"),'Logic ID'!$E$4,
 IF(K4="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K4="WVDV",Overview!E4=4,F4=2),'Logic ID'!$E$7,
 IF(AND(K4="WVDV",F4=1),'Logic ID'!$E$8,
@@ -2886,10 +2934,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E5" s="21">
         <v>3.4</v>
@@ -2909,7 +2957,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>8</v>
@@ -2920,8 +2968,8 @@
 IF(AND(K5="Geschenk",Overview!E5=3.4,Overview!F5=0),'Logic ID'!$E$14,
 IF(K5="Geschenk",'Logic ID'!$E$2,
 IF(AND(K5="Aktivierung",Overview!E5=4,Overview!F5=2),'Logic ID'!$E$3,
-IF(AND(K5="Aktivierung",Overview!E5=4,Overview!F5=1),'Logic ID'!$E$4,
-IF(AND(K5="Aktivierung",Overview!E5="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K5="Aktivierung",Overview!E5="1,2,3",Overview!F5=2),'Logic ID'!$E$5,
+IF(AND(K5="Aktivierung",Overview!E5="1,2,3,4"),'Logic ID'!$E$4,
 IF(K5="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K5="WVDV",Overview!E5=4,F5=2),'Logic ID'!$E$7,
 IF(AND(K5="WVDV",F5=1),'Logic ID'!$E$8,
@@ -2939,13 +2987,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E6" s="17">
-        <v>4</v>
+        <v>299</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
@@ -2962,19 +3010,19 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="18" t="str">
+      <c r="L6" s="46" t="str">
         <f>IF(AND(K6="Geschenk",Overview!E6=1,Overview!F6=0),'Logic ID'!$E$12,
 IF(AND(K6="Geschenk",Overview!E6=1.2,Overview!F6=0),'Logic ID'!$E$13,
 IF(AND(K6="Geschenk",Overview!E6=3.4,Overview!F6=0),'Logic ID'!$E$14,
 IF(K6="Geschenk",'Logic ID'!$E$2,
 IF(AND(K6="Aktivierung",Overview!E6=4,Overview!F6=2),'Logic ID'!$E$3,
-IF(AND(K6="Aktivierung",Overview!E6=4,Overview!F6=1),'Logic ID'!$E$4,
-IF(AND(K6="Aktivierung",Overview!E6="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K6="Aktivierung",Overview!E6="1,2,3",Overview!F6=2),'Logic ID'!$E$5,
+IF(AND(K6="Aktivierung",Overview!E6="1,2,3,4"),'Logic ID'!$E$4,
 IF(K6="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K6="WVDV",Overview!E6=4,F6=2),'Logic ID'!$E$7,
 IF(AND(K6="WVDV",F6=1),'Logic ID'!$E$8,
@@ -2992,10 +3040,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E7" s="17">
         <v>4</v>
@@ -3015,7 +3063,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>17</v>
@@ -3026,8 +3074,8 @@
 IF(AND(K7="Geschenk",Overview!E7=3.4,Overview!F7=0),'Logic ID'!$E$14,
 IF(K7="Geschenk",'Logic ID'!$E$2,
 IF(AND(K7="Aktivierung",Overview!E7=4,Overview!F7=2),'Logic ID'!$E$3,
-IF(AND(K7="Aktivierung",Overview!E7=4,Overview!F7=1),'Logic ID'!$E$4,
-IF(AND(K7="Aktivierung",Overview!E7="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K7="Aktivierung",Overview!E7="1,2,3",Overview!F7=2),'Logic ID'!$E$5,
+IF(AND(K7="Aktivierung",Overview!E7="1,2,3,4"),'Logic ID'!$E$4,
 IF(K7="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K7="WVDV",Overview!E7=4,F7=2),'Logic ID'!$E$7,
 IF(AND(K7="WVDV",F7=1),'Logic ID'!$E$8,
@@ -3045,16 +3093,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F8" s="48">
+        <v>2</v>
       </c>
       <c r="G8" s="13">
         <v>5</v>
@@ -3068,19 +3116,19 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="18" t="str">
+      <c r="L8" s="46" t="str">
         <f>IF(AND(K8="Geschenk",Overview!E8=1,Overview!F8=0),'Logic ID'!$E$12,
 IF(AND(K8="Geschenk",Overview!E8=1.2,Overview!F8=0),'Logic ID'!$E$13,
 IF(AND(K8="Geschenk",Overview!E8=3.4,Overview!F8=0),'Logic ID'!$E$14,
 IF(K8="Geschenk",'Logic ID'!$E$2,
 IF(AND(K8="Aktivierung",Overview!E8=4,Overview!F8=2),'Logic ID'!$E$3,
-IF(AND(K8="Aktivierung",Overview!E8=4,Overview!F8=1),'Logic ID'!$E$4,
-IF(AND(K8="Aktivierung",Overview!E8="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K8="Aktivierung",Overview!E8="1,2,3",Overview!F8=2),'Logic ID'!$E$5,
+IF(AND(K8="Aktivierung",Overview!E8="1,2,3,4"),'Logic ID'!$E$4,
 IF(K8="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K8="WVDV",Overview!E8=4,F8=2),'Logic ID'!$E$7,
 IF(AND(K8="WVDV",F8=1),'Logic ID'!$E$8,
@@ -3098,13 +3146,13 @@
         <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="17">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="F9" s="17">
         <v>1</v>
@@ -3121,19 +3169,19 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="18" t="str">
+      <c r="L9" s="46" t="str">
         <f>IF(AND(K9="Geschenk",Overview!E9=1,Overview!F9=0),'Logic ID'!$E$12,
 IF(AND(K9="Geschenk",Overview!E9=1.2,Overview!F9=0),'Logic ID'!$E$13,
 IF(AND(K9="Geschenk",Overview!E9=3.4,Overview!F9=0),'Logic ID'!$E$14,
 IF(K9="Geschenk",'Logic ID'!$E$2,
 IF(AND(K9="Aktivierung",Overview!E9=4,Overview!F9=2),'Logic ID'!$E$3,
-IF(AND(K9="Aktivierung",Overview!E9=4,Overview!F9=1),'Logic ID'!$E$4,
-IF(AND(K9="Aktivierung",Overview!E9="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K9="Aktivierung",Overview!E9="1,2,3",Overview!F9=2),'Logic ID'!$E$5,
+IF(AND(K9="Aktivierung",Overview!E9="1,2,3,4"),'Logic ID'!$E$4,
 IF(K9="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K9="WVDV",Overview!E9=4,F9=2),'Logic ID'!$E$7,
 IF(AND(K9="WVDV",F9=1),'Logic ID'!$E$8,
@@ -3151,10 +3199,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E10" s="17">
         <v>4</v>
@@ -3174,7 +3222,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>17</v>
@@ -3185,8 +3233,8 @@
 IF(AND(K10="Geschenk",Overview!E10=3.4,Overview!F10=0),'Logic ID'!$E$14,
 IF(K10="Geschenk",'Logic ID'!$E$2,
 IF(AND(K10="Aktivierung",Overview!E10=4,Overview!F10=2),'Logic ID'!$E$3,
-IF(AND(K10="Aktivierung",Overview!E10=4,Overview!F10=1),'Logic ID'!$E$4,
-IF(AND(K10="Aktivierung",Overview!E10="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K10="Aktivierung",Overview!E10="1,2,3",Overview!F10=2),'Logic ID'!$E$5,
+IF(AND(K10="Aktivierung",Overview!E10="1,2,3,4"),'Logic ID'!$E$4,
 IF(K10="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K10="WVDV",Overview!E10=4,F10=2),'Logic ID'!$E$7,
 IF(AND(K10="WVDV",F10=1),'Logic ID'!$E$8,
@@ -3204,16 +3252,16 @@
         <v>18</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F11" s="48">
+        <v>2</v>
       </c>
       <c r="G11" s="13">
         <v>6</v>
@@ -3227,7 +3275,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>17</v>
@@ -3238,8 +3286,8 @@
 IF(AND(K11="Geschenk",Overview!E11=3.4,Overview!F11=0),'Logic ID'!$E$14,
 IF(K11="Geschenk",'Logic ID'!$E$2,
 IF(AND(K11="Aktivierung",Overview!E11=4,Overview!F11=2),'Logic ID'!$E$3,
-IF(AND(K11="Aktivierung",Overview!E11=4,Overview!F11=1),'Logic ID'!$E$4,
-IF(AND(K11="Aktivierung",Overview!E11="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K11="Aktivierung",Overview!E11="1,2,3",Overview!F11=2),'Logic ID'!$E$5,
+IF(AND(K11="Aktivierung",Overview!E11="1,2,3,4"),'Logic ID'!$E$4,
 IF(K11="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K11="WVDV",Overview!E11=4,F11=2),'Logic ID'!$E$7,
 IF(AND(K11="WVDV",F11=1),'Logic ID'!$E$8,
@@ -3257,13 +3305,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="17">
-        <v>4</v>
+        <v>301</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -3280,19 +3328,19 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="18" t="str">
+      <c r="L12" s="46" t="str">
         <f>IF(AND(K12="Geschenk",Overview!E12=1,Overview!F12=0),'Logic ID'!$E$12,
 IF(AND(K12="Geschenk",Overview!E12=1.2,Overview!F12=0),'Logic ID'!$E$13,
 IF(AND(K12="Geschenk",Overview!E12=3.4,Overview!F12=0),'Logic ID'!$E$14,
 IF(K12="Geschenk",'Logic ID'!$E$2,
 IF(AND(K12="Aktivierung",Overview!E12=4,Overview!F12=2),'Logic ID'!$E$3,
-IF(AND(K12="Aktivierung",Overview!E12=4,Overview!F12=1),'Logic ID'!$E$4,
-IF(AND(K12="Aktivierung",Overview!E12="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K12="Aktivierung",Overview!E12="1,2,3",Overview!F12=2),'Logic ID'!$E$5,
+IF(AND(K12="Aktivierung",Overview!E12="1,2,3,4"),'Logic ID'!$E$4,
 IF(K12="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K12="WVDV",Overview!E12=4,F12=2),'Logic ID'!$E$7,
 IF(AND(K12="WVDV",F12=1),'Logic ID'!$E$8,
@@ -3310,10 +3358,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E13" s="17">
         <v>4</v>
@@ -3333,7 +3381,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>17</v>
@@ -3344,8 +3392,8 @@
 IF(AND(K13="Geschenk",Overview!E13=3.4,Overview!F13=0),'Logic ID'!$E$14,
 IF(K13="Geschenk",'Logic ID'!$E$2,
 IF(AND(K13="Aktivierung",Overview!E13=4,Overview!F13=2),'Logic ID'!$E$3,
-IF(AND(K13="Aktivierung",Overview!E13=4,Overview!F13=1),'Logic ID'!$E$4,
-IF(AND(K13="Aktivierung",Overview!E13="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K13="Aktivierung",Overview!E13="1,2,3",Overview!F13=2),'Logic ID'!$E$5,
+IF(AND(K13="Aktivierung",Overview!E13="1,2,3,4"),'Logic ID'!$E$4,
 IF(K13="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K13="WVDV",Overview!E13=4,F13=2),'Logic ID'!$E$7,
 IF(AND(K13="WVDV",F13=1),'Logic ID'!$E$8,
@@ -3363,16 +3411,16 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F14" s="48">
+        <v>2</v>
       </c>
       <c r="G14" s="13">
         <v>7</v>
@@ -3386,7 +3434,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>17</v>
@@ -3397,8 +3445,8 @@
 IF(AND(K14="Geschenk",Overview!E14=3.4,Overview!F14=0),'Logic ID'!$E$14,
 IF(K14="Geschenk",'Logic ID'!$E$2,
 IF(AND(K14="Aktivierung",Overview!E14=4,Overview!F14=2),'Logic ID'!$E$3,
-IF(AND(K14="Aktivierung",Overview!E14=4,Overview!F14=1),'Logic ID'!$E$4,
-IF(AND(K14="Aktivierung",Overview!E14="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K14="Aktivierung",Overview!E14="1,2,3",Overview!F14=2),'Logic ID'!$E$5,
+IF(AND(K14="Aktivierung",Overview!E14="1,2,3,4"),'Logic ID'!$E$4,
 IF(K14="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K14="WVDV",Overview!E14=4,F14=2),'Logic ID'!$E$7,
 IF(AND(K14="WVDV",F14=1),'Logic ID'!$E$8,
@@ -3416,10 +3464,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E15" s="19">
         <v>0</v>
@@ -3439,7 +3487,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>8</v>
@@ -3450,8 +3498,8 @@
 IF(AND(K15="Geschenk",Overview!E15=3.4,Overview!F15=0),'Logic ID'!$E$14,
 IF(K15="Geschenk",'Logic ID'!$E$2,
 IF(AND(K15="Aktivierung",Overview!E15=4,Overview!F15=2),'Logic ID'!$E$3,
-IF(AND(K15="Aktivierung",Overview!E15=4,Overview!F15=1),'Logic ID'!$E$4,
-IF(AND(K15="Aktivierung",Overview!E15="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K15="Aktivierung",Overview!E15="1,2,3",Overview!F15=2),'Logic ID'!$E$5,
+IF(AND(K15="Aktivierung",Overview!E15="1,2,3,4"),'Logic ID'!$E$4,
 IF(K15="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K15="WVDV",Overview!E15=4,F15=2),'Logic ID'!$E$7,
 IF(AND(K15="WVDV",F15=1),'Logic ID'!$E$8,
@@ -3469,10 +3517,10 @@
         <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E16" s="21">
         <v>0</v>
@@ -3492,7 +3540,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>26</v>
@@ -3503,8 +3551,8 @@
 IF(AND(K16="Geschenk",Overview!E16=3.4,Overview!F16=0),'Logic ID'!$E$14,
 IF(K16="Geschenk",'Logic ID'!$E$2,
 IF(AND(K16="Aktivierung",Overview!E16=4,Overview!F16=2),'Logic ID'!$E$3,
-IF(AND(K16="Aktivierung",Overview!E16=4,Overview!F16=1),'Logic ID'!$E$4,
-IF(AND(K16="Aktivierung",Overview!E16="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K16="Aktivierung",Overview!E16="1,2,3",Overview!F16=2),'Logic ID'!$E$5,
+IF(AND(K16="Aktivierung",Overview!E16="1,2,3,4"),'Logic ID'!$E$4,
 IF(K16="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K16="WVDV",Overview!E16=4,F16=2),'Logic ID'!$E$7,
 IF(AND(K16="WVDV",F16=1),'Logic ID'!$E$8,
@@ -3522,10 +3570,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E17" s="21">
         <v>0</v>
@@ -3545,7 +3593,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>26</v>
@@ -3556,8 +3604,8 @@
 IF(AND(K17="Geschenk",Overview!E17=3.4,Overview!F17=0),'Logic ID'!$E$14,
 IF(K17="Geschenk",'Logic ID'!$E$2,
 IF(AND(K17="Aktivierung",Overview!E17=4,Overview!F17=2),'Logic ID'!$E$3,
-IF(AND(K17="Aktivierung",Overview!E17=4,Overview!F17=1),'Logic ID'!$E$4,
-IF(AND(K17="Aktivierung",Overview!E17="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K17="Aktivierung",Overview!E17="1,2,3",Overview!F17=2),'Logic ID'!$E$5,
+IF(AND(K17="Aktivierung",Overview!E17="1,2,3,4"),'Logic ID'!$E$4,
 IF(K17="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K17="WVDV",Overview!E17=4,F17=2),'Logic ID'!$E$7,
 IF(AND(K17="WVDV",F17=1),'Logic ID'!$E$8,
@@ -3575,10 +3623,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E18" s="21">
         <v>0</v>
@@ -3598,7 +3646,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>26</v>
@@ -3609,8 +3657,8 @@
 IF(AND(K18="Geschenk",Overview!E18=3.4,Overview!F18=0),'Logic ID'!$E$14,
 IF(K18="Geschenk",'Logic ID'!$E$2,
 IF(AND(K18="Aktivierung",Overview!E18=4,Overview!F18=2),'Logic ID'!$E$3,
-IF(AND(K18="Aktivierung",Overview!E18=4,Overview!F18=1),'Logic ID'!$E$4,
-IF(AND(K18="Aktivierung",Overview!E18="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K18="Aktivierung",Overview!E18="1,2,3",Overview!F18=2),'Logic ID'!$E$5,
+IF(AND(K18="Aktivierung",Overview!E18="1,2,3,4"),'Logic ID'!$E$4,
 IF(K18="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K18="WVDV",Overview!E18=4,F18=2),'Logic ID'!$E$7,
 IF(AND(K18="WVDV",F18=1),'Logic ID'!$E$8,
@@ -3631,7 +3679,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E19" s="21">
         <v>0</v>
@@ -3651,7 +3699,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>26</v>
@@ -3662,8 +3710,8 @@
 IF(AND(K19="Geschenk",Overview!E19=3.4,Overview!F19=0),'Logic ID'!$E$14,
 IF(K19="Geschenk",'Logic ID'!$E$2,
 IF(AND(K19="Aktivierung",Overview!E19=4,Overview!F19=2),'Logic ID'!$E$3,
-IF(AND(K19="Aktivierung",Overview!E19=4,Overview!F19=1),'Logic ID'!$E$4,
-IF(AND(K19="Aktivierung",Overview!E19="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K19="Aktivierung",Overview!E19="1,2,3",Overview!F19=2),'Logic ID'!$E$5,
+IF(AND(K19="Aktivierung",Overview!E19="1,2,3,4"),'Logic ID'!$E$4,
 IF(K19="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K19="WVDV",Overview!E19=4,F19=2),'Logic ID'!$E$7,
 IF(AND(K19="WVDV",F19=1),'Logic ID'!$E$8,
@@ -3684,7 +3732,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E20" s="21">
         <v>0</v>
@@ -3704,7 +3752,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>26</v>
@@ -3715,8 +3763,8 @@
 IF(AND(K20="Geschenk",Overview!E20=3.4,Overview!F20=0),'Logic ID'!$E$14,
 IF(K20="Geschenk",'Logic ID'!$E$2,
 IF(AND(K20="Aktivierung",Overview!E20=4,Overview!F20=2),'Logic ID'!$E$3,
-IF(AND(K20="Aktivierung",Overview!E20=4,Overview!F20=1),'Logic ID'!$E$4,
-IF(AND(K20="Aktivierung",Overview!E20="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K20="Aktivierung",Overview!E20="1,2,3",Overview!F20=2),'Logic ID'!$E$5,
+IF(AND(K20="Aktivierung",Overview!E20="1,2,3,4"),'Logic ID'!$E$4,
 IF(K20="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K20="WVDV",Overview!E20=4,F20=2),'Logic ID'!$E$7,
 IF(AND(K20="WVDV",F20=1),'Logic ID'!$E$8,
@@ -3734,10 +3782,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E21" s="21">
         <v>0</v>
@@ -3757,7 +3805,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>26</v>
@@ -3768,8 +3816,8 @@
 IF(AND(K21="Geschenk",Overview!E21=3.4,Overview!F21=0),'Logic ID'!$E$14,
 IF(K21="Geschenk",'Logic ID'!$E$2,
 IF(AND(K21="Aktivierung",Overview!E21=4,Overview!F21=2),'Logic ID'!$E$3,
-IF(AND(K21="Aktivierung",Overview!E21=4,Overview!F21=1),'Logic ID'!$E$4,
-IF(AND(K21="Aktivierung",Overview!E21="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K21="Aktivierung",Overview!E21="1,2,3",Overview!F21=2),'Logic ID'!$E$5,
+IF(AND(K21="Aktivierung",Overview!E21="1,2,3,4"),'Logic ID'!$E$4,
 IF(K21="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K21="WVDV",Overview!E21=4,F21=2),'Logic ID'!$E$7,
 IF(AND(K21="WVDV",F21=1),'Logic ID'!$E$8,
@@ -3790,7 +3838,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E22" s="21">
         <v>0</v>
@@ -3810,7 +3858,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>26</v>
@@ -3821,8 +3869,8 @@
 IF(AND(K22="Geschenk",Overview!E22=3.4,Overview!F22=0),'Logic ID'!$E$14,
 IF(K22="Geschenk",'Logic ID'!$E$2,
 IF(AND(K22="Aktivierung",Overview!E22=4,Overview!F22=2),'Logic ID'!$E$3,
-IF(AND(K22="Aktivierung",Overview!E22=4,Overview!F22=1),'Logic ID'!$E$4,
-IF(AND(K22="Aktivierung",Overview!E22="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K22="Aktivierung",Overview!E22="1,2,3",Overview!F22=2),'Logic ID'!$E$5,
+IF(AND(K22="Aktivierung",Overview!E22="1,2,3,4"),'Logic ID'!$E$4,
 IF(K22="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K22="WVDV",Overview!E22=4,F22=2),'Logic ID'!$E$7,
 IF(AND(K22="WVDV",F22=1),'Logic ID'!$E$8,
@@ -3840,10 +3888,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E23" s="21">
         <v>0</v>
@@ -3863,7 +3911,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>26</v>
@@ -3874,8 +3922,8 @@
 IF(AND(K23="Geschenk",Overview!E23=3.4,Overview!F23=0),'Logic ID'!$E$14,
 IF(K23="Geschenk",'Logic ID'!$E$2,
 IF(AND(K23="Aktivierung",Overview!E23=4,Overview!F23=2),'Logic ID'!$E$3,
-IF(AND(K23="Aktivierung",Overview!E23=4,Overview!F23=1),'Logic ID'!$E$4,
-IF(AND(K23="Aktivierung",Overview!E23="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K23="Aktivierung",Overview!E23="1,2,3",Overview!F23=2),'Logic ID'!$E$5,
+IF(AND(K23="Aktivierung",Overview!E23="1,2,3,4"),'Logic ID'!$E$4,
 IF(K23="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K23="WVDV",Overview!E23=4,F23=2),'Logic ID'!$E$7,
 IF(AND(K23="WVDV",F23=1),'Logic ID'!$E$8,
@@ -3893,10 +3941,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E24" s="17">
         <v>4</v>
@@ -3916,7 +3964,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>46</v>
@@ -3927,8 +3975,8 @@
 IF(AND(K24="Geschenk",Overview!E24=3.4,Overview!F24=0),'Logic ID'!$E$14,
 IF(K24="Geschenk",'Logic ID'!$E$2,
 IF(AND(K24="Aktivierung",Overview!E24=4,Overview!F24=2),'Logic ID'!$E$3,
-IF(AND(K24="Aktivierung",Overview!E24=4,Overview!F24=1),'Logic ID'!$E$4,
-IF(AND(K24="Aktivierung",Overview!E24="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K24="Aktivierung",Overview!E24="1,2,3",Overview!F24=2),'Logic ID'!$E$5,
+IF(AND(K24="Aktivierung",Overview!E24="1,2,3,4"),'Logic ID'!$E$4,
 IF(K24="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K24="WVDV",Overview!E24=4,F24=2),'Logic ID'!$E$7,
 IF(AND(K24="WVDV",F24=1),'Logic ID'!$E$8,
@@ -3946,10 +3994,10 @@
         <v>44</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
@@ -3969,7 +4017,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>46</v>
@@ -3980,8 +4028,8 @@
 IF(AND(K25="Geschenk",Overview!E25=3.4,Overview!F25=0),'Logic ID'!$E$14,
 IF(K25="Geschenk",'Logic ID'!$E$2,
 IF(AND(K25="Aktivierung",Overview!E25=4,Overview!F25=2),'Logic ID'!$E$3,
-IF(AND(K25="Aktivierung",Overview!E25=4,Overview!F25=1),'Logic ID'!$E$4,
-IF(AND(K25="Aktivierung",Overview!E25="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K25="Aktivierung",Overview!E25="1,2,3",Overview!F25=2),'Logic ID'!$E$5,
+IF(AND(K25="Aktivierung",Overview!E25="1,2,3,4"),'Logic ID'!$E$4,
 IF(K25="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K25="WVDV",Overview!E25=4,F25=2),'Logic ID'!$E$7,
 IF(AND(K25="WVDV",F25=1),'Logic ID'!$E$8,
@@ -4002,7 +4050,7 @@
         <v>48</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E26" s="17">
         <v>4</v>
@@ -4022,7 +4070,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>46</v>
@@ -4033,8 +4081,8 @@
 IF(AND(K26="Geschenk",Overview!E26=3.4,Overview!F26=0),'Logic ID'!$E$14,
 IF(K26="Geschenk",'Logic ID'!$E$2,
 IF(AND(K26="Aktivierung",Overview!E26=4,Overview!F26=2),'Logic ID'!$E$3,
-IF(AND(K26="Aktivierung",Overview!E26=4,Overview!F26=1),'Logic ID'!$E$4,
-IF(AND(K26="Aktivierung",Overview!E26="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K26="Aktivierung",Overview!E26="1,2,3",Overview!F26=2),'Logic ID'!$E$5,
+IF(AND(K26="Aktivierung",Overview!E26="1,2,3,4"),'Logic ID'!$E$4,
 IF(K26="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K26="WVDV",Overview!E26=4,F26=2),'Logic ID'!$E$7,
 IF(AND(K26="WVDV",F26=1),'Logic ID'!$E$8,
@@ -4055,7 +4103,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E27" s="17">
         <v>0</v>
@@ -4075,7 +4123,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>46</v>
@@ -4086,8 +4134,8 @@
 IF(AND(K27="Geschenk",Overview!E27=3.4,Overview!F27=0),'Logic ID'!$E$14,
 IF(K27="Geschenk",'Logic ID'!$E$2,
 IF(AND(K27="Aktivierung",Overview!E27=4,Overview!F27=2),'Logic ID'!$E$3,
-IF(AND(K27="Aktivierung",Overview!E27=4,Overview!F27=1),'Logic ID'!$E$4,
-IF(AND(K27="Aktivierung",Overview!E27="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K27="Aktivierung",Overview!E27="1,2,3",Overview!F27=2),'Logic ID'!$E$5,
+IF(AND(K27="Aktivierung",Overview!E27="1,2,3,4"),'Logic ID'!$E$4,
 IF(K27="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K27="WVDV",Overview!E27=4,F27=2),'Logic ID'!$E$7,
 IF(AND(K27="WVDV",F27=1),'Logic ID'!$E$8,
@@ -4102,13 +4150,13 @@
         <v>661200</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E28" s="21">
         <v>0</v>
@@ -4128,7 +4176,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>26</v>
@@ -4139,8 +4187,8 @@
 IF(AND(K28="Geschenk",Overview!E28=3.4,Overview!F28=0),'Logic ID'!$E$14,
 IF(K28="Geschenk",'Logic ID'!$E$2,
 IF(AND(K28="Aktivierung",Overview!E28=4,Overview!F28=2),'Logic ID'!$E$3,
-IF(AND(K28="Aktivierung",Overview!E28=4,Overview!F28=1),'Logic ID'!$E$4,
-IF(AND(K28="Aktivierung",Overview!E28="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K28="Aktivierung",Overview!E28="1,2,3",Overview!F28=2),'Logic ID'!$E$5,
+IF(AND(K28="Aktivierung",Overview!E28="1,2,3,4"),'Logic ID'!$E$4,
 IF(K28="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K28="WVDV",Overview!E28=4,F28=2),'Logic ID'!$E$7,
 IF(AND(K28="WVDV",F28=1),'Logic ID'!$E$8,
@@ -4155,13 +4203,13 @@
         <v>681153</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E29" s="21">
         <v>0</v>
@@ -4181,7 +4229,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>26</v>
@@ -4192,8 +4240,8 @@
 IF(AND(K29="Geschenk",Overview!E29=3.4,Overview!F29=0),'Logic ID'!$E$14,
 IF(K29="Geschenk",'Logic ID'!$E$2,
 IF(AND(K29="Aktivierung",Overview!E29=4,Overview!F29=2),'Logic ID'!$E$3,
-IF(AND(K29="Aktivierung",Overview!E29=4,Overview!F29=1),'Logic ID'!$E$4,
-IF(AND(K29="Aktivierung",Overview!E29="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K29="Aktivierung",Overview!E29="1,2,3",Overview!F29=2),'Logic ID'!$E$5,
+IF(AND(K29="Aktivierung",Overview!E29="1,2,3,4"),'Logic ID'!$E$4,
 IF(K29="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K29="WVDV",Overview!E29=4,F29=2),'Logic ID'!$E$7,
 IF(AND(K29="WVDV",F29=1),'Logic ID'!$E$8,
@@ -4208,13 +4256,13 @@
         <v>672201</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E30" s="21">
         <v>0</v>
@@ -4234,7 +4282,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>26</v>
@@ -4245,8 +4293,8 @@
 IF(AND(K30="Geschenk",Overview!E30=3.4,Overview!F30=0),'Logic ID'!$E$14,
 IF(K30="Geschenk",'Logic ID'!$E$2,
 IF(AND(K30="Aktivierung",Overview!E30=4,Overview!F30=2),'Logic ID'!$E$3,
-IF(AND(K30="Aktivierung",Overview!E30=4,Overview!F30=1),'Logic ID'!$E$4,
-IF(AND(K30="Aktivierung",Overview!E30="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K30="Aktivierung",Overview!E30="1,2,3",Overview!F30=2),'Logic ID'!$E$5,
+IF(AND(K30="Aktivierung",Overview!E30="1,2,3,4"),'Logic ID'!$E$4,
 IF(K30="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K30="WVDV",Overview!E30=4,F30=2),'Logic ID'!$E$7,
 IF(AND(K30="WVDV",F30=1),'Logic ID'!$E$8,
@@ -4261,13 +4309,13 @@
         <v>672000</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E31" s="21">
         <v>0</v>
@@ -4287,7 +4335,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>26</v>
@@ -4298,8 +4346,8 @@
 IF(AND(K31="Geschenk",Overview!E31=3.4,Overview!F31=0),'Logic ID'!$E$14,
 IF(K31="Geschenk",'Logic ID'!$E$2,
 IF(AND(K31="Aktivierung",Overview!E31=4,Overview!F31=2),'Logic ID'!$E$3,
-IF(AND(K31="Aktivierung",Overview!E31=4,Overview!F31=1),'Logic ID'!$E$4,
-IF(AND(K31="Aktivierung",Overview!E31="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K31="Aktivierung",Overview!E31="1,2,3",Overview!F31=2),'Logic ID'!$E$5,
+IF(AND(K31="Aktivierung",Overview!E31="1,2,3,4"),'Logic ID'!$E$4,
 IF(K31="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K31="WVDV",Overview!E31=4,F31=2),'Logic ID'!$E$7,
 IF(AND(K31="WVDV",F31=1),'Logic ID'!$E$8,
@@ -4314,13 +4362,13 @@
         <v>671800</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E32" s="21">
         <v>0</v>
@@ -4340,7 +4388,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>26</v>
@@ -4351,8 +4399,8 @@
 IF(AND(K32="Geschenk",Overview!E32=3.4,Overview!F32=0),'Logic ID'!$E$14,
 IF(K32="Geschenk",'Logic ID'!$E$2,
 IF(AND(K32="Aktivierung",Overview!E32=4,Overview!F32=2),'Logic ID'!$E$3,
-IF(AND(K32="Aktivierung",Overview!E32=4,Overview!F32=1),'Logic ID'!$E$4,
-IF(AND(K32="Aktivierung",Overview!E32="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K32="Aktivierung",Overview!E32="1,2,3",Overview!F32=2),'Logic ID'!$E$5,
+IF(AND(K32="Aktivierung",Overview!E32="1,2,3,4"),'Logic ID'!$E$4,
 IF(K32="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K32="WVDV",Overview!E32=4,F32=2),'Logic ID'!$E$7,
 IF(AND(K32="WVDV",F32=1),'Logic ID'!$E$8,
@@ -4367,13 +4415,13 @@
         <v>671700</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E33" s="21">
         <v>0</v>
@@ -4393,7 +4441,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>26</v>
@@ -4404,8 +4452,8 @@
 IF(AND(K33="Geschenk",Overview!E33=3.4,Overview!F33=0),'Logic ID'!$E$14,
 IF(K33="Geschenk",'Logic ID'!$E$2,
 IF(AND(K33="Aktivierung",Overview!E33=4,Overview!F33=2),'Logic ID'!$E$3,
-IF(AND(K33="Aktivierung",Overview!E33=4,Overview!F33=1),'Logic ID'!$E$4,
-IF(AND(K33="Aktivierung",Overview!E33="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K33="Aktivierung",Overview!E33="1,2,3",Overview!F33=2),'Logic ID'!$E$5,
+IF(AND(K33="Aktivierung",Overview!E33="1,2,3,4"),'Logic ID'!$E$4,
 IF(K33="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K33="WVDV",Overview!E33=4,F33=2),'Logic ID'!$E$7,
 IF(AND(K33="WVDV",F33=1),'Logic ID'!$E$8,
@@ -4420,13 +4468,13 @@
         <v>671900</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E34" s="21">
         <v>0</v>
@@ -4446,7 +4494,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>26</v>
@@ -4457,8 +4505,8 @@
 IF(AND(K34="Geschenk",Overview!E34=3.4,Overview!F34=0),'Logic ID'!$E$14,
 IF(K34="Geschenk",'Logic ID'!$E$2,
 IF(AND(K34="Aktivierung",Overview!E34=4,Overview!F34=2),'Logic ID'!$E$3,
-IF(AND(K34="Aktivierung",Overview!E34=4,Overview!F34=1),'Logic ID'!$E$4,
-IF(AND(K34="Aktivierung",Overview!E34="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K34="Aktivierung",Overview!E34="1,2,3",Overview!F34=2),'Logic ID'!$E$5,
+IF(AND(K34="Aktivierung",Overview!E34="1,2,3,4"),'Logic ID'!$E$4,
 IF(K34="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K34="WVDV",Overview!E34=4,F34=2),'Logic ID'!$E$7,
 IF(AND(K34="WVDV",F34=1),'Logic ID'!$E$8,
@@ -4473,13 +4521,13 @@
         <v>672100</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E35" s="21">
         <v>0</v>
@@ -4499,7 +4547,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>26</v>
@@ -4510,8 +4558,8 @@
 IF(AND(K35="Geschenk",Overview!E35=3.4,Overview!F35=0),'Logic ID'!$E$14,
 IF(K35="Geschenk",'Logic ID'!$E$2,
 IF(AND(K35="Aktivierung",Overview!E35=4,Overview!F35=2),'Logic ID'!$E$3,
-IF(AND(K35="Aktivierung",Overview!E35=4,Overview!F35=1),'Logic ID'!$E$4,
-IF(AND(K35="Aktivierung",Overview!E35="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K35="Aktivierung",Overview!E35="1,2,3",Overview!F35=2),'Logic ID'!$E$5,
+IF(AND(K35="Aktivierung",Overview!E35="1,2,3,4"),'Logic ID'!$E$4,
 IF(K35="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K35="WVDV",Overview!E35=4,F35=2),'Logic ID'!$E$7,
 IF(AND(K35="WVDV",F35=1),'Logic ID'!$E$8,
@@ -4526,13 +4574,13 @@
         <v>672260</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E36" s="21">
         <v>0</v>
@@ -4552,7 +4600,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>26</v>
@@ -4563,8 +4611,8 @@
 IF(AND(K36="Geschenk",Overview!E36=3.4,Overview!F36=0),'Logic ID'!$E$14,
 IF(K36="Geschenk",'Logic ID'!$E$2,
 IF(AND(K36="Aktivierung",Overview!E36=4,Overview!F36=2),'Logic ID'!$E$3,
-IF(AND(K36="Aktivierung",Overview!E36=4,Overview!F36=1),'Logic ID'!$E$4,
-IF(AND(K36="Aktivierung",Overview!E36="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K36="Aktivierung",Overview!E36="1,2,3",Overview!F36=2),'Logic ID'!$E$5,
+IF(AND(K36="Aktivierung",Overview!E36="1,2,3,4"),'Logic ID'!$E$4,
 IF(K36="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K36="WVDV",Overview!E36=4,F36=2),'Logic ID'!$E$7,
 IF(AND(K36="WVDV",F36=1),'Logic ID'!$E$8,
@@ -4579,13 +4627,13 @@
         <v>671000</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E37" s="21">
         <v>0</v>
@@ -4605,10 +4653,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L37" s="18" t="str">
         <f>IF(AND(K37="Geschenk",Overview!E37=1,Overview!F37=0),'Logic ID'!$E$12,
@@ -4616,8 +4664,8 @@
 IF(AND(K37="Geschenk",Overview!E37=3.4,Overview!F37=0),'Logic ID'!$E$14,
 IF(K37="Geschenk",'Logic ID'!$E$2,
 IF(AND(K37="Aktivierung",Overview!E37=4,Overview!F37=2),'Logic ID'!$E$3,
-IF(AND(K37="Aktivierung",Overview!E37=4,Overview!F37=1),'Logic ID'!$E$4,
-IF(AND(K37="Aktivierung",Overview!E37="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K37="Aktivierung",Overview!E37="1,2,3",Overview!F37=2),'Logic ID'!$E$5,
+IF(AND(K37="Aktivierung",Overview!E37="1,2,3,4"),'Logic ID'!$E$4,
 IF(K37="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K37="WVDV",Overview!E37=4,F37=2),'Logic ID'!$E$7,
 IF(AND(K37="WVDV",F37=1),'Logic ID'!$E$8,
@@ -4632,13 +4680,13 @@
         <v>671100</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E38" s="21">
         <v>0</v>
@@ -4658,10 +4706,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L38" s="18" t="str">
         <f>IF(AND(K38="Geschenk",Overview!E38=1,Overview!F38=0),'Logic ID'!$E$12,
@@ -4669,8 +4717,8 @@
 IF(AND(K38="Geschenk",Overview!E38=3.4,Overview!F38=0),'Logic ID'!$E$14,
 IF(K38="Geschenk",'Logic ID'!$E$2,
 IF(AND(K38="Aktivierung",Overview!E38=4,Overview!F38=2),'Logic ID'!$E$3,
-IF(AND(K38="Aktivierung",Overview!E38=4,Overview!F38=1),'Logic ID'!$E$4,
-IF(AND(K38="Aktivierung",Overview!E38="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K38="Aktivierung",Overview!E38="1,2,3",Overview!F38=2),'Logic ID'!$E$5,
+IF(AND(K38="Aktivierung",Overview!E38="1,2,3,4"),'Logic ID'!$E$4,
 IF(K38="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K38="WVDV",Overview!E38=4,F38=2),'Logic ID'!$E$7,
 IF(AND(K38="WVDV",F38=1),'Logic ID'!$E$8,
@@ -4685,13 +4733,13 @@
         <v>671200</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E39" s="21">
         <v>0</v>
@@ -4711,10 +4759,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L39" s="18" t="str">
         <f>IF(AND(K39="Geschenk",Overview!E39=1,Overview!F39=0),'Logic ID'!$E$12,
@@ -4722,8 +4770,8 @@
 IF(AND(K39="Geschenk",Overview!E39=3.4,Overview!F39=0),'Logic ID'!$E$14,
 IF(K39="Geschenk",'Logic ID'!$E$2,
 IF(AND(K39="Aktivierung",Overview!E39=4,Overview!F39=2),'Logic ID'!$E$3,
-IF(AND(K39="Aktivierung",Overview!E39=4,Overview!F39=1),'Logic ID'!$E$4,
-IF(AND(K39="Aktivierung",Overview!E39="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K39="Aktivierung",Overview!E39="1,2,3",Overview!F39=2),'Logic ID'!$E$5,
+IF(AND(K39="Aktivierung",Overview!E39="1,2,3,4"),'Logic ID'!$E$4,
 IF(K39="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K39="WVDV",Overview!E39=4,F39=2),'Logic ID'!$E$7,
 IF(AND(K39="WVDV",F39=1),'Logic ID'!$E$8,
@@ -4738,13 +4786,13 @@
         <v>671300</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E40" s="21">
         <v>0</v>
@@ -4764,10 +4812,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L40" s="18" t="str">
         <f>IF(AND(K40="Geschenk",Overview!E40=1,Overview!F40=0),'Logic ID'!$E$12,
@@ -4775,8 +4823,8 @@
 IF(AND(K40="Geschenk",Overview!E40=3.4,Overview!F40=0),'Logic ID'!$E$14,
 IF(K40="Geschenk",'Logic ID'!$E$2,
 IF(AND(K40="Aktivierung",Overview!E40=4,Overview!F40=2),'Logic ID'!$E$3,
-IF(AND(K40="Aktivierung",Overview!E40=4,Overview!F40=1),'Logic ID'!$E$4,
-IF(AND(K40="Aktivierung",Overview!E40="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K40="Aktivierung",Overview!E40="1,2,3",Overview!F40=2),'Logic ID'!$E$5,
+IF(AND(K40="Aktivierung",Overview!E40="1,2,3,4"),'Logic ID'!$E$4,
 IF(K40="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K40="WVDV",Overview!E40=4,F40=2),'Logic ID'!$E$7,
 IF(AND(K40="WVDV",F40=1),'Logic ID'!$E$8,
@@ -4791,13 +4839,13 @@
         <v>671400</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E41" s="21">
         <v>0</v>
@@ -4817,10 +4865,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L41" s="18" t="str">
         <f>IF(AND(K41="Geschenk",Overview!E41=1,Overview!F41=0),'Logic ID'!$E$12,
@@ -4828,8 +4876,8 @@
 IF(AND(K41="Geschenk",Overview!E41=3.4,Overview!F41=0),'Logic ID'!$E$14,
 IF(K41="Geschenk",'Logic ID'!$E$2,
 IF(AND(K41="Aktivierung",Overview!E41=4,Overview!F41=2),'Logic ID'!$E$3,
-IF(AND(K41="Aktivierung",Overview!E41=4,Overview!F41=1),'Logic ID'!$E$4,
-IF(AND(K41="Aktivierung",Overview!E41="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K41="Aktivierung",Overview!E41="1,2,3",Overview!F41=2),'Logic ID'!$E$5,
+IF(AND(K41="Aktivierung",Overview!E41="1,2,3,4"),'Logic ID'!$E$4,
 IF(K41="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K41="WVDV",Overview!E41=4,F41=2),'Logic ID'!$E$7,
 IF(AND(K41="WVDV",F41=1),'Logic ID'!$E$8,
@@ -4844,13 +4892,13 @@
         <v>671500</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E42" s="21">
         <v>0</v>
@@ -4870,10 +4918,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L42" s="18" t="str">
         <f>IF(AND(K42="Geschenk",Overview!E42=1,Overview!F42=0),'Logic ID'!$E$12,
@@ -4881,8 +4929,8 @@
 IF(AND(K42="Geschenk",Overview!E42=3.4,Overview!F42=0),'Logic ID'!$E$14,
 IF(K42="Geschenk",'Logic ID'!$E$2,
 IF(AND(K42="Aktivierung",Overview!E42=4,Overview!F42=2),'Logic ID'!$E$3,
-IF(AND(K42="Aktivierung",Overview!E42=4,Overview!F42=1),'Logic ID'!$E$4,
-IF(AND(K42="Aktivierung",Overview!E42="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K42="Aktivierung",Overview!E42="1,2,3",Overview!F42=2),'Logic ID'!$E$5,
+IF(AND(K42="Aktivierung",Overview!E42="1,2,3,4"),'Logic ID'!$E$4,
 IF(K42="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K42="WVDV",Overview!E42=4,F42=2),'Logic ID'!$E$7,
 IF(AND(K42="WVDV",F42=1),'Logic ID'!$E$8,
@@ -4897,13 +4945,13 @@
         <v>613350</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E43" s="21">
         <v>0</v>
@@ -4923,10 +4971,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L43" s="18" t="str">
         <f>IF(AND(K43="Geschenk",Overview!E43=1,Overview!F43=0),'Logic ID'!$E$12,
@@ -4934,8 +4982,8 @@
 IF(AND(K43="Geschenk",Overview!E43=3.4,Overview!F43=0),'Logic ID'!$E$14,
 IF(K43="Geschenk",'Logic ID'!$E$2,
 IF(AND(K43="Aktivierung",Overview!E43=4,Overview!F43=2),'Logic ID'!$E$3,
-IF(AND(K43="Aktivierung",Overview!E43=4,Overview!F43=1),'Logic ID'!$E$4,
-IF(AND(K43="Aktivierung",Overview!E43="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K43="Aktivierung",Overview!E43="1,2,3",Overview!F43=2),'Logic ID'!$E$5,
+IF(AND(K43="Aktivierung",Overview!E43="1,2,3,4"),'Logic ID'!$E$4,
 IF(K43="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K43="WVDV",Overview!E43=4,F43=2),'Logic ID'!$E$7,
 IF(AND(K43="WVDV",F43=1),'Logic ID'!$E$8,
@@ -4950,13 +4998,13 @@
         <v>661300</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E44" s="21">
         <v>0</v>
@@ -4976,7 +5024,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>26</v>
@@ -4987,8 +5035,8 @@
 IF(AND(K44="Geschenk",Overview!E44=3.4,Overview!F44=0),'Logic ID'!$E$14,
 IF(K44="Geschenk",'Logic ID'!$E$2,
 IF(AND(K44="Aktivierung",Overview!E44=4,Overview!F44=2),'Logic ID'!$E$3,
-IF(AND(K44="Aktivierung",Overview!E44=4,Overview!F44=1),'Logic ID'!$E$4,
-IF(AND(K44="Aktivierung",Overview!E44="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K44="Aktivierung",Overview!E44="1,2,3",Overview!F44=2),'Logic ID'!$E$5,
+IF(AND(K44="Aktivierung",Overview!E44="1,2,3,4"),'Logic ID'!$E$4,
 IF(K44="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K44="WVDV",Overview!E44=4,F44=2),'Logic ID'!$E$7,
 IF(AND(K44="WVDV",F44=1),'Logic ID'!$E$8,
@@ -5003,13 +5051,13 @@
         <v>674300</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E45" s="21">
         <v>0</v>
@@ -5029,7 +5077,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>26</v>
@@ -5040,8 +5088,8 @@
 IF(AND(K45="Geschenk",Overview!E45=3.4,Overview!F45=0),'Logic ID'!$E$14,
 IF(K45="Geschenk",'Logic ID'!$E$2,
 IF(AND(K45="Aktivierung",Overview!E45=4,Overview!F45=2),'Logic ID'!$E$3,
-IF(AND(K45="Aktivierung",Overview!E45=4,Overview!F45=1),'Logic ID'!$E$4,
-IF(AND(K45="Aktivierung",Overview!E45="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K45="Aktivierung",Overview!E45="1,2,3",Overview!F45=2),'Logic ID'!$E$5,
+IF(AND(K45="Aktivierung",Overview!E45="1,2,3,4"),'Logic ID'!$E$4,
 IF(K45="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K45="WVDV",Overview!E45=4,F45=2),'Logic ID'!$E$7,
 IF(AND(K45="WVDV",F45=1),'Logic ID'!$E$8,
@@ -5056,16 +5104,16 @@
         <v>605300</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="E46" s="17">
-        <v>4</v>
+        <v>330</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="F46" s="17">
         <v>1</v>
@@ -5082,19 +5130,19 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L46" s="18" t="str">
+      <c r="L46" s="46" t="str">
         <f>IF(AND(K46="Geschenk",Overview!E46=1,Overview!F46=0),'Logic ID'!$E$12,
 IF(AND(K46="Geschenk",Overview!E46=1.2,Overview!F46=0),'Logic ID'!$E$13,
 IF(AND(K46="Geschenk",Overview!E46=3.4,Overview!F46=0),'Logic ID'!$E$14,
 IF(K46="Geschenk",'Logic ID'!$E$2,
 IF(AND(K46="Aktivierung",Overview!E46=4,Overview!F46=2),'Logic ID'!$E$3,
-IF(AND(K46="Aktivierung",Overview!E46=4,Overview!F46=1),'Logic ID'!$E$4,
-IF(AND(K46="Aktivierung",Overview!E46="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K46="Aktivierung",Overview!E46="1,2,3",Overview!F46=2),'Logic ID'!$E$5,
+IF(AND(K46="Aktivierung",Overview!E46="1,2,3,4"),'Logic ID'!$E$4,
 IF(K46="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K46="WVDV",Overview!E46=4,F46=2),'Logic ID'!$E$7,
 IF(AND(K46="WVDV",F46=1),'Logic ID'!$E$8,
@@ -5109,13 +5157,13 @@
         <v>605300</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E47" s="17">
         <v>4</v>
@@ -5135,7 +5183,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>17</v>
@@ -5146,8 +5194,8 @@
 IF(AND(K47="Geschenk",Overview!E47=3.4,Overview!F47=0),'Logic ID'!$E$14,
 IF(K47="Geschenk",'Logic ID'!$E$2,
 IF(AND(K47="Aktivierung",Overview!E47=4,Overview!F47=2),'Logic ID'!$E$3,
-IF(AND(K47="Aktivierung",Overview!E47=4,Overview!F47=1),'Logic ID'!$E$4,
-IF(AND(K47="Aktivierung",Overview!E47="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K47="Aktivierung",Overview!E47="1,2,3",Overview!F47=2),'Logic ID'!$E$5,
+IF(AND(K47="Aktivierung",Overview!E47="1,2,3,4"),'Logic ID'!$E$4,
 IF(K47="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K47="WVDV",Overview!E47=4,F47=2),'Logic ID'!$E$7,
 IF(AND(K47="WVDV",F47=1),'Logic ID'!$E$8,
@@ -5162,19 +5210,19 @@
         <v>605300</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="17">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F48" s="48">
+        <v>2</v>
       </c>
       <c r="G48" s="13">
         <v>37</v>
@@ -5188,7 +5236,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>17</v>
@@ -5199,8 +5247,8 @@
 IF(AND(K48="Geschenk",Overview!E48=3.4,Overview!F48=0),'Logic ID'!$E$14,
 IF(K48="Geschenk",'Logic ID'!$E$2,
 IF(AND(K48="Aktivierung",Overview!E48=4,Overview!F48=2),'Logic ID'!$E$3,
-IF(AND(K48="Aktivierung",Overview!E48=4,Overview!F48=1),'Logic ID'!$E$4,
-IF(AND(K48="Aktivierung",Overview!E48="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K48="Aktivierung",Overview!E48="1,2,3",Overview!F48=2),'Logic ID'!$E$5,
+IF(AND(K48="Aktivierung",Overview!E48="1,2,3,4"),'Logic ID'!$E$4,
 IF(K48="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K48="WVDV",Overview!E48=4,F48=2),'Logic ID'!$E$7,
 IF(AND(K48="WVDV",F48=1),'Logic ID'!$E$8,
@@ -5215,13 +5263,13 @@
         <v>673901</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E49" s="21">
         <v>0</v>
@@ -5241,7 +5289,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>26</v>
@@ -5252,8 +5300,8 @@
 IF(AND(K49="Geschenk",Overview!E49=3.4,Overview!F49=0),'Logic ID'!$E$14,
 IF(K49="Geschenk",'Logic ID'!$E$2,
 IF(AND(K49="Aktivierung",Overview!E49=4,Overview!F49=2),'Logic ID'!$E$3,
-IF(AND(K49="Aktivierung",Overview!E49=4,Overview!F49=1),'Logic ID'!$E$4,
-IF(AND(K49="Aktivierung",Overview!E49="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K49="Aktivierung",Overview!E49="1,2,3",Overview!F49=2),'Logic ID'!$E$5,
+IF(AND(K49="Aktivierung",Overview!E49="1,2,3,4"),'Logic ID'!$E$4,
 IF(K49="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K49="WVDV",Overview!E49=4,F49=2),'Logic ID'!$E$7,
 IF(AND(K49="WVDV",F49=1),'Logic ID'!$E$8,
@@ -5268,13 +5316,13 @@
         <v>673902</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E50" s="17">
         <v>4</v>
@@ -5294,7 +5342,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>46</v>
@@ -5305,8 +5353,8 @@
 IF(AND(K50="Geschenk",Overview!E50=3.4,Overview!F50=0),'Logic ID'!$E$14,
 IF(K50="Geschenk",'Logic ID'!$E$2,
 IF(AND(K50="Aktivierung",Overview!E50=4,Overview!F50=2),'Logic ID'!$E$3,
-IF(AND(K50="Aktivierung",Overview!E50=4,Overview!F50=1),'Logic ID'!$E$4,
-IF(AND(K50="Aktivierung",Overview!E50="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K50="Aktivierung",Overview!E50="1,2,3",Overview!F50=2),'Logic ID'!$E$5,
+IF(AND(K50="Aktivierung",Overview!E50="1,2,3,4"),'Logic ID'!$E$4,
 IF(K50="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K50="WVDV",Overview!E50=4,F50=2),'Logic ID'!$E$7,
 IF(AND(K50="WVDV",F50=1),'Logic ID'!$E$8,
@@ -5321,13 +5369,13 @@
         <v>673902</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E51" s="17">
         <v>0</v>
@@ -5347,7 +5395,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>46</v>
@@ -5358,8 +5406,8 @@
 IF(AND(K51="Geschenk",Overview!E51=3.4,Overview!F51=0),'Logic ID'!$E$14,
 IF(K51="Geschenk",'Logic ID'!$E$2,
 IF(AND(K51="Aktivierung",Overview!E51=4,Overview!F51=2),'Logic ID'!$E$3,
-IF(AND(K51="Aktivierung",Overview!E51=4,Overview!F51=1),'Logic ID'!$E$4,
-IF(AND(K51="Aktivierung",Overview!E51="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K51="Aktivierung",Overview!E51="1,2,3",Overview!F51=2),'Logic ID'!$E$5,
+IF(AND(K51="Aktivierung",Overview!E51="1,2,3,4"),'Logic ID'!$E$4,
 IF(K51="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K51="WVDV",Overview!E51=4,F51=2),'Logic ID'!$E$7,
 IF(AND(K51="WVDV",F51=1),'Logic ID'!$E$8,
@@ -5374,13 +5422,13 @@
         <v>613300</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E52" s="21">
         <v>0</v>
@@ -5400,7 +5448,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>26</v>
@@ -5411,8 +5459,8 @@
 IF(AND(K52="Geschenk",Overview!E52=3.4,Overview!F52=0),'Logic ID'!$E$14,
 IF(K52="Geschenk",'Logic ID'!$E$2,
 IF(AND(K52="Aktivierung",Overview!E52=4,Overview!F52=2),'Logic ID'!$E$3,
-IF(AND(K52="Aktivierung",Overview!E52=4,Overview!F52=1),'Logic ID'!$E$4,
-IF(AND(K52="Aktivierung",Overview!E52="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K52="Aktivierung",Overview!E52="1,2,3",Overview!F52=2),'Logic ID'!$E$5,
+IF(AND(K52="Aktivierung",Overview!E52="1,2,3,4"),'Logic ID'!$E$4,
 IF(K52="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K52="WVDV",Overview!E52=4,F52=2),'Logic ID'!$E$7,
 IF(AND(K52="WVDV",F52=1),'Logic ID'!$E$8,
@@ -5427,13 +5475,13 @@
         <v>691000</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E53" s="21">
         <v>0</v>
@@ -5453,10 +5501,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L53" s="18" t="str">
         <f>IF(AND(K53="Geschenk",Overview!E53=1,Overview!F53=0),'Logic ID'!$E$12,
@@ -5464,8 +5512,8 @@
 IF(AND(K53="Geschenk",Overview!E53=3.4,Overview!F53=0),'Logic ID'!$E$14,
 IF(K53="Geschenk",'Logic ID'!$E$2,
 IF(AND(K53="Aktivierung",Overview!E53=4,Overview!F53=2),'Logic ID'!$E$3,
-IF(AND(K53="Aktivierung",Overview!E53=4,Overview!F53=1),'Logic ID'!$E$4,
-IF(AND(K53="Aktivierung",Overview!E53="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K53="Aktivierung",Overview!E53="1,2,3",Overview!F53=2),'Logic ID'!$E$5,
+IF(AND(K53="Aktivierung",Overview!E53="1,2,3,4"),'Logic ID'!$E$4,
 IF(K53="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K53="WVDV",Overview!E53=4,F53=2),'Logic ID'!$E$7,
 IF(AND(K53="WVDV",F53=1),'Logic ID'!$E$8,
@@ -5480,13 +5528,13 @@
         <v>691100</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E54" s="21">
         <v>0</v>
@@ -5506,10 +5554,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L54" s="18" t="str">
         <f>IF(AND(K54="Geschenk",Overview!E54=1,Overview!F54=0),'Logic ID'!$E$12,
@@ -5517,8 +5565,8 @@
 IF(AND(K54="Geschenk",Overview!E54=3.4,Overview!F54=0),'Logic ID'!$E$14,
 IF(K54="Geschenk",'Logic ID'!$E$2,
 IF(AND(K54="Aktivierung",Overview!E54=4,Overview!F54=2),'Logic ID'!$E$3,
-IF(AND(K54="Aktivierung",Overview!E54=4,Overview!F54=1),'Logic ID'!$E$4,
-IF(AND(K54="Aktivierung",Overview!E54="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K54="Aktivierung",Overview!E54="1,2,3",Overview!F54=2),'Logic ID'!$E$5,
+IF(AND(K54="Aktivierung",Overview!E54="1,2,3,4"),'Logic ID'!$E$4,
 IF(K54="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K54="WVDV",Overview!E54=4,F54=2),'Logic ID'!$E$7,
 IF(AND(K54="WVDV",F54=1),'Logic ID'!$E$8,
@@ -5533,13 +5581,13 @@
         <v>691200</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E55" s="21">
         <v>0</v>
@@ -5559,10 +5607,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L55" s="18" t="str">
         <f>IF(AND(K55="Geschenk",Overview!E55=1,Overview!F55=0),'Logic ID'!$E$12,
@@ -5570,8 +5618,8 @@
 IF(AND(K55="Geschenk",Overview!E55=3.4,Overview!F55=0),'Logic ID'!$E$14,
 IF(K55="Geschenk",'Logic ID'!$E$2,
 IF(AND(K55="Aktivierung",Overview!E55=4,Overview!F55=2),'Logic ID'!$E$3,
-IF(AND(K55="Aktivierung",Overview!E55=4,Overview!F55=1),'Logic ID'!$E$4,
-IF(AND(K55="Aktivierung",Overview!E55="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K55="Aktivierung",Overview!E55="1,2,3",Overview!F55=2),'Logic ID'!$E$5,
+IF(AND(K55="Aktivierung",Overview!E55="1,2,3,4"),'Logic ID'!$E$4,
 IF(K55="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K55="WVDV",Overview!E55=4,F55=2),'Logic ID'!$E$7,
 IF(AND(K55="WVDV",F55=1),'Logic ID'!$E$8,
@@ -5586,13 +5634,13 @@
         <v>691210</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E56" s="21">
         <v>0</v>
@@ -5612,10 +5660,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L56" s="18" t="str">
         <f>IF(AND(K56="Geschenk",Overview!E56=1,Overview!F56=0),'Logic ID'!$E$12,
@@ -5623,8 +5671,8 @@
 IF(AND(K56="Geschenk",Overview!E56=3.4,Overview!F56=0),'Logic ID'!$E$14,
 IF(K56="Geschenk",'Logic ID'!$E$2,
 IF(AND(K56="Aktivierung",Overview!E56=4,Overview!F56=2),'Logic ID'!$E$3,
-IF(AND(K56="Aktivierung",Overview!E56=4,Overview!F56=1),'Logic ID'!$E$4,
-IF(AND(K56="Aktivierung",Overview!E56="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K56="Aktivierung",Overview!E56="1,2,3",Overview!F56=2),'Logic ID'!$E$5,
+IF(AND(K56="Aktivierung",Overview!E56="1,2,3,4"),'Logic ID'!$E$4,
 IF(K56="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K56="WVDV",Overview!E56=4,F56=2),'Logic ID'!$E$7,
 IF(AND(K56="WVDV",F56=1),'Logic ID'!$E$8,
@@ -5639,13 +5687,13 @@
         <v>661711</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E57" s="21">
         <v>0</v>
@@ -5665,7 +5713,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>26</v>
@@ -5676,8 +5724,8 @@
 IF(AND(K57="Geschenk",Overview!E57=3.4,Overview!F57=0),'Logic ID'!$E$14,
 IF(K57="Geschenk",'Logic ID'!$E$2,
 IF(AND(K57="Aktivierung",Overview!E57=4,Overview!F57=2),'Logic ID'!$E$3,
-IF(AND(K57="Aktivierung",Overview!E57=4,Overview!F57=1),'Logic ID'!$E$4,
-IF(AND(K57="Aktivierung",Overview!E57="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K57="Aktivierung",Overview!E57="1,2,3",Overview!F57=2),'Logic ID'!$E$5,
+IF(AND(K57="Aktivierung",Overview!E57="1,2,3,4"),'Logic ID'!$E$4,
 IF(K57="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K57="WVDV",Overview!E57=4,F57=2),'Logic ID'!$E$7,
 IF(AND(K57="WVDV",F57=1),'Logic ID'!$E$8,
@@ -5692,13 +5740,13 @@
         <v>673300</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E58" s="21">
         <v>0</v>
@@ -5718,7 +5766,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K58" s="12" t="s">
         <v>26</v>
@@ -5729,8 +5777,8 @@
 IF(AND(K58="Geschenk",Overview!E58=3.4,Overview!F58=0),'Logic ID'!$E$14,
 IF(K58="Geschenk",'Logic ID'!$E$2,
 IF(AND(K58="Aktivierung",Overview!E58=4,Overview!F58=2),'Logic ID'!$E$3,
-IF(AND(K58="Aktivierung",Overview!E58=4,Overview!F58=1),'Logic ID'!$E$4,
-IF(AND(K58="Aktivierung",Overview!E58="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K58="Aktivierung",Overview!E58="1,2,3",Overview!F58=2),'Logic ID'!$E$5,
+IF(AND(K58="Aktivierung",Overview!E58="1,2,3,4"),'Logic ID'!$E$4,
 IF(K58="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K58="WVDV",Overview!E58=4,F58=2),'Logic ID'!$E$7,
 IF(AND(K58="WVDV",F58=1),'Logic ID'!$E$8,
@@ -5745,13 +5793,13 @@
         <v>673500</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E59" s="17">
         <v>4</v>
@@ -5771,7 +5819,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>46</v>
@@ -5782,8 +5830,8 @@
 IF(AND(K59="Geschenk",Overview!E59=3.4,Overview!F59=0),'Logic ID'!$E$14,
 IF(K59="Geschenk",'Logic ID'!$E$2,
 IF(AND(K59="Aktivierung",Overview!E59=4,Overview!F59=2),'Logic ID'!$E$3,
-IF(AND(K59="Aktivierung",Overview!E59=4,Overview!F59=1),'Logic ID'!$E$4,
-IF(AND(K59="Aktivierung",Overview!E59="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K59="Aktivierung",Overview!E59="1,2,3",Overview!F59=2),'Logic ID'!$E$5,
+IF(AND(K59="Aktivierung",Overview!E59="1,2,3,4"),'Logic ID'!$E$4,
 IF(K59="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K59="WVDV",Overview!E59=4,F59=2),'Logic ID'!$E$7,
 IF(AND(K59="WVDV",F59=1),'Logic ID'!$E$8,
@@ -5798,13 +5846,13 @@
         <v>673500</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E60" s="17">
         <v>0</v>
@@ -5824,7 +5872,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>46</v>
@@ -5835,8 +5883,8 @@
 IF(AND(K60="Geschenk",Overview!E60=3.4,Overview!F60=0),'Logic ID'!$E$14,
 IF(K60="Geschenk",'Logic ID'!$E$2,
 IF(AND(K60="Aktivierung",Overview!E60=4,Overview!F60=2),'Logic ID'!$E$3,
-IF(AND(K60="Aktivierung",Overview!E60=4,Overview!F60=1),'Logic ID'!$E$4,
-IF(AND(K60="Aktivierung",Overview!E60="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K60="Aktivierung",Overview!E60="1,2,3",Overview!F60=2),'Logic ID'!$E$5,
+IF(AND(K60="Aktivierung",Overview!E60="1,2,3,4"),'Logic ID'!$E$4,
 IF(K60="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K60="WVDV",Overview!E60=4,F60=2),'Logic ID'!$E$7,
 IF(AND(K60="WVDV",F60=1),'Logic ID'!$E$8,
@@ -5851,13 +5899,13 @@
         <v>673501</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E61" s="21">
         <v>0</v>
@@ -5877,7 +5925,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>26</v>
@@ -5888,8 +5936,8 @@
 IF(AND(K61="Geschenk",Overview!E61=3.4,Overview!F61=0),'Logic ID'!$E$14,
 IF(K61="Geschenk",'Logic ID'!$E$2,
 IF(AND(K61="Aktivierung",Overview!E61=4,Overview!F61=2),'Logic ID'!$E$3,
-IF(AND(K61="Aktivierung",Overview!E61=4,Overview!F61=1),'Logic ID'!$E$4,
-IF(AND(K61="Aktivierung",Overview!E61="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K61="Aktivierung",Overview!E61="1,2,3",Overview!F61=2),'Logic ID'!$E$5,
+IF(AND(K61="Aktivierung",Overview!E61="1,2,3,4"),'Logic ID'!$E$4,
 IF(K61="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K61="WVDV",Overview!E61=4,F61=2),'Logic ID'!$E$7,
 IF(AND(K61="WVDV",F61=1),'Logic ID'!$E$8,
@@ -5904,13 +5952,13 @@
         <v>661000</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E62" s="21">
         <v>0</v>
@@ -5930,7 +5978,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>26</v>
@@ -5941,8 +5989,8 @@
 IF(AND(K62="Geschenk",Overview!E62=3.4,Overview!F62=0),'Logic ID'!$E$14,
 IF(K62="Geschenk",'Logic ID'!$E$2,
 IF(AND(K62="Aktivierung",Overview!E62=4,Overview!F62=2),'Logic ID'!$E$3,
-IF(AND(K62="Aktivierung",Overview!E62=4,Overview!F62=1),'Logic ID'!$E$4,
-IF(AND(K62="Aktivierung",Overview!E62="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K62="Aktivierung",Overview!E62="1,2,3",Overview!F62=2),'Logic ID'!$E$5,
+IF(AND(K62="Aktivierung",Overview!E62="1,2,3,4"),'Logic ID'!$E$4,
 IF(K62="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K62="WVDV",Overview!E62=4,F62=2),'Logic ID'!$E$7,
 IF(AND(K62="WVDV",F62=1),'Logic ID'!$E$8,
@@ -5957,13 +6005,13 @@
         <v>661400</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E63" s="21">
         <v>0</v>
@@ -5983,7 +6031,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>26</v>
@@ -5994,8 +6042,8 @@
 IF(AND(K63="Geschenk",Overview!E63=3.4,Overview!F63=0),'Logic ID'!$E$14,
 IF(K63="Geschenk",'Logic ID'!$E$2,
 IF(AND(K63="Aktivierung",Overview!E63=4,Overview!F63=2),'Logic ID'!$E$3,
-IF(AND(K63="Aktivierung",Overview!E63=4,Overview!F63=1),'Logic ID'!$E$4,
-IF(AND(K63="Aktivierung",Overview!E63="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K63="Aktivierung",Overview!E63="1,2,3",Overview!F63=2),'Logic ID'!$E$5,
+IF(AND(K63="Aktivierung",Overview!E63="1,2,3,4"),'Logic ID'!$E$4,
 IF(K63="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K63="WVDV",Overview!E63=4,F63=2),'Logic ID'!$E$7,
 IF(AND(K63="WVDV",F63=1),'Logic ID'!$E$8,
@@ -6010,13 +6058,13 @@
         <v>661500</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E64" s="21">
         <v>0</v>
@@ -6036,7 +6084,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K64" s="12" t="s">
         <v>26</v>
@@ -6047,8 +6095,8 @@
 IF(AND(K64="Geschenk",Overview!E64=3.4,Overview!F64=0),'Logic ID'!$E$14,
 IF(K64="Geschenk",'Logic ID'!$E$2,
 IF(AND(K64="Aktivierung",Overview!E64=4,Overview!F64=2),'Logic ID'!$E$3,
-IF(AND(K64="Aktivierung",Overview!E64=4,Overview!F64=1),'Logic ID'!$E$4,
-IF(AND(K64="Aktivierung",Overview!E64="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K64="Aktivierung",Overview!E64="1,2,3",Overview!F64=2),'Logic ID'!$E$5,
+IF(AND(K64="Aktivierung",Overview!E64="1,2,3,4"),'Logic ID'!$E$4,
 IF(K64="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K64="WVDV",Overview!E64=4,F64=2),'Logic ID'!$E$7,
 IF(AND(K64="WVDV",F64=1),'Logic ID'!$E$8,
@@ -6063,13 +6111,13 @@
         <v>671600</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E65" s="21">
         <v>0</v>
@@ -6089,7 +6137,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>26</v>
@@ -6100,8 +6148,8 @@
 IF(AND(K65="Geschenk",Overview!E65=3.4,Overview!F65=0),'Logic ID'!$E$14,
 IF(K65="Geschenk",'Logic ID'!$E$2,
 IF(AND(K65="Aktivierung",Overview!E65=4,Overview!F65=2),'Logic ID'!$E$3,
-IF(AND(K65="Aktivierung",Overview!E65=4,Overview!F65=1),'Logic ID'!$E$4,
-IF(AND(K65="Aktivierung",Overview!E65="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K65="Aktivierung",Overview!E65="1,2,3",Overview!F65=2),'Logic ID'!$E$5,
+IF(AND(K65="Aktivierung",Overview!E65="1,2,3,4"),'Logic ID'!$E$4,
 IF(K65="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K65="WVDV",Overview!E65=4,F65=2),'Logic ID'!$E$7,
 IF(AND(K65="WVDV",F65=1),'Logic ID'!$E$8,
@@ -6116,13 +6164,13 @@
         <v>673700</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E66" s="17">
         <v>4</v>
@@ -6142,7 +6190,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>46</v>
@@ -6153,8 +6201,8 @@
 IF(AND(K66="Geschenk",Overview!E66=3.4,Overview!F66=0),'Logic ID'!$E$14,
 IF(K66="Geschenk",'Logic ID'!$E$2,
 IF(AND(K66="Aktivierung",Overview!E66=4,Overview!F66=2),'Logic ID'!$E$3,
-IF(AND(K66="Aktivierung",Overview!E66=4,Overview!F66=1),'Logic ID'!$E$4,
-IF(AND(K66="Aktivierung",Overview!E66="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K66="Aktivierung",Overview!E66="1,2,3",Overview!F66=2),'Logic ID'!$E$5,
+IF(AND(K66="Aktivierung",Overview!E66="1,2,3,4"),'Logic ID'!$E$4,
 IF(K66="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K66="WVDV",Overview!E66=4,F66=2),'Logic ID'!$E$7,
 IF(AND(K66="WVDV",F66=1),'Logic ID'!$E$8,
@@ -6169,13 +6217,13 @@
         <v>673700</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E67" s="17">
         <v>0</v>
@@ -6195,7 +6243,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K67" s="12" t="s">
         <v>46</v>
@@ -6206,8 +6254,8 @@
 IF(AND(K67="Geschenk",Overview!E67=3.4,Overview!F67=0),'Logic ID'!$E$14,
 IF(K67="Geschenk",'Logic ID'!$E$2,
 IF(AND(K67="Aktivierung",Overview!E67=4,Overview!F67=2),'Logic ID'!$E$3,
-IF(AND(K67="Aktivierung",Overview!E67=4,Overview!F67=1),'Logic ID'!$E$4,
-IF(AND(K67="Aktivierung",Overview!E67="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K67="Aktivierung",Overview!E67="1,2,3",Overview!F67=2),'Logic ID'!$E$5,
+IF(AND(K67="Aktivierung",Overview!E67="1,2,3,4"),'Logic ID'!$E$4,
 IF(K67="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K67="WVDV",Overview!E67=4,F67=2),'Logic ID'!$E$7,
 IF(AND(K67="WVDV",F67=1),'Logic ID'!$E$8,
@@ -6222,13 +6270,13 @@
         <v>674100</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E68" s="17">
         <v>4</v>
@@ -6248,7 +6296,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>46</v>
@@ -6259,8 +6307,8 @@
 IF(AND(K68="Geschenk",Overview!E68=3.4,Overview!F68=0),'Logic ID'!$E$14,
 IF(K68="Geschenk",'Logic ID'!$E$2,
 IF(AND(K68="Aktivierung",Overview!E68=4,Overview!F68=2),'Logic ID'!$E$3,
-IF(AND(K68="Aktivierung",Overview!E68=4,Overview!F68=1),'Logic ID'!$E$4,
-IF(AND(K68="Aktivierung",Overview!E68="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K68="Aktivierung",Overview!E68="1,2,3",Overview!F68=2),'Logic ID'!$E$5,
+IF(AND(K68="Aktivierung",Overview!E68="1,2,3,4"),'Logic ID'!$E$4,
 IF(K68="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K68="WVDV",Overview!E68=4,F68=2),'Logic ID'!$E$7,
 IF(AND(K68="WVDV",F68=1),'Logic ID'!$E$8,
@@ -6275,13 +6323,13 @@
         <v>674100</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
@@ -6301,7 +6349,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>46</v>
@@ -6312,8 +6360,8 @@
 IF(AND(K69="Geschenk",Overview!E69=3.4,Overview!F69=0),'Logic ID'!$E$14,
 IF(K69="Geschenk",'Logic ID'!$E$2,
 IF(AND(K69="Aktivierung",Overview!E69=4,Overview!F69=2),'Logic ID'!$E$3,
-IF(AND(K69="Aktivierung",Overview!E69=4,Overview!F69=1),'Logic ID'!$E$4,
-IF(AND(K69="Aktivierung",Overview!E69="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K69="Aktivierung",Overview!E69="1,2,3",Overview!F69=2),'Logic ID'!$E$5,
+IF(AND(K69="Aktivierung",Overview!E69="1,2,3,4"),'Logic ID'!$E$4,
 IF(K69="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K69="WVDV",Overview!E69=4,F69=2),'Logic ID'!$E$7,
 IF(AND(K69="WVDV",F69=1),'Logic ID'!$E$8,
@@ -6328,13 +6376,13 @@
         <v>674600</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E70" s="21">
         <v>0</v>
@@ -6354,7 +6402,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>26</v>
@@ -6365,8 +6413,8 @@
 IF(AND(K70="Geschenk",Overview!E70=3.4,Overview!F70=0),'Logic ID'!$E$14,
 IF(K70="Geschenk",'Logic ID'!$E$2,
 IF(AND(K70="Aktivierung",Overview!E70=4,Overview!F70=2),'Logic ID'!$E$3,
-IF(AND(K70="Aktivierung",Overview!E70=4,Overview!F70=1),'Logic ID'!$E$4,
-IF(AND(K70="Aktivierung",Overview!E70="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K70="Aktivierung",Overview!E70="1,2,3",Overview!F70=2),'Logic ID'!$E$5,
+IF(AND(K70="Aktivierung",Overview!E70="1,2,3,4"),'Logic ID'!$E$4,
 IF(K70="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K70="WVDV",Overview!E70=4,F70=2),'Logic ID'!$E$7,
 IF(AND(K70="WVDV",F70=1),'Logic ID'!$E$8,
@@ -6376,50 +6424,50 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17.45" customHeight="1">
-      <c r="A71" s="13">
+    <row r="71" spans="1:12" s="39" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A71" s="34">
         <v>605200</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="E71" s="17">
-        <v>4</v>
-      </c>
-      <c r="F71" s="17">
+      <c r="B71" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="F71" s="37">
         <v>1</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="34">
         <v>56</v>
       </c>
-      <c r="H71" s="28" t="str">
+      <c r="H71" s="36" t="str">
         <f>VLOOKUP(L71,'Logic ID'!$E:$F,2,0)</f>
         <v>Account ID</v>
       </c>
-      <c r="I71" s="28" t="str">
+      <c r="I71" s="36" t="str">
         <f>VLOOKUP(L71,'Logic ID'!$E:$G,3,0)</f>
         <v>Amount, Usage, Duration</v>
       </c>
-      <c r="J71" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="K71" s="12" t="s">
+      <c r="J71" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="K71" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L71" s="18" t="str">
+      <c r="L71" s="38" t="str">
         <f>IF(AND(K71="Geschenk",Overview!E71=1,Overview!F71=0),'Logic ID'!$E$12,
 IF(AND(K71="Geschenk",Overview!E71=1.2,Overview!F71=0),'Logic ID'!$E$13,
 IF(AND(K71="Geschenk",Overview!E71=3.4,Overview!F71=0),'Logic ID'!$E$14,
 IF(K71="Geschenk",'Logic ID'!$E$2,
 IF(AND(K71="Aktivierung",Overview!E71=4,Overview!F71=2),'Logic ID'!$E$3,
-IF(AND(K71="Aktivierung",Overview!E71=4,Overview!F71=1),'Logic ID'!$E$4,
-IF(AND(K71="Aktivierung",Overview!E71="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K71="Aktivierung",Overview!E71="1,2,3",Overview!F71=2),'Logic ID'!$E$5,
+IF(AND(K71="Aktivierung",Overview!E71="1,2,3,4"),'Logic ID'!$E$4,
 IF(K71="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K71="WVDV",Overview!E71=4,F71=2),'Logic ID'!$E$7,
 IF(AND(K71="WVDV",F71=1),'Logic ID'!$E$8,
@@ -6429,50 +6477,50 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17.45" customHeight="1">
-      <c r="A72" s="13">
+    <row r="72" spans="1:12" s="39" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A72" s="34">
         <v>605200</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="E72" s="17">
+      <c r="B72" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="E72" s="37">
         <v>4</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="37">
         <v>2</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="34">
         <v>56</v>
       </c>
-      <c r="H72" s="28" t="str">
+      <c r="H72" s="36" t="str">
         <f>VLOOKUP(L72,'Logic ID'!$E:$F,2,0)</f>
         <v>Dummy</v>
       </c>
-      <c r="I72" s="28" t="str">
+      <c r="I72" s="36" t="str">
         <f>VLOOKUP(L72,'Logic ID'!$E:$G,3,0)</f>
         <v>Amount, Usage, Duration</v>
       </c>
-      <c r="J72" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="K72" s="12" t="s">
+      <c r="J72" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="K72" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L72" s="18" t="str">
+      <c r="L72" s="38" t="str">
         <f>IF(AND(K72="Geschenk",Overview!E72=1,Overview!F72=0),'Logic ID'!$E$12,
 IF(AND(K72="Geschenk",Overview!E72=1.2,Overview!F72=0),'Logic ID'!$E$13,
 IF(AND(K72="Geschenk",Overview!E72=3.4,Overview!F72=0),'Logic ID'!$E$14,
 IF(K72="Geschenk",'Logic ID'!$E$2,
 IF(AND(K72="Aktivierung",Overview!E72=4,Overview!F72=2),'Logic ID'!$E$3,
-IF(AND(K72="Aktivierung",Overview!E72=4,Overview!F72=1),'Logic ID'!$E$4,
-IF(AND(K72="Aktivierung",Overview!E72="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K72="Aktivierung",Overview!E72="1,2,3",Overview!F72=2),'Logic ID'!$E$5,
+IF(AND(K72="Aktivierung",Overview!E72="1,2,3,4"),'Logic ID'!$E$4,
 IF(K72="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K72="WVDV",Overview!E72=4,F72=2),'Logic ID'!$E$7,
 IF(AND(K72="WVDV",F72=1),'Logic ID'!$E$8,
@@ -6482,50 +6530,50 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17.45" customHeight="1">
-      <c r="A73" s="13">
+    <row r="73" spans="1:12" s="39" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A73" s="34">
         <v>605200</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F73" s="17">
-        <v>0</v>
-      </c>
-      <c r="G73" s="13">
+      <c r="B73" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" s="48">
+        <v>2</v>
+      </c>
+      <c r="G73" s="34">
         <v>56</v>
       </c>
-      <c r="H73" s="28" t="str">
+      <c r="H73" s="36" t="str">
         <f>VLOOKUP(L73,'Logic ID'!$E:$F,2,0)</f>
         <v>Entscheidungsbaum (Sachgesamtheit)</v>
       </c>
-      <c r="I73" s="28" t="str">
+      <c r="I73" s="36" t="str">
         <f>VLOOKUP(L73,'Logic ID'!$E:$G,3,0)</f>
         <v>Amount, Usage, Duration</v>
       </c>
-      <c r="J73" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="K73" s="12" t="s">
+      <c r="J73" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="K73" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="18" t="str">
+      <c r="L73" s="38" t="str">
         <f>IF(AND(K73="Geschenk",Overview!E73=1,Overview!F73=0),'Logic ID'!$E$12,
 IF(AND(K73="Geschenk",Overview!E73=1.2,Overview!F73=0),'Logic ID'!$E$13,
 IF(AND(K73="Geschenk",Overview!E73=3.4,Overview!F73=0),'Logic ID'!$E$14,
 IF(K73="Geschenk",'Logic ID'!$E$2,
 IF(AND(K73="Aktivierung",Overview!E73=4,Overview!F73=2),'Logic ID'!$E$3,
-IF(AND(K73="Aktivierung",Overview!E73=4,Overview!F73=1),'Logic ID'!$E$4,
-IF(AND(K73="Aktivierung",Overview!E73="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K73="Aktivierung",Overview!E73="1,2,3",Overview!F73=2),'Logic ID'!$E$5,
+IF(AND(K73="Aktivierung",Overview!E73="1,2,3,4"),'Logic ID'!$E$4,
 IF(K73="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K73="WVDV",Overview!E73=4,F73=2),'Logic ID'!$E$7,
 IF(AND(K73="WVDV",F73=1),'Logic ID'!$E$8,
@@ -6540,13 +6588,13 @@
         <v>681200</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E74" s="17">
         <v>4</v>
@@ -6566,7 +6614,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K74" s="12" t="s">
         <v>46</v>
@@ -6577,8 +6625,8 @@
 IF(AND(K74="Geschenk",Overview!E74=3.4,Overview!F74=0),'Logic ID'!$E$14,
 IF(K74="Geschenk",'Logic ID'!$E$2,
 IF(AND(K74="Aktivierung",Overview!E74=4,Overview!F74=2),'Logic ID'!$E$3,
-IF(AND(K74="Aktivierung",Overview!E74=4,Overview!F74=1),'Logic ID'!$E$4,
-IF(AND(K74="Aktivierung",Overview!E74="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K74="Aktivierung",Overview!E74="1,2,3",Overview!F74=2),'Logic ID'!$E$5,
+IF(AND(K74="Aktivierung",Overview!E74="1,2,3,4"),'Logic ID'!$E$4,
 IF(K74="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K74="WVDV",Overview!E74=4,F74=2),'Logic ID'!$E$7,
 IF(AND(K74="WVDV",F74=1),'Logic ID'!$E$8,
@@ -6593,13 +6641,13 @@
         <v>681200</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E75" s="17">
         <v>0</v>
@@ -6619,7 +6667,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>46</v>
@@ -6630,8 +6678,8 @@
 IF(AND(K75="Geschenk",Overview!E75=3.4,Overview!F75=0),'Logic ID'!$E$14,
 IF(K75="Geschenk",'Logic ID'!$E$2,
 IF(AND(K75="Aktivierung",Overview!E75=4,Overview!F75=2),'Logic ID'!$E$3,
-IF(AND(K75="Aktivierung",Overview!E75=4,Overview!F75=1),'Logic ID'!$E$4,
-IF(AND(K75="Aktivierung",Overview!E75="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K75="Aktivierung",Overview!E75="1,2,3",Overview!F75=2),'Logic ID'!$E$5,
+IF(AND(K75="Aktivierung",Overview!E75="1,2,3,4"),'Logic ID'!$E$4,
 IF(K75="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K75="WVDV",Overview!E75=4,F75=2),'Logic ID'!$E$7,
 IF(AND(K75="WVDV",F75=1),'Logic ID'!$E$8,
@@ -6646,16 +6694,16 @@
         <v>603400</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="E76" s="17">
-        <v>4</v>
+        <v>362</v>
+      </c>
+      <c r="E76" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="F76" s="17">
         <v>1</v>
@@ -6672,19 +6720,19 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L76" s="18" t="str">
+      <c r="L76" s="46" t="str">
         <f>IF(AND(K76="Geschenk",Overview!E76=1,Overview!F76=0),'Logic ID'!$E$12,
 IF(AND(K76="Geschenk",Overview!E76=1.2,Overview!F76=0),'Logic ID'!$E$13,
 IF(AND(K76="Geschenk",Overview!E76=3.4,Overview!F76=0),'Logic ID'!$E$14,
 IF(K76="Geschenk",'Logic ID'!$E$2,
 IF(AND(K76="Aktivierung",Overview!E76=4,Overview!F76=2),'Logic ID'!$E$3,
-IF(AND(K76="Aktivierung",Overview!E76=4,Overview!F76=1),'Logic ID'!$E$4,
-IF(AND(K76="Aktivierung",Overview!E76="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K76="Aktivierung",Overview!E76="1,2,3",Overview!F76=2),'Logic ID'!$E$5,
+IF(AND(K76="Aktivierung",Overview!E76="1,2,3,4"),'Logic ID'!$E$4,
 IF(K76="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K76="WVDV",Overview!E76=4,F76=2),'Logic ID'!$E$7,
 IF(AND(K76="WVDV",F76=1),'Logic ID'!$E$8,
@@ -6699,13 +6747,13 @@
         <v>603400</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E77" s="17">
         <v>4</v>
@@ -6725,7 +6773,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>17</v>
@@ -6736,8 +6784,8 @@
 IF(AND(K77="Geschenk",Overview!E77=3.4,Overview!F77=0),'Logic ID'!$E$14,
 IF(K77="Geschenk",'Logic ID'!$E$2,
 IF(AND(K77="Aktivierung",Overview!E77=4,Overview!F77=2),'Logic ID'!$E$3,
-IF(AND(K77="Aktivierung",Overview!E77=4,Overview!F77=1),'Logic ID'!$E$4,
-IF(AND(K77="Aktivierung",Overview!E77="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K77="Aktivierung",Overview!E77="1,2,3",Overview!F77=2),'Logic ID'!$E$5,
+IF(AND(K77="Aktivierung",Overview!E77="1,2,3,4"),'Logic ID'!$E$4,
 IF(K77="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K77="WVDV",Overview!E77=4,F77=2),'Logic ID'!$E$7,
 IF(AND(K77="WVDV",F77=1),'Logic ID'!$E$8,
@@ -6752,19 +6800,19 @@
         <v>603400</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F78" s="17">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F78" s="48">
+        <v>2</v>
       </c>
       <c r="G78" s="13">
         <v>58</v>
@@ -6778,7 +6826,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K78" s="12" t="s">
         <v>17</v>
@@ -6789,8 +6837,8 @@
 IF(AND(K78="Geschenk",Overview!E78=3.4,Overview!F78=0),'Logic ID'!$E$14,
 IF(K78="Geschenk",'Logic ID'!$E$2,
 IF(AND(K78="Aktivierung",Overview!E78=4,Overview!F78=2),'Logic ID'!$E$3,
-IF(AND(K78="Aktivierung",Overview!E78=4,Overview!F78=1),'Logic ID'!$E$4,
-IF(AND(K78="Aktivierung",Overview!E78="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K78="Aktivierung",Overview!E78="1,2,3",Overview!F78=2),'Logic ID'!$E$5,
+IF(AND(K78="Aktivierung",Overview!E78="1,2,3,4"),'Logic ID'!$E$4,
 IF(K78="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K78="WVDV",Overview!E78=4,F78=2),'Logic ID'!$E$7,
 IF(AND(K78="WVDV",F78=1),'Logic ID'!$E$8,
@@ -6805,16 +6853,16 @@
         <v>605210</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="E79" s="17">
-        <v>4</v>
+        <v>345</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="F79" s="17">
         <v>1</v>
@@ -6831,19 +6879,19 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L79" s="18" t="str">
+      <c r="L79" s="46" t="str">
         <f>IF(AND(K79="Geschenk",Overview!E79=1,Overview!F79=0),'Logic ID'!$E$12,
 IF(AND(K79="Geschenk",Overview!E79=1.2,Overview!F79=0),'Logic ID'!$E$13,
 IF(AND(K79="Geschenk",Overview!E79=3.4,Overview!F79=0),'Logic ID'!$E$14,
 IF(K79="Geschenk",'Logic ID'!$E$2,
 IF(AND(K79="Aktivierung",Overview!E79=4,Overview!F79=2),'Logic ID'!$E$3,
-IF(AND(K79="Aktivierung",Overview!E79=4,Overview!F79=1),'Logic ID'!$E$4,
-IF(AND(K79="Aktivierung",Overview!E79="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K79="Aktivierung",Overview!E79="1,2,3",Overview!F79=2),'Logic ID'!$E$5,
+IF(AND(K79="Aktivierung",Overview!E79="1,2,3,4"),'Logic ID'!$E$4,
 IF(K79="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K79="WVDV",Overview!E79=4,F79=2),'Logic ID'!$E$7,
 IF(AND(K79="WVDV",F79=1),'Logic ID'!$E$8,
@@ -6858,13 +6906,13 @@
         <v>605210</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E80" s="17">
         <v>4</v>
@@ -6884,7 +6932,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>17</v>
@@ -6895,8 +6943,8 @@
 IF(AND(K80="Geschenk",Overview!E80=3.4,Overview!F80=0),'Logic ID'!$E$14,
 IF(K80="Geschenk",'Logic ID'!$E$2,
 IF(AND(K80="Aktivierung",Overview!E80=4,Overview!F80=2),'Logic ID'!$E$3,
-IF(AND(K80="Aktivierung",Overview!E80=4,Overview!F80=1),'Logic ID'!$E$4,
-IF(AND(K80="Aktivierung",Overview!E80="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K80="Aktivierung",Overview!E80="1,2,3",Overview!F80=2),'Logic ID'!$E$5,
+IF(AND(K80="Aktivierung",Overview!E80="1,2,3,4"),'Logic ID'!$E$4,
 IF(K80="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K80="WVDV",Overview!E80=4,F80=2),'Logic ID'!$E$7,
 IF(AND(K80="WVDV",F80=1),'Logic ID'!$E$8,
@@ -6911,19 +6959,19 @@
         <v>605210</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F81" s="17">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F81" s="48">
+        <v>2</v>
       </c>
       <c r="G81" s="13">
         <v>59</v>
@@ -6937,7 +6985,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>17</v>
@@ -6948,8 +6996,8 @@
 IF(AND(K81="Geschenk",Overview!E81=3.4,Overview!F81=0),'Logic ID'!$E$14,
 IF(K81="Geschenk",'Logic ID'!$E$2,
 IF(AND(K81="Aktivierung",Overview!E81=4,Overview!F81=2),'Logic ID'!$E$3,
-IF(AND(K81="Aktivierung",Overview!E81=4,Overview!F81=1),'Logic ID'!$E$4,
-IF(AND(K81="Aktivierung",Overview!E81="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K81="Aktivierung",Overview!E81="1,2,3",Overview!F81=2),'Logic ID'!$E$5,
+IF(AND(K81="Aktivierung",Overview!E81="1,2,3,4"),'Logic ID'!$E$4,
 IF(K81="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K81="WVDV",Overview!E81=4,F81=2),'Logic ID'!$E$7,
 IF(AND(K81="WVDV",F81=1),'Logic ID'!$E$8,
@@ -6964,13 +7012,13 @@
         <v>673200</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E82" s="21">
         <v>0</v>
@@ -6990,7 +7038,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>26</v>
@@ -7001,8 +7049,8 @@
 IF(AND(K82="Geschenk",Overview!E82=3.4,Overview!F82=0),'Logic ID'!$E$14,
 IF(K82="Geschenk",'Logic ID'!$E$2,
 IF(AND(K82="Aktivierung",Overview!E82=4,Overview!F82=2),'Logic ID'!$E$3,
-IF(AND(K82="Aktivierung",Overview!E82=4,Overview!F82=1),'Logic ID'!$E$4,
-IF(AND(K82="Aktivierung",Overview!E82="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K82="Aktivierung",Overview!E82="1,2,3",Overview!F82=2),'Logic ID'!$E$5,
+IF(AND(K82="Aktivierung",Overview!E82="1,2,3,4"),'Logic ID'!$E$4,
 IF(K82="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K82="WVDV",Overview!E82=4,F82=2),'Logic ID'!$E$7,
 IF(AND(K82="WVDV",F82=1),'Logic ID'!$E$8,
@@ -7017,13 +7065,13 @@
         <v>673400</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E83" s="21">
         <v>0</v>
@@ -7043,7 +7091,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>26</v>
@@ -7054,8 +7102,8 @@
 IF(AND(K83="Geschenk",Overview!E83=3.4,Overview!F83=0),'Logic ID'!$E$14,
 IF(K83="Geschenk",'Logic ID'!$E$2,
 IF(AND(K83="Aktivierung",Overview!E83=4,Overview!F83=2),'Logic ID'!$E$3,
-IF(AND(K83="Aktivierung",Overview!E83=4,Overview!F83=1),'Logic ID'!$E$4,
-IF(AND(K83="Aktivierung",Overview!E83="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K83="Aktivierung",Overview!E83="1,2,3",Overview!F83=2),'Logic ID'!$E$5,
+IF(AND(K83="Aktivierung",Overview!E83="1,2,3,4"),'Logic ID'!$E$4,
 IF(K83="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K83="WVDV",Overview!E83=4,F83=2),'Logic ID'!$E$7,
 IF(AND(K83="WVDV",F83=1),'Logic ID'!$E$8,
@@ -7070,13 +7118,13 @@
         <v>695300</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E84" s="21">
         <v>0</v>
@@ -7096,7 +7144,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>26</v>
@@ -7107,8 +7155,8 @@
 IF(AND(K84="Geschenk",Overview!E84=3.4,Overview!F84=0),'Logic ID'!$E$14,
 IF(K84="Geschenk",'Logic ID'!$E$2,
 IF(AND(K84="Aktivierung",Overview!E84=4,Overview!F84=2),'Logic ID'!$E$3,
-IF(AND(K84="Aktivierung",Overview!E84=4,Overview!F84=1),'Logic ID'!$E$4,
-IF(AND(K84="Aktivierung",Overview!E84="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K84="Aktivierung",Overview!E84="1,2,3",Overview!F84=2),'Logic ID'!$E$5,
+IF(AND(K84="Aktivierung",Overview!E84="1,2,3,4"),'Logic ID'!$E$4,
 IF(K84="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K84="WVDV",Overview!E84=4,F84=2),'Logic ID'!$E$7,
 IF(AND(K84="WVDV",F84=1),'Logic ID'!$E$8,
@@ -7123,16 +7171,16 @@
         <v>695400</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="E85" s="17">
-        <v>4</v>
+        <v>348</v>
+      </c>
+      <c r="E85" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="F85" s="17">
         <v>1</v>
@@ -7149,19 +7197,19 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L85" s="18" t="str">
+      <c r="L85" s="46" t="str">
         <f>IF(AND(K85="Geschenk",Overview!E85=1,Overview!F85=0),'Logic ID'!$E$12,
 IF(AND(K85="Geschenk",Overview!E85=1.2,Overview!F85=0),'Logic ID'!$E$13,
 IF(AND(K85="Geschenk",Overview!E85=3.4,Overview!F85=0),'Logic ID'!$E$14,
 IF(K85="Geschenk",'Logic ID'!$E$2,
 IF(AND(K85="Aktivierung",Overview!E85=4,Overview!F85=2),'Logic ID'!$E$3,
-IF(AND(K85="Aktivierung",Overview!E85=4,Overview!F85=1),'Logic ID'!$E$4,
-IF(AND(K85="Aktivierung",Overview!E85="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K85="Aktivierung",Overview!E85="1,2,3",Overview!F85=2),'Logic ID'!$E$5,
+IF(AND(K85="Aktivierung",Overview!E85="1,2,3,4"),'Logic ID'!$E$4,
 IF(K85="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K85="WVDV",Overview!E85=4,F85=2),'Logic ID'!$E$7,
 IF(AND(K85="WVDV",F85=1),'Logic ID'!$E$8,
@@ -7176,13 +7224,13 @@
         <v>695400</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E86" s="17">
         <v>4</v>
@@ -7202,7 +7250,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K86" s="12" t="s">
         <v>17</v>
@@ -7213,8 +7261,8 @@
 IF(AND(K86="Geschenk",Overview!E86=3.4,Overview!F86=0),'Logic ID'!$E$14,
 IF(K86="Geschenk",'Logic ID'!$E$2,
 IF(AND(K86="Aktivierung",Overview!E86=4,Overview!F86=2),'Logic ID'!$E$3,
-IF(AND(K86="Aktivierung",Overview!E86=4,Overview!F86=1),'Logic ID'!$E$4,
-IF(AND(K86="Aktivierung",Overview!E86="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K86="Aktivierung",Overview!E86="1,2,3",Overview!F86=2),'Logic ID'!$E$5,
+IF(AND(K86="Aktivierung",Overview!E86="1,2,3,4"),'Logic ID'!$E$4,
 IF(K86="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K86="WVDV",Overview!E86=4,F86=2),'Logic ID'!$E$7,
 IF(AND(K86="WVDV",F86=1),'Logic ID'!$E$8,
@@ -7229,19 +7277,19 @@
         <v>695400</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F87" s="17">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F87" s="48">
+        <v>2</v>
       </c>
       <c r="G87" s="13">
         <v>63</v>
@@ -7255,7 +7303,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>17</v>
@@ -7266,8 +7314,8 @@
 IF(AND(K87="Geschenk",Overview!E87=3.4,Overview!F87=0),'Logic ID'!$E$14,
 IF(K87="Geschenk",'Logic ID'!$E$2,
 IF(AND(K87="Aktivierung",Overview!E87=4,Overview!F87=2),'Logic ID'!$E$3,
-IF(AND(K87="Aktivierung",Overview!E87=4,Overview!F87=1),'Logic ID'!$E$4,
-IF(AND(K87="Aktivierung",Overview!E87="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K87="Aktivierung",Overview!E87="1,2,3",Overview!F87=2),'Logic ID'!$E$5,
+IF(AND(K87="Aktivierung",Overview!E87="1,2,3,4"),'Logic ID'!$E$4,
 IF(K87="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K87="WVDV",Overview!E87=4,F87=2),'Logic ID'!$E$7,
 IF(AND(K87="WVDV",F87=1),'Logic ID'!$E$8,
@@ -7282,16 +7330,16 @@
         <v>605100</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="E88" s="17">
-        <v>4</v>
+        <v>361</v>
+      </c>
+      <c r="E88" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="F88" s="17">
         <v>1</v>
@@ -7308,19 +7356,19 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L88" s="18" t="str">
+      <c r="L88" s="46" t="str">
         <f>IF(AND(K88="Geschenk",Overview!E88=1,Overview!F88=0),'Logic ID'!$E$12,
 IF(AND(K88="Geschenk",Overview!E88=1.2,Overview!F88=0),'Logic ID'!$E$13,
 IF(AND(K88="Geschenk",Overview!E88=3.4,Overview!F88=0),'Logic ID'!$E$14,
 IF(K88="Geschenk",'Logic ID'!$E$2,
 IF(AND(K88="Aktivierung",Overview!E88=4,Overview!F88=2),'Logic ID'!$E$3,
-IF(AND(K88="Aktivierung",Overview!E88=4,Overview!F88=1),'Logic ID'!$E$4,
-IF(AND(K88="Aktivierung",Overview!E88="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K88="Aktivierung",Overview!E88="1,2,3",Overview!F88=2),'Logic ID'!$E$5,
+IF(AND(K88="Aktivierung",Overview!E88="1,2,3,4"),'Logic ID'!$E$4,
 IF(K88="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K88="WVDV",Overview!E88=4,F88=2),'Logic ID'!$E$7,
 IF(AND(K88="WVDV",F88=1),'Logic ID'!$E$8,
@@ -7335,13 +7383,13 @@
         <v>605100</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E89" s="17">
         <v>4</v>
@@ -7361,7 +7409,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>17</v>
@@ -7372,8 +7420,8 @@
 IF(AND(K89="Geschenk",Overview!E89=3.4,Overview!F89=0),'Logic ID'!$E$14,
 IF(K89="Geschenk",'Logic ID'!$E$2,
 IF(AND(K89="Aktivierung",Overview!E89=4,Overview!F89=2),'Logic ID'!$E$3,
-IF(AND(K89="Aktivierung",Overview!E89=4,Overview!F89=1),'Logic ID'!$E$4,
-IF(AND(K89="Aktivierung",Overview!E89="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K89="Aktivierung",Overview!E89="1,2,3",Overview!F89=2),'Logic ID'!$E$5,
+IF(AND(K89="Aktivierung",Overview!E89="1,2,3,4"),'Logic ID'!$E$4,
 IF(K89="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K89="WVDV",Overview!E89=4,F89=2),'Logic ID'!$E$7,
 IF(AND(K89="WVDV",F89=1),'Logic ID'!$E$8,
@@ -7388,19 +7436,19 @@
         <v>605100</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F90" s="17">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F90" s="48">
+        <v>2</v>
       </c>
       <c r="G90" s="13">
         <v>64</v>
@@ -7414,7 +7462,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>17</v>
@@ -7425,8 +7473,8 @@
 IF(AND(K90="Geschenk",Overview!E90=3.4,Overview!F90=0),'Logic ID'!$E$14,
 IF(K90="Geschenk",'Logic ID'!$E$2,
 IF(AND(K90="Aktivierung",Overview!E90=4,Overview!F90=2),'Logic ID'!$E$3,
-IF(AND(K90="Aktivierung",Overview!E90=4,Overview!F90=1),'Logic ID'!$E$4,
-IF(AND(K90="Aktivierung",Overview!E90="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K90="Aktivierung",Overview!E90="1,2,3",Overview!F90=2),'Logic ID'!$E$5,
+IF(AND(K90="Aktivierung",Overview!E90="1,2,3,4"),'Logic ID'!$E$4,
 IF(K90="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K90="WVDV",Overview!E90=4,F90=2),'Logic ID'!$E$7,
 IF(AND(K90="WVDV",F90=1),'Logic ID'!$E$8,
@@ -7441,13 +7489,13 @@
         <v>674400</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E91" s="17">
         <v>4</v>
@@ -7467,7 +7515,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>46</v>
@@ -7478,8 +7526,8 @@
 IF(AND(K91="Geschenk",Overview!E91=3.4,Overview!F91=0),'Logic ID'!$E$14,
 IF(K91="Geschenk",'Logic ID'!$E$2,
 IF(AND(K91="Aktivierung",Overview!E91=4,Overview!F91=2),'Logic ID'!$E$3,
-IF(AND(K91="Aktivierung",Overview!E91=4,Overview!F91=1),'Logic ID'!$E$4,
-IF(AND(K91="Aktivierung",Overview!E91="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K91="Aktivierung",Overview!E91="1,2,3",Overview!F91=2),'Logic ID'!$E$5,
+IF(AND(K91="Aktivierung",Overview!E91="1,2,3,4"),'Logic ID'!$E$4,
 IF(K91="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K91="WVDV",Overview!E91=4,F91=2),'Logic ID'!$E$7,
 IF(AND(K91="WVDV",F91=1),'Logic ID'!$E$8,
@@ -7494,13 +7542,13 @@
         <v>674400</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E92" s="17">
         <v>0</v>
@@ -7520,7 +7568,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K92" s="12" t="s">
         <v>46</v>
@@ -7531,8 +7579,8 @@
 IF(AND(K92="Geschenk",Overview!E92=3.4,Overview!F92=0),'Logic ID'!$E$14,
 IF(K92="Geschenk",'Logic ID'!$E$2,
 IF(AND(K92="Aktivierung",Overview!E92=4,Overview!F92=2),'Logic ID'!$E$3,
-IF(AND(K92="Aktivierung",Overview!E92=4,Overview!F92=1),'Logic ID'!$E$4,
-IF(AND(K92="Aktivierung",Overview!E92="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K92="Aktivierung",Overview!E92="1,2,3",Overview!F92=2),'Logic ID'!$E$5,
+IF(AND(K92="Aktivierung",Overview!E92="1,2,3,4"),'Logic ID'!$E$4,
 IF(K92="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K92="WVDV",Overview!E92=4,F92=2),'Logic ID'!$E$7,
 IF(AND(K92="WVDV",F92=1),'Logic ID'!$E$8,
@@ -7547,13 +7595,13 @@
         <v>607700</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E93" s="21">
         <v>0</v>
@@ -7573,7 +7621,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>26</v>
@@ -7584,8 +7632,8 @@
 IF(AND(K93="Geschenk",Overview!E93=3.4,Overview!F93=0),'Logic ID'!$E$14,
 IF(K93="Geschenk",'Logic ID'!$E$2,
 IF(AND(K93="Aktivierung",Overview!E93=4,Overview!F93=2),'Logic ID'!$E$3,
-IF(AND(K93="Aktivierung",Overview!E93=4,Overview!F93=1),'Logic ID'!$E$4,
-IF(AND(K93="Aktivierung",Overview!E93="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K93="Aktivierung",Overview!E93="1,2,3",Overview!F93=2),'Logic ID'!$E$5,
+IF(AND(K93="Aktivierung",Overview!E93="1,2,3,4"),'Logic ID'!$E$4,
 IF(K93="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K93="WVDV",Overview!E93=4,F93=2),'Logic ID'!$E$7,
 IF(AND(K93="WVDV",F93=1),'Logic ID'!$E$8,
@@ -7600,13 +7648,13 @@
         <v>608030</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E94" s="21">
         <v>0</v>
@@ -7626,7 +7674,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K94" s="12" t="s">
         <v>26</v>
@@ -7637,8 +7685,8 @@
 IF(AND(K94="Geschenk",Overview!E94=3.4,Overview!F94=0),'Logic ID'!$E$14,
 IF(K94="Geschenk",'Logic ID'!$E$2,
 IF(AND(K94="Aktivierung",Overview!E94=4,Overview!F94=2),'Logic ID'!$E$3,
-IF(AND(K94="Aktivierung",Overview!E94=4,Overview!F94=1),'Logic ID'!$E$4,
-IF(AND(K94="Aktivierung",Overview!E94="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K94="Aktivierung",Overview!E94="1,2,3",Overview!F94=2),'Logic ID'!$E$5,
+IF(AND(K94="Aktivierung",Overview!E94="1,2,3,4"),'Logic ID'!$E$4,
 IF(K94="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K94="WVDV",Overview!E94=4,F94=2),'Logic ID'!$E$7,
 IF(AND(K94="WVDV",F94=1),'Logic ID'!$E$8,
@@ -7653,13 +7701,13 @@
         <v>605400</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E95" s="21">
         <v>0</v>
@@ -7679,7 +7727,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J95" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>26</v>
@@ -7690,8 +7738,8 @@
 IF(AND(K95="Geschenk",Overview!E95=3.4,Overview!F95=0),'Logic ID'!$E$14,
 IF(K95="Geschenk",'Logic ID'!$E$2,
 IF(AND(K95="Aktivierung",Overview!E95=4,Overview!F95=2),'Logic ID'!$E$3,
-IF(AND(K95="Aktivierung",Overview!E95=4,Overview!F95=1),'Logic ID'!$E$4,
-IF(AND(K95="Aktivierung",Overview!E95="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K95="Aktivierung",Overview!E95="1,2,3",Overview!F95=2),'Logic ID'!$E$5,
+IF(AND(K95="Aktivierung",Overview!E95="1,2,3,4"),'Logic ID'!$E$4,
 IF(K95="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K95="WVDV",Overview!E95=4,F95=2),'Logic ID'!$E$7,
 IF(AND(K95="WVDV",F95=1),'Logic ID'!$E$8,
@@ -7706,13 +7754,13 @@
         <v>694900</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E96" s="21">
         <v>0</v>
@@ -7732,7 +7780,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J96" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K96" s="12" t="s">
         <v>26</v>
@@ -7743,8 +7791,8 @@
 IF(AND(K96="Geschenk",Overview!E96=3.4,Overview!F96=0),'Logic ID'!$E$14,
 IF(K96="Geschenk",'Logic ID'!$E$2,
 IF(AND(K96="Aktivierung",Overview!E96=4,Overview!F96=2),'Logic ID'!$E$3,
-IF(AND(K96="Aktivierung",Overview!E96=4,Overview!F96=1),'Logic ID'!$E$4,
-IF(AND(K96="Aktivierung",Overview!E96="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K96="Aktivierung",Overview!E96="1,2,3",Overview!F96=2),'Logic ID'!$E$5,
+IF(AND(K96="Aktivierung",Overview!E96="1,2,3,4"),'Logic ID'!$E$4,
 IF(K96="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K96="WVDV",Overview!E96=4,F96=2),'Logic ID'!$E$7,
 IF(AND(K96="WVDV",F96=1),'Logic ID'!$E$8,
@@ -7759,13 +7807,13 @@
         <v>695000</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E97" s="21">
         <v>0</v>
@@ -7785,7 +7833,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K97" s="11" t="s">
         <v>26</v>
@@ -7796,8 +7844,8 @@
 IF(AND(K97="Geschenk",Overview!E97=3.4,Overview!F97=0),'Logic ID'!$E$14,
 IF(K97="Geschenk",'Logic ID'!$E$2,
 IF(AND(K97="Aktivierung",Overview!E97=4,Overview!F97=2),'Logic ID'!$E$3,
-IF(AND(K97="Aktivierung",Overview!E97=4,Overview!F97=1),'Logic ID'!$E$4,
-IF(AND(K97="Aktivierung",Overview!E97="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K97="Aktivierung",Overview!E97="1,2,3",Overview!F97=2),'Logic ID'!$E$5,
+IF(AND(K97="Aktivierung",Overview!E97="1,2,3,4"),'Logic ID'!$E$4,
 IF(K97="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K97="WVDV",Overview!E97=4,F97=2),'Logic ID'!$E$7,
 IF(AND(K97="WVDV",F97=1),'Logic ID'!$E$8,
@@ -7812,13 +7860,13 @@
         <v>695100</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E98" s="21">
         <v>0</v>
@@ -7838,7 +7886,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J98" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>26</v>
@@ -7849,8 +7897,8 @@
 IF(AND(K98="Geschenk",Overview!E98=3.4,Overview!F98=0),'Logic ID'!$E$14,
 IF(K98="Geschenk",'Logic ID'!$E$2,
 IF(AND(K98="Aktivierung",Overview!E98=4,Overview!F98=2),'Logic ID'!$E$3,
-IF(AND(K98="Aktivierung",Overview!E98=4,Overview!F98=1),'Logic ID'!$E$4,
-IF(AND(K98="Aktivierung",Overview!E98="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K98="Aktivierung",Overview!E98="1,2,3",Overview!F98=2),'Logic ID'!$E$5,
+IF(AND(K98="Aktivierung",Overview!E98="1,2,3,4"),'Logic ID'!$E$4,
 IF(K98="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K98="WVDV",Overview!E98=4,F98=2),'Logic ID'!$E$7,
 IF(AND(K98="WVDV",F98=1),'Logic ID'!$E$8,
@@ -7865,13 +7913,13 @@
         <v>695200</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E99" s="21">
         <v>0</v>
@@ -7891,7 +7939,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J99" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K99" s="11" t="s">
         <v>26</v>
@@ -7902,8 +7950,8 @@
 IF(AND(K99="Geschenk",Overview!E99=3.4,Overview!F99=0),'Logic ID'!$E$14,
 IF(K99="Geschenk",'Logic ID'!$E$2,
 IF(AND(K99="Aktivierung",Overview!E99=4,Overview!F99=2),'Logic ID'!$E$3,
-IF(AND(K99="Aktivierung",Overview!E99=4,Overview!F99=1),'Logic ID'!$E$4,
-IF(AND(K99="Aktivierung",Overview!E99="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K99="Aktivierung",Overview!E99="1,2,3",Overview!F99=2),'Logic ID'!$E$5,
+IF(AND(K99="Aktivierung",Overview!E99="1,2,3,4"),'Logic ID'!$E$4,
 IF(K99="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K99="WVDV",Overview!E99=4,F99=2),'Logic ID'!$E$7,
 IF(AND(K99="WVDV",F99=1),'Logic ID'!$E$8,
@@ -7918,13 +7966,13 @@
         <v>673600</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E100" s="21">
         <v>0</v>
@@ -7944,7 +7992,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>26</v>
@@ -7955,8 +8003,8 @@
 IF(AND(K100="Geschenk",Overview!E100=3.4,Overview!F100=0),'Logic ID'!$E$14,
 IF(K100="Geschenk",'Logic ID'!$E$2,
 IF(AND(K100="Aktivierung",Overview!E100=4,Overview!F100=2),'Logic ID'!$E$3,
-IF(AND(K100="Aktivierung",Overview!E100=4,Overview!F100=1),'Logic ID'!$E$4,
-IF(AND(K100="Aktivierung",Overview!E100="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K100="Aktivierung",Overview!E100="1,2,3",Overview!F100=2),'Logic ID'!$E$5,
+IF(AND(K100="Aktivierung",Overview!E100="1,2,3,4"),'Logic ID'!$E$4,
 IF(K100="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K100="WVDV",Overview!E100=4,F100=2),'Logic ID'!$E$7,
 IF(AND(K100="WVDV",F100=1),'Logic ID'!$E$8,
@@ -7971,13 +8019,13 @@
         <v>662400</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E101" s="21">
         <v>0</v>
@@ -7997,7 +8045,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J101" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>26</v>
@@ -8008,8 +8056,8 @@
 IF(AND(K101="Geschenk",Overview!E101=3.4,Overview!F101=0),'Logic ID'!$E$14,
 IF(K101="Geschenk",'Logic ID'!$E$2,
 IF(AND(K101="Aktivierung",Overview!E101=4,Overview!F101=2),'Logic ID'!$E$3,
-IF(AND(K101="Aktivierung",Overview!E101=4,Overview!F101=1),'Logic ID'!$E$4,
-IF(AND(K101="Aktivierung",Overview!E101="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K101="Aktivierung",Overview!E101="1,2,3",Overview!F101=2),'Logic ID'!$E$5,
+IF(AND(K101="Aktivierung",Overview!E101="1,2,3,4"),'Logic ID'!$E$4,
 IF(K101="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K101="WVDV",Overview!E101=4,F101=2),'Logic ID'!$E$7,
 IF(AND(K101="WVDV",F101=1),'Logic ID'!$E$8,
@@ -8024,13 +8072,13 @@
         <v>662500</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E102" s="21">
         <v>0</v>
@@ -8050,7 +8098,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J102" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K102" s="12" t="s">
         <v>26</v>
@@ -8061,8 +8109,8 @@
 IF(AND(K102="Geschenk",Overview!E102=3.4,Overview!F102=0),'Logic ID'!$E$14,
 IF(K102="Geschenk",'Logic ID'!$E$2,
 IF(AND(K102="Aktivierung",Overview!E102=4,Overview!F102=2),'Logic ID'!$E$3,
-IF(AND(K102="Aktivierung",Overview!E102=4,Overview!F102=1),'Logic ID'!$E$4,
-IF(AND(K102="Aktivierung",Overview!E102="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K102="Aktivierung",Overview!E102="1,2,3",Overview!F102=2),'Logic ID'!$E$5,
+IF(AND(K102="Aktivierung",Overview!E102="1,2,3,4"),'Logic ID'!$E$4,
 IF(K102="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K102="WVDV",Overview!E102=4,F102=2),'Logic ID'!$E$7,
 IF(AND(K102="WVDV",F102=1),'Logic ID'!$E$8,
@@ -8077,13 +8125,13 @@
         <v>672310</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E103" s="21">
         <v>0</v>
@@ -8103,7 +8151,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J103" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>26</v>
@@ -8114,8 +8162,8 @@
 IF(AND(K103="Geschenk",Overview!E103=3.4,Overview!F103=0),'Logic ID'!$E$14,
 IF(K103="Geschenk",'Logic ID'!$E$2,
 IF(AND(K103="Aktivierung",Overview!E103=4,Overview!F103=2),'Logic ID'!$E$3,
-IF(AND(K103="Aktivierung",Overview!E103=4,Overview!F103=1),'Logic ID'!$E$4,
-IF(AND(K103="Aktivierung",Overview!E103="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K103="Aktivierung",Overview!E103="1,2,3",Overview!F103=2),'Logic ID'!$E$5,
+IF(AND(K103="Aktivierung",Overview!E103="1,2,3,4"),'Logic ID'!$E$4,
 IF(K103="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K103="WVDV",Overview!E103=4,F103=2),'Logic ID'!$E$7,
 IF(AND(K103="WVDV",F103=1),'Logic ID'!$E$8,
@@ -8130,13 +8178,13 @@
         <v>672320</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E104" s="21">
         <v>0</v>
@@ -8156,7 +8204,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>26</v>
@@ -8167,8 +8215,8 @@
 IF(AND(K104="Geschenk",Overview!E104=3.4,Overview!F104=0),'Logic ID'!$E$14,
 IF(K104="Geschenk",'Logic ID'!$E$2,
 IF(AND(K104="Aktivierung",Overview!E104=4,Overview!F104=2),'Logic ID'!$E$3,
-IF(AND(K104="Aktivierung",Overview!E104=4,Overview!F104=1),'Logic ID'!$E$4,
-IF(AND(K104="Aktivierung",Overview!E104="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K104="Aktivierung",Overview!E104="1,2,3",Overview!F104=2),'Logic ID'!$E$5,
+IF(AND(K104="Aktivierung",Overview!E104="1,2,3,4"),'Logic ID'!$E$4,
 IF(K104="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K104="WVDV",Overview!E104=4,F104=2),'Logic ID'!$E$7,
 IF(AND(K104="WVDV",F104=1),'Logic ID'!$E$8,
@@ -8183,13 +8231,13 @@
         <v>672400</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E105" s="21">
         <v>0</v>
@@ -8209,7 +8257,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J105" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K105" s="11" t="s">
         <v>26</v>
@@ -8220,8 +8268,8 @@
 IF(AND(K105="Geschenk",Overview!E105=3.4,Overview!F105=0),'Logic ID'!$E$14,
 IF(K105="Geschenk",'Logic ID'!$E$2,
 IF(AND(K105="Aktivierung",Overview!E105=4,Overview!F105=2),'Logic ID'!$E$3,
-IF(AND(K105="Aktivierung",Overview!E105=4,Overview!F105=1),'Logic ID'!$E$4,
-IF(AND(K105="Aktivierung",Overview!E105="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K105="Aktivierung",Overview!E105="1,2,3",Overview!F105=2),'Logic ID'!$E$5,
+IF(AND(K105="Aktivierung",Overview!E105="1,2,3,4"),'Logic ID'!$E$4,
 IF(K105="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K105="WVDV",Overview!E105=4,F105=2),'Logic ID'!$E$7,
 IF(AND(K105="WVDV",F105=1),'Logic ID'!$E$8,
@@ -8236,13 +8284,13 @@
         <v>672500</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E106" s="21">
         <v>0</v>
@@ -8262,7 +8310,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K106" s="11" t="s">
         <v>26</v>
@@ -8273,8 +8321,8 @@
 IF(AND(K106="Geschenk",Overview!E106=3.4,Overview!F106=0),'Logic ID'!$E$14,
 IF(K106="Geschenk",'Logic ID'!$E$2,
 IF(AND(K106="Aktivierung",Overview!E106=4,Overview!F106=2),'Logic ID'!$E$3,
-IF(AND(K106="Aktivierung",Overview!E106=4,Overview!F106=1),'Logic ID'!$E$4,
-IF(AND(K106="Aktivierung",Overview!E106="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K106="Aktivierung",Overview!E106="1,2,3",Overview!F106=2),'Logic ID'!$E$5,
+IF(AND(K106="Aktivierung",Overview!E106="1,2,3,4"),'Logic ID'!$E$4,
 IF(K106="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K106="WVDV",Overview!E106=4,F106=2),'Logic ID'!$E$7,
 IF(AND(K106="WVDV",F106=1),'Logic ID'!$E$8,
@@ -8289,13 +8337,13 @@
         <v>672600</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E107" s="21">
         <v>0</v>
@@ -8315,7 +8363,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K107" s="11" t="s">
         <v>26</v>
@@ -8326,8 +8374,8 @@
 IF(AND(K107="Geschenk",Overview!E107=3.4,Overview!F107=0),'Logic ID'!$E$14,
 IF(K107="Geschenk",'Logic ID'!$E$2,
 IF(AND(K107="Aktivierung",Overview!E107=4,Overview!F107=2),'Logic ID'!$E$3,
-IF(AND(K107="Aktivierung",Overview!E107=4,Overview!F107=1),'Logic ID'!$E$4,
-IF(AND(K107="Aktivierung",Overview!E107="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K107="Aktivierung",Overview!E107="1,2,3",Overview!F107=2),'Logic ID'!$E$5,
+IF(AND(K107="Aktivierung",Overview!E107="1,2,3,4"),'Logic ID'!$E$4,
 IF(K107="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K107="WVDV",Overview!E107=4,F107=2),'Logic ID'!$E$7,
 IF(AND(K107="WVDV",F107=1),'Logic ID'!$E$8,
@@ -8342,13 +8390,13 @@
         <v>672700</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E108" s="21">
         <v>0</v>
@@ -8368,7 +8416,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J108" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K108" s="11" t="s">
         <v>26</v>
@@ -8379,8 +8427,8 @@
 IF(AND(K108="Geschenk",Overview!E108=3.4,Overview!F108=0),'Logic ID'!$E$14,
 IF(K108="Geschenk",'Logic ID'!$E$2,
 IF(AND(K108="Aktivierung",Overview!E108=4,Overview!F108=2),'Logic ID'!$E$3,
-IF(AND(K108="Aktivierung",Overview!E108=4,Overview!F108=1),'Logic ID'!$E$4,
-IF(AND(K108="Aktivierung",Overview!E108="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K108="Aktivierung",Overview!E108="1,2,3",Overview!F108=2),'Logic ID'!$E$5,
+IF(AND(K108="Aktivierung",Overview!E108="1,2,3,4"),'Logic ID'!$E$4,
 IF(K108="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K108="WVDV",Overview!E108=4,F108=2),'Logic ID'!$E$7,
 IF(AND(K108="WVDV",F108=1),'Logic ID'!$E$8,
@@ -8395,13 +8443,13 @@
         <v>604400</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E109" s="21">
         <v>0</v>
@@ -8421,10 +8469,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J109" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L109" s="18" t="str">
         <f>IF(AND(K109="Geschenk",Overview!E109=1,Overview!F109=0),'Logic ID'!$E$12,
@@ -8432,8 +8480,8 @@
 IF(AND(K109="Geschenk",Overview!E109=3.4,Overview!F109=0),'Logic ID'!$E$14,
 IF(K109="Geschenk",'Logic ID'!$E$2,
 IF(AND(K109="Aktivierung",Overview!E109=4,Overview!F109=2),'Logic ID'!$E$3,
-IF(AND(K109="Aktivierung",Overview!E109=4,Overview!F109=1),'Logic ID'!$E$4,
-IF(AND(K109="Aktivierung",Overview!E109="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K109="Aktivierung",Overview!E109="1,2,3",Overview!F109=2),'Logic ID'!$E$5,
+IF(AND(K109="Aktivierung",Overview!E109="1,2,3,4"),'Logic ID'!$E$4,
 IF(K109="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K109="WVDV",Overview!E109=4,F109=2),'Logic ID'!$E$7,
 IF(AND(K109="WVDV",F109=1),'Logic ID'!$E$8,
@@ -8448,13 +8496,13 @@
         <v>604300</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E110" s="21">
         <v>0</v>
@@ -8474,10 +8522,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J110" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L110" s="18" t="str">
         <f>IF(AND(K110="Geschenk",Overview!E110=1,Overview!F110=0),'Logic ID'!$E$12,
@@ -8485,8 +8533,8 @@
 IF(AND(K110="Geschenk",Overview!E110=3.4,Overview!F110=0),'Logic ID'!$E$14,
 IF(K110="Geschenk",'Logic ID'!$E$2,
 IF(AND(K110="Aktivierung",Overview!E110=4,Overview!F110=2),'Logic ID'!$E$3,
-IF(AND(K110="Aktivierung",Overview!E110=4,Overview!F110=1),'Logic ID'!$E$4,
-IF(AND(K110="Aktivierung",Overview!E110="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K110="Aktivierung",Overview!E110="1,2,3",Overview!F110=2),'Logic ID'!$E$5,
+IF(AND(K110="Aktivierung",Overview!E110="1,2,3,4"),'Logic ID'!$E$4,
 IF(K110="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K110="WVDV",Overview!E110=4,F110=2),'Logic ID'!$E$7,
 IF(AND(K110="WVDV",F110=1),'Logic ID'!$E$8,
@@ -8501,13 +8549,13 @@
         <v>604310</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E111" s="21">
         <v>0</v>
@@ -8527,10 +8575,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L111" s="18" t="str">
         <f>IF(AND(K111="Geschenk",Overview!E111=1,Overview!F111=0),'Logic ID'!$E$12,
@@ -8538,8 +8586,8 @@
 IF(AND(K111="Geschenk",Overview!E111=3.4,Overview!F111=0),'Logic ID'!$E$14,
 IF(K111="Geschenk",'Logic ID'!$E$2,
 IF(AND(K111="Aktivierung",Overview!E111=4,Overview!F111=2),'Logic ID'!$E$3,
-IF(AND(K111="Aktivierung",Overview!E111=4,Overview!F111=1),'Logic ID'!$E$4,
-IF(AND(K111="Aktivierung",Overview!E111="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K111="Aktivierung",Overview!E111="1,2,3",Overview!F111=2),'Logic ID'!$E$5,
+IF(AND(K111="Aktivierung",Overview!E111="1,2,3,4"),'Logic ID'!$E$4,
 IF(K111="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K111="WVDV",Overview!E111=4,F111=2),'Logic ID'!$E$7,
 IF(AND(K111="WVDV",F111=1),'Logic ID'!$E$8,
@@ -8554,13 +8602,13 @@
         <v>604000</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E112" s="21">
         <v>0</v>
@@ -8580,10 +8628,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J112" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L112" s="18" t="str">
         <f>IF(AND(K112="Geschenk",Overview!E112=1,Overview!F112=0),'Logic ID'!$E$12,
@@ -8591,8 +8639,8 @@
 IF(AND(K112="Geschenk",Overview!E112=3.4,Overview!F112=0),'Logic ID'!$E$14,
 IF(K112="Geschenk",'Logic ID'!$E$2,
 IF(AND(K112="Aktivierung",Overview!E112=4,Overview!F112=2),'Logic ID'!$E$3,
-IF(AND(K112="Aktivierung",Overview!E112=4,Overview!F112=1),'Logic ID'!$E$4,
-IF(AND(K112="Aktivierung",Overview!E112="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K112="Aktivierung",Overview!E112="1,2,3",Overview!F112=2),'Logic ID'!$E$5,
+IF(AND(K112="Aktivierung",Overview!E112="1,2,3,4"),'Logic ID'!$E$4,
 IF(K112="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K112="WVDV",Overview!E112=4,F112=2),'Logic ID'!$E$7,
 IF(AND(K112="WVDV",F112=1),'Logic ID'!$E$8,
@@ -8607,13 +8655,13 @@
         <v>691300</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E113" s="21">
         <v>0</v>
@@ -8633,10 +8681,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J113" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L113" s="18" t="str">
         <f>IF(AND(K113="Geschenk",Overview!E113=1,Overview!F113=0),'Logic ID'!$E$12,
@@ -8644,8 +8692,8 @@
 IF(AND(K113="Geschenk",Overview!E113=3.4,Overview!F113=0),'Logic ID'!$E$14,
 IF(K113="Geschenk",'Logic ID'!$E$2,
 IF(AND(K113="Aktivierung",Overview!E113=4,Overview!F113=2),'Logic ID'!$E$3,
-IF(AND(K113="Aktivierung",Overview!E113=4,Overview!F113=1),'Logic ID'!$E$4,
-IF(AND(K113="Aktivierung",Overview!E113="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K113="Aktivierung",Overview!E113="1,2,3",Overview!F113=2),'Logic ID'!$E$5,
+IF(AND(K113="Aktivierung",Overview!E113="1,2,3,4"),'Logic ID'!$E$4,
 IF(K113="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K113="WVDV",Overview!E113=4,F113=2),'Logic ID'!$E$7,
 IF(AND(K113="WVDV",F113=1),'Logic ID'!$E$8,
@@ -8660,13 +8708,13 @@
         <v>691310</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E114" s="21">
         <v>0</v>
@@ -8686,10 +8734,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J114" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L114" s="18" t="str">
         <f>IF(AND(K114="Geschenk",Overview!E114=1,Overview!F114=0),'Logic ID'!$E$12,
@@ -8697,8 +8745,8 @@
 IF(AND(K114="Geschenk",Overview!E114=3.4,Overview!F114=0),'Logic ID'!$E$14,
 IF(K114="Geschenk",'Logic ID'!$E$2,
 IF(AND(K114="Aktivierung",Overview!E114=4,Overview!F114=2),'Logic ID'!$E$3,
-IF(AND(K114="Aktivierung",Overview!E114=4,Overview!F114=1),'Logic ID'!$E$4,
-IF(AND(K114="Aktivierung",Overview!E114="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K114="Aktivierung",Overview!E114="1,2,3",Overview!F114=2),'Logic ID'!$E$5,
+IF(AND(K114="Aktivierung",Overview!E114="1,2,3,4"),'Logic ID'!$E$4,
 IF(K114="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K114="WVDV",Overview!E114=4,F114=2),'Logic ID'!$E$7,
 IF(AND(K114="WVDV",F114=1),'Logic ID'!$E$8,
@@ -8713,13 +8761,13 @@
         <v>691350</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E115" s="21">
         <v>0</v>
@@ -8739,10 +8787,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J115" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L115" s="18" t="str">
         <f>IF(AND(K115="Geschenk",Overview!E115=1,Overview!F115=0),'Logic ID'!$E$12,
@@ -8750,8 +8798,8 @@
 IF(AND(K115="Geschenk",Overview!E115=3.4,Overview!F115=0),'Logic ID'!$E$14,
 IF(K115="Geschenk",'Logic ID'!$E$2,
 IF(AND(K115="Aktivierung",Overview!E115=4,Overview!F115=2),'Logic ID'!$E$3,
-IF(AND(K115="Aktivierung",Overview!E115=4,Overview!F115=1),'Logic ID'!$E$4,
-IF(AND(K115="Aktivierung",Overview!E115="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K115="Aktivierung",Overview!E115="1,2,3",Overview!F115=2),'Logic ID'!$E$5,
+IF(AND(K115="Aktivierung",Overview!E115="1,2,3,4"),'Logic ID'!$E$4,
 IF(K115="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K115="WVDV",Overview!E115=4,F115=2),'Logic ID'!$E$7,
 IF(AND(K115="WVDV",F115=1),'Logic ID'!$E$8,
@@ -8766,13 +8814,13 @@
         <v>661150</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E116" s="21">
         <v>0</v>
@@ -8792,7 +8840,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J116" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>26</v>
@@ -8803,8 +8851,8 @@
 IF(AND(K116="Geschenk",Overview!E116=3.4,Overview!F116=0),'Logic ID'!$E$14,
 IF(K116="Geschenk",'Logic ID'!$E$2,
 IF(AND(K116="Aktivierung",Overview!E116=4,Overview!F116=2),'Logic ID'!$E$3,
-IF(AND(K116="Aktivierung",Overview!E116=4,Overview!F116=1),'Logic ID'!$E$4,
-IF(AND(K116="Aktivierung",Overview!E116="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K116="Aktivierung",Overview!E116="1,2,3",Overview!F116=2),'Logic ID'!$E$5,
+IF(AND(K116="Aktivierung",Overview!E116="1,2,3,4"),'Logic ID'!$E$4,
 IF(K116="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K116="WVDV",Overview!E116=4,F116=2),'Logic ID'!$E$7,
 IF(AND(K116="WVDV",F116=1),'Logic ID'!$E$8,
@@ -8819,13 +8867,13 @@
         <v>999910</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E117" s="21">
         <v>0</v>
@@ -8845,7 +8893,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J117" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>26</v>
@@ -8856,8 +8904,8 @@
 IF(AND(K117="Geschenk",Overview!E117=3.4,Overview!F117=0),'Logic ID'!$E$14,
 IF(K117="Geschenk",'Logic ID'!$E$2,
 IF(AND(K117="Aktivierung",Overview!E117=4,Overview!F117=2),'Logic ID'!$E$3,
-IF(AND(K117="Aktivierung",Overview!E117=4,Overview!F117=1),'Logic ID'!$E$4,
-IF(AND(K117="Aktivierung",Overview!E117="1,2,3"),'Logic ID'!$E$5,
+IF(AND(K117="Aktivierung",Overview!E117="1,2,3",Overview!F117=2),'Logic ID'!$E$5,
+IF(AND(K117="Aktivierung",Overview!E117="1,2,3,4"),'Logic ID'!$E$4,
 IF(K117="Keine Aktivierung",'Logic ID'!$E$6,
 IF(AND(K117="WVDV",Overview!E117=4,F117=2),'Logic ID'!$E$7,
 IF(AND(K117="WVDV",F117=1),'Logic ID'!$E$8,
@@ -8888,7 +8936,7 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -8900,10 +8948,10 @@
   <sheetData>
     <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9165,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -9190,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9215,7 +9263,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9240,7 +9288,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -9265,7 +9313,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -9437,10 +9485,10 @@
   <sheetData>
     <row r="1" spans="1:256" ht="14.45" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9702,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -9725,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9748,7 +9796,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9914,8 +9962,8 @@
   <sheetPr codeName="Munka4"/>
   <dimension ref="A1:IQ91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -9927,10 +9975,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.45" customHeight="1">
@@ -10074,7 +10122,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.45" customHeight="1">
@@ -10082,7 +10130,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.45" customHeight="1">
@@ -10090,7 +10138,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.45" customHeight="1">
@@ -10098,7 +10146,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.45" customHeight="1">
@@ -10106,7 +10154,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.45" customHeight="1">
@@ -10114,7 +10162,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.45" customHeight="1">
@@ -10122,7 +10170,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.45" customHeight="1">
@@ -10130,7 +10178,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.45" customHeight="1">
@@ -10138,7 +10186,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.45" customHeight="1">
@@ -10146,7 +10194,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.45" customHeight="1">
@@ -10154,7 +10202,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.45" customHeight="1">
@@ -10162,7 +10210,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.45" customHeight="1">
@@ -10170,7 +10218,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.45" customHeight="1">
@@ -10178,7 +10226,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.45" customHeight="1">
@@ -10186,7 +10234,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.45" customHeight="1">
@@ -10194,7 +10242,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.45" customHeight="1">
@@ -10202,7 +10250,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.45" customHeight="1">
@@ -10210,7 +10258,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.45" customHeight="1">
@@ -10218,7 +10266,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.45" customHeight="1">
@@ -10226,7 +10274,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.45" customHeight="1">
@@ -10234,7 +10282,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" customHeight="1">
@@ -10242,7 +10290,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.45" customHeight="1">
@@ -10250,7 +10298,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.45" customHeight="1">
@@ -10258,7 +10306,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.45" customHeight="1">
@@ -10266,7 +10314,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.45" customHeight="1">
@@ -10274,7 +10322,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.45" customHeight="1">
@@ -10282,7 +10330,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.45" customHeight="1">
@@ -10290,7 +10338,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.45" customHeight="1">
@@ -10298,7 +10346,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.45" customHeight="1">
@@ -10306,7 +10354,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.45" customHeight="1">
@@ -10314,7 +10362,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.45" customHeight="1">
@@ -10322,7 +10370,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.45" customHeight="1">
@@ -10330,7 +10378,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.45" customHeight="1">
@@ -10338,7 +10386,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.45" customHeight="1">
@@ -10346,7 +10394,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.45" customHeight="1">
@@ -10354,7 +10402,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.45" customHeight="1">
@@ -10362,7 +10410,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.45" customHeight="1">
@@ -10370,7 +10418,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.45" customHeight="1">
@@ -10378,7 +10426,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.45" customHeight="1">
@@ -10386,7 +10434,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.45" customHeight="1">
@@ -10394,7 +10442,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.45" customHeight="1">
@@ -10402,7 +10450,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.45" customHeight="1">
@@ -10410,7 +10458,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.45" customHeight="1">
@@ -10418,7 +10466,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.45" customHeight="1">
@@ -10426,7 +10474,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.45" customHeight="1">
@@ -10434,7 +10482,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.45" customHeight="1">
@@ -10442,7 +10490,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.45" customHeight="1">
@@ -10450,7 +10498,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.45" customHeight="1">
@@ -10458,7 +10506,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.45" customHeight="1">
@@ -10466,7 +10514,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.45" customHeight="1">
@@ -10474,7 +10522,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.45" customHeight="1">
@@ -10482,7 +10530,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.45" customHeight="1">
@@ -10490,7 +10538,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.45" customHeight="1">
@@ -10498,7 +10546,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.45" customHeight="1">
@@ -10506,7 +10554,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.45" customHeight="1">
@@ -10514,7 +10562,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.45" customHeight="1">
@@ -10522,7 +10570,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17.45" customHeight="1">
@@ -10530,7 +10578,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17.45" customHeight="1">
@@ -10538,7 +10586,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17.45" customHeight="1">
@@ -10546,7 +10594,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17.45" customHeight="1">
@@ -10554,7 +10602,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17.45" customHeight="1">
@@ -10562,7 +10610,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.45" customHeight="1">
@@ -10570,7 +10618,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.45" customHeight="1">
@@ -10578,7 +10626,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.45" customHeight="1">
@@ -10586,7 +10634,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.45" customHeight="1">
@@ -10594,7 +10642,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17.45" customHeight="1">
@@ -10602,7 +10650,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.45" customHeight="1">
@@ -10610,7 +10658,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17.45" customHeight="1">
@@ -10618,7 +10666,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.45" customHeight="1">
@@ -10626,7 +10674,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.45" customHeight="1">
@@ -10634,7 +10682,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.45" customHeight="1">
@@ -10642,7 +10690,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17.45" customHeight="1">
@@ -10650,7 +10698,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -10678,15 +10726,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -10694,90 +10742,90 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -10792,7 +10840,7 @@
   <dimension ref="A1:IW24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -10816,16 +10864,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -10863,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -10895,13 +10943,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -10926,20 +10974,20 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2">
-        <v>4</v>
+      <c r="C4" s="45" t="s">
+        <v>363</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -10965,19 +11013,19 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -11015,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -11047,13 +11095,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -11085,13 +11133,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -11114,7 +11162,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -11123,13 +11171,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -11152,7 +11200,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -11161,13 +11209,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -11190,7 +11238,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -11199,13 +11247,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -11237,13 +11285,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -11275,13 +11323,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -11313,13 +11361,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -12116,7 +12164,7 @@
     </row>
     <row r="18" spans="1:257" ht="14.45" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
@@ -12376,8 +12424,8 @@
     <row r="19" spans="1:257" ht="14.45" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -12634,8 +12682,8 @@
     </row>
     <row r="20" spans="1:257" ht="14.45" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -12893,8 +12941,8 @@
     </row>
     <row r="21" spans="1:257" ht="14.45" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -13152,8 +13200,8 @@
     </row>
     <row r="22" spans="1:257" ht="14.45" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -13938,6 +13986,54 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
+        </TermInfo>
+      </Terms>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
+      <Value>7</Value>
+      <Value>6</Value>
+      <Value>5</Value>
+      <Value>4</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101008B0F08FECF9ACD44B69B0979475AA3A3" ma:contentTypeVersion="5" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="15e7cafbdefa31d60e781c5e4062628f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be70f0-66b9-4629-a389-4b080fc0dfa6" xmlns:ns3="cc54d3cb-87fe-4b6a-be2e-e1fd0be84e77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e6785b8b81ecd23d6e742c299b13f" ns2:_="" ns3:_="">
     <xsd:import namespace="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
@@ -14094,54 +14190,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">t55170</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2a7bebd1-4a65-4a83-8880-9af9f7738c6c</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HP SAP S4 ACCOUNT IDENTIFIER FEJLESZTES NP</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2711dfa3-6ec1-413d-8823-997cd6be3ca9</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_S/4 HANA Concept</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bfc7b42e-ea39-4d21-8ccd-32d67d914123</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">O＆O_Procurement</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68c352b4-4d41-43f2-b180-79522b747923</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">CO＆FI_Accounting</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">df76b3e5-5a8d-4c97-a933-1c42bdf53c62</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Intercompany</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4467356c-29d0-45c7-bb32-7599fd4b7437</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">p_30003</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">530d64dc-cb80-49da-a923-511a942d9ac0</TermId>
-        </TermInfo>
-      </Terms>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
-      <Value>7</Value>
-      <Value>6</Value>
-      <Value>5</Value>
-      <Value>4</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14152,6 +14200,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BF3E90-0828-4759-ACA7-3670C46D50E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14170,16 +14228,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
   <ds:schemaRefs>

--- a/Datei.xlsx
+++ b/Datei.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cts\Documents\SEA\sea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://horvathandpartners.sharepoint.com/sites/IFUA-IDEX.TAN.T55170/Freigegebene Dokumente/02_Munka/01_Projektmunka_IFUA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA3F377-F98E-450B-BDD7-0D9E37EB49D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{4BA3F377-F98E-450B-BDD7-0D9E37EB49D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C23D205C-A00E-404C-AF9F-34D31905D94D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$L$117</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -187,9 +187,6 @@
     <t>KPMG,PwC,Deloitte,Ernst,Young,EY,Big4,Beratung,Coach</t>
   </si>
   <si>
-    <t>Beratungskosten "Big4" (KPMG, PwC, Deloitte, EY)</t>
-  </si>
-  <si>
     <t>Seminarkosten</t>
   </si>
   <si>
@@ -1130,6 +1127,9 @@
   </si>
   <si>
     <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Beratungskosten Big4 (KPMG, PwC, Deloitte, EY)</t>
   </si>
 </sst>
 </file>
@@ -2703,30 +2703,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Munka1"/>
+  <sheetPr codeName="Munka1" filterMode="1"/>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="113" style="25" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="25" customWidth="1"/>
     <col min="11" max="11" width="17" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="30" customFormat="1" ht="15" customHeight="1">
@@ -2740,34 +2740,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.45" customHeight="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1">
       <c r="A2" s="13">
         <v>681100</v>
       </c>
@@ -2775,10 +2775,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
@@ -2798,7 +2798,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>8</v>
@@ -2820,7 +2820,7 @@
         <v>Geschenk1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.45" customHeight="1">
+    <row r="3" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A3" s="13">
         <v>681120</v>
       </c>
@@ -2828,10 +2828,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E3" s="19">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>8</v>
@@ -2873,7 +2873,7 @@
         <v>Geschenk</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.45" customHeight="1">
+    <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1">
       <c r="A4" s="13">
         <v>661601</v>
       </c>
@@ -2881,10 +2881,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E4" s="21">
         <v>1.2</v>
@@ -2904,7 +2904,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>8</v>
@@ -2926,7 +2926,7 @@
         <v>Geschenk2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.45" customHeight="1">
+    <row r="5" spans="1:12" ht="17.399999999999999" customHeight="1">
       <c r="A5" s="13">
         <v>661602</v>
       </c>
@@ -2934,10 +2934,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E5" s="21">
         <v>3.4</v>
@@ -2957,7 +2957,7 @@
         <v>Amount, Usage, Null</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>8</v>
@@ -2979,7 +2979,7 @@
         <v>Geschenk3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.45" customHeight="1">
+    <row r="6" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A6" s="13">
         <v>603900</v>
       </c>
@@ -2987,13 +2987,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
@@ -3010,7 +3010,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>17</v>
@@ -3032,7 +3032,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.45" customHeight="1">
+    <row r="7" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A7" s="13">
         <v>603900</v>
       </c>
@@ -3040,10 +3040,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E7" s="17">
         <v>4</v>
@@ -3063,7 +3063,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>17</v>
@@ -3085,7 +3085,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.45" customHeight="1">
+    <row r="8" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A8" s="13">
         <v>603900</v>
       </c>
@@ -3093,13 +3093,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8" s="48">
         <v>2</v>
@@ -3116,7 +3116,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>17</v>
@@ -3138,7 +3138,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.45" customHeight="1">
+    <row r="9" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A9" s="13">
         <v>695800</v>
       </c>
@@ -3146,13 +3146,13 @@
         <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F9" s="17">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>17</v>
@@ -3191,7 +3191,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.45" customHeight="1">
+    <row r="10" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A10" s="13">
         <v>695800</v>
       </c>
@@ -3199,10 +3199,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="17">
         <v>4</v>
@@ -3222,7 +3222,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>17</v>
@@ -3244,7 +3244,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.45" customHeight="1">
+    <row r="11" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A11" s="13">
         <v>695800</v>
       </c>
@@ -3252,13 +3252,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F11" s="48">
         <v>2</v>
@@ -3275,7 +3275,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>17</v>
@@ -3297,7 +3297,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.45" customHeight="1">
+    <row r="12" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A12" s="13">
         <v>681203</v>
       </c>
@@ -3305,13 +3305,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -3328,7 +3328,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>17</v>
@@ -3350,7 +3350,7 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.45" customHeight="1">
+    <row r="13" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A13" s="13">
         <v>681203</v>
       </c>
@@ -3358,10 +3358,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E13" s="17">
         <v>4</v>
@@ -3381,7 +3381,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>17</v>
@@ -3403,7 +3403,7 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.45" customHeight="1">
+    <row r="14" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A14" s="13">
         <v>681203</v>
       </c>
@@ -3411,13 +3411,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F14" s="48">
         <v>2</v>
@@ -3434,7 +3434,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>17</v>
@@ -3456,7 +3456,7 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.45" customHeight="1">
+    <row r="15" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A15" s="13">
         <v>661603</v>
       </c>
@@ -3464,10 +3464,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E15" s="19">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>8</v>
@@ -3509,7 +3509,7 @@
         <v>Geschenk</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.45" customHeight="1">
+    <row r="16" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A16" s="13">
         <v>672200</v>
       </c>
@@ -3517,10 +3517,10 @@
         <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E16" s="21">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>26</v>
@@ -3562,7 +3562,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.45" customHeight="1">
+    <row r="17" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A17" s="13">
         <v>662100</v>
       </c>
@@ -3570,10 +3570,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E17" s="21">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>26</v>
@@ -3615,7 +3615,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.45" customHeight="1">
+    <row r="18" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A18" s="13">
         <v>662201</v>
       </c>
@@ -3623,10 +3623,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E18" s="21">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>26</v>
@@ -3668,7 +3668,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.45" customHeight="1">
+    <row r="19" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A19" s="13">
         <v>661700</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E19" s="21">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>26</v>
@@ -3721,7 +3721,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.45" customHeight="1">
+    <row r="20" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A20" s="13">
         <v>662300</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E20" s="21">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>26</v>
@@ -3774,7 +3774,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.45" customHeight="1">
+    <row r="21" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A21" s="13">
         <v>661703</v>
       </c>
@@ -3782,10 +3782,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E21" s="21">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>26</v>
@@ -3827,7 +3827,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.45" customHeight="1">
+    <row r="22" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A22" s="13">
         <v>661710</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E22" s="21">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>26</v>
@@ -3880,7 +3880,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.45" customHeight="1">
+    <row r="23" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A23" s="13">
         <v>661708</v>
       </c>
@@ -3888,10 +3888,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E23" s="21">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>26</v>
@@ -3933,7 +3933,7 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.45" customHeight="1">
+    <row r="24" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A24" s="13">
         <v>681150</v>
       </c>
@@ -3941,10 +3941,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E24" s="17">
         <v>4</v>
@@ -3964,7 +3964,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>46</v>
@@ -3986,7 +3986,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.45" customHeight="1">
+    <row r="25" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A25" s="13">
         <v>681150</v>
       </c>
@@ -3994,10 +3994,10 @@
         <v>44</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>46</v>
@@ -4039,7 +4039,7 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.45" customHeight="1">
+    <row r="26" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A26" s="13">
         <v>673800</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>48</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E26" s="17">
         <v>4</v>
@@ -4070,7 +4070,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>46</v>
@@ -4092,7 +4092,7 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.45" customHeight="1">
+    <row r="27" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A27" s="13">
         <v>673800</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E27" s="17">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>46</v>
@@ -4145,18 +4145,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.45" customHeight="1">
+    <row r="28" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A28" s="13">
         <v>661200</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E28" s="21">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>26</v>
@@ -4198,18 +4198,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.45" customHeight="1">
+    <row r="29" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A29" s="13">
         <v>681153</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="D29" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E29" s="21">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>26</v>
@@ -4251,18 +4251,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.45" customHeight="1">
+    <row r="30" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A30" s="13">
         <v>672201</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E30" s="21">
         <v>0</v>
@@ -4282,7 +4282,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>26</v>
@@ -4304,18 +4304,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.45" customHeight="1">
+    <row r="31" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A31" s="13">
         <v>672000</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E31" s="21">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>26</v>
@@ -4357,18 +4357,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.45" customHeight="1">
+    <row r="32" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A32" s="13">
         <v>671800</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E32" s="21">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>26</v>
@@ -4410,18 +4410,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.45" customHeight="1">
+    <row r="33" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A33" s="13">
         <v>671700</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E33" s="21">
         <v>0</v>
@@ -4441,7 +4441,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>26</v>
@@ -4463,18 +4463,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17.45" customHeight="1">
+    <row r="34" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A34" s="13">
         <v>671900</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E34" s="21">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>26</v>
@@ -4516,18 +4516,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.45" customHeight="1">
+    <row r="35" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A35" s="13">
         <v>672100</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E35" s="21">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>26</v>
@@ -4569,18 +4569,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17.45" customHeight="1">
+    <row r="36" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A36" s="13">
         <v>672260</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E36" s="21">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>26</v>
@@ -4622,18 +4622,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17.45" customHeight="1">
+    <row r="37" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A37" s="13">
         <v>671000</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E37" s="21">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L37" s="18" t="str">
         <f>IF(AND(K37="Geschenk",Overview!E37=1,Overview!F37=0),'Logic ID'!$E$12,
@@ -4675,18 +4675,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="17.45" customHeight="1">
+    <row r="38" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A38" s="13">
         <v>671100</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E38" s="21">
         <v>0</v>
@@ -4706,10 +4706,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L38" s="18" t="str">
         <f>IF(AND(K38="Geschenk",Overview!E38=1,Overview!F38=0),'Logic ID'!$E$12,
@@ -4728,18 +4728,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17.45" customHeight="1">
+    <row r="39" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A39" s="13">
         <v>671200</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E39" s="21">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="18" t="str">
         <f>IF(AND(K39="Geschenk",Overview!E39=1,Overview!F39=0),'Logic ID'!$E$12,
@@ -4781,18 +4781,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="17.45" customHeight="1">
+    <row r="40" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A40" s="13">
         <v>671300</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E40" s="21">
         <v>0</v>
@@ -4812,10 +4812,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L40" s="18" t="str">
         <f>IF(AND(K40="Geschenk",Overview!E40=1,Overview!F40=0),'Logic ID'!$E$12,
@@ -4834,18 +4834,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17.45" customHeight="1">
+    <row r="41" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A41" s="13">
         <v>671400</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E41" s="21">
         <v>0</v>
@@ -4865,10 +4865,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L41" s="18" t="str">
         <f>IF(AND(K41="Geschenk",Overview!E41=1,Overview!F41=0),'Logic ID'!$E$12,
@@ -4887,18 +4887,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="17.45" customHeight="1">
+    <row r="42" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A42" s="13">
         <v>671500</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E42" s="21">
         <v>0</v>
@@ -4918,10 +4918,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L42" s="18" t="str">
         <f>IF(AND(K42="Geschenk",Overview!E42=1,Overview!F42=0),'Logic ID'!$E$12,
@@ -4940,18 +4940,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="17.45" customHeight="1">
+    <row r="43" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A43" s="13">
         <v>613350</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="D43" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E43" s="21">
         <v>0</v>
@@ -4971,10 +4971,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L43" s="18" t="str">
         <f>IF(AND(K43="Geschenk",Overview!E43=1,Overview!F43=0),'Logic ID'!$E$12,
@@ -4993,18 +4993,18 @@
         <v>Instandhaltung</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17.45" customHeight="1">
+    <row r="44" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A44" s="13">
         <v>661300</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E44" s="21">
         <v>0</v>
@@ -5024,7 +5024,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>26</v>
@@ -5046,18 +5046,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="17.45" customHeight="1">
+    <row r="45" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A45" s="13">
         <v>674300</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E45" s="21">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>26</v>
@@ -5099,21 +5099,21 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17.45" customHeight="1">
+    <row r="46" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A46" s="13">
         <v>605300</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F46" s="17">
         <v>1</v>
@@ -5130,7 +5130,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>17</v>
@@ -5152,18 +5152,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17.45" customHeight="1">
+    <row r="47" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A47" s="13">
         <v>605300</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E47" s="17">
         <v>4</v>
@@ -5183,7 +5183,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>17</v>
@@ -5205,21 +5205,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17.45" customHeight="1">
+    <row r="48" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A48" s="13">
         <v>605300</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F48" s="48">
         <v>2</v>
@@ -5236,7 +5236,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>17</v>
@@ -5258,18 +5258,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17.45" customHeight="1">
+    <row r="49" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A49" s="13">
         <v>673901</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E49" s="21">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>26</v>
@@ -5311,18 +5311,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="50" spans="1:12" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A50" s="13">
         <v>673902</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E50" s="17">
         <v>4</v>
@@ -5342,7 +5342,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>46</v>
@@ -5364,18 +5364,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="51" spans="1:12" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A51" s="13">
         <v>673902</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E51" s="17">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>46</v>
@@ -5417,18 +5417,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="17.45" customHeight="1">
+    <row r="52" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A52" s="13">
         <v>613300</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E52" s="21">
         <v>0</v>
@@ -5448,7 +5448,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>26</v>
@@ -5470,18 +5470,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.45" customHeight="1">
+    <row r="53" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A53" s="13">
         <v>691000</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E53" s="21">
         <v>0</v>
@@ -5501,10 +5501,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L53" s="18" t="str">
         <f>IF(AND(K53="Geschenk",Overview!E53=1,Overview!F53=0),'Logic ID'!$E$12,
@@ -5523,18 +5523,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.45" customHeight="1">
+    <row r="54" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A54" s="13">
         <v>691100</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E54" s="21">
         <v>0</v>
@@ -5554,10 +5554,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L54" s="18" t="str">
         <f>IF(AND(K54="Geschenk",Overview!E54=1,Overview!F54=0),'Logic ID'!$E$12,
@@ -5576,18 +5576,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="17.45" customHeight="1">
+    <row r="55" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A55" s="13">
         <v>691200</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E55" s="21">
         <v>0</v>
@@ -5607,10 +5607,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L55" s="18" t="str">
         <f>IF(AND(K55="Geschenk",Overview!E55=1,Overview!F55=0),'Logic ID'!$E$12,
@@ -5629,18 +5629,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="17.45" customHeight="1">
+    <row r="56" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A56" s="13">
         <v>691210</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="D56" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E56" s="21">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L56" s="18" t="str">
         <f>IF(AND(K56="Geschenk",Overview!E56=1,Overview!F56=0),'Logic ID'!$E$12,
@@ -5682,18 +5682,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="17.45" customHeight="1">
+    <row r="57" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A57" s="13">
         <v>661711</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="D57" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E57" s="21">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>26</v>
@@ -5735,18 +5735,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="17.45" customHeight="1">
+    <row r="58" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A58" s="13">
         <v>673300</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="D58" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E58" s="21">
         <v>0</v>
@@ -5766,7 +5766,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K58" s="12" t="s">
         <v>26</v>
@@ -5788,18 +5788,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="17.45" customHeight="1">
+    <row r="59" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A59" s="13">
         <v>673500</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="D59" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E59" s="17">
         <v>4</v>
@@ -5819,7 +5819,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>46</v>
@@ -5841,18 +5841,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="17.45" customHeight="1">
+    <row r="60" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A60" s="13">
         <v>673500</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="D60" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E60" s="17">
         <v>0</v>
@@ -5872,7 +5872,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>46</v>
@@ -5894,18 +5894,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17.45" customHeight="1">
+    <row r="61" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A61" s="13">
         <v>673501</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="D61" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E61" s="21">
         <v>0</v>
@@ -5925,7 +5925,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>26</v>
@@ -5947,18 +5947,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="17.45" customHeight="1">
+    <row r="62" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A62" s="13">
         <v>661000</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E62" s="21">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>26</v>
@@ -6000,18 +6000,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="17.45" customHeight="1">
+    <row r="63" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A63" s="13">
         <v>661400</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="D63" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E63" s="21">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>26</v>
@@ -6053,18 +6053,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17.45" customHeight="1">
+    <row r="64" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A64" s="13">
         <v>661500</v>
       </c>
       <c r="B64" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="D64" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E64" s="21">
         <v>0</v>
@@ -6084,7 +6084,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K64" s="12" t="s">
         <v>26</v>
@@ -6106,18 +6106,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17.45" customHeight="1">
+    <row r="65" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A65" s="13">
         <v>671600</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E65" s="21">
         <v>0</v>
@@ -6137,7 +6137,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>26</v>
@@ -6159,18 +6159,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17.45" customHeight="1">
+    <row r="66" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A66" s="13">
         <v>673700</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E66" s="17">
         <v>4</v>
@@ -6190,7 +6190,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>46</v>
@@ -6212,18 +6212,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17.45" customHeight="1">
+    <row r="67" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A67" s="13">
         <v>673700</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E67" s="17">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K67" s="12" t="s">
         <v>46</v>
@@ -6265,18 +6265,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17.45" customHeight="1">
+    <row r="68" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A68" s="13">
         <v>674100</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E68" s="17">
         <v>4</v>
@@ -6296,7 +6296,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>46</v>
@@ -6318,18 +6318,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17.45" customHeight="1">
+    <row r="69" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A69" s="13">
         <v>674100</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>46</v>
@@ -6371,18 +6371,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17.45" customHeight="1">
+    <row r="70" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A70" s="13">
         <v>674600</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E70" s="21">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>26</v>
@@ -6424,21 +6424,21 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="39" customFormat="1" ht="17.45" customHeight="1">
+    <row r="71" spans="1:12" s="39" customFormat="1" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A71" s="34">
         <v>605200</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F71" s="37">
         <v>1</v>
@@ -6455,7 +6455,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J71" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K71" s="35" t="s">
         <v>17</v>
@@ -6477,18 +6477,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="39" customFormat="1" ht="17.45" customHeight="1">
+    <row r="72" spans="1:12" s="39" customFormat="1" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A72" s="34">
         <v>605200</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E72" s="37">
         <v>4</v>
@@ -6508,7 +6508,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J72" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K72" s="35" t="s">
         <v>17</v>
@@ -6530,21 +6530,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="39" customFormat="1" ht="17.45" customHeight="1">
+    <row r="73" spans="1:12" s="39" customFormat="1" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A73" s="34">
         <v>605200</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F73" s="48">
         <v>2</v>
@@ -6561,7 +6561,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J73" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K73" s="35" t="s">
         <v>17</v>
@@ -6583,18 +6583,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="17.45" customHeight="1">
+    <row r="74" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A74" s="13">
         <v>681200</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E74" s="17">
         <v>4</v>
@@ -6614,7 +6614,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K74" s="12" t="s">
         <v>46</v>
@@ -6636,18 +6636,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17.45" customHeight="1">
+    <row r="75" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A75" s="13">
         <v>681200</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E75" s="17">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>46</v>
@@ -6689,21 +6689,21 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17.45" customHeight="1">
+    <row r="76" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A76" s="13">
         <v>603400</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D76" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="E76" s="47" t="s">
         <v>362</v>
-      </c>
-      <c r="E76" s="47" t="s">
-        <v>363</v>
       </c>
       <c r="F76" s="17">
         <v>1</v>
@@ -6720,7 +6720,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>17</v>
@@ -6742,18 +6742,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17.45" customHeight="1">
+    <row r="77" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A77" s="13">
         <v>603400</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E77" s="17">
         <v>4</v>
@@ -6773,7 +6773,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>17</v>
@@ -6795,21 +6795,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17.45" customHeight="1">
+    <row r="78" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A78" s="13">
         <v>603400</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F78" s="48">
         <v>2</v>
@@ -6826,7 +6826,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K78" s="12" t="s">
         <v>17</v>
@@ -6848,21 +6848,21 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17.45" customHeight="1">
+    <row r="79" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A79" s="13">
         <v>605210</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E79" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F79" s="17">
         <v>1</v>
@@ -6879,7 +6879,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>17</v>
@@ -6901,18 +6901,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17.45" customHeight="1">
+    <row r="80" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A80" s="13">
         <v>605210</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E80" s="17">
         <v>4</v>
@@ -6932,7 +6932,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>17</v>
@@ -6954,21 +6954,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="17.45" customHeight="1">
+    <row r="81" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A81" s="13">
         <v>605210</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F81" s="48">
         <v>2</v>
@@ -6985,7 +6985,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>17</v>
@@ -7007,18 +7007,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="17.45" customHeight="1">
+    <row r="82" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A82" s="13">
         <v>673200</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E82" s="21">
         <v>0</v>
@@ -7038,7 +7038,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>26</v>
@@ -7060,18 +7060,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="17.45" customHeight="1">
+    <row r="83" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A83" s="13">
         <v>673400</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E83" s="21">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>26</v>
@@ -7113,18 +7113,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="17.45" customHeight="1">
+    <row r="84" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A84" s="13">
         <v>695300</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E84" s="21">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>26</v>
@@ -7166,21 +7166,21 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17.45" customHeight="1">
+    <row r="85" spans="1:12" ht="17.399999999999999" customHeight="1">
       <c r="A85" s="13">
         <v>695400</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E85" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F85" s="17">
         <v>1</v>
@@ -7197,7 +7197,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>17</v>
@@ -7219,18 +7219,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="17.45" customHeight="1">
+    <row r="86" spans="1:12" ht="17.399999999999999" customHeight="1">
       <c r="A86" s="13">
         <v>695400</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E86" s="17">
         <v>4</v>
@@ -7250,7 +7250,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K86" s="12" t="s">
         <v>17</v>
@@ -7272,21 +7272,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="17.45" customHeight="1">
+    <row r="87" spans="1:12" ht="17.399999999999999" customHeight="1">
       <c r="A87" s="13">
         <v>695400</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F87" s="48">
         <v>2</v>
@@ -7303,7 +7303,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>17</v>
@@ -7325,21 +7325,21 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="17.45" customHeight="1">
+    <row r="88" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A88" s="13">
         <v>605100</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E88" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F88" s="17">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>17</v>
@@ -7378,18 +7378,18 @@
         <v>Aktivierung2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="17.45" customHeight="1">
+    <row r="89" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A89" s="13">
         <v>605100</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E89" s="17">
         <v>4</v>
@@ -7409,7 +7409,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>17</v>
@@ -7431,21 +7431,21 @@
         <v>Aktivierung1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="17.45" customHeight="1">
+    <row r="90" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A90" s="13">
         <v>605100</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F90" s="48">
         <v>2</v>
@@ -7462,7 +7462,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>17</v>
@@ -7484,18 +7484,18 @@
         <v>Aktivierung3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="17.45" customHeight="1">
+    <row r="91" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A91" s="13">
         <v>674400</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E91" s="17">
         <v>4</v>
@@ -7515,7 +7515,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>46</v>
@@ -7537,18 +7537,18 @@
         <v>WVDV1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="17.45" customHeight="1">
+    <row r="92" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A92" s="13">
         <v>674400</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E92" s="17">
         <v>0</v>
@@ -7568,7 +7568,7 @@
         <v>Amount, Usage, Duration</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K92" s="12" t="s">
         <v>46</v>
@@ -7590,18 +7590,18 @@
         <v>WVDV2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="17.45" customHeight="1">
+    <row r="93" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A93" s="13">
         <v>607700</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E93" s="21">
         <v>0</v>
@@ -7621,7 +7621,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>26</v>
@@ -7643,18 +7643,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="17.45" customHeight="1">
+    <row r="94" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A94" s="13">
         <v>608030</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E94" s="21">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K94" s="12" t="s">
         <v>26</v>
@@ -7696,18 +7696,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="17.45" customHeight="1">
+    <row r="95" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A95" s="13">
         <v>605400</v>
       </c>
       <c r="B95" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="D95" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E95" s="21">
         <v>0</v>
@@ -7727,7 +7727,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J95" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>26</v>
@@ -7749,18 +7749,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="17.45" customHeight="1">
+    <row r="96" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A96" s="13">
         <v>694900</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E96" s="21">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J96" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K96" s="12" t="s">
         <v>26</v>
@@ -7802,18 +7802,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="17.45" customHeight="1">
+    <row r="97" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A97" s="13">
         <v>695000</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E97" s="21">
         <v>0</v>
@@ -7833,7 +7833,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K97" s="11" t="s">
         <v>26</v>
@@ -7855,18 +7855,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="17.45" customHeight="1">
+    <row r="98" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A98" s="13">
         <v>695100</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E98" s="21">
         <v>0</v>
@@ -7886,7 +7886,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J98" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>26</v>
@@ -7908,18 +7908,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="17.45" customHeight="1">
+    <row r="99" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A99" s="13">
         <v>695200</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E99" s="21">
         <v>0</v>
@@ -7939,7 +7939,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J99" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K99" s="11" t="s">
         <v>26</v>
@@ -7961,18 +7961,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="17.45" customHeight="1">
+    <row r="100" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A100" s="13">
         <v>673600</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E100" s="21">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>26</v>
@@ -8014,18 +8014,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="17.45" customHeight="1">
+    <row r="101" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A101" s="13">
         <v>662400</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E101" s="21">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J101" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>26</v>
@@ -8067,18 +8067,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="17.45" customHeight="1">
+    <row r="102" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A102" s="13">
         <v>662500</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E102" s="21">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J102" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K102" s="12" t="s">
         <v>26</v>
@@ -8120,18 +8120,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="17.45" customHeight="1">
+    <row r="103" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A103" s="13">
         <v>672310</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E103" s="21">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J103" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>26</v>
@@ -8173,18 +8173,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="17.45" customHeight="1">
+    <row r="104" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A104" s="13">
         <v>672320</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E104" s="21">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>26</v>
@@ -8226,18 +8226,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="17.45" customHeight="1">
+    <row r="105" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A105" s="13">
         <v>672400</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E105" s="21">
         <v>0</v>
@@ -8257,7 +8257,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J105" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K105" s="11" t="s">
         <v>26</v>
@@ -8279,18 +8279,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="17.45" customHeight="1">
+    <row r="106" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A106" s="13">
         <v>672500</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E106" s="21">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K106" s="11" t="s">
         <v>26</v>
@@ -8332,18 +8332,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="17.45" customHeight="1">
+    <row r="107" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A107" s="13">
         <v>672600</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E107" s="21">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K107" s="11" t="s">
         <v>26</v>
@@ -8385,18 +8385,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="17.45" customHeight="1">
+    <row r="108" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A108" s="13">
         <v>672700</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E108" s="21">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J108" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K108" s="11" t="s">
         <v>26</v>
@@ -8438,18 +8438,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="17.45" customHeight="1">
+    <row r="109" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A109" s="13">
         <v>604400</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E109" s="21">
         <v>0</v>
@@ -8469,10 +8469,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J109" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L109" s="18" t="str">
         <f>IF(AND(K109="Geschenk",Overview!E109=1,Overview!F109=0),'Logic ID'!$E$12,
@@ -8491,18 +8491,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="17.45" customHeight="1">
+    <row r="110" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A110" s="13">
         <v>604300</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E110" s="21">
         <v>0</v>
@@ -8522,10 +8522,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J110" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L110" s="18" t="str">
         <f>IF(AND(K110="Geschenk",Overview!E110=1,Overview!F110=0),'Logic ID'!$E$12,
@@ -8544,18 +8544,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="17.45" customHeight="1">
+    <row r="111" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A111" s="13">
         <v>604310</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E111" s="21">
         <v>0</v>
@@ -8575,10 +8575,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L111" s="18" t="str">
         <f>IF(AND(K111="Geschenk",Overview!E111=1,Overview!F111=0),'Logic ID'!$E$12,
@@ -8597,18 +8597,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="17.45" customHeight="1">
+    <row r="112" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A112" s="13">
         <v>604000</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E112" s="21">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J112" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L112" s="18" t="str">
         <f>IF(AND(K112="Geschenk",Overview!E112=1,Overview!F112=0),'Logic ID'!$E$12,
@@ -8650,18 +8650,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="17.45" customHeight="1">
+    <row r="113" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A113" s="13">
         <v>691300</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E113" s="21">
         <v>0</v>
@@ -8681,10 +8681,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J113" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L113" s="18" t="str">
         <f>IF(AND(K113="Geschenk",Overview!E113=1,Overview!F113=0),'Logic ID'!$E$12,
@@ -8703,18 +8703,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="17.45" customHeight="1">
+    <row r="114" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A114" s="13">
         <v>691310</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E114" s="21">
         <v>0</v>
@@ -8734,10 +8734,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J114" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L114" s="18" t="str">
         <f>IF(AND(K114="Geschenk",Overview!E114=1,Overview!F114=0),'Logic ID'!$E$12,
@@ -8756,18 +8756,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="17.45" customHeight="1">
+    <row r="115" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A115" s="13">
         <v>691350</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E115" s="21">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J115" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L115" s="18" t="str">
         <f>IF(AND(K115="Geschenk",Overview!E115=1,Overview!F115=0),'Logic ID'!$E$12,
@@ -8809,18 +8809,18 @@
         <v>Einkauf/Vertrieb</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="17.45" customHeight="1">
+    <row r="116" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A116" s="13">
         <v>661150</v>
       </c>
       <c r="B116" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>169</v>
-      </c>
       <c r="D116" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E116" s="21">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J116" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>26</v>
@@ -8862,18 +8862,18 @@
         <v>Keine Aktivierung</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="17.45" customHeight="1">
+    <row r="117" spans="1:12" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A117" s="13">
         <v>999910</v>
       </c>
       <c r="B117" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>171</v>
-      </c>
       <c r="D117" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E117" s="21">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>Usage, Null, Null</v>
       </c>
       <c r="J117" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>26</v>
@@ -8916,7 +8916,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L117" xr:uid="{A2546393-D3F3-4891-9180-301BCA80D3AD}"/>
+  <autoFilter ref="A1:L117" xr:uid="{A2546393-D3F3-4891-9180-301BCA80D3AD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Ausbildung,Schulung,Seminar,Training,Kurs,Weiterbildung,Workshop,Geschenk,Modellauto,Bewirtung,Sicherheit,Gutschein,Tasse,Becher,Tasche,Poster,Bild,Polo,schenken,Kalender"/>
+        <filter val="Betrieblich,Aufwendungen,Pflanze,Küche,Schild,Aufwand,Stuhl,Fernseher,Schraubenschlüssel,Tasse,Poster,Kaffeemaschine"/>
+        <filter val="Polo,Karten,Kugelschreiber,Geburtstag,Verpflegung,Blume,Schokolade,Geschenk,Armbanduhr,USB,Team,Abendessen,Messe,Modellauto,Bewirtung,Gutschein,Tasse,Becher,schenken,Kalender"/>
+        <filter val="Tasche,Geschenk,Kugelschreiber,Anhänger,Beutel,Armbanduhr,USB,Buch,Tasse,Becher,Blume,schenken,Armband,Kalender"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>"missing"</formula>
@@ -8939,19 +8948,19 @@
       <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="5" customWidth="1"/>
-    <col min="3" max="256" width="8.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="5" customWidth="1"/>
+    <col min="3" max="256" width="8.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="14.45" customHeight="1">
+    <row r="1" spans="1:256" ht="14.4" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9208,12 +9217,12 @@
       <c r="IU1" s="10"/>
       <c r="IV1" s="10"/>
     </row>
-    <row r="2" spans="1:256" ht="14.45" customHeight="1">
+    <row r="2" spans="1:256" ht="14.4" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -9233,12 +9242,12 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="14.45" customHeight="1">
+    <row r="3" spans="1:256" ht="14.4" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9258,12 +9267,12 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="14.45" customHeight="1">
+    <row r="4" spans="1:256" ht="14.4" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9283,12 +9292,12 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="14.45" customHeight="1">
+    <row r="5" spans="1:256" ht="14.4" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -9308,12 +9317,12 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="14.45" customHeight="1">
+    <row r="6" spans="1:256" ht="14.4" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -9333,7 +9342,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="14.45" customHeight="1">
+    <row r="7" spans="1:256" ht="14.4" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -9354,7 +9363,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="14.45" customHeight="1">
+    <row r="8" spans="1:256" ht="14.4" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -9375,7 +9384,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="14.45" customHeight="1">
+    <row r="9" spans="1:256" ht="14.4" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -9396,7 +9405,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="14.45" customHeight="1">
+    <row r="10" spans="1:256" ht="14.4" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -9417,7 +9426,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="14.45" customHeight="1">
+    <row r="11" spans="1:256" ht="14.4" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -9438,7 +9447,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="14.45" customHeight="1">
+    <row r="12" spans="1:256" ht="14.4" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -9478,17 +9487,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="8.85546875" style="6" customWidth="1"/>
+    <col min="1" max="256" width="8.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="14.45" customHeight="1">
+    <row r="1" spans="1:256" ht="14.4" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9745,12 +9754,12 @@
       <c r="IU1" s="10"/>
       <c r="IV1" s="10"/>
     </row>
-    <row r="2" spans="1:256" ht="14.45" customHeight="1">
+    <row r="2" spans="1:256" ht="14.4" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -9768,12 +9777,12 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="14.45" customHeight="1">
+    <row r="3" spans="1:256" ht="14.4" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9791,12 +9800,12 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="14.45" customHeight="1">
+    <row r="4" spans="1:256" ht="14.4" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9814,7 +9823,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="14.45" customHeight="1">
+    <row r="5" spans="1:256" ht="14.4" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -9833,7 +9842,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="14.45" customHeight="1">
+    <row r="6" spans="1:256" ht="14.4" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -9852,7 +9861,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="14.45" customHeight="1">
+    <row r="7" spans="1:256" ht="14.4" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -9871,7 +9880,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="14.45" customHeight="1">
+    <row r="8" spans="1:256" ht="14.4" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -9890,7 +9899,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="14.45" customHeight="1">
+    <row r="9" spans="1:256" ht="14.4" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -9909,7 +9918,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="14.45" customHeight="1">
+    <row r="10" spans="1:256" ht="14.4" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -9928,7 +9937,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="14.45" customHeight="1">
+    <row r="11" spans="1:256" ht="14.4" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -9963,25 +9972,25 @@
   <dimension ref="A1:IQ91"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="127.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="251" width="8.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="127.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="251" width="8.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.45" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9989,7 +9998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.45" customHeight="1">
+    <row r="3" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9997,7 +10006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.45" customHeight="1">
+    <row r="4" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10005,7 +10014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.45" customHeight="1">
+    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10013,7 +10022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.45" customHeight="1">
+    <row r="6" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10021,7 +10030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.45" customHeight="1">
+    <row r="7" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10029,7 +10038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.45" customHeight="1">
+    <row r="8" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10037,7 +10046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.45" customHeight="1">
+    <row r="9" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10045,7 +10054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.45" customHeight="1">
+    <row r="10" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10053,7 +10062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.45" customHeight="1">
+    <row r="11" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10061,7 +10070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.45" customHeight="1">
+    <row r="12" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10069,7 +10078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.45" customHeight="1">
+    <row r="13" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10077,7 +10086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.45" customHeight="1">
+    <row r="14" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10085,7 +10094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.45" customHeight="1">
+    <row r="15" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10093,7 +10102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.45" customHeight="1">
+    <row r="16" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -10101,7 +10110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.45" customHeight="1">
+    <row r="17" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10109,7 +10118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.45" customHeight="1">
+    <row r="18" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10117,172 +10126,172 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.45" customHeight="1">
+    <row r="19" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.45" customHeight="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.45" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.45" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.45" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.45" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.45" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.45" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.45" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.45" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.45" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.45" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.45" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.45" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.45" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.45" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.45" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.45" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.45" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.45" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.45" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" customHeight="1">
@@ -10290,415 +10299,415 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.45" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.45" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.45" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.45" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.45" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.45" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.45" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.45" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.45" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.45" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.45" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.45" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.45" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17.45" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17.45" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17.45" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17.45" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17.45" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17.45" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17.45" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17.45" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17.45" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17.45" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17.45" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17.45" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17.45" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17.45" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17.45" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17.45" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17.45" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="17.45" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="17.45" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17.45" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="17.45" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="17.45" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="17.45" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="17.45" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="17.45" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="17.45" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="17.45" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="17.45" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="17.45" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="17.45" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="17.45" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="17.45" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="17.45" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="17.45" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="17.45" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="17.45" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="17.45" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="17.45" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17.399999999999999" customHeight="1">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -10719,22 +10728,22 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -10742,90 +10751,90 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -10843,37 +10852,37 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="10" customWidth="1"/>
-    <col min="8" max="21" width="8.85546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" style="8" customWidth="1"/>
-    <col min="23" max="257" width="8.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="10" customWidth="1"/>
+    <col min="8" max="21" width="8.88671875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="22.6640625" style="8" customWidth="1"/>
+    <col min="23" max="257" width="8.88671875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" ht="14.45" customHeight="1">
+    <row r="1" spans="1:257" ht="14.4" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>206</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>207</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -10891,7 +10900,7 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:257" ht="14.45" customHeight="1">
+    <row r="2" spans="1:257" ht="14.4" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10911,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -10929,7 +10938,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:257" ht="14.45" customHeight="1">
+    <row r="3" spans="1:257" ht="14.4" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10943,13 +10952,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -10967,7 +10976,7 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:257" ht="14.45" customHeight="1">
+    <row r="4" spans="1:257" ht="14.4" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10975,19 +10984,19 @@
         <v>17</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -11005,7 +11014,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:257" ht="14.45" customHeight="1">
+    <row r="5" spans="1:257" ht="14.4" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -11013,19 +11022,19 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="44">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -11043,7 +11052,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:257" ht="14.45" customHeight="1">
+    <row r="6" spans="1:257" ht="14.4" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -11063,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -11081,7 +11090,7 @@
       <c r="U6" s="4"/>
       <c r="V6"/>
     </row>
-    <row r="7" spans="1:257" ht="14.45" customHeight="1">
+    <row r="7" spans="1:257" ht="14.4" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -11095,13 +11104,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -11119,7 +11128,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:257" ht="14.45" customHeight="1">
+    <row r="8" spans="1:257" ht="14.4" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -11133,13 +11142,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -11157,12 +11166,12 @@
       <c r="U8" s="4"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:257" ht="14.45" customHeight="1">
+    <row r="9" spans="1:257" ht="14.4" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -11171,13 +11180,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -11195,12 +11204,12 @@
       <c r="U9" s="4"/>
       <c r="V9"/>
     </row>
-    <row r="10" spans="1:257" ht="14.45" customHeight="1">
+    <row r="10" spans="1:257" ht="14.4" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -11209,13 +11218,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -11233,12 +11242,12 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:257" ht="14.45" customHeight="1">
+    <row r="11" spans="1:257" ht="14.4" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -11247,13 +11256,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -11271,7 +11280,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:257" ht="14.45" customHeight="1">
+    <row r="12" spans="1:257" ht="14.4" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -11285,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -11309,7 +11318,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:257" ht="14.45" customHeight="1">
+    <row r="13" spans="1:257" ht="14.4" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -11323,13 +11332,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -11347,7 +11356,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:257" ht="14.45" customHeight="1">
+    <row r="14" spans="1:257" ht="14.4" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11361,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -11385,7 +11394,7 @@
       <c r="U14" s="4"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:257" ht="14.45" customHeight="1">
+    <row r="15" spans="1:257" ht="14.4" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -11644,7 +11653,7 @@
       <c r="IV15" s="10"/>
       <c r="IW15" s="10"/>
     </row>
-    <row r="16" spans="1:257" ht="14.45" customHeight="1">
+    <row r="16" spans="1:257" ht="14.4" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -11903,7 +11912,7 @@
       <c r="IV16" s="10"/>
       <c r="IW16" s="10"/>
     </row>
-    <row r="17" spans="1:257" ht="14.45" customHeight="1">
+    <row r="17" spans="1:257" ht="14.4" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -12162,7 +12171,7 @@
       <c r="IV17" s="10"/>
       <c r="IW17" s="10"/>
     </row>
-    <row r="18" spans="1:257" ht="14.45" customHeight="1">
+    <row r="18" spans="1:257" ht="14.4" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="42"/>
       <c r="C18" s="2"/>
@@ -12421,7 +12430,7 @@
       <c r="IV18" s="10"/>
       <c r="IW18" s="10"/>
     </row>
-    <row r="19" spans="1:257" ht="14.45" customHeight="1">
+    <row r="19" spans="1:257" ht="14.4" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="43"/>
@@ -12680,7 +12689,7 @@
       <c r="IV19" s="10"/>
       <c r="IW19" s="10"/>
     </row>
-    <row r="20" spans="1:257" ht="14.45" customHeight="1">
+    <row r="20" spans="1:257" ht="14.4" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
@@ -12939,7 +12948,7 @@
       <c r="IV20" s="10"/>
       <c r="IW20" s="10"/>
     </row>
-    <row r="21" spans="1:257" ht="14.45" customHeight="1">
+    <row r="21" spans="1:257" ht="14.4" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="42"/>
       <c r="C21" s="43"/>
@@ -13198,7 +13207,7 @@
       <c r="IV21" s="10"/>
       <c r="IW21" s="10"/>
     </row>
-    <row r="22" spans="1:257" ht="14.45" customHeight="1">
+    <row r="22" spans="1:257" ht="14.4" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="42"/>
       <c r="C22" s="43"/>
@@ -13457,7 +13466,7 @@
       <c r="IV22" s="10"/>
       <c r="IW22" s="10"/>
     </row>
-    <row r="23" spans="1:257" ht="14.45" customHeight="1">
+    <row r="23" spans="1:257" ht="14.4" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -13716,7 +13725,7 @@
       <c r="IV23" s="10"/>
       <c r="IW23" s="10"/>
     </row>
-    <row r="24" spans="1:257" ht="14.45" customHeight="1">
+    <row r="24" spans="1:257" ht="14.4" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -13986,6 +13995,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxKeywordTaxHTField xmlns="45be70f0-66b9-4629-a389-4b080fc0dfa6">
@@ -14033,7 +14051,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101008B0F08FECF9ACD44B69B0979475AA3A3" ma:contentTypeVersion="5" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="15e7cafbdefa31d60e781c5e4062628f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be70f0-66b9-4629-a389-4b080fc0dfa6" xmlns:ns3="cc54d3cb-87fe-4b6a-be2e-e1fd0be84e77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e6785b8b81ecd23d6e742c299b13f" ns2:_="" ns3:_="">
     <xsd:import namespace="45be70f0-66b9-4629-a389-4b080fc0dfa6"/>
@@ -14190,16 +14208,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4141748-E8CF-4376-BEDF-0CE4C9A34F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14209,7 +14226,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BF3E90-0828-4759-ACA7-3670C46D50E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14226,12 +14243,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC021B46-1420-4ED7-AC55-8BF0CD9341B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>